--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-New\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15705" windowHeight="5820" tabRatio="769" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2774,7 +2774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4722" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4677" uniqueCount="3558">
   <si>
     <t>Count</t>
   </si>
@@ -12110,9 +12110,6 @@
     <t>Asset Owner</t>
   </si>
   <si>
-    <t>Asset Location</t>
-  </si>
-  <si>
     <t>Insurance Information</t>
   </si>
   <si>
@@ -13455,6 +13452,9 @@
   </si>
   <si>
     <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>Asset Owner &amp; Asset Location Address</t>
   </si>
 </sst>
 </file>
@@ -14180,196 +14180,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <fill>
         <patternFill>
@@ -14948,18 +14759,193 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15509,8 +15495,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15520,7 +15506,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15530,7 +15516,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15540,7 +15526,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15550,7 +15536,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15560,7 +15546,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15570,7 +15556,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15580,7 +15566,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15590,7 +15576,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15600,8 +15586,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="122"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15611,8 +15597,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="120"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15622,8 +15608,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15633,7 +15619,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15643,7 +15629,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15653,7 +15639,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15663,7 +15649,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15673,7 +15659,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15683,7 +15669,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15693,7 +15679,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15703,7 +15689,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15713,7 +15699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15723,7 +15709,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15733,8 +15719,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15743,7 +15729,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15753,7 +15739,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15763,7 +15749,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15772,7 +15758,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15782,7 +15768,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15792,7 +15778,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15802,7 +15788,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15812,7 +15798,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15822,7 +15808,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15832,7 +15818,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15842,8 +15828,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15853,7 +15839,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15863,7 +15849,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15873,7 +15859,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15883,7 +15869,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15893,7 +15879,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15903,7 +15889,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15913,7 +15899,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15923,7 +15909,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15933,8 +15919,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="90"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15944,8 +15930,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="88"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15955,8 +15941,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15966,8 +15952,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="86"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15977,8 +15963,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="84"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15988,7 +15974,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15998,7 +15984,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16008,7 +15994,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16018,7 +16004,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16028,7 +16014,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16358,7 +16344,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
@@ -16410,13 +16396,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>13</v>
@@ -16425,17 +16411,17 @@
         <v>9</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -16475,25 +16461,25 @@
         <v>125</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16513,25 +16499,25 @@
         <v>159</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16645,12 +16631,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="expression" dxfId="108" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD20">
-    <cfRule type="expression" dxfId="107" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16710,12 +16696,12 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -16727,7 +16713,7 @@
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
@@ -16769,19 +16755,19 @@
         <v>164</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16886,7 +16872,7 @@
         <v>335</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16957,16 +16943,16 @@
         <v>3084</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>3431</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>3432</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>3433</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>3434</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -16996,7 +16982,7 @@
     </row>
     <row r="29" spans="1:6" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="97" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B29" s="98"/>
       <c r="C29" s="98"/>
@@ -17066,7 +17052,7 @@
     </row>
     <row r="33" spans="1:6" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B33" s="112"/>
       <c r="C33" s="112"/>
@@ -17246,7 +17232,7 @@
     </row>
     <row r="43" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>179</v>
@@ -17266,7 +17252,7 @@
     </row>
     <row r="44" spans="1:6" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="109" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="110"/>
@@ -17276,62 +17262,62 @@
     </row>
     <row r="45" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="75" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E45" s="76" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="C46" s="76" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E46" s="76" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="75" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="C47" s="76" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D47" s="76" t="s">
         <v>3435</v>
       </c>
-      <c r="D47" s="76" t="s">
+      <c r="E47" s="76" t="s">
         <v>3436</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="F47" s="76" t="s">
         <v>3437</v>
-      </c>
-      <c r="F47" s="76" t="s">
-        <v>3438</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17339,19 +17325,19 @@
         <v>182</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="C48" s="76" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D48" s="76" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E48" s="76" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="F48" s="76" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.25">
@@ -17369,19 +17355,19 @@
         <v>185</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17389,19 +17375,19 @@
         <v>186</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E51" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17409,19 +17395,19 @@
         <v>187</v>
       </c>
       <c r="B52" s="77" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E52" s="77" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17429,19 +17415,19 @@
         <v>188</v>
       </c>
       <c r="B53" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="C53" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="F53" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17449,19 +17435,19 @@
         <v>189</v>
       </c>
       <c r="B54" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E54" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="F54" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17469,19 +17455,19 @@
         <v>190</v>
       </c>
       <c r="B55" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E55" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="F55" s="77" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -17489,209 +17475,209 @@
         <v>191</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="F56" s="77" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="75" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B57" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E57" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="F57" s="77" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="108" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>3439</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11" t="s">
         <v>3440</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>3441</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>3442</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>3443</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="E60" s="11" t="s">
         <v>3444</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>3445</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>3446</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>3447</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>3448</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>3449</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>3451</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>3452</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>3453</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>3454</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>3439</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>3440</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>3441</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>3455</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>3456</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>3457</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>3458</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>3361</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>3362</v>
-      </c>
       <c r="C66" s="11" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -17701,7 +17687,7 @@
     </row>
     <row r="68" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="87" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B68" s="88"/>
       <c r="C68" s="88"/>
@@ -17711,27 +17697,27 @@
     </row>
     <row r="69" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>3365</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>3366</v>
-      </c>
       <c r="C69" s="11" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>3459</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="E69" s="11" t="s">
         <v>3460</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>3461</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>3462</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="89" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B70" s="89"/>
       <c r="C70" s="89"/>
@@ -17741,7 +17727,7 @@
     </row>
     <row r="71" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -17751,147 +17737,147 @@
     </row>
     <row r="72" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>3369</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>3370</v>
-      </c>
       <c r="C72" s="11" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>3463</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>3464</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>3465</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>3371</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>3372</v>
-      </c>
       <c r="C73" s="11" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>3467</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="E73" s="11" t="s">
         <v>3468</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>3469</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>3373</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>3374</v>
-      </c>
       <c r="C74" s="11" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>3471</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>3472</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>3473</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>3375</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>3376</v>
-      </c>
       <c r="C75" s="11" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>3377</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>3378</v>
-      </c>
       <c r="C76" s="11" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>3475</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="E76" s="11" t="s">
         <v>3476</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>3477</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>3478</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>3379</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>3380</v>
-      </c>
       <c r="C77" s="11" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>3479</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="E77" s="11" t="s">
         <v>3480</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>3481</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>3482</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="75" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C78" s="76" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D78" s="76" t="s">
         <v>3483</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="E78" s="76" t="s">
         <v>3484</v>
       </c>
-      <c r="E78" s="76" t="s">
+      <c r="F78" s="76" t="s">
         <v>3485</v>
-      </c>
-      <c r="F78" s="76" t="s">
-        <v>3486</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -17901,7 +17887,7 @@
     </row>
     <row r="80" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="97" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B80" s="98"/>
       <c r="C80" s="98"/>
@@ -17931,33 +17917,33 @@
     </row>
     <row r="82" spans="1:6" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="78" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>3487</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>3488</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="F82" s="16" t="s">
         <v>3489</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="121" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B84" s="122"/>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="81" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B85" s="82">
         <v>1</v>
@@ -17965,13 +17951,13 @@
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="123" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B86" s="124"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B87" s="82">
         <f>B85+1</f>
@@ -17980,7 +17966,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="120" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B88" s="120"/>
     </row>
@@ -17996,42 +17982,42 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule type="expression" dxfId="106" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 A22:XFD28 A30:XFD32 A34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 A36:XFD43">
-    <cfRule type="expression" dxfId="105" priority="7">
+    <cfRule type="expression" dxfId="42" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 A22:XFD28 A30:XFD32 A34:XFD34 A81:XFD82 A14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 A36:XFD43">
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:XFD20">
-    <cfRule type="expression" dxfId="103" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="101" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="100" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18137,12 +18123,12 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -18154,7 +18140,7 @@
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B11" s="98"/>
       <c r="C11" s="98"/>
@@ -18273,7 +18259,7 @@
     </row>
     <row r="19" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B19" s="98"/>
       <c r="C19" s="98"/>
@@ -18626,19 +18612,19 @@
         <v>225</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18723,7 +18709,7 @@
     </row>
     <row r="42" spans="1:6" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="97" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B42" s="98"/>
       <c r="C42" s="98"/>
@@ -18836,24 +18822,24 @@
         <v>236</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="B49" s="79">
         <v>175961000</v>
@@ -18873,7 +18859,7 @@
     </row>
     <row r="50" spans="1:6" s="80" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="80" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B50" s="80" t="s">
         <v>39</v>
@@ -18893,147 +18879,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="98" priority="31">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="97" priority="26">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="96" priority="30">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="95" priority="29">
+    <cfRule type="expression" dxfId="32" priority="29">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="94" priority="28">
+    <cfRule type="expression" dxfId="31" priority="28">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="93" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="92" priority="25">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="91" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="90" priority="23">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="89" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="88" priority="21">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD48">
-    <cfRule type="expression" dxfId="87" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="86" priority="16">
+    <cfRule type="expression" dxfId="23" priority="16">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="85" priority="15">
+    <cfRule type="expression" dxfId="22" priority="15">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A18">
-    <cfRule type="expression" dxfId="84" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"Discount",#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="83" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="82" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="81" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="75" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="74" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="73" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="72" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19097,6 +19083,12 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>IF(B$20="No",Master!$CL$5:$CL$6)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26:F26 B28:F28 B32:F32 B30:F30 B34:F34 B40:F40</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>AND('6.TabApplicationData'!B$18="Arrear",B$46="Yes",ISNUMBER(B47))</xm:f>
@@ -19114,12 +19106,6 @@
             <xm:f>IF('6.TabApplicationData'!B$18="Arrear",Master!$CL$5:$CL$6)</xm:f>
           </x14:formula1>
           <xm:sqref>B46:F46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>IF(B$20="No",Master!$CL$5:$CL$6)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B26:F26 B28:F28 B32:F32 B30:F30 B34:F34 B40:F40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -19163,13 +19149,13 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -19211,7 +19197,7 @@
         <v>2494</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3091</v>
@@ -19222,7 +19208,7 @@
         <v>2495</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -19328,12 +19314,12 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -19376,7 +19362,7 @@
         <v>241</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19398,7 +19384,7 @@
         <v>245</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19457,12 +19443,12 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -19690,13 +19676,13 @@
         <v>2532</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>3493</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>3494</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19704,13 +19690,13 @@
         <v>196</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C30" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D30" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D30" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19718,13 +19704,13 @@
         <v>2509</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19732,13 +19718,13 @@
         <v>2521</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C32" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D32" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D32" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19746,13 +19732,13 @@
         <v>2522</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19760,13 +19746,13 @@
         <v>2510</v>
       </c>
       <c r="B34" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C34" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D34" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D34" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19774,13 +19760,13 @@
         <v>2500</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19788,13 +19774,13 @@
         <v>2501</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C36" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D36" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D36" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19802,13 +19788,13 @@
         <v>2502</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19816,13 +19802,13 @@
         <v>2503</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C38" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D38" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D38" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19830,13 +19816,13 @@
         <v>2504</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19844,13 +19830,13 @@
         <v>2505</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C40" s="114" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D40" s="114" t="s">
         <v>3495</v>
-      </c>
-      <c r="D40" s="114" t="s">
-        <v>3496</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19858,13 +19844,13 @@
         <v>2506</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>3497</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>3498</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -19888,13 +19874,13 @@
         <v>2532</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>3499</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19910,13 +19896,13 @@
         <v>2509</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19932,13 +19918,13 @@
         <v>2500</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19954,13 +19940,13 @@
         <v>2502</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19976,13 +19962,13 @@
         <v>2504</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -20020,32 +20006,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="67" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="66" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20113,12 +20099,12 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -20221,12 +20207,12 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -20253,7 +20239,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20269,7 +20255,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20285,7 +20271,7 @@
         <v>2492</v>
       </c>
       <c r="B17" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20395,7 +20381,7 @@
   <sheetData>
     <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>2533</v>
@@ -20407,7 +20393,7 @@
         <v>2536</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>2533</v>
@@ -20533,13 +20519,13 @@
         <v>3086</v>
       </c>
       <c r="CL1" s="41" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="CO1" s="27" t="s">
         <v>57</v>
       </c>
       <c r="CQ1" s="27" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="CS1" s="27" t="s">
         <v>148</v>
@@ -20548,46 +20534,46 @@
         <v>197</v>
       </c>
       <c r="CW1" s="27" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="CY1" s="27" t="s">
         <v>202</v>
       </c>
       <c r="DA1" s="27" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="DC1" s="27" t="s">
         <v>236</v>
       </c>
       <c r="DE1" s="47" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="DG1" s="27" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="DH1" s="27" t="s">
         <v>2533</v>
       </c>
       <c r="DJ1" s="27" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="DK1" s="27" t="s">
         <v>2533</v>
       </c>
       <c r="DM1" s="27" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="DN1" s="27" t="s">
         <v>2533</v>
       </c>
       <c r="DP1" s="27" t="s">
+        <v>3290</v>
+      </c>
+      <c r="DQ1" s="27" t="s">
         <v>3291</v>
       </c>
-      <c r="DQ1" s="27" t="s">
-        <v>3292</v>
-      </c>
       <c r="DS1" s="27" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
@@ -20604,10 +20590,10 @@
         <v>248</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>249</v>
@@ -20734,7 +20720,7 @@
         <v>444</v>
       </c>
       <c r="CQ2" s="27" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="CS2" s="27" t="s">
         <v>56</v>
@@ -20743,7 +20729,7 @@
         <v>198</v>
       </c>
       <c r="CW2" s="27" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="CY2" s="27" t="s">
         <v>203</v>
@@ -20776,13 +20762,13 @@
         <v>267</v>
       </c>
       <c r="DP2" s="27" t="s">
+        <v>3292</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
         <v>3293</v>
       </c>
-      <c r="DQ2" s="27" t="s">
-        <v>3294</v>
-      </c>
       <c r="DS2" s="27" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.25">
@@ -20799,10 +20785,10 @@
         <v>269</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>270</v>
@@ -20931,7 +20917,7 @@
         <v>347</v>
       </c>
       <c r="CQ3" s="27" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="CS3" s="27" t="s">
         <v>52</v>
@@ -20940,16 +20926,16 @@
         <v>163</v>
       </c>
       <c r="CW3" s="27" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="CY3" s="27" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="DA3" s="27" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="DC3" s="27" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="DE3" s="29" t="s">
         <v>161</v>
@@ -20973,13 +20959,13 @@
         <v>643</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="DQ3" s="27" t="s">
         <v>158</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
@@ -20999,7 +20985,7 @@
         <v>298</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>35</v>
@@ -21113,13 +21099,13 @@
         <v>467</v>
       </c>
       <c r="CU4" s="27" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="CW4" s="27" t="s">
         <v>207</v>
       </c>
       <c r="CY4" s="27" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="DG4" s="27" t="s">
         <v>338</v>
@@ -21140,13 +21126,13 @@
         <v>650</v>
       </c>
       <c r="DP4" s="27" t="s">
+        <v>3295</v>
+      </c>
+      <c r="DQ4" s="27" t="s">
         <v>3296</v>
       </c>
-      <c r="DQ4" s="27" t="s">
-        <v>3297</v>
-      </c>
       <c r="DS4" s="27" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
@@ -21166,7 +21152,7 @@
         <v>34</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>322</v>
@@ -21262,13 +21248,13 @@
         <v>3092</v>
       </c>
       <c r="CU5" s="27" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="CW5" s="27" t="s">
         <v>201</v>
       </c>
       <c r="CY5" s="27" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="DG5" s="27" t="s">
         <v>473</v>
@@ -21289,13 +21275,13 @@
         <v>657</v>
       </c>
       <c r="DP5" s="27" t="s">
+        <v>3297</v>
+      </c>
+      <c r="DQ5" s="27" t="s">
         <v>3298</v>
       </c>
-      <c r="DQ5" s="27" t="s">
-        <v>3299</v>
-      </c>
       <c r="DS5" s="27" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
@@ -21393,10 +21379,10 @@
         <v>346</v>
       </c>
       <c r="CU6" s="27" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="CW6" s="27" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="CY6" s="27" t="s">
         <v>208</v>
@@ -21420,10 +21406,10 @@
         <v>664</v>
       </c>
       <c r="DP6" s="27" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="DQ6" s="27" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
@@ -21440,10 +21426,10 @@
         <v>358</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>359</v>
@@ -21509,10 +21495,10 @@
         <v>18</v>
       </c>
       <c r="CQ7" s="27" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="CY7" s="27" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="DG7" s="27" t="s">
         <v>574</v>
@@ -21527,10 +21513,10 @@
         <v>671</v>
       </c>
       <c r="DP7" s="27" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="DQ7" s="27" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
@@ -21547,10 +21533,10 @@
         <v>371</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>372</v>
@@ -21613,10 +21599,10 @@
         <v>374</v>
       </c>
       <c r="CQ8" s="27" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="CY8" s="27" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="DG8" s="27" t="s">
         <v>581</v>
@@ -21631,10 +21617,10 @@
         <v>678</v>
       </c>
       <c r="DP8" s="27" t="s">
+        <v>3301</v>
+      </c>
+      <c r="DQ8" s="27" t="s">
         <v>3302</v>
-      </c>
-      <c r="DQ8" s="27" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
@@ -21651,10 +21637,10 @@
         <v>382</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>383</v>
@@ -21724,10 +21710,10 @@
         <v>685</v>
       </c>
       <c r="DP9" s="27" t="s">
+        <v>3303</v>
+      </c>
+      <c r="DQ9" s="27" t="s">
         <v>3304</v>
-      </c>
-      <c r="DQ9" s="27" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
@@ -21744,10 +21730,10 @@
         <v>396</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>397</v>
@@ -21771,7 +21757,7 @@
         <v>2571</v>
       </c>
       <c r="AX10" s="27" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="BB10" s="27" t="s">
         <v>3044</v>
@@ -21811,10 +21797,10 @@
         <v>975</v>
       </c>
       <c r="DP10" s="27" t="s">
+        <v>3305</v>
+      </c>
+      <c r="DQ10" s="27" t="s">
         <v>3306</v>
-      </c>
-      <c r="DQ10" s="27" t="s">
-        <v>3307</v>
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
@@ -21831,10 +21817,10 @@
         <v>407</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>408</v>
@@ -21888,10 +21874,10 @@
         <v>981</v>
       </c>
       <c r="DP11" s="27" t="s">
+        <v>3307</v>
+      </c>
+      <c r="DQ11" s="27" t="s">
         <v>3308</v>
-      </c>
-      <c r="DQ11" s="27" t="s">
-        <v>3309</v>
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
@@ -21911,7 +21897,7 @@
         <v>418</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>419</v>
@@ -21935,7 +21921,7 @@
         <v>2573</v>
       </c>
       <c r="AX12" s="27" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="BB12" s="27" t="s">
         <v>3046</v>
@@ -21963,10 +21949,10 @@
         <v>988</v>
       </c>
       <c r="DP12" s="27" t="s">
+        <v>3309</v>
+      </c>
+      <c r="DQ12" s="27" t="s">
         <v>3310</v>
-      </c>
-      <c r="DQ12" s="27" t="s">
-        <v>3311</v>
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
@@ -21983,10 +21969,10 @@
         <v>428</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>429</v>
@@ -22034,10 +22020,10 @@
         <v>994</v>
       </c>
       <c r="DP13" s="27" t="s">
+        <v>3311</v>
+      </c>
+      <c r="DQ13" s="27" t="s">
         <v>3312</v>
-      </c>
-      <c r="DQ13" s="27" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
@@ -22054,10 +22040,10 @@
         <v>438</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>439</v>
@@ -22106,10 +22092,10 @@
         <v>1001</v>
       </c>
       <c r="DP14" s="27" t="s">
+        <v>3313</v>
+      </c>
+      <c r="DQ14" s="27" t="s">
         <v>3314</v>
-      </c>
-      <c r="DQ14" s="27" t="s">
-        <v>3315</v>
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
@@ -22126,10 +22112,10 @@
         <v>448</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="M15" s="27" t="s">
         <v>449</v>
@@ -22171,10 +22157,10 @@
         <v>1008</v>
       </c>
       <c r="DP15" s="27" t="s">
+        <v>3315</v>
+      </c>
+      <c r="DQ15" s="27" t="s">
         <v>3316</v>
-      </c>
-      <c r="DQ15" s="27" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
@@ -22191,10 +22177,10 @@
         <v>457</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="M16" s="27" t="s">
         <v>458</v>
@@ -22227,10 +22213,10 @@
         <v>868</v>
       </c>
       <c r="DP16" s="27" t="s">
+        <v>3317</v>
+      </c>
+      <c r="DQ16" s="27" t="s">
         <v>3318</v>
-      </c>
-      <c r="DQ16" s="27" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="17" spans="1:121" x14ac:dyDescent="0.25">
@@ -22247,7 +22233,7 @@
         <v>466</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>467</v>
@@ -22283,10 +22269,10 @@
         <v>875</v>
       </c>
       <c r="DP17" s="27" t="s">
+        <v>3319</v>
+      </c>
+      <c r="DQ17" s="27" t="s">
         <v>3320</v>
-      </c>
-      <c r="DQ17" s="27" t="s">
-        <v>3321</v>
       </c>
     </row>
     <row r="18" spans="1:121" x14ac:dyDescent="0.25">
@@ -22303,10 +22289,10 @@
         <v>476</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>477</v>
@@ -22333,10 +22319,10 @@
         <v>887</v>
       </c>
       <c r="DP18" s="27" t="s">
+        <v>3321</v>
+      </c>
+      <c r="DQ18" s="27" t="s">
         <v>3322</v>
-      </c>
-      <c r="DQ18" s="27" t="s">
-        <v>3323</v>
       </c>
     </row>
     <row r="19" spans="1:121" x14ac:dyDescent="0.25">
@@ -22353,10 +22339,10 @@
         <v>485</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="M19" s="27" t="s">
         <v>486</v>
@@ -22383,10 +22369,10 @@
         <v>894</v>
       </c>
       <c r="DP19" s="27" t="s">
+        <v>3323</v>
+      </c>
+      <c r="DQ19" s="27" t="s">
         <v>3324</v>
-      </c>
-      <c r="DQ19" s="27" t="s">
-        <v>3325</v>
       </c>
     </row>
     <row r="20" spans="1:121" x14ac:dyDescent="0.25">
@@ -22403,10 +22389,10 @@
         <v>494</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>495</v>
@@ -22433,10 +22419,10 @@
         <v>901</v>
       </c>
       <c r="DP20" s="27" t="s">
+        <v>3325</v>
+      </c>
+      <c r="DQ20" s="27" t="s">
         <v>3326</v>
-      </c>
-      <c r="DQ20" s="27" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="21" spans="1:121" x14ac:dyDescent="0.25">
@@ -22453,10 +22439,10 @@
         <v>503</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>504</v>
@@ -22483,10 +22469,10 @@
         <v>908</v>
       </c>
       <c r="DP21" s="27" t="s">
+        <v>3327</v>
+      </c>
+      <c r="DQ21" s="27" t="s">
         <v>3328</v>
-      </c>
-      <c r="DQ21" s="27" t="s">
-        <v>3329</v>
       </c>
     </row>
     <row r="22" spans="1:121" x14ac:dyDescent="0.25">
@@ -22503,10 +22489,10 @@
         <v>512</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>513</v>
@@ -22533,10 +22519,10 @@
         <v>915</v>
       </c>
       <c r="DP22" s="27" t="s">
+        <v>3329</v>
+      </c>
+      <c r="DQ22" s="27" t="s">
         <v>3330</v>
-      </c>
-      <c r="DQ22" s="27" t="s">
-        <v>3331</v>
       </c>
     </row>
     <row r="23" spans="1:121" x14ac:dyDescent="0.25">
@@ -22553,10 +22539,10 @@
         <v>520</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>521</v>
@@ -22583,10 +22569,10 @@
         <v>922</v>
       </c>
       <c r="DP23" s="27" t="s">
+        <v>3331</v>
+      </c>
+      <c r="DQ23" s="27" t="s">
         <v>3332</v>
-      </c>
-      <c r="DQ23" s="27" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="24" spans="1:121" x14ac:dyDescent="0.25">
@@ -22603,10 +22589,10 @@
         <v>528</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="M24" s="27" t="s">
         <v>529</v>
@@ -22615,7 +22601,7 @@
         <v>530</v>
       </c>
       <c r="AN24" s="27" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="AR24" s="27" t="s">
         <v>531</v>
@@ -22647,10 +22633,10 @@
         <v>535</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="M25" s="27" t="s">
         <v>536</v>
@@ -22659,7 +22645,7 @@
         <v>537</v>
       </c>
       <c r="AN25" s="27" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="AR25" s="27" t="s">
         <v>538</v>
@@ -22691,10 +22677,10 @@
         <v>542</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="M26" s="27" t="s">
         <v>543</v>
@@ -22703,7 +22689,7 @@
         <v>544</v>
       </c>
       <c r="AN26" s="27" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="AR26" s="27" t="s">
         <v>545</v>
@@ -22735,10 +22721,10 @@
         <v>549</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="M27" s="27" t="s">
         <v>550</v>
@@ -22747,7 +22733,7 @@
         <v>551</v>
       </c>
       <c r="AN27" s="27" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="AR27" s="27" t="s">
         <v>552</v>
@@ -22756,7 +22742,7 @@
         <v>2588</v>
       </c>
       <c r="CH27" s="27" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="DG27" s="27" t="s">
         <v>949</v>
@@ -22779,10 +22765,10 @@
         <v>556</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="M28" s="27" t="s">
         <v>557</v>
@@ -22791,7 +22777,7 @@
         <v>558</v>
       </c>
       <c r="AN28" s="27" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="AR28" s="27" t="s">
         <v>559</v>
@@ -22800,7 +22786,7 @@
         <v>2589</v>
       </c>
       <c r="CH28" s="27" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="DG28" s="27" t="s">
         <v>955</v>
@@ -22823,10 +22809,10 @@
         <v>563</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="M29" s="27" t="s">
         <v>564</v>
@@ -22835,7 +22821,7 @@
         <v>565</v>
       </c>
       <c r="AN29" s="27" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="AR29" s="27" t="s">
         <v>566</v>
@@ -22844,7 +22830,7 @@
         <v>2590</v>
       </c>
       <c r="CH29" s="27" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="DG29" s="27" t="s">
         <v>962</v>
@@ -22867,10 +22853,10 @@
         <v>570</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="M30" s="27" t="s">
         <v>571</v>
@@ -30818,7 +30804,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B4" sqref="A4:B4"/>
     </sheetView>
@@ -30854,17 +30840,17 @@
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B4" s="115">
         <f>IF(B14="Input Data",COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(B14="LookUp",COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,"")))</f>
@@ -30901,7 +30887,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -30909,7 +30895,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -30939,49 +30925,49 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>279</v>
@@ -31001,7 +30987,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>60</v>
@@ -31026,15 +31012,15 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
@@ -31042,7 +31028,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -31050,7 +31036,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B27" s="17">
         <v>11530</v>
@@ -31058,31 +31044,31 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>50</v>
@@ -31107,27 +31093,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="146" priority="5">
+    <cfRule type="expression" dxfId="81" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="145" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="144" priority="3">
+    <cfRule type="expression" dxfId="79" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="143" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="142" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31185,23 +31171,23 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B4" s="115">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="Input Data",B14="Public"),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,""))))))</f>
@@ -31254,10 +31240,10 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>52</v>
@@ -31268,22 +31254,22 @@
     </row>
     <row r="15" spans="1:6" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="100" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -31291,15 +31277,15 @@
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>19</v>
@@ -31307,7 +31293,7 @@
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>20</v>
@@ -31328,17 +31314,17 @@
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>24</v>
@@ -31352,7 +31338,7 @@
     </row>
     <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -31369,7 +31355,7 @@
     </row>
     <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>368</v>
@@ -31383,7 +31369,7 @@
     </row>
     <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -31400,25 +31386,25 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="B30" s="84"/>
       <c r="C30" s="32" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="D30" s="84"/>
     </row>
     <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>25</v>
@@ -31426,21 +31412,21 @@
     </row>
     <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -31454,10 +31440,10 @@
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31466,13 +31452,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="B37" s="17" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -31493,24 +31479,24 @@
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="C39" s="17">
         <v>70</v>
@@ -31518,7 +31504,7 @@
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>54</v>
@@ -31526,7 +31512,7 @@
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>54</v>
@@ -31534,7 +31520,7 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>54</v>
@@ -31542,12 +31528,12 @@
     </row>
     <row r="43" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="100" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="B44" s="17" t="e">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -31564,7 +31550,7 @@
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>35</v>
@@ -31594,22 +31580,22 @@
     </row>
     <row r="48" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="100" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -31617,12 +31603,12 @@
     </row>
     <row r="52" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -31630,7 +31616,7 @@
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B54" s="2" t="e">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
@@ -31647,12 +31633,12 @@
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>279</v>
@@ -31666,7 +31652,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>60</v>
@@ -31680,7 +31666,7 @@
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B58" s="17">
         <v>50</v>
@@ -31694,7 +31680,7 @@
     </row>
     <row r="59" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>54</v>
@@ -31708,7 +31694,7 @@
     </row>
     <row r="60" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>54</v>
@@ -31722,34 +31708,34 @@
     </row>
     <row r="61" spans="1:4" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="96" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="B64" s="17">
         <v>1297356971</v>
@@ -31757,7 +31743,7 @@
     </row>
     <row r="65" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -31774,21 +31760,21 @@
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B67" s="17">
         <v>30</v>
@@ -31802,7 +31788,7 @@
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>54</v>
@@ -31821,7 +31807,7 @@
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>157</v>
@@ -31835,21 +31821,21 @@
     </row>
     <row r="71" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B72" s="17">
         <v>1</v>
@@ -31863,7 +31849,7 @@
     </row>
     <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B73" s="17">
         <v>1</v>
@@ -31877,7 +31863,7 @@
     </row>
     <row r="74" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B74" s="17">
         <v>11530</v>
@@ -31891,49 +31877,49 @@
     </row>
     <row r="75" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>49</v>
@@ -31947,37 +31933,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="141" priority="8">
+    <cfRule type="expression" dxfId="76" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="140" priority="10">
+    <cfRule type="expression" dxfId="75" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="139" priority="9">
+    <cfRule type="expression" dxfId="74" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="138" priority="6">
+    <cfRule type="expression" dxfId="73" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="137" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="136" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="135" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32070,7 +32056,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>9</v>
@@ -32087,20 +32073,20 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B2" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B4" s="115">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+COUNTIFS($A39:$A46,"*$*",B39:B46,""),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -32186,7 +32172,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -32196,7 +32182,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -32206,7 +32192,7 @@
     </row>
     <row r="17" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -32216,7 +32202,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>14</v>
@@ -32236,27 +32222,27 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>19</v>
@@ -32276,7 +32262,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2485</v>
@@ -32316,7 +32302,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>274</v>
@@ -32336,27 +32322,27 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>276</v>
@@ -32376,7 +32362,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>25</v>
@@ -32396,42 +32382,42 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="C27" s="61" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D27" s="61" t="s">
         <v>3395</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="E27" s="61" t="s">
         <v>3396</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="F27" s="61" t="s">
         <v>3397</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>3398</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32446,42 +32432,42 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -32491,7 +32477,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -32516,7 +32502,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>35</v>
@@ -32606,47 +32592,47 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>158</v>
@@ -32666,7 +32652,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>43</v>
@@ -32686,7 +32672,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>45</v>
@@ -32706,7 +32692,7 @@
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>45</v>
@@ -32726,7 +32712,7 @@
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2481</v>
@@ -32746,7 +32732,7 @@
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>49</v>
@@ -32766,22 +32752,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="133" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="132" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="131" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32950,17 +32936,17 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="B4" s="115">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -33042,7 +33028,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -33052,7 +33038,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -33062,7 +33048,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>58</v>
@@ -33082,47 +33068,47 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>279</v>
@@ -33142,7 +33128,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>60</v>
@@ -33187,27 +33173,27 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -33227,7 +33213,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -33247,27 +33233,27 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>3399</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>3400</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3401</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3402</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>61</v>
@@ -33287,7 +33273,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>61</v>
@@ -33307,7 +33293,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2481</v>
@@ -33327,7 +33313,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>48</v>
@@ -33347,17 +33333,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="130" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="129" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="128" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33477,12 +33463,12 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33509,7 +33495,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33517,7 +33503,7 @@
         <v>2487</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33525,7 +33511,7 @@
         <v>2488</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33533,7 +33519,7 @@
         <v>2489</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33541,7 +33527,7 @@
         <v>2490</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33549,7 +33535,7 @@
         <v>2491</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -33557,7 +33543,7 @@
         <v>134</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
     </row>
   </sheetData>
@@ -33605,22 +33591,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>9</v>
@@ -33628,12 +33614,12 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33699,31 +33685,31 @@
         <v>65</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>3150</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>3151</v>
-      </c>
       <c r="H14" s="17" t="s">
+        <v>3147</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>3148</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>3149</v>
-      </c>
       <c r="J14" s="17" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33808,7 +33794,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="topRight" activeCell="C50" sqref="C50"/>
@@ -33839,12 +33825,12 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33867,16 +33853,16 @@
         <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>3404</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>3405</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>3406</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3407</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33889,19 +33875,19 @@
         <v>72</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33922,16 +33908,16 @@
         <v>330</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>3408</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>3409</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3410</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3411</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34154,19 +34140,19 @@
         <v>40</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>3412</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>3413</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>3414</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34234,19 +34220,19 @@
         <v>46</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34254,19 +34240,19 @@
         <v>44</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34274,19 +34260,19 @@
         <v>97</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34489,19 +34475,19 @@
         <v>120</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>3416</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="E58" s="32" t="s">
         <v>3417</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>3418</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>3419</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34571,32 +34557,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="expression" dxfId="127" priority="7">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:XFD26">
-    <cfRule type="expression" dxfId="126" priority="6">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36 G31:XFD37 A31:F34 A37:F37">
-    <cfRule type="expression" dxfId="125" priority="5">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:XFD52">
-    <cfRule type="expression" dxfId="124" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="123" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="122" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34693,12 +34679,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="B45" sqref="B45:G45"/>
+      <selection pane="topRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34727,12 +34713,12 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -34767,22 +34753,22 @@
         <v>125</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34790,22 +34776,22 @@
         <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34813,22 +34799,22 @@
         <v>127</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -34844,25 +34830,25 @@
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>3168</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>3169</v>
-      </c>
       <c r="C17" s="17" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>3420</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>3421</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3422</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>3423</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>3424</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34870,22 +34856,22 @@
         <v>128</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34916,22 +34902,22 @@
         <v>130</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34939,22 +34925,22 @@
         <v>131</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34962,22 +34948,22 @@
         <v>132</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35157,27 +35143,27 @@
         <v>142</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B32" s="68">
         <v>1238904</v>
@@ -35200,7 +35186,7 @@
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -35225,22 +35211,22 @@
         <v>143</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>3425</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>3426</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>3427</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>3428</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -35282,22 +35268,22 @@
         <v>145</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35385,22 +35371,22 @@
         <v>149</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35506,30 +35492,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>156</v>
       </c>
@@ -35552,101 +35538,89 @@
         <v>1231417</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+    <row r="51" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="101" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="B52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
+      <c r="B53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="B54" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>42</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -35667,53 +35641,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>40242</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>40242</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D57" s="2">
         <v>40242</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E57" s="2">
         <v>40242</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F57" s="2">
         <v>40242</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="2">
         <v>40242</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>44</v>
       </c>
@@ -35736,366 +35710,161 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-    </row>
-    <row r="61" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>3233</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="2">
-        <v>40242</v>
-      </c>
-      <c r="C66" s="2">
-        <v>40242</v>
-      </c>
-      <c r="D66" s="2">
-        <v>40242</v>
-      </c>
-      <c r="E66" s="2">
-        <v>40242</v>
-      </c>
-      <c r="F66" s="2">
-        <v>40242</v>
-      </c>
-      <c r="G66" s="2">
-        <v>40242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>3161</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>3160</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>3160</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>3160</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>3231</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>3231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="101" t="s">
+      <c r="B60" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>3230</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="101" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="67" t="s">
         <v>3170</v>
       </c>
-      <c r="B70" s="102"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="67" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B71" s="35" t="s">
+      <c r="B62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="121" priority="13">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule type="expression" dxfId="120" priority="12">
+    <cfRule type="expression" dxfId="55" priority="12">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule type="expression" dxfId="119" priority="11">
+    <cfRule type="expression" dxfId="54" priority="11">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:XFD59">
-    <cfRule type="expression" dxfId="118" priority="10">
+  <conditionalFormatting sqref="A42:XFD50">
+    <cfRule type="expression" dxfId="53" priority="10">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:XFD59">
-    <cfRule type="expression" dxfId="117" priority="9">
-      <formula>A$51="Yes"</formula>
+  <conditionalFormatting sqref="A54:A60 H54:XFD60">
+    <cfRule type="expression" dxfId="52" priority="7">
+      <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:XFD52">
-    <cfRule type="expression" dxfId="116" priority="8">
-      <formula>A$51="No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A69 H63:XFD69">
-    <cfRule type="expression" dxfId="115" priority="7">
-      <formula>A$61="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:XFD62">
-    <cfRule type="expression" dxfId="114" priority="6">
-      <formula>A$61="No"</formula>
+  <conditionalFormatting sqref="A53:XFD53">
+    <cfRule type="expression" dxfId="51" priority="6">
+      <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD47">
-    <cfRule type="expression" dxfId="113" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD46">
-    <cfRule type="expression" dxfId="112" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:XFD71">
-    <cfRule type="expression" dxfId="111" priority="3">
+  <conditionalFormatting sqref="A62:XFD62">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:G69">
-    <cfRule type="expression" dxfId="110" priority="2">
+  <conditionalFormatting sqref="B54:G60">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:G69">
-    <cfRule type="expression" dxfId="109" priority="1">
-      <formula>B$51="Yes"</formula>
+  <conditionalFormatting sqref="B54:G60">
+    <cfRule type="expression" dxfId="46" priority="1">
+      <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="37">
+  <dataValidations count="29">
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B18:G18">
       <formula1>"New, Used"</formula1>
     </dataValidation>
@@ -36108,7 +35877,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B35:G35">
       <formula1>"REGION1, REGION2, REGION3"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B75 B41:G41">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B66 B41:G41">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B45:G45">
@@ -36129,27 +35898,6 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:G50">
       <formula1>B41="No"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63:G63">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64:G64">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65:G65">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66:G66">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:G67">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68:G68">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:G69">
-      <formula1>AND(B51="No",B61="No")</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:G19">
       <formula1>ISNUMBER(B19)</formula1>
     </dataValidation>
@@ -36168,11 +35916,8 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:G48">
       <formula1>IF(B41="No",ListIdType)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:G52">
-      <formula1>IF(AND(B41="No",B51="Yes"),ListCopyAddressCAPS)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:G62">
-      <formula1>IF(B61="Yes",ListCopyAddressCAPS)</formula1>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:G53">
+      <formula1>IF(B52="Yes",ListCopyAddressCAPS)</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:G39">
       <formula1>IF(B37="No",ListCustomerRelationship)</formula1>
@@ -36180,32 +35925,32 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:G49">
       <formula1>AND(B41="No",IF(B48="E-KTP",LEN(B49)=16,IF(B48="NPWP",LEN(B49)=15,LEN(B49)&gt;0)))</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71:G71">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:G62">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B37:G37 B61:G61">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B37:G37 B52:G52">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:G53">
-      <formula1>AND(B41="No",B51="No")</formula1>
-    </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:G54">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55:G55">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:G56">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:G57">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58:G58">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:G59">
-      <formula1>AND(B41="No",B51="No")</formula1>
+      <formula1>AND(#REF!="No",B52="No")</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:G60">
+      <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36213,18 +35958,12 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF(B75="Yes",Master!$BX$2:$BX$110)</xm:f>
+            <xm:f>IF(B66="Yes",Master!$BX$2:$BX$110)</xm:f>
           </x14:formula1>
-          <xm:sqref>B74</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>IF(B41="No",Master!$CL$5:$CL$6)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B51:G51</xm:sqref>
+          <xm:sqref>B65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-New\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2774,7 +2774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4677" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="3558">
   <si>
     <t>Count</t>
   </si>
@@ -14182,6 +14182,195 @@
   </cellStyles>
   <dxfs count="145">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
@@ -14758,195 +14947,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -15495,8 +15495,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="144"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="143"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15506,7 +15506,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="130"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15516,7 +15516,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="129"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15526,7 +15526,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15536,7 +15536,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="127"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15546,7 +15546,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15556,7 +15556,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="125"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15566,7 +15566,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15576,7 +15576,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="123"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15586,8 +15586,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="122"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="121"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15597,8 +15597,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="120"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="119"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15608,8 +15608,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="142"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="141"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15619,7 +15619,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="118"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15629,7 +15629,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="117"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15639,7 +15639,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="116"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15649,7 +15649,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="115"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15659,7 +15659,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="114"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15669,7 +15669,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="113"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15679,7 +15679,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="112"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15689,7 +15689,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="111"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15699,7 +15699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="110"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15709,7 +15709,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="109"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15719,8 +15719,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="140"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="139"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15729,7 +15729,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="108"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15739,7 +15739,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="107"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15749,7 +15749,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="106"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15758,7 +15758,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="105"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15768,7 +15768,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="104"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15778,7 +15778,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="103"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15788,7 +15788,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="102"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15798,7 +15798,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="101"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15808,7 +15808,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="100"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15818,7 +15818,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="99"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15828,8 +15828,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="138"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="137"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15839,7 +15839,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="98"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15849,7 +15849,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="97"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15859,7 +15859,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="96"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15869,7 +15869,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="95"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15879,7 +15879,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="94"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15889,7 +15889,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="93"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15899,7 +15899,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="92"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15909,7 +15909,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="91"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15919,8 +15919,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="90"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="89"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15930,8 +15930,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="88"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="87"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15941,8 +15941,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="136"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="135"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15952,8 +15952,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="86"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="85"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15963,8 +15963,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="84"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="83"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15974,7 +15974,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="82"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15984,7 +15984,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="134"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15994,7 +15994,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16004,7 +16004,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="132"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16014,7 +16014,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16631,12 +16631,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:XFD19">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="108" priority="4">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD20">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="107" priority="3">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17982,42 +17982,42 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="106" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 A22:XFD28 A30:XFD32 A34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 A36:XFD43">
-    <cfRule type="expression" dxfId="42" priority="7">
+    <cfRule type="expression" dxfId="105" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 A22:XFD28 A30:XFD32 A34:XFD34 A81:XFD82 A14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 A36:XFD43">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="104" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:XFD20">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="102" priority="4">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="101" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="100" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="99" priority="1">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18879,147 +18879,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="98" priority="31">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="34" priority="26">
+    <cfRule type="expression" dxfId="97" priority="26">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="96" priority="30">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="95" priority="29">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="94" priority="28">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="93" priority="27">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="92" priority="25">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="91" priority="24">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="90" priority="23">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="89" priority="22">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="88" priority="21">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD48">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="86" priority="16">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="85" priority="15">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A18">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="84" priority="17">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"Discount",#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="74" priority="5">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="73" priority="4">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="72" priority="3">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20006,32 +20006,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="67" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30804,7 +30804,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B4" sqref="A4:B4"/>
     </sheetView>
@@ -31093,27 +31093,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="81" priority="5">
+    <cfRule type="expression" dxfId="144" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="80" priority="4">
+    <cfRule type="expression" dxfId="143" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="142" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="141" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="140" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31143,7 +31143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31190,15 +31190,15 @@
         <v>3515</v>
       </c>
       <c r="B4" s="115">
-        <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="Input Data",B14="Public"),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+COUNTIFS($A71:$A78,"*$*",B71:B78,""),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,""))))))</f>
+        <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public"),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,""))))))</f>
         <v>0</v>
       </c>
       <c r="C4" s="115">
-        <f t="shared" ref="C4:D4" si="0">IF(AND(C13="Input Data",C14="Personal"),COUNTIFS($A19:$A21,"*$*",C19:C21,"")+COUNTIFS($A24:$A33,"*$*",C24:C33,"")+COUNTIFS($A35:$A38,"*$*",C35:C38,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,"")+COUNTIFS($A71:$A78,"*$*",C71:C78,""),IF(AND(C13="Input Data",C14="Company"),COUNTIFS($A52:$A57,"*$*",C52:C57,"")+COUNTIFS($A71:$A78,"*$*",C71:C78,""),IF(AND(C13="Input Data",C14="Public"),COUNTIFS($A62:$A66,"*$*",C62:C66,"")+COUNTIFS($A71:$A78,"*$*",C71:C78,""),IF(AND(C13="LookUp",C14="Personal"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A30,"*$*",C30,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,""),IF(AND(C13="LookUp",C14="Company"),COUNTIFS($A49:$A51,"*$*",C49:C51,"")+COUNTIFS($A54,"*$*",C54,""))))))</f>
+        <f>IF(AND(C13="Input Data",C14="Personal"),COUNTIFS($A19:$A21,"*$*",C19:C21,"")+COUNTIFS($A24:$A33,"*$*",C24:C33,"")+COUNTIFS($A35:$A38,"*$*",C35:C38,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Company"),COUNTIFS($A52:$A57,"*$*",C52:C57,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public"),COUNTIFS($A62:$A66,"*$*",C62:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="LookUp",C14="Personal"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A30,"*$*",C30,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,""),IF(AND(C13="LookUp",C14="Company"),COUNTIFS($A49:$A51,"*$*",C49:C51,"")+COUNTIFS($A54,"*$*",C54,""))))))</f>
         <v>0</v>
       </c>
       <c r="D4" s="115">
-        <f t="shared" si="0"/>
+        <f>IF(AND(D13="Input Data",D14="Personal"),COUNTIFS($A19:$A21,"*$*",D19:D21,"")+COUNTIFS($A24:$A33,"*$*",D24:D33,"")+COUNTIFS($A35:$A38,"*$*",D35:D38,"")+COUNTIFS($A44:$A45,"*$*",D44:D45,"")+IF(D70="",COUNTIFS($A71:$A78,"*$*",D71:D78,""),0),IF(AND(D13="Input Data",D14="Company"),COUNTIFS($A52:$A57,"*$*",D52:D57,"")+IF(D70="",COUNTIFS($A71:$A78,"*$*",D71:D78,""),0),IF(AND(D13="Input Data",D14="Public"),COUNTIFS($A62:$A66,"*$*",D62:D66,"")+IF(D70="",COUNTIFS($A71:$A78,"*$*",D71:D78,""),0),IF(AND(D13="LookUp",D14="Personal"),COUNTIFS($A16:$A18,"*$*",D16:D18,"")+COUNTIFS($A25,"*$*",D25,"")+COUNTIFS($A30,"*$*",D30,"")+COUNTIFS($A44:$A45,"*$*",D44:D45,""),IF(AND(D13="LookUp",D14="Company"),COUNTIFS($A49:$A51,"*$*",D49:D51,"")+COUNTIFS($A54,"*$*",D54,""))))))</f>
         <v>3</v>
       </c>
       <c r="E4" s="115"/>
@@ -31810,7 +31810,7 @@
         <v>3275</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>157</v>
+        <v>3071</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>157</v>
@@ -31823,9 +31823,6 @@
       <c r="A71" s="17" t="s">
         <v>3507</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>3338</v>
-      </c>
       <c r="C71" s="17" t="s">
         <v>3338</v>
       </c>
@@ -31933,37 +31930,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="76" priority="8">
+    <cfRule type="expression" dxfId="139" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="75" priority="10">
+    <cfRule type="expression" dxfId="138" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="74" priority="9">
+    <cfRule type="expression" dxfId="137" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="73" priority="6">
+    <cfRule type="expression" dxfId="136" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="72" priority="5">
+    <cfRule type="expression" dxfId="135" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32041,7 +32038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32089,23 +32086,23 @@
         <v>3515</v>
       </c>
       <c r="B4" s="115">
-        <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+COUNTIFS($A39:$A46,"*$*",B39:B46,""),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
+        <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>0</v>
       </c>
       <c r="C4" s="115">
-        <f>IF(C13="Input Data",COUNTIFS($A18:$A21,"*$*",C18:C21,"")+COUNTIFS($A23:$A28,"*$*",C23:C28,"")+COUNTIFS($A30:$A31,"*$*",C30:C31,"")+COUNTIFS($A33:$A34,"*$*",C33:C34,"")+COUNTIFS($A39:$A46,"*$*",C39:C46,""),IF(C13="LookUp",COUNTIFS($A15:$A18,"*$*",C15:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
+        <f t="shared" ref="C4:F4" si="0">IF(C13="Input Data",COUNTIFS($A18:$A21,"*$*",C18:C21,"")+COUNTIFS($A23:$A28,"*$*",C23:C28,"")+COUNTIFS($A30:$A31,"*$*",C30:C31,"")+COUNTIFS($A33:$A34,"*$*",C33:C34,"")+IF(C38 = "No",COUNTIFS($A39:$A46,"*$*",C39:C46,""),0),IF(C13="LookUp",COUNTIFS($A15:$A18,"*$*",C15:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>3</v>
       </c>
       <c r="D4" s="115">
-        <f>IF(D13="Input Data",COUNTIFS($A18:$A21,"*$*",D18:D21,"")+COUNTIFS($A23:$A28,"*$*",D23:D28,"")+COUNTIFS($A30:$A31,"*$*",D30:D31,"")+COUNTIFS($A33:$A34,"*$*",D33:D34,"")+COUNTIFS($A39:$A46,"*$*",D39:D46,""),IF(D13="LookUp",COUNTIFS($A15:$A18,"*$*",D15:D18,"")+COUNTIFS($A25,"*$*",D25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="115">
-        <f>IF(E13="Input Data",COUNTIFS($A18:$A21,"*$*",E18:E21,"")+COUNTIFS($A23:$A28,"*$*",E23:E28,"")+COUNTIFS($A30:$A31,"*$*",E30:E31,"")+COUNTIFS($A33:$A34,"*$*",E33:E34,"")+COUNTIFS($A39:$A46,"*$*",E39:E46,""),IF(E13="LookUp",COUNTIFS($A15:$A18,"*$*",E15:E18,"")+COUNTIFS($A25,"*$*",E25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F4" s="115">
-        <f>IF(F13="Input Data",COUNTIFS($A18:$A21,"*$*",F18:F21,"")+COUNTIFS($A23:$A28,"*$*",F23:F28,"")+COUNTIFS($A30:$A31,"*$*",F30:F31,"")+COUNTIFS($A33:$A34,"*$*",F33:F34,"")+COUNTIFS($A39:$A46,"*$*",F39:F46,""),IF(F13="LookUp",COUNTIFS($A15:$A18,"*$*",F15:F18,"")+COUNTIFS($A25,"*$*",F25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -32575,7 +32572,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>39</v>
@@ -32594,9 +32591,6 @@
       <c r="A39" s="50" t="s">
         <v>3507</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>3155</v>
-      </c>
       <c r="C39" s="17" t="s">
         <v>3155</v>
       </c>
@@ -32752,22 +32746,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="69" priority="4">
+    <cfRule type="expression" dxfId="132" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="131" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="130" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="129" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32901,9 +32895,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32949,23 +32943,23 @@
         <v>3515</v>
       </c>
       <c r="B4" s="115">
-        <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
+        <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
         <v>0</v>
       </c>
       <c r="C4" s="115">
-        <f>IF(C13="Input Data",COUNTIFS($A17:$A21,"*$*",C17:C21,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,""),IF(C13="LookUp",COUNTIFS($A15:$A16,"*$*",C15:C16,"")))</f>
+        <f t="shared" ref="C4:F4" si="0">IF(C13="Input Data",COUNTIFS($A17:$A21,"*$*",C17:C21,"")+IF(C23 = "No",COUNTIFS($A24:$A31,"*$*",C24:C31,""),0),IF(C13="LookUp",COUNTIFS($A15:$A16,"*$*",C15:C16,"")))</f>
         <v>0</v>
       </c>
       <c r="D4" s="115">
-        <f>IF(D13="Input Data",COUNTIFS($A17:$A21,"*$*",D17:D21,"")+COUNTIFS($A24:$A31,"*$*",D24:D31,""),IF(D13="LookUp",COUNTIFS($A15:$A16,"*$*",D15:D16,"")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="115">
-        <f>IF(E13="Input Data",COUNTIFS($A17:$A21,"*$*",E17:E21,"")+COUNTIFS($A24:$A31,"*$*",E24:E31,""),IF(E13="LookUp",COUNTIFS($A15:$A16,"*$*",E15:E16,"")))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="115">
-        <f>IF(F13="Input Data",COUNTIFS($A17:$A21,"*$*",F17:F21,"")+COUNTIFS($A24:$A31,"*$*",F24:F31,""),IF(F13="LookUp",COUNTIFS($A15:$A16,"*$*",F15:F16,"")))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -33156,7 +33150,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>39</v>
@@ -33175,9 +33169,6 @@
       <c r="A24" s="50" t="s">
         <v>3507</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>3156</v>
-      </c>
       <c r="C24" s="17" t="s">
         <v>3156</v>
       </c>
@@ -33333,17 +33324,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="128" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="127" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="126" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34557,32 +34548,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="125" priority="7">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:XFD26">
-    <cfRule type="expression" dxfId="61" priority="6">
+    <cfRule type="expression" dxfId="124" priority="6">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36 G31:XFD37 A31:F34 A37:F37">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="123" priority="5">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:XFD52">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="122" priority="4">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="120" priority="1">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34681,7 +34672,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
       <selection pane="topRight" activeCell="E61" sqref="E61"/>
@@ -35810,57 +35801,57 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="56" priority="13">
+    <cfRule type="expression" dxfId="119" priority="13">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="118" priority="12">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="117" priority="11">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:XFD50">
-    <cfRule type="expression" dxfId="53" priority="10">
+    <cfRule type="expression" dxfId="116" priority="10">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60 H54:XFD60">
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="115" priority="7">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:XFD53">
-    <cfRule type="expression" dxfId="51" priority="6">
+    <cfRule type="expression" dxfId="114" priority="6">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD47">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="113" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD46">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="112" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:XFD62">
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="111" priority="3">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="110" priority="2">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="109" priority="1">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -14140,6 +14140,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -14171,7 +14172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -14180,6 +14180,195 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="172">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14946,195 +15135,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -15734,8 +15734,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="171"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="170"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15745,7 +15745,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15755,7 +15755,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15765,7 +15765,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15775,7 +15775,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15785,7 +15785,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="153"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15795,7 +15795,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="152"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15805,7 +15805,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="151"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15815,7 +15815,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="150"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15825,8 +15825,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="149"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="148"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15836,8 +15836,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="147"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="146"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15847,8 +15847,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="169"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="168"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15858,7 +15858,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15868,7 +15868,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15878,7 +15878,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15888,7 +15888,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15898,7 +15898,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15908,7 +15908,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15918,7 +15918,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="139"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15928,7 +15928,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15938,7 +15938,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="137"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15948,7 +15948,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15958,8 +15958,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="167"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="166"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15968,7 +15968,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="135"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15978,7 +15978,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="134"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15988,7 +15988,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15997,7 +15997,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="132"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16007,7 +16007,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16017,7 +16017,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="130"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16027,7 +16027,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="129"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16037,7 +16037,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16047,7 +16047,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="127"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16057,7 +16057,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16067,8 +16067,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="165"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="164"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16078,7 +16078,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="125"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16088,7 +16088,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16098,7 +16098,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="123"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16108,7 +16108,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="122"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16118,7 +16118,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="121"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16128,7 +16128,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="120"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16138,7 +16138,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="119"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16148,7 +16148,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="118"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16158,8 +16158,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="117"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="116"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16169,8 +16169,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="115"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="114"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16180,8 +16180,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="163"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="162"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16191,8 +16191,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="113"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="112"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16202,8 +16202,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="111"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="110"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16213,7 +16213,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="109"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16223,7 +16223,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16233,7 +16233,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16243,7 +16243,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16253,7 +16253,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16890,22 +16890,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="121" priority="5">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16934,7 +16934,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="A85" sqref="A85"/>
@@ -17001,14 +17001,14 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
+    <row r="11" spans="1:6" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="127" t="s">
         <v>3024</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -18226,7 +18226,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="132" t="s">
+      <c r="A83" s="117" t="s">
         <v>3561</v>
       </c>
     </row>
@@ -18247,10 +18247,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="122" t="s">
+      <c r="A87" s="123" t="s">
         <v>3168</v>
       </c>
-      <c r="B87" s="123"/>
+      <c r="B87" s="124"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="80" t="s">
@@ -18261,10 +18261,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="124" t="s">
+      <c r="A89" s="125" t="s">
         <v>3167</v>
       </c>
-      <c r="B89" s="125"/>
+      <c r="B89" s="126"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="73" t="s">
@@ -18276,14 +18276,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="121" t="s">
+      <c r="A91" s="122" t="s">
         <v>3174</v>
       </c>
-      <c r="B91" s="121"/>
+      <c r="B91" s="122"/>
     </row>
     <row r="92" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="121"/>
-      <c r="B92" s="121"/>
+      <c r="A92" s="122"/>
+      <c r="B92" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18293,92 +18293,92 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="118" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="116" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="52" priority="15">
+    <cfRule type="expression" dxfId="115" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="112" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="111" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="110" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="109" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="108" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="107" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="43" priority="6">
+    <cfRule type="expression" dxfId="106" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="105" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19257,147 +19257,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="99" priority="31">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="98" priority="35">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="97" priority="34">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="95" priority="32">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="94" priority="30">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="93" priority="29">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="92" priority="28">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="91" priority="27">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="90" priority="26">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="89" priority="23">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19672,10 +19672,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="130" t="s">
         <v>2447</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20441,10 +20441,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="130" t="s">
+      <c r="A55" s="131" t="s">
         <v>2435</v>
       </c>
-      <c r="B55" s="131"/>
+      <c r="B55" s="132"/>
     </row>
     <row r="56" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -20467,32 +20467,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="67" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20806,7 +20806,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DS492"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="CE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BZ2" sqref="BZ2"/>
     </sheetView>
@@ -31431,8 +31431,8 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+    <row r="15" spans="1:6" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="118" t="s">
         <v>3009</v>
       </c>
     </row>
@@ -31518,8 +31518,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+    <row r="23" spans="1:6" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="118" t="s">
         <v>3011</v>
       </c>
     </row>
@@ -31606,27 +31606,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="108" priority="5">
+    <cfRule type="expression" dxfId="171" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="107" priority="4">
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="106" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="168" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32452,37 +32452,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="103" priority="8">
+    <cfRule type="expression" dxfId="166" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="165" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="101" priority="9">
+    <cfRule type="expression" dxfId="164" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="163" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="99" priority="5">
+    <cfRule type="expression" dxfId="162" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33277,22 +33277,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="96" priority="4">
+    <cfRule type="expression" dxfId="159" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="158" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="157" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="156" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33867,17 +33867,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="154" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="90" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35151,52 +35151,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="152" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="151" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="150" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="86" priority="8">
+    <cfRule type="expression" dxfId="149" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="148" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="84" priority="5">
+    <cfRule type="expression" dxfId="147" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="146" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="145" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="144" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35295,10 +35295,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35362,14 +35362,14 @@
     <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:7" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="119" t="s">
         <v>3019</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -35988,7 +35988,7 @@
         <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>44</v>
@@ -36444,106 +36444,106 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="79" priority="22">
+    <cfRule type="expression" dxfId="142" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="78" priority="21">
+    <cfRule type="expression" dxfId="141" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="140" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="139" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="138" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="74" priority="15">
+    <cfRule type="expression" dxfId="137" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="136" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="135" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="71" priority="12">
+    <cfRule type="expression" dxfId="134" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="133" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="132" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="131" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="66" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="128" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="127" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="126" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="125" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="123" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="29">
+  <dataValidations count="31">
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B18:G18">
       <formula1>"New, Used"</formula1>
     </dataValidation>
@@ -36589,7 +36589,7 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:G46">
       <formula1>IF(AND(B41="No",B42="Personal"),ListJobProfessionEMP)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B44:G44">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B44:C44 E44:G44">
       <formula1>IF(AND(B41="No",B42="Personal"),ListCustomerRelationship,ListGuarantorRelationshipCompany)</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:G48">
@@ -36598,7 +36598,7 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:G53">
       <formula1>IF(B52="Yes",ListCopyAddressCAPS)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:G39">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C39">
       <formula1>IF(B37="No",ListCustomerRelationship)</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:G49">
@@ -36631,6 +36631,12 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:G60">
       <formula1>AND(#REF!="No",B52="No")</formula1>
     </dataValidation>
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="D44">
+      <formula1>IF(AND(D41="No",D42="Personal"),ListCustomerRelationship,ListGuarantorRelationshipCompany)</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:G39">
+      <formula1>IF(D37="No",ListGuarantorRelationshipCompany)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-New\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sept\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2753,7 +2753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="3564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="3566">
   <si>
     <t>Count</t>
   </si>
@@ -13403,21 +13403,6 @@
     <t>$Nama Document</t>
   </si>
   <si>
-    <t>$Promo Interest Income</t>
-  </si>
-  <si>
-    <t>$Promo Insurance Income</t>
-  </si>
-  <si>
-    <t>$Promo Life Insurance Income</t>
-  </si>
-  <si>
-    <t>$Promo Admin Fee</t>
-  </si>
-  <si>
-    <t>$Promo Provision Fee</t>
-  </si>
-  <si>
     <t>$Customer</t>
   </si>
   <si>
@@ -13452,6 +13437,27 @@
   </si>
   <si>
     <t>Capitalize Amount</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Jika ada penambahan field, ditempatkan pada row sesuai dengan urutan pada rule file dengan nama field diawali dengan $</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 1</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 2</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 3</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 4</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 5</t>
   </si>
 </sst>
 </file>
@@ -16544,16 +16550,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>3560</v>
+        <v>3555</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3558</v>
+        <v>3553</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3559</v>
+        <v>3554</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3556</v>
+        <v>3551</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -16583,7 +16589,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3557</v>
+        <v>3552</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
@@ -18227,12 +18233,12 @@
     </row>
     <row r="83" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="117" t="s">
-        <v>3561</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>3562</v>
+        <v>3557</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>89</v>
@@ -18240,7 +18246,7 @@
     </row>
     <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>3563</v>
+        <v>3558</v>
       </c>
       <c r="B85" s="17">
         <v>2000000</v>
@@ -20527,11 +20533,11 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20585,7 +20591,7 @@
         <v>3419</v>
       </c>
       <c r="B4" s="17">
-        <f>COUNTIFS($A12:$A16,"*$*",B12:B16,"")</f>
+        <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -20600,7 +20606,7 @@
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>3547</v>
+        <v>3561</v>
       </c>
       <c r="B12" s="37">
         <v>1000000</v>
@@ -20608,7 +20614,7 @@
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>3548</v>
+        <v>3562</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -20616,7 +20622,7 @@
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>3549</v>
+        <v>3563</v>
       </c>
       <c r="B14" s="39">
         <v>0</v>
@@ -20624,7 +20630,7 @@
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>3550</v>
+        <v>3564</v>
       </c>
       <c r="B15" s="39">
         <v>10</v>
@@ -20632,13 +20638,21 @@
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>3551</v>
+        <v>3565</v>
       </c>
       <c r="B16" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>3560</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B16">
@@ -20737,7 +20751,7 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3552</v>
+        <v>3547</v>
       </c>
       <c r="B13" t="s">
         <v>3248</v>
@@ -20745,7 +20759,7 @@
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>89</v>
@@ -20753,7 +20767,7 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3554</v>
+        <v>3549</v>
       </c>
       <c r="B15" t="s">
         <v>3467</v>
@@ -20761,7 +20775,7 @@
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>89</v>
@@ -20769,7 +20783,7 @@
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3555</v>
+        <v>3550</v>
       </c>
       <c r="B17" t="s">
         <v>3458</v>
@@ -20777,7 +20791,7 @@
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>89</v>
@@ -35295,7 +35309,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
       <selection pane="topRight" activeCell="D44" sqref="D44"/>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -2753,7 +2753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="3566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="3567">
   <si>
     <t>Count</t>
   </si>
@@ -13458,6 +13458,9 @@
   </si>
   <si>
     <t>$Reserve Fund 5</t>
+  </si>
+  <si>
+    <t>Reserve Fund Amt</t>
   </si>
 </sst>
 </file>
@@ -13964,7 +13967,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -14178,6 +14181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -20537,7 +20541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20602,6 +20606,9 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
+        <v>3566</v>
+      </c>
       <c r="B11" s="85"/>
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sept\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="12" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1171,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2753,7 +2753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4755" uniqueCount="3567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="3572">
   <si>
     <t>Count</t>
   </si>
@@ -12212,9 +12212,6 @@
     <t>1000;1000;1000;1000;1000;1000</t>
   </si>
   <si>
-    <t>Select SimilarData</t>
-  </si>
-  <si>
     <t>TDP Paid at MF</t>
   </si>
   <si>
@@ -12647,9 +12644,6 @@
     <t>pt asap</t>
   </si>
   <si>
-    <t>New;Select SimilarData</t>
-  </si>
-  <si>
     <t>Reason Failed</t>
   </si>
   <si>
@@ -13139,9 +13133,6 @@
     <t>JOKO;PT ASAP</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>0002APP20211200164</t>
   </si>
   <si>
@@ -13461,6 +13452,30 @@
   </si>
   <si>
     <t>Reserve Fund Amt</t>
+  </si>
+  <si>
+    <t>PT DIRE</t>
+  </si>
+  <si>
+    <t>Select ApplicationInProcess</t>
+  </si>
+  <si>
+    <t>Negative Check</t>
+  </si>
+  <si>
+    <t>Benny;PT TWICE</t>
+  </si>
+  <si>
+    <t>Select ApplicationInProcess;New</t>
+  </si>
+  <si>
+    <t>Kevin;Pt Trave</t>
+  </si>
+  <si>
+    <t>Select ApplicationInProcess;Select ApplicationInProcess</t>
+  </si>
+  <si>
+    <t>Yes;</t>
   </si>
 </sst>
 </file>
@@ -14080,9 +14095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -14150,6 +14162,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -14181,7 +14194,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -14190,195 +14205,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="172">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15145,6 +14971,195 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -15744,8 +15759,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="171"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15755,7 +15770,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15765,7 +15780,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15775,7 +15790,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15785,7 +15800,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15795,7 +15810,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15805,7 +15820,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15815,7 +15830,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15825,7 +15840,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15835,8 +15850,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="149"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15846,8 +15861,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="147"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15857,8 +15872,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="169"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15868,7 +15883,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15878,7 +15893,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15888,7 +15903,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15898,7 +15913,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15908,7 +15923,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15918,7 +15933,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15928,7 +15943,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15938,7 +15953,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15948,7 +15963,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15958,7 +15973,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15968,8 +15983,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="167"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15978,7 +15993,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15988,7 +16003,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15998,7 +16013,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16007,7 +16022,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16017,7 +16032,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16027,7 +16042,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16037,7 +16052,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16047,7 +16062,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16057,7 +16072,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16067,7 +16082,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16077,8 +16092,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="165"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16088,7 +16103,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16098,7 +16113,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16108,7 +16123,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16118,7 +16133,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16128,7 +16143,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16138,7 +16153,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16148,7 +16163,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16158,7 +16173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16168,8 +16183,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="117"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16179,8 +16194,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="115"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16190,8 +16205,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="163"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16201,8 +16216,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="113"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16212,8 +16227,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="111"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16223,7 +16238,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16233,7 +16248,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16243,7 +16258,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16253,7 +16268,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16263,7 +16278,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16554,16 +16569,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -16593,7 +16608,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
@@ -16665,7 +16680,7 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -16682,12 +16697,12 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
@@ -16700,13 +16715,13 @@
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+    <row r="11" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
@@ -16715,7 +16730,7 @@
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -16727,33 +16742,33 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -16765,7 +16780,7 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3078</v>
@@ -16791,7 +16806,7 @@
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="B17" s="26">
         <v>10000000</v>
@@ -16817,7 +16832,7 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>109</v>
@@ -16843,7 +16858,7 @@
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="B19" s="17">
         <v>12</v>
@@ -16869,7 +16884,7 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="B20" s="26">
         <v>0</v>
@@ -16900,22 +16915,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule type="expression" dxfId="122" priority="6">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="58" priority="5">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16976,7 +16991,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -16993,12 +17008,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -17022,7 +17037,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>110</v>
@@ -17040,19 +17055,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+    <row r="13" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3144</v>
@@ -17072,7 +17087,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="B15" s="25">
         <v>700000000</v>
@@ -17102,7 +17117,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="B18" s="61">
         <v>44197</v>
@@ -17122,7 +17137,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="B19" s="61">
         <v>44741</v>
@@ -17145,19 +17160,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+    <row r="21" spans="1:6" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>196</v>
@@ -17172,12 +17187,12 @@
         <v>267</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="B23" s="25">
         <v>300000000</v>
@@ -17197,7 +17212,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>268</v>
@@ -17217,7 +17232,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>193</v>
@@ -17237,22 +17252,22 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>3001</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>3334</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>3335</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>3336</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17262,7 +17277,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="B28" s="17">
         <v>16</v>
@@ -17280,15 +17295,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="96" t="s">
+    <row r="29" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
         <v>3025</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
@@ -17350,19 +17365,19 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+    <row r="33" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="109" t="s">
         <v>3026</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>123</v>
@@ -17380,19 +17395,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+    <row r="35" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>119</v>
@@ -17412,7 +17427,7 @@
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>119</v>
@@ -17432,7 +17447,7 @@
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>119</v>
@@ -17452,7 +17467,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>119</v>
@@ -17472,7 +17487,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>119</v>
@@ -17492,7 +17507,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>119</v>
@@ -17512,7 +17527,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>119</v>
@@ -17530,9 +17545,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="116" t="s">
-        <v>3534</v>
+    <row r="43" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="115" t="s">
+        <v>3531</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>119</v>
@@ -17550,434 +17565,434 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="108" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-    </row>
-    <row r="45" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74" t="s">
+    <row r="44" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="107" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+    </row>
+    <row r="45" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E45" s="74" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>3156</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B46" s="74" t="s">
         <v>3257</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C46" s="74" t="s">
         <v>3257</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D46" s="74" t="s">
         <v>3257</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E46" s="74" t="s">
         <v>3257</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F46" s="74" t="s">
         <v>3257</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="74" t="s">
+    <row r="47" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="73" t="s">
         <v>3157</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B47" s="74" t="s">
         <v>3258</v>
       </c>
-      <c r="C46" s="75" t="s">
-        <v>3258</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>3258</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>3258</v>
-      </c>
-      <c r="F46" s="75" t="s">
-        <v>3258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
+      <c r="C47" s="74" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E48" s="74" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+    </row>
+    <row r="50" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F52" s="75" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F55" s="75" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>3262</v>
+      </c>
+      <c r="F56" s="75" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="73" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>3263</v>
+      </c>
+      <c r="F57" s="75" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="106" t="s">
         <v>3158</v>
       </c>
-      <c r="B47" s="75" t="s">
-        <v>3259</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>3338</v>
-      </c>
-      <c r="D47" s="75" t="s">
-        <v>3339</v>
-      </c>
-      <c r="E47" s="75" t="s">
+    </row>
+    <row r="59" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>3340</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="D59" s="11" t="s">
         <v>3341</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="75" t="s">
-        <v>3260</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>3260</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>3260</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>3260</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-    </row>
-    <row r="50" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="76" t="s">
-        <v>3257</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>3257</v>
-      </c>
-      <c r="D50" s="76" t="s">
-        <v>3257</v>
-      </c>
-      <c r="E50" s="76" t="s">
-        <v>3257</v>
-      </c>
-      <c r="F50" s="76" t="s">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D51" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E51" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="F51" s="76" t="s">
-        <v>3261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="76" t="s">
-        <v>3262</v>
-      </c>
-      <c r="C52" s="76" t="s">
-        <v>3262</v>
-      </c>
-      <c r="D52" s="76" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E52" s="76" t="s">
-        <v>3262</v>
-      </c>
-      <c r="F52" s="76" t="s">
-        <v>3262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="D53" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="E53" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F53" s="76" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="76" t="s">
+      <c r="E59" s="11" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>3264</v>
       </c>
-      <c r="C54" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="E54" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="F54" s="76" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D55" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="E55" s="76" t="s">
-        <v>3261</v>
-      </c>
-      <c r="F55" s="76" t="s">
-        <v>3261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="D56" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="E56" s="76" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F56" s="76" t="s">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B57" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="C57" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="D57" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="E57" s="76" t="s">
-        <v>3264</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="107" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>3265</v>
-      </c>
-      <c r="C59" s="11" t="s">
+      <c r="D63" s="11" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>3342</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>3343</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>3344</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>3346</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>3348</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>3267</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>3351</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>3352</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    </row>
+    <row r="64" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>3164</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>3268</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>3354</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="B64" s="11" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>3356</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>3357</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>3269</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>3265</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>3342</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>3343</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="E64" s="11" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>3165</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B65" s="11" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>3270</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>3358</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>3359</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>3360</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>3153</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>3153</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>3153</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>3271</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>3272</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>3272</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>3272</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>3272</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>3273</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -17985,49 +18000,49 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86" t="s">
+    <row r="68" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+    </row>
+    <row r="69" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>3274</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-    </row>
-    <row r="69" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="B69" s="11" t="s">
         <v>3275</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="11" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="87" t="s">
         <v>3276</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>3363</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="88" t="s">
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+    </row>
+    <row r="71" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>3277</v>
-      </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-    </row>
-    <row r="71" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>3278</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -18035,149 +18050,149 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>3279</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>3366</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>3280</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>3366</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>3367</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="B73" s="11" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>3368</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>3369</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>3281</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>3282</v>
-      </c>
-      <c r="C73" s="11" t="s">
+      <c r="E73" s="11" t="s">
         <v>3370</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>3371</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>3372</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>3283</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>3284</v>
-      </c>
       <c r="C74" s="11" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>3373</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>3374</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>3375</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>3376</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>3377</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>3285</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>3286</v>
-      </c>
       <c r="C75" s="11" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>3287</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>3288</v>
-      </c>
       <c r="C76" s="11" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>3378</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>3379</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>3380</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>3289</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="11" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B78" s="74" t="s">
         <v>3290</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>3382</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>3383</v>
-      </c>
-      <c r="E77" s="11" t="s">
+      <c r="C78" s="74" t="s">
         <v>3384</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="D78" s="74" t="s">
         <v>3385</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="74" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B78" s="75" t="s">
+      <c r="E78" s="74" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>3291</v>
-      </c>
-      <c r="C78" s="75" t="s">
-        <v>3386</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>3387</v>
-      </c>
-      <c r="E78" s="75" t="s">
-        <v>3388</v>
-      </c>
-      <c r="F78" s="75" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>3292</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -18185,15 +18200,15 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="96" t="s">
+    <row r="80" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="95" t="s">
         <v>3027</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
     </row>
     <row r="81" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
@@ -18215,34 +18230,34 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77" t="s">
-        <v>3169</v>
+    <row r="82" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="76" t="s">
+        <v>3168</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>3390</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="F82" s="16" t="s">
         <v>3391</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="117" t="s">
-        <v>3556</v>
+    </row>
+    <row r="83" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="116" t="s">
+        <v>3553</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>89</v>
@@ -18250,7 +18265,7 @@
     </row>
     <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="B85" s="17">
         <v>2000000</v>
@@ -18258,36 +18273,36 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="123" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B87" s="124"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="80" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B88" s="81">
+      <c r="A88" s="79" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B88" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="125" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B89" s="126"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="73" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B90" s="81">
+      <c r="A90" s="72" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B90" s="80">
         <f>B88+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="122" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B91" s="122"/>
     </row>
@@ -18303,92 +18318,92 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="118" priority="18">
+    <cfRule type="expression" dxfId="55" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="54" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="116" priority="16">
+    <cfRule type="expression" dxfId="53" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="115" priority="15">
+    <cfRule type="expression" dxfId="52" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="114" priority="14">
+    <cfRule type="expression" dxfId="51" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="113" priority="13">
+    <cfRule type="expression" dxfId="50" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="112" priority="12">
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="111" priority="11">
+    <cfRule type="expression" dxfId="48" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="110" priority="10">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="109" priority="9">
+    <cfRule type="expression" dxfId="46" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="108" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="107" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="106" priority="6">
+    <cfRule type="expression" dxfId="43" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="104" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="102" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18491,7 +18506,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -18508,12 +18523,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B81)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
@@ -18526,18 +18541,18 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+    <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
         <v>3028</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>110</v>
@@ -18557,12 +18572,12 @@
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>142</v>
@@ -18582,7 +18597,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>143</v>
@@ -18602,7 +18617,7 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>99</v>
@@ -18622,7 +18637,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="B17">
         <v>1000000</v>
@@ -18642,18 +18657,18 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="95" t="s">
         <v>3029</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
@@ -19095,15 +19110,15 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+    <row r="42" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="95" t="s">
         <v>3030</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -19187,7 +19202,7 @@
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="B47" s="17">
         <v>12</v>
@@ -19207,7 +19222,7 @@
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>3051</v>
@@ -19227,187 +19242,187 @@
     </row>
     <row r="49" spans="1:6" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B49" s="78">
+        <v>3150</v>
+      </c>
+      <c r="B49" s="77">
         <v>175961000</v>
       </c>
-      <c r="C49" s="78">
+      <c r="C49" s="77">
         <v>175961001</v>
       </c>
-      <c r="D49" s="78">
+      <c r="D49" s="77">
         <v>175961002</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="77">
         <v>175961003</v>
       </c>
-      <c r="F49" s="78">
+      <c r="F49" s="77">
         <v>175961004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="79" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="79" t="s">
-        <v>3170</v>
-      </c>
-      <c r="B50" s="79" t="s">
+    <row r="50" spans="1:6" s="78" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="78" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B50" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="79" t="s">
+      <c r="D50" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="79" t="s">
+      <c r="E50" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="78" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="100" priority="36">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="99" priority="31">
+    <cfRule type="expression" dxfId="36" priority="31">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="98" priority="35">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="97" priority="34">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="96" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="95" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="94" priority="30">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="93" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="92" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="91" priority="27">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="90" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="89" priority="23">
+    <cfRule type="expression" dxfId="26" priority="23">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="88" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="87" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="86" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="85" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="84" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="83" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="82" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="81" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="80" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="79" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="78" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="76" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="75" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19563,7 +19578,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -19580,13 +19595,13 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B4" s="17">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -19618,17 +19633,17 @@
       <c r="A10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="94"/>
+    <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="93"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2419</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3006</v>
@@ -19636,10 +19651,10 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -19745,7 +19760,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -19762,12 +19777,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -19780,7 +19795,7 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>7</v>
@@ -19796,7 +19811,7 @@
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>172</v>
@@ -19807,13 +19822,13 @@
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19835,7 +19850,7 @@
         <v>177</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19894,7 +19909,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -19911,12 +19926,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -19929,8 +19944,8 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -19946,14 +19961,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="95" t="s">
         <v>2438</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -19965,7 +19980,7 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -20117,14 +20132,14 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="96" t="s">
+    <row r="26" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
         <v>2442</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -20138,36 +20153,36 @@
       <c r="A28" s="11" t="s">
         <v>2444</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
     </row>
     <row r="29" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C30" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>3399</v>
+      <c r="C30" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D30" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20175,27 +20190,27 @@
         <v>2433</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>2440</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C32" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>3399</v>
+      <c r="C32" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D32" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20203,27 +20218,27 @@
         <v>2441</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>2434</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C34" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>3399</v>
+      <c r="C34" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20231,27 +20246,27 @@
         <v>2424</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>2425</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C36" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D36" s="113" t="s">
-        <v>3399</v>
+      <c r="C36" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20259,27 +20274,27 @@
         <v>2426</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>2427</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C38" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D38" s="113" t="s">
-        <v>3399</v>
+      <c r="C38" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D38" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20287,27 +20302,27 @@
         <v>2428</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>2429</v>
       </c>
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>3149</v>
       </c>
-      <c r="C40" s="113" t="s">
-        <v>3398</v>
-      </c>
-      <c r="D40" s="113" t="s">
-        <v>3399</v>
+      <c r="C40" s="112" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D40" s="112" t="s">
+        <v>3397</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20315,22 +20330,22 @@
         <v>2430</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="95" t="s">
         <v>2431</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
@@ -20342,16 +20357,16 @@
     </row>
     <row r="44" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20367,13 +20382,13 @@
         <v>2433</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20389,13 +20404,13 @@
         <v>2424</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20411,13 +20426,13 @@
         <v>2426</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20433,13 +20448,13 @@
         <v>2428</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -20477,32 +20492,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="67" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="66" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20539,7 +20554,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
@@ -20570,7 +20585,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -20587,12 +20602,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -20605,15 +20620,15 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
-        <v>3566</v>
-      </c>
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="117" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="B12" s="37">
         <v>1000000</v>
@@ -20621,7 +20636,7 @@
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -20629,7 +20644,7 @@
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="B14" s="39">
         <v>0</v>
@@ -20637,7 +20652,7 @@
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="B15" s="39">
         <v>10</v>
@@ -20645,7 +20660,7 @@
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="B16" s="39">
         <v>10</v>
@@ -20654,10 +20669,10 @@
     <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
     </row>
   </sheetData>
@@ -20709,7 +20724,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -20726,14 +20741,14 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
         <v>0</v>
       </c>
@@ -20744,12 +20759,12 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -20758,15 +20773,15 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="B13" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>89</v>
@@ -20774,15 +20789,15 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="B15" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>89</v>
@@ -20790,15 +20805,15 @@
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="B17" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>89</v>
@@ -21089,13 +21104,13 @@
         <v>2450</v>
       </c>
       <c r="DP1" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="DQ1" s="27" t="s">
         <v>3201</v>
       </c>
-      <c r="DQ1" s="27" t="s">
-        <v>3202</v>
-      </c>
       <c r="DS1" s="27" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
@@ -21284,13 +21299,13 @@
         <v>199</v>
       </c>
       <c r="DP2" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
         <v>3203</v>
       </c>
-      <c r="DQ2" s="27" t="s">
-        <v>3204</v>
-      </c>
       <c r="DS2" s="27" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.25">
@@ -21481,13 +21496,13 @@
         <v>575</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="DQ3" s="27" t="s">
         <v>108</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
@@ -21648,13 +21663,13 @@
         <v>582</v>
       </c>
       <c r="DP4" s="27" t="s">
+        <v>3205</v>
+      </c>
+      <c r="DQ4" s="27" t="s">
         <v>3206</v>
       </c>
-      <c r="DQ4" s="27" t="s">
-        <v>3207</v>
-      </c>
       <c r="DS4" s="27" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
@@ -21797,13 +21812,13 @@
         <v>589</v>
       </c>
       <c r="DP5" s="27" t="s">
+        <v>3207</v>
+      </c>
+      <c r="DQ5" s="27" t="s">
         <v>3208</v>
       </c>
-      <c r="DQ5" s="27" t="s">
-        <v>3209</v>
-      </c>
       <c r="DS5" s="27" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
@@ -21928,10 +21943,10 @@
         <v>596</v>
       </c>
       <c r="DP6" s="27" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="DQ6" s="27" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
@@ -22035,10 +22050,10 @@
         <v>603</v>
       </c>
       <c r="DP7" s="27" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="DQ7" s="27" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
@@ -22139,10 +22154,10 @@
         <v>610</v>
       </c>
       <c r="DP8" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="DQ8" s="27" t="s">
         <v>3212</v>
-      </c>
-      <c r="DQ8" s="27" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
@@ -22232,10 +22247,10 @@
         <v>617</v>
       </c>
       <c r="DP9" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="DQ9" s="27" t="s">
         <v>3214</v>
-      </c>
-      <c r="DQ9" s="27" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
@@ -22319,10 +22334,10 @@
         <v>907</v>
       </c>
       <c r="DP10" s="27" t="s">
+        <v>3215</v>
+      </c>
+      <c r="DQ10" s="27" t="s">
         <v>3216</v>
-      </c>
-      <c r="DQ10" s="27" t="s">
-        <v>3217</v>
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
@@ -22396,10 +22411,10 @@
         <v>913</v>
       </c>
       <c r="DP11" s="27" t="s">
+        <v>3217</v>
+      </c>
+      <c r="DQ11" s="27" t="s">
         <v>3218</v>
-      </c>
-      <c r="DQ11" s="27" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
@@ -22471,10 +22486,10 @@
         <v>920</v>
       </c>
       <c r="DP12" s="27" t="s">
+        <v>3219</v>
+      </c>
+      <c r="DQ12" s="27" t="s">
         <v>3220</v>
-      </c>
-      <c r="DQ12" s="27" t="s">
-        <v>3221</v>
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
@@ -22542,10 +22557,10 @@
         <v>926</v>
       </c>
       <c r="DP13" s="27" t="s">
+        <v>3221</v>
+      </c>
+      <c r="DQ13" s="27" t="s">
         <v>3222</v>
-      </c>
-      <c r="DQ13" s="27" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
@@ -22614,10 +22629,10 @@
         <v>933</v>
       </c>
       <c r="DP14" s="27" t="s">
+        <v>3223</v>
+      </c>
+      <c r="DQ14" s="27" t="s">
         <v>3224</v>
-      </c>
-      <c r="DQ14" s="27" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
@@ -22679,10 +22694,10 @@
         <v>940</v>
       </c>
       <c r="DP15" s="27" t="s">
+        <v>3225</v>
+      </c>
+      <c r="DQ15" s="27" t="s">
         <v>3226</v>
-      </c>
-      <c r="DQ15" s="27" t="s">
-        <v>3227</v>
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
@@ -22735,10 +22750,10 @@
         <v>800</v>
       </c>
       <c r="DP16" s="27" t="s">
+        <v>3227</v>
+      </c>
+      <c r="DQ16" s="27" t="s">
         <v>3228</v>
-      </c>
-      <c r="DQ16" s="27" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="17" spans="1:121" x14ac:dyDescent="0.25">
@@ -22791,10 +22806,10 @@
         <v>807</v>
       </c>
       <c r="DP17" s="27" t="s">
+        <v>3229</v>
+      </c>
+      <c r="DQ17" s="27" t="s">
         <v>3230</v>
-      </c>
-      <c r="DQ17" s="27" t="s">
-        <v>3231</v>
       </c>
     </row>
     <row r="18" spans="1:121" x14ac:dyDescent="0.25">
@@ -22841,10 +22856,10 @@
         <v>819</v>
       </c>
       <c r="DP18" s="27" t="s">
+        <v>3231</v>
+      </c>
+      <c r="DQ18" s="27" t="s">
         <v>3232</v>
-      </c>
-      <c r="DQ18" s="27" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="19" spans="1:121" x14ac:dyDescent="0.25">
@@ -22891,10 +22906,10 @@
         <v>826</v>
       </c>
       <c r="DP19" s="27" t="s">
+        <v>3233</v>
+      </c>
+      <c r="DQ19" s="27" t="s">
         <v>3234</v>
-      </c>
-      <c r="DQ19" s="27" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="20" spans="1:121" x14ac:dyDescent="0.25">
@@ -22941,10 +22956,10 @@
         <v>833</v>
       </c>
       <c r="DP20" s="27" t="s">
+        <v>3235</v>
+      </c>
+      <c r="DQ20" s="27" t="s">
         <v>3236</v>
-      </c>
-      <c r="DQ20" s="27" t="s">
-        <v>3237</v>
       </c>
     </row>
     <row r="21" spans="1:121" x14ac:dyDescent="0.25">
@@ -22991,10 +23006,10 @@
         <v>840</v>
       </c>
       <c r="DP21" s="27" t="s">
+        <v>3237</v>
+      </c>
+      <c r="DQ21" s="27" t="s">
         <v>3238</v>
-      </c>
-      <c r="DQ21" s="27" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="22" spans="1:121" x14ac:dyDescent="0.25">
@@ -23041,10 +23056,10 @@
         <v>847</v>
       </c>
       <c r="DP22" s="27" t="s">
+        <v>3239</v>
+      </c>
+      <c r="DQ22" s="27" t="s">
         <v>3240</v>
-      </c>
-      <c r="DQ22" s="27" t="s">
-        <v>3241</v>
       </c>
     </row>
     <row r="23" spans="1:121" x14ac:dyDescent="0.25">
@@ -23091,10 +23106,10 @@
         <v>854</v>
       </c>
       <c r="DP23" s="27" t="s">
+        <v>3241</v>
+      </c>
+      <c r="DQ23" s="27" t="s">
         <v>3242</v>
-      </c>
-      <c r="DQ23" s="27" t="s">
-        <v>3243</v>
       </c>
     </row>
     <row r="24" spans="1:121" x14ac:dyDescent="0.25">
@@ -31362,7 +31377,7 @@
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>3044</v>
@@ -31379,30 +31394,30 @@
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
         <f>IF(B14="Input Data",COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(B14="LookUp",COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,"")))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <f>IF(C14="Input Data",COUNTIFS($A19:$A22,"*$*",C19:C22,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,""),IF(C14="LookUp",COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A21:$A22,"*$*",C21:C22,"")))</f>
         <v>9</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="113">
         <f>IF(D14="Input Data",COUNTIFS($A19:$A22,"*$*",D19:D22,"")+COUNTIFS($A24:$A31,"*$*",D24:D31,""),IF(D14="LookUp",COUNTIFS($A16:$A18,"*$*",D16:D18,"")+COUNTIFS($A21:$A22,"*$*",D21:D22,"")))</f>
         <v>9</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="113">
         <f>IF(E14="Input Data",COUNTIFS($A19:$A22,"*$*",E19:E22,"")+COUNTIFS($A24:$A31,"*$*",E24:E31,""),IF(E14="LookUp",COUNTIFS($A16:$A18,"*$*",E16:E18,"")+COUNTIFS($A21:$A22,"*$*",E21:E22,"")))</f>
         <v>3</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="113">
         <f>IF(F14="Input Data",COUNTIFS($A19:$A22,"*$*",F19:F22,"")+COUNTIFS($A24:$A31,"*$*",F24:F31,""),IF(F14="LookUp",COUNTIFS($A16:$A18,"*$*",F16:F18,"")+COUNTIFS($A21:$A22,"*$*",F21:F22,"")))</f>
         <v>9</v>
       </c>
@@ -31413,8 +31428,8 @@
     <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -31429,7 +31444,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31459,49 +31474,49 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3404</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82" t="s">
-        <v>3181</v>
+        <v>3402</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
+        <v>3180</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>211</v>
@@ -31521,7 +31536,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>48</v>
@@ -31546,15 +31561,15 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
@@ -31562,7 +31577,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -31570,7 +31585,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B27" s="17">
         <v>11530</v>
@@ -31578,31 +31593,31 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>39</v>
@@ -31627,27 +31642,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="171" priority="5">
+    <cfRule type="expression" dxfId="108" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="170" priority="4">
+    <cfRule type="expression" dxfId="107" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="106" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="168" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31708,7 +31723,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" t="s">
         <v>3044</v>
@@ -31725,27 +31740,27 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="INSTANSI PUBLIK DAERAH",B62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="MASYARAKAT",B62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",B62,"")+COUNTIFS($A65:$A66,"*$*",B65:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,"")))))))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <f t="shared" ref="C4:D4" si="0">IF(AND(C13="Input Data",C14="Personal"),COUNTIFS($A19:$A21,"*$*",C19:C21,"")+COUNTIFS($A24:$A33,"*$*",C24:C33,"")+COUNTIFS($A35:$A38,"*$*",C35:C38,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Company"),COUNTIFS($A52:$A57,"*$*",C52:C57,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="INSTANSI PUBLIK DAERAH",C62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",C62:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="MASYARAKAT",C62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",C62,"")+COUNTIFS($A65:$A66,"*$*",C65:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="LookUp",C14="Personal"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A30,"*$*",C30,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,""),IF(AND(C13="LookUp",C14="Company"),COUNTIFS($A49:$A51,"*$*",C49:C51,"")+COUNTIFS($A54,"*$*",C54,"")))))))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="113">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31753,7 +31768,7 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
         <v>7</v>
@@ -31767,26 +31782,26 @@
         <v>0002APP20211200164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
         <v>2410</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>2412</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="89" t="s">
         <v>2412</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="89" t="s">
         <v>2412</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>41</v>
@@ -31795,24 +31810,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>3198</v>
+    <row r="15" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
+        <v>3197</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -31820,15 +31835,15 @@
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>14</v>
@@ -31836,7 +31851,7 @@
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>15</v>
@@ -31857,17 +31872,17 @@
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>19</v>
@@ -31881,7 +31896,7 @@
     </row>
     <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -31898,7 +31913,7 @@
     </row>
     <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>300</v>
@@ -31912,7 +31927,7 @@
     </row>
     <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -31929,25 +31944,25 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="B30" s="83"/>
+        <v>3426</v>
+      </c>
+      <c r="B30" s="82"/>
       <c r="C30" s="32" t="s">
-        <v>3453</v>
-      </c>
-      <c r="D30" s="83"/>
+        <v>3451</v>
+      </c>
+      <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>20</v>
@@ -31955,21 +31970,21 @@
     </row>
     <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -31983,10 +31998,10 @@
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31995,13 +32010,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="B37" s="17" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -32022,24 +32037,24 @@
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C39" s="17">
         <v>70</v>
@@ -32047,7 +32062,7 @@
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>43</v>
@@ -32055,7 +32070,7 @@
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>43</v>
@@ -32063,20 +32078,20 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99" t="s">
-        <v>3195</v>
+    <row r="43" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="98" t="s">
+        <v>3194</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="B44" s="17" t="e">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -32093,7 +32108,7 @@
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>30</v>
@@ -32121,24 +32136,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99" t="s">
-        <v>3194</v>
+    <row r="48" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="98" t="s">
+        <v>3193</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -32146,12 +32161,12 @@
     </row>
     <row r="52" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -32159,7 +32174,7 @@
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="B54" s="2" t="e">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
@@ -32176,12 +32191,12 @@
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>211</v>
@@ -32195,7 +32210,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>48</v>
@@ -32209,7 +32224,7 @@
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B58" s="17">
         <v>50</v>
@@ -32223,7 +32238,7 @@
     </row>
     <row r="59" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>43</v>
@@ -32237,7 +32252,7 @@
     </row>
     <row r="60" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>43</v>
@@ -32249,33 +32264,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="95" t="s">
-        <v>3191</v>
+    <row r="61" spans="1:4" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="94" t="s">
+        <v>3190</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="B64" s="17">
         <v>1297356971</v>
@@ -32283,7 +32298,7 @@
     </row>
     <row r="65" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -32300,21 +32315,21 @@
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B67" s="17">
         <v>30</v>
@@ -32328,7 +32343,7 @@
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>43</v>
@@ -32340,14 +32355,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95" t="s">
+    <row r="69" spans="1:4" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="94" t="s">
         <v>3011</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>107</v>
@@ -32361,21 +32376,21 @@
     </row>
     <row r="71" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B72" s="17">
         <v>1</v>
@@ -32389,7 +32404,7 @@
     </row>
     <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B73" s="17">
         <v>1</v>
@@ -32403,7 +32418,7 @@
     </row>
     <row r="74" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B74" s="17">
         <v>11530</v>
@@ -32417,49 +32432,49 @@
     </row>
     <row r="75" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>38</v>
@@ -32473,37 +32488,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="166" priority="8">
+    <cfRule type="expression" dxfId="103" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="165" priority="10">
+    <cfRule type="expression" dxfId="102" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="164" priority="9">
+    <cfRule type="expression" dxfId="101" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="163" priority="6">
+    <cfRule type="expression" dxfId="100" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="162" priority="5">
+    <cfRule type="expression" dxfId="99" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="161" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32613,7 +32628,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" t="s">
         <v>3044</v>
@@ -32630,30 +32645,30 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <f t="shared" ref="C4:F4" si="0">IF(C13="Input Data",COUNTIFS($A18:$A21,"*$*",C18:C21,"")+COUNTIFS($A23:$A28,"*$*",C23:C28,"")+COUNTIFS($A30:$A31,"*$*",C30:C31,"")+COUNTIFS($A33:$A34,"*$*",C33:C34,"")+IF(C38 = "No",COUNTIFS($A39:$A46,"*$*",C39:C46,""),0),IF(C13="LookUp",COUNTIFS($A15:$A18,"*$*",C15:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>3</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="113">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32664,10 +32679,10 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
+    <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
@@ -32714,14 +32729,14 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
         <v>3013</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -32731,7 +32746,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -32741,7 +32756,7 @@
     </row>
     <row r="17" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -32751,7 +32766,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>9</v>
@@ -32771,27 +32786,27 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>14</v>
@@ -32811,7 +32826,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2417</v>
@@ -32851,7 +32866,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>206</v>
@@ -32871,7 +32886,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3070</v>
@@ -32891,7 +32906,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>208</v>
@@ -32911,7 +32926,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>20</v>
@@ -32931,42 +32946,42 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="C27" s="61" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E27" s="61" t="s">
         <v>3298</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="F27" s="61" t="s">
         <v>3299</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>3300</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>3301</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32981,52 +32996,52 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="98" t="s">
         <v>3010</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -33051,7 +33066,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>30</v>
@@ -33114,8 +33129,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98" t="s">
         <v>3011</v>
       </c>
     </row>
@@ -33141,7 +33156,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3068</v>
@@ -33158,7 +33173,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3067</v>
@@ -33178,7 +33193,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>108</v>
@@ -33198,7 +33213,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>35</v>
@@ -33218,7 +33233,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>36</v>
@@ -33238,7 +33253,7 @@
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>36</v>
@@ -33258,7 +33273,7 @@
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2413</v>
@@ -33278,7 +33293,7 @@
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>38</v>
@@ -33298,22 +33313,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="159" priority="4">
+    <cfRule type="expression" dxfId="96" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="158" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="157" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33482,7 +33497,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" t="s">
         <v>3044</v>
@@ -33499,30 +33514,30 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="114">
+      <c r="C4" s="113">
         <f t="shared" ref="C4:F4" si="0">IF(C13="Input Data",COUNTIFS($A17:$A21,"*$*",C17:C21,"")+IF(C23 = "No",COUNTIFS($A24:$A31,"*$*",C24:C31,""),0),IF(C13="LookUp",COUNTIFS($A15:$A16,"*$*",C15:C16,"")))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="113">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -33533,10 +33548,10 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
+    <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
@@ -33579,14 +33594,14 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="s">
         <v>3013</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -33596,7 +33611,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -33606,7 +33621,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>46</v>
@@ -33626,47 +33641,47 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>211</v>
@@ -33686,7 +33701,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>48</v>
@@ -33704,8 +33719,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
         <v>3011</v>
       </c>
     </row>
@@ -33731,7 +33746,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>3069</v>
@@ -33748,7 +33763,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -33768,7 +33783,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -33788,27 +33803,27 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>3302</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3303</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>3304</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>49</v>
@@ -33828,7 +33843,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>49</v>
@@ -33848,7 +33863,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2413</v>
@@ -33868,7 +33883,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>37</v>
@@ -33888,17 +33903,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="155" priority="3">
+    <cfRule type="expression" dxfId="92" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="154" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="90" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33985,11 +34000,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A18"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34018,7 +34033,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" t="s">
         <v>3044</v>
@@ -34035,15 +34050,15 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3419</v>
-      </c>
-      <c r="B4" s="114">
-        <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
+        <v>3417</v>
+      </c>
+      <c r="B4" s="113">
+        <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
         <v>0</v>
       </c>
     </row>
@@ -34053,12 +34068,12 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -34067,67 +34082,88 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>3248</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>3150</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>3463</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>3455</v>
-      </c>
+        <v>3566</v>
+      </c>
+      <c r="B15" s="71"/>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>3464</v>
+        <v>3460</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>3459</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>3465</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>3458</v>
+        <v>3461</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>3568</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>3466</v>
+        <v>3566</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B23" s="59" t="s">
         <v>3053</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B14">
+  <dataValidations count="2">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B14:B15">
       <formula1>"New, Select SimilarData, Select ApplicationInProcess"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B18"/>
-    <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16"/>
+    <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B20 B17:B18"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34189,7 +34225,7 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -34206,12 +34242,12 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
@@ -34224,15 +34260,15 @@
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
+    <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
@@ -34245,7 +34281,7 @@
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>51</v>
@@ -34277,7 +34313,7 @@
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3071</v>
@@ -34314,7 +34350,7 @@
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
@@ -34337,7 +34373,7 @@
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2408</v>
@@ -34420,7 +34456,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -34437,12 +34473,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -34455,29 +34491,29 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
         <v>3014</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>3307</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>3308</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3309</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3310</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34487,7 +34523,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3074</v>
@@ -34510,29 +34546,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+    <row r="16" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
         <v>3015</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>262</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>3311</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3312</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3314</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34557,7 +34593,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>65</v>
@@ -34577,7 +34613,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="B20" s="17">
         <v>12</v>
@@ -34622,7 +34658,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>218</v>
@@ -34642,7 +34678,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>192</v>
@@ -34662,7 +34698,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>194</v>
@@ -34682,7 +34718,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -34702,7 +34738,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>68</v>
@@ -34725,8 +34761,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+    <row r="29" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
         <v>3016</v>
       </c>
     </row>
@@ -34752,27 +34788,27 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>3145</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>3315</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>3316</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>3317</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>3318</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -34792,7 +34828,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -34812,7 +34848,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B34" s="17">
         <v>11530</v>
@@ -34832,62 +34868,62 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34960,14 +34996,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="s">
+    <row r="49" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="98" t="s">
         <v>3017</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>84</v>
@@ -34992,7 +35028,7 @@
     </row>
     <row r="52" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>223</v>
@@ -35037,7 +35073,7 @@
     </row>
     <row r="54" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>2289</v>
@@ -35055,14 +35091,14 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="99" t="s">
+    <row r="55" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="98" t="s">
         <v>3018</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>119</v>
@@ -35090,19 +35126,19 @@
         <v>91</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>3319</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>3320</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>3322</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35132,7 +35168,7 @@
     </row>
     <row r="60" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>189</v>
@@ -35152,7 +35188,7 @@
     </row>
     <row r="61" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="B61" s="17">
         <v>1</v>
@@ -35172,52 +35208,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="151" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="150" priority="9">
+    <cfRule type="expression" dxfId="87" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="149" priority="8">
+    <cfRule type="expression" dxfId="86" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="148" priority="6">
+    <cfRule type="expression" dxfId="85" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="147" priority="5">
+    <cfRule type="expression" dxfId="84" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="146" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="145" priority="3">
+    <cfRule type="expression" dxfId="82" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="144" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="143" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35348,7 +35384,7 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3044</v>
@@ -35365,12 +35401,12 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="D4" s="17">
         <f>IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A53,"*$*",D42:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A50,"*$*",D42:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,"")))))))))))))))))</f>
@@ -35394,7 +35430,7 @@
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -35405,30 +35441,30 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3075</v>
@@ -35472,66 +35508,66 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="99" t="s">
         <v>3020</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>3080</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>3323</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3324</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>3325</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3326</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="B19" s="46">
         <v>500000000</v>
@@ -35554,7 +35590,7 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3146</v>
@@ -35657,7 +35693,7 @@
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="B25" s="5">
         <v>2022</v>
@@ -35680,7 +35716,7 @@
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>99</v>
@@ -35703,7 +35739,7 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="B27" s="8">
         <v>30</v>
@@ -35726,7 +35762,7 @@
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="B28" s="46">
         <v>100000000</v>
@@ -35749,7 +35785,7 @@
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B29" s="67">
         <v>12398042</v>
@@ -35772,7 +35808,7 @@
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="B30" s="67">
         <v>12039814</v>
@@ -35795,30 +35831,30 @@
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="B32" s="67">
         <v>1238904</v>
@@ -35841,7 +35877,7 @@
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -35850,50 +35886,50 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="99" t="s">
         <v>3021</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3077</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>3328</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>3329</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>3330</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>3331</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+    </row>
+    <row r="36" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="99" t="s">
         <v>3022</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -35920,7 +35956,7 @@
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3071</v>
@@ -35943,7 +35979,7 @@
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>279</v>
@@ -35964,16 +36000,16 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="99" t="s">
         <v>3023</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
     </row>
     <row r="41" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
@@ -36000,7 +36036,7 @@
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>41</v>
@@ -36023,7 +36059,7 @@
     </row>
     <row r="43" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3142</v>
@@ -36046,7 +36082,7 @@
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>279</v>
@@ -36126,7 +36162,7 @@
     </row>
     <row r="48" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>15</v>
@@ -36149,7 +36185,7 @@
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3140</v>
@@ -36193,16 +36229,16 @@
         <v>1231417</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="100" t="s">
-        <v>3456</v>
-      </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
+    <row r="51" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="99" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
     </row>
     <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
@@ -36229,7 +36265,7 @@
     </row>
     <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>107</v>
@@ -36252,7 +36288,7 @@
     </row>
     <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>3143</v>
@@ -36275,7 +36311,7 @@
     </row>
     <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -36298,7 +36334,7 @@
     </row>
     <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -36321,7 +36357,7 @@
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -36344,7 +36380,7 @@
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>3073</v>
@@ -36367,7 +36403,7 @@
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>3072</v>
@@ -36390,7 +36426,7 @@
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>3141</v>
@@ -36411,20 +36447,20 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="100" t="s">
+    <row r="61" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="99" t="s">
         <v>3081</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="115" t="s">
-        <v>3513</v>
+      <c r="A62" s="114" t="s">
+        <v>3510</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>34</v>
@@ -36465,102 +36501,102 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="142" priority="22">
+    <cfRule type="expression" dxfId="79" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="141" priority="21">
+    <cfRule type="expression" dxfId="78" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="140" priority="20">
+    <cfRule type="expression" dxfId="77" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="76" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="138" priority="16">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="137" priority="15">
+    <cfRule type="expression" dxfId="74" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="73" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="135" priority="13">
+    <cfRule type="expression" dxfId="72" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="134" priority="12">
+    <cfRule type="expression" dxfId="71" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="132" priority="10">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="130" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="66" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="125" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -347,10 +347,36 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Fendy Tio:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes = Copy app
+No = Tidak copy app</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,10 +407,36 @@
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Fendy Tio:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yes = Copy app
+No = Tidak copy app</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2789,7 +2841,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="3576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="3576">
   <si>
     <t>Count</t>
   </si>
@@ -19943,7 +19995,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20012,6 +20064,9 @@
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>3570</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -20591,7 +20646,7 @@
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12">
       <formula1>"Amount,Percentage"</formula1>
     </dataValidation>
@@ -20612,6 +20667,9 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:D31 B33:D33 B35:D35 B37:D37 B39:D39 B41:D41 B46:D46 B48:D48 B50:D50 B52:D52">
       <formula1>B$12="Percentage"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20624,9 +20682,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20693,6 +20751,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
+      <c r="B10" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
@@ -20750,10 +20811,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B16">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+35</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31415,9 +31479,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -193,1026 +193,10 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Jika Insured By Customer, hanya perlu mengisi bagian customer. Jika insured by multifinance, hanya perlu mengisi bagian company. Jika insured by customer-multifinance, perlu mengisi keduanya. Jika insured by off system, tidak perlu mengisi keduanya.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-MM/DD/YYYY format date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-MM/DD/YYYY format date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric, wajib diisi jika Cover Period = Partial Tenor atau Over Tenor. Jika cover period = partial tenor, insurance length &lt; tenor. Jika cover period = over tenor, insurance length &gt; tenor.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-jika yes, tidak perlu diisi admin fee &amp; customer stampduty fee. Jika no, perlu mengisinya</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A31" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A45" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no sesuai dengan urutan year num, menggunakan pemisah/delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A46" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi customer/multifinance</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A47" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A51" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A52" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A53" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A54" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A55" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A56" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A59" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A60" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A61" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A62" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A63" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A64" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A65" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A81" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A82" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Diskon akan mengikuti nilai disini jika min ada 1 yearnum yang paid by multifinance, Field ini tidak perlu diisi, karena akan terisi otomatis oleh Katalon.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B88" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Angka ini + 1 = Jumlah Yearnum yang akan terbentuk</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Fendy Tio</author>
-    <author>Jeremy Andreas</author>
-  </authors>
-  <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A17" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A18" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A47" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hanye berlaku jika Installment Type Arrear</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A48" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hanye berlaku jika Installment Type Arrear</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-timpa amount discount insurance pada subsidy? Jika pilih yes, amount existing pada excel akan ditimpa dengan nilai discount paid by multifinance saat menjalankan katalon</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Fendy Tio</author>
-    <author>Jeremy Andreas</author>
-  </authors>
-  <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1236,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1260,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1284,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="1" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,74 +344,13 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
-  </authors>
-  <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="1" shapeId="0">
+    <comment ref="A28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1455,39 +378,13 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="1" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1511,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="1" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1535,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="1" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1559,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1583,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="1" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2495,71 +1392,10 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
-  </authors>
-  <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="1" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2583,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="1" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2607,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2631,7 +1467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1" shapeId="0">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2655,7 +1491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2670,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="1" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2694,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="1" shapeId="0">
+    <comment ref="A51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2718,7 +1554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="1" shapeId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2742,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="1" shapeId="0">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2766,7 +1602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="1" shapeId="0">
+    <comment ref="A58" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2791,7 +1627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A61" authorId="1" shapeId="0">
+    <comment ref="A61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2819,39 +1655,13 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="1" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2879,13 +1689,172 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Fendy Tio</author>
+    <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika Insured By Customer, hanya perlu mengisi bagian customer. Jika insured by multifinance, hanya perlu mengisi bagian company. Jika insured by customer-multifinance, perlu mengisi keduanya. Jika insured by off system, tidak perlu mengisi keduanya.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+MM/DD/YYYY format date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+MM/DD/YYYY format date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric, wajib diisi jika Cover Period = Partial Tenor atau Over Tenor. Jika cover period = partial tenor, insurance length &lt; tenor. Jika cover period = over tenor, insurance length &gt; tenor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+jika yes, tidak perlu diisi admin fee &amp; customer stampduty fee. Jika no, perlu mengisinya</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2895,8 +1864,478 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Fendy Tio:
-</t>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no sesuai dengan urutan year num, menggunakan pemisah/delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi customer/multifinance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A81" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
         </r>
         <r>
           <rPr>
@@ -2905,8 +2344,282 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Yes = Copy app
-No = Tidak copy app</t>
+          <t xml:space="preserve">
+Diskon akan mengikuti nilai disini jika min ada 1 yearnum yang paid by multifinance, Field ini tidak perlu diisi, karena akan terisi otomatis oleh Katalon.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B88" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Angka ini + 1 = Jumlah Yearnum yang akan terbentuk</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jeremy Andreas</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hanye berlaku jika Installment Type Arrear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hanye berlaku jika Installment Type Arrear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+timpa amount discount insurance pada subsidy? Jika pilih yes, amount existing pada excel akan ditimpa dengan nilai discount paid by multifinance saat menjalankan katalon</t>
         </r>
       </text>
     </comment>
@@ -3076,7 +2789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="3576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="3576">
   <si>
     <t>Count</t>
   </si>
@@ -14501,6 +14214,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -14520,8 +14235,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -14540,6 +14253,195 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="172">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15306,195 +15208,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -16094,8 +15807,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="171"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="170"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16105,7 +15818,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16115,7 +15828,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16125,7 +15838,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16135,7 +15848,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16145,7 +15858,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="153"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16155,7 +15868,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="152"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16165,7 +15878,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="151"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16175,7 +15888,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="150"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16185,8 +15898,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="149"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="148"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16196,8 +15909,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="147"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="146"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16207,8 +15920,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="169"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="168"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16218,7 +15931,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16228,7 +15941,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16238,7 +15951,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16248,7 +15961,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16258,7 +15971,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16268,7 +15981,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16278,7 +15991,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="139"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16288,7 +16001,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16298,7 +16011,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="137"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16308,7 +16021,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16318,8 +16031,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="167"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="166"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16328,7 +16041,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="135"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16338,7 +16051,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="134"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16348,7 +16061,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16357,7 +16070,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="132"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16367,7 +16080,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16377,7 +16090,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="130"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16387,7 +16100,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="129"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16397,7 +16110,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16407,7 +16120,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="127"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16417,7 +16130,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16427,8 +16140,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="165"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="164"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16438,7 +16151,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="125"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16448,7 +16161,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16458,7 +16171,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="123"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16468,7 +16181,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="122"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16478,7 +16191,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="121"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16488,7 +16201,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="120"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16498,7 +16211,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="119"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16508,7 +16221,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="118"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16518,8 +16231,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="117"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="116"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16529,8 +16242,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="115"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="114"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16540,8 +16253,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="163"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="162"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16551,8 +16264,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="113"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="112"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16562,8 +16275,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="111"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="110"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16573,7 +16286,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="109"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16583,7 +16296,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16593,7 +16306,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16603,7 +16316,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16613,7 +16326,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16969,13 +16682,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17053,8 +16766,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -17257,26 +16971,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="121" priority="5">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:H16 B21:H21"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:H17">
       <formula1>ISNUMBER(B17)</formula1>
@@ -17290,13 +17004,9 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:H19">
       <formula1>AND(B18="Percentage",ISNUMBER(B19))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17308,7 +17018,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17375,17 +17085,18 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="119" t="s">
         <v>3023</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="130"/>
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18625,10 +18336,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="124" t="s">
+      <c r="A87" s="126" t="s">
         <v>3166</v>
       </c>
-      <c r="B87" s="125"/>
+      <c r="B87" s="127"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="79" t="s">
@@ -18639,10 +18350,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="126" t="s">
+      <c r="A89" s="128" t="s">
         <v>3165</v>
       </c>
-      <c r="B89" s="127"/>
+      <c r="B89" s="129"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="72" t="s">
@@ -18654,14 +18365,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="123" t="s">
+      <c r="A91" s="125" t="s">
         <v>3172</v>
       </c>
-      <c r="B91" s="123"/>
+      <c r="B91" s="125"/>
     </row>
     <row r="92" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="123"/>
-      <c r="B92" s="123"/>
+      <c r="A92" s="125"/>
+      <c r="B92" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18671,96 +18382,96 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="118" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="116" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="52" priority="15">
+    <cfRule type="expression" dxfId="115" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="112" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="111" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="110" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="109" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="108" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="107" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="43" priority="6">
+    <cfRule type="expression" dxfId="106" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="105" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="15">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:F26">
       <formula1>IF(OR(B$12="Multifinance",B$12="Customer - Multifinance"),ListInscoBranchName)</formula1>
     </dataValidation>
@@ -18804,9 +18515,6 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18832,7 +18540,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18900,8 +18608,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -19645,151 +19354,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="99" priority="31">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="98" priority="35">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="97" priority="34">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="95" priority="32">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="94" priority="30">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="93" priority="29">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="92" priority="28">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="91" priority="27">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="90" priority="26">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="89" priority="23">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B37:F37">
       <formula1>IF(B$20="No",ListProvisionCalculationBase)</formula1>
     </dataValidation>
@@ -19824,9 +19533,6 @@
     <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16:F16"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B41:F41">
       <formula1>AND(B$20="No",B26="Yes",ISNUMBER(B27))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19914,7 +19620,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19999,8 +19705,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -20077,7 +19784,7 @@
   <mergeCells count="1">
     <mergeCell ref="A20:B20"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C13"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>B15&lt;&gt;""</formula1>
@@ -20085,9 +19792,6 @@
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B14:B15 B17"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>B12&lt;&gt;""</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20097,13 +19801,13 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20172,8 +19876,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -20240,7 +19945,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:E15">
       <formula1>"Anakom Detail, Foto Bangunan, Foto Customer/ Interview, Foto Lingkungan, Foto Usaha, Hasil Survey Vendor, Lainnya, Peta, Web Screening"</formula1>
     </dataValidation>
@@ -20248,12 +19953,8 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:C15">
       <formula1>"Anakom Detail, Foto Bangunan, Foto Customer/ Interview, Foto Lingkungan, Foto Usaha, Hasil Survey Vendor, Lainnya, Peta, Web Screening"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20334,8 +20035,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -20886,36 +20588,36 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="67" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12">
       <formula1>"Amount,Percentage"</formula1>
     </dataValidation>
@@ -20936,9 +20638,6 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:D31 B33:D33 B35:D35 B37:D37 B39:D39 B41:D41 B46:D46 B48:D48 B50:D50 B52:D52">
       <formula1>B$12="Percentage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20953,7 +20652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21020,8 +20719,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
@@ -21080,13 +20780,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B16">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+35</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21100,7 +20797,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
@@ -31748,7 +31445,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -31885,15 +31582,15 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
+    <row r="15" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="119" t="s">
         <v>3008</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
@@ -31977,15 +31674,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="128" t="s">
+    <row r="23" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="119" t="s">
         <v>3010</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
@@ -32070,27 +31767,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="108" priority="5">
+    <cfRule type="expression" dxfId="171" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="107" priority="4">
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="106" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="168" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32124,7 +31821,7 @@
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32203,6 +31900,14 @@
       <c r="A10" s="31" t="s">
         <v>3570</v>
       </c>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32924,37 +32629,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="103" priority="8">
+    <cfRule type="expression" dxfId="166" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="165" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="101" priority="9">
+    <cfRule type="expression" dxfId="164" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="100" priority="6">
+    <cfRule type="expression" dxfId="163" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="99" priority="5">
+    <cfRule type="expression" dxfId="162" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33032,7 +32737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33118,6 +32823,10 @@
       <c r="A10" s="31" t="s">
         <v>3570</v>
       </c>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
@@ -33753,22 +33462,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="96" priority="4">
+    <cfRule type="expression" dxfId="159" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="158" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="157" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="156" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33904,7 +33613,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33991,6 +33700,10 @@
       <c r="A10" s="31" t="s">
         <v>3570</v>
       </c>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
@@ -34347,17 +34060,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="154" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="90" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34616,13 +34329,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34707,8 +34420,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -34852,7 +34566,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:E16">
       <formula1>ISNUMBER(B16)</formula1>
     </dataValidation>
@@ -34865,13 +34579,9 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B17:E17">
       <formula1>"Gross, Nett"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34883,7 +34593,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34949,8 +34659,9 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -35670,52 +35381,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="152" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="151" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="150" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="86" priority="8">
+    <cfRule type="expression" dxfId="149" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="85" priority="6">
+    <cfRule type="expression" dxfId="148" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="84" priority="5">
+    <cfRule type="expression" dxfId="147" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="146" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="145" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="144" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35790,9 +35501,6 @@
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:F20 B57:F57">
       <formula1>ISNUMBER(B20)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35820,7 +35528,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35887,18 +35595,19 @@
       <c r="A10" s="17" t="s">
         <v>3570</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="122" t="s">
         <v>3018</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -36973,106 +36682,106 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="79" priority="22">
+    <cfRule type="expression" dxfId="142" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="78" priority="21">
+    <cfRule type="expression" dxfId="141" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="140" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="76" priority="19">
+    <cfRule type="expression" dxfId="139" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="138" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="74" priority="15">
+    <cfRule type="expression" dxfId="137" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="73" priority="14">
+    <cfRule type="expression" dxfId="136" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="135" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="71" priority="12">
+    <cfRule type="expression" dxfId="134" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="133" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="132" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="68" priority="9">
+    <cfRule type="expression" dxfId="131" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="66" priority="7">
+    <cfRule type="expression" dxfId="129" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="128" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="127" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="126" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="125" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="124" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="123" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="32">
+  <dataValidations count="31">
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B18:G18">
       <formula1>"New, Used"</formula1>
     </dataValidation>
@@ -37166,9 +36875,6 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:G39">
       <formula1>IF(D37="No",ListGuarantorRelationshipCompany)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2789,7 +2789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="3576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="3574">
   <si>
     <t>Count</t>
   </si>
@@ -13517,13 +13517,7 @@
     <t>$Product Offering Code</t>
   </si>
   <si>
-    <t>Mandatory tidak lengkap dan berhasil save</t>
-  </si>
-  <si>
     <t>0002APP20211204068</t>
-  </si>
-  <si>
-    <t>Failed Copy App</t>
   </si>
 </sst>
 </file>
@@ -16686,9 +16680,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16762,15 +16756,7 @@
     <row r="7" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>3570</v>
-      </c>
-      <c r="B10" s="17" t="str">
-        <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
-      </c>
-    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -17033,7 +17019,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -18556,7 +18542,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -19636,7 +19622,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>7</v>
@@ -19824,7 +19810,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3065</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -19841,7 +19827,7 @@
         <v>3293</v>
       </c>
       <c r="B2" t="s">
-        <v>3575</v>
+        <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -19981,7 +19967,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -20667,7 +20653,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -20797,7 +20783,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
@@ -31464,7 +31450,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>7</v>
@@ -31484,7 +31470,7 @@
         <v>3293</v>
       </c>
       <c r="B2" t="s">
-        <v>3573</v>
+        <v>3043</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>3043</v>
@@ -31559,7 +31545,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34353,7 +34339,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -34607,7 +34593,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -35430,7 +35416,7 @@
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="25">
+  <dataValidations count="24">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:F56">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
@@ -35543,7 +35529,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2789,7 +2789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="3605">
   <si>
     <t>Count</t>
   </si>
@@ -12323,9 +12323,6 @@
     <t>202202183977214</t>
   </si>
   <si>
-    <t>04/02/2000</t>
-  </si>
-  <si>
     <t>mama joko</t>
   </si>
   <si>
@@ -12536,15 +12533,9 @@
     <t>INSTANSI PUBLIK DAERAH</t>
   </si>
   <si>
-    <t>PERUSAHAAN</t>
-  </si>
-  <si>
     <t>JL PODO</t>
   </si>
   <si>
-    <t>085101710719899</t>
-  </si>
-  <si>
     <t>06/27/2022</t>
   </si>
   <si>
@@ -12554,12 +12545,6 @@
     <t>D2361TEAD</t>
   </si>
   <si>
-    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP);SURAT KETERANGAN DOMISILI USAHA (SKDU);AKTA PENDIRIAN BADAN USAHA DAN PERUBAHANNYA;LAPORAN KEUANGAN</t>
-  </si>
-  <si>
-    <t>06/27/2022;06/27/2022;06/27/2022;06/27/2022;06/27/2022</t>
-  </si>
-  <si>
     <t>Theft &amp; Robbery</t>
   </si>
   <si>
@@ -13136,388 +13121,496 @@
     <t>$Customer Relationship</t>
   </si>
   <si>
-    <t>mama sule</t>
-  </si>
-  <si>
-    <t>sule@gmail.com</t>
-  </si>
-  <si>
     <t>2839485728374827</t>
   </si>
   <si>
+    <t>Asset Owner &amp; Asset Location Address</t>
+  </si>
+  <si>
+    <t>jl podo</t>
+  </si>
+  <si>
+    <t>$AppNo</t>
+  </si>
+  <si>
+    <t>$Customer Action</t>
+  </si>
+  <si>
+    <t>$Family Name</t>
+  </si>
+  <si>
+    <t>$Family Action</t>
+  </si>
+  <si>
+    <t>$Guarantor Name</t>
+  </si>
+  <si>
+    <t>$Guarantor Action</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>$Referantor Category</t>
+  </si>
+  <si>
+    <t>$Referantor Name</t>
+  </si>
+  <si>
+    <t>$Bank Account (Index)</t>
+  </si>
+  <si>
+    <t>$Tax Calculation Method</t>
+  </si>
+  <si>
+    <t>$MO Code</t>
+  </si>
+  <si>
+    <t>$MO Name</t>
+  </si>
+  <si>
+    <t>$Application Source</t>
+  </si>
+  <si>
+    <t>$Payment Frequency</t>
+  </si>
+  <si>
+    <t>$Tenor</t>
+  </si>
+  <si>
+    <t>$Floating Period</t>
+  </si>
+  <si>
+    <t>$Installment Scheme</t>
+  </si>
+  <si>
+    <t>$Way Of Payment</t>
+  </si>
+  <si>
+    <t>$Customer Bank Account (Index)</t>
+  </si>
+  <si>
+    <t>$Customer Notification By</t>
+  </si>
+  <si>
+    <t>$Characteristic of Credit</t>
+  </si>
+  <si>
+    <t>$Way of Restructure</t>
+  </si>
+  <si>
+    <t>$Economic Sector Description</t>
+  </si>
+  <si>
+    <t>$Blacklist APPI</t>
+  </si>
+  <si>
+    <t>$Ref Master App Data Description</t>
+  </si>
+  <si>
+    <t>$Jumlah Asset</t>
+  </si>
+  <si>
+    <t>$Supplier Code</t>
+  </si>
+  <si>
+    <t>$Supplier Name</t>
+  </si>
+  <si>
+    <t>$Sales Person</t>
+  </si>
+  <si>
+    <t>$Asset Code</t>
+  </si>
+  <si>
+    <t>$Asset Condition</t>
+  </si>
+  <si>
+    <t>$Asset Price</t>
+  </si>
+  <si>
+    <t>$Asset Usage</t>
+  </si>
+  <si>
+    <t>$Manufacturing Year</t>
+  </si>
+  <si>
+    <t>$Down Payment Type</t>
+  </si>
+  <si>
+    <t>$Down Payment %</t>
+  </si>
+  <si>
+    <t>$Down Payment Amt</t>
+  </si>
+  <si>
+    <t>$Chasis Number</t>
+  </si>
+  <si>
+    <t>$Engine Number</t>
+  </si>
+  <si>
+    <t>$License Plate Number</t>
+  </si>
+  <si>
+    <t>$Serial 4</t>
+  </si>
+  <si>
+    <t>$Serial 5</t>
+  </si>
+  <si>
+    <t>$Asset Region</t>
+  </si>
+  <si>
+    <t>$User Name</t>
+  </si>
+  <si>
+    <t>$User Relationship</t>
+  </si>
+  <si>
+    <t>$Owner Type</t>
+  </si>
+  <si>
+    <t>$Owner Name</t>
+  </si>
+  <si>
+    <t>$Owner Relationship</t>
+  </si>
+  <si>
+    <t>$Owner ID Type</t>
+  </si>
+  <si>
+    <t>$Owner ID No</t>
+  </si>
+  <si>
+    <t>$Copy Address From</t>
+  </si>
+  <si>
+    <t>$Check Rapindo</t>
+  </si>
+  <si>
+    <t>$Accessories Name</t>
+  </si>
+  <si>
+    <t>$Accessories Price</t>
+  </si>
+  <si>
+    <t>Is Complete Mandatory</t>
+  </si>
+  <si>
+    <t>$Insured By</t>
+  </si>
+  <si>
+    <t>$Insco Branch Name</t>
+  </si>
+  <si>
+    <t>$Coverage Amount</t>
+  </si>
+  <si>
+    <t>$Start Date</t>
+  </si>
+  <si>
+    <t>$End Date</t>
+  </si>
+  <si>
+    <t>$Cover Period</t>
+  </si>
+  <si>
+    <t>$Payment Type</t>
+  </si>
+  <si>
+    <t>$Insurance Length</t>
+  </si>
+  <si>
+    <t>$Main Coverage</t>
+  </si>
+  <si>
+    <t>$Flood</t>
+  </si>
+  <si>
+    <t>$TPL</t>
+  </si>
+  <si>
+    <t>$Act of God</t>
+  </si>
+  <si>
+    <t>$SRCC</t>
+  </si>
+  <si>
+    <t>$Tanggung Jawab Hukum Terhadap Penumpang</t>
+  </si>
+  <si>
+    <t>$Kecelakaan Diri Untuk Penumpang</t>
+  </si>
+  <si>
+    <t>$Terrorist</t>
+  </si>
+  <si>
+    <t>$Theft &amp; Robbery</t>
+  </si>
+  <si>
+    <t>$Subsidy From Type</t>
+  </si>
+  <si>
+    <t>$Allocation From</t>
+  </si>
+  <si>
+    <t>$Subsidy Source</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Type</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Amount</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Percentage</t>
+  </si>
+  <si>
+    <t>$Grace Period</t>
+  </si>
+  <si>
+    <t>$Grace Period Type</t>
+  </si>
+  <si>
+    <t>$Promise Date</t>
+  </si>
+  <si>
+    <t>$Document path</t>
+  </si>
+  <si>
+    <t>$Nama Document</t>
+  </si>
+  <si>
+    <t>$Customer</t>
+  </si>
+  <si>
+    <t>$Take Action</t>
+  </si>
+  <si>
+    <t>$Family</t>
+  </si>
+  <si>
+    <t>$Guarantor</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>CountofGuarantorPersonal</t>
+  </si>
+  <si>
+    <t>CountofGuarantorCompany</t>
+  </si>
+  <si>
+    <t>CountofManagementShareholder</t>
+  </si>
+  <si>
+    <t>Capitalize if GS_Value Partial</t>
+  </si>
+  <si>
+    <t>Full Capitalize Amount</t>
+  </si>
+  <si>
+    <t>Capitalize Amount</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Jika ada penambahan field, ditempatkan pada row sesuai dengan urutan pada rule file dengan nama field diawali dengan $</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 1</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 2</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 3</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 4</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 5</t>
+  </si>
+  <si>
+    <t>Reserve Fund Amt</t>
+  </si>
+  <si>
+    <t>Negative Check</t>
+  </si>
+  <si>
+    <t>Copy App</t>
+  </si>
+  <si>
+    <t>$Copy App no</t>
+  </si>
+  <si>
+    <t>$Product Offering Code</t>
+  </si>
+  <si>
     <t>08/12/2000</t>
   </si>
   <si>
-    <t>12/20/2020</t>
-  </si>
-  <si>
-    <t>0812738126322</t>
-  </si>
-  <si>
-    <t>Sule</t>
-  </si>
-  <si>
-    <t>Asset Owner &amp; Asset Location Address</t>
-  </si>
-  <si>
-    <t>jl podo</t>
-  </si>
-  <si>
-    <t>JOKO;PT ASAP</t>
-  </si>
-  <si>
-    <t>$AppNo</t>
-  </si>
-  <si>
-    <t>$Customer Action</t>
-  </si>
-  <si>
-    <t>$Family Name</t>
-  </si>
-  <si>
-    <t>$Family Action</t>
-  </si>
-  <si>
-    <t>$Guarantor Name</t>
-  </si>
-  <si>
-    <t>$Guarantor Action</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>$Referantor Category</t>
-  </si>
-  <si>
-    <t>$Referantor Name</t>
-  </si>
-  <si>
-    <t>$Bank Account (Index)</t>
-  </si>
-  <si>
-    <t>$Tax Calculation Method</t>
-  </si>
-  <si>
-    <t>$MO Code</t>
-  </si>
-  <si>
-    <t>$MO Name</t>
-  </si>
-  <si>
-    <t>$Application Source</t>
-  </si>
-  <si>
-    <t>$Payment Frequency</t>
-  </si>
-  <si>
-    <t>$Tenor</t>
-  </si>
-  <si>
-    <t>$Floating Period</t>
-  </si>
-  <si>
-    <t>$Installment Scheme</t>
-  </si>
-  <si>
-    <t>$Way Of Payment</t>
-  </si>
-  <si>
-    <t>$Customer Bank Account (Index)</t>
-  </si>
-  <si>
-    <t>$Customer Notification By</t>
-  </si>
-  <si>
-    <t>$Characteristic of Credit</t>
-  </si>
-  <si>
-    <t>$Way of Restructure</t>
-  </si>
-  <si>
-    <t>$Economic Sector Description</t>
-  </si>
-  <si>
-    <t>$Blacklist APPI</t>
-  </si>
-  <si>
-    <t>$Ref Master App Data Description</t>
-  </si>
-  <si>
-    <t>$Jumlah Asset</t>
-  </si>
-  <si>
-    <t>$Supplier Code</t>
-  </si>
-  <si>
-    <t>$Supplier Name</t>
-  </si>
-  <si>
-    <t>$Sales Person</t>
-  </si>
-  <si>
-    <t>$Asset Code</t>
-  </si>
-  <si>
-    <t>$Asset Condition</t>
-  </si>
-  <si>
-    <t>$Asset Price</t>
-  </si>
-  <si>
-    <t>$Asset Usage</t>
-  </si>
-  <si>
-    <t>$Manufacturing Year</t>
-  </si>
-  <si>
-    <t>$Down Payment Type</t>
-  </si>
-  <si>
-    <t>$Down Payment %</t>
-  </si>
-  <si>
-    <t>$Down Payment Amt</t>
-  </si>
-  <si>
-    <t>$Chasis Number</t>
-  </si>
-  <si>
-    <t>$Engine Number</t>
-  </si>
-  <si>
-    <t>$License Plate Number</t>
-  </si>
-  <si>
-    <t>$Serial 4</t>
-  </si>
-  <si>
-    <t>$Serial 5</t>
-  </si>
-  <si>
-    <t>$Asset Region</t>
-  </si>
-  <si>
-    <t>$User Name</t>
-  </si>
-  <si>
-    <t>$User Relationship</t>
-  </si>
-  <si>
-    <t>$Owner Type</t>
-  </si>
-  <si>
-    <t>$Owner Name</t>
-  </si>
-  <si>
-    <t>$Owner Relationship</t>
-  </si>
-  <si>
-    <t>$Owner ID Type</t>
-  </si>
-  <si>
-    <t>$Owner ID No</t>
-  </si>
-  <si>
-    <t>$Copy Address From</t>
-  </si>
-  <si>
-    <t>$Check Rapindo</t>
-  </si>
-  <si>
-    <t>$Accessories Code</t>
-  </si>
-  <si>
-    <t>$Accessories Name</t>
-  </si>
-  <si>
-    <t>$Accessories Price</t>
-  </si>
-  <si>
-    <t>Is Complete Mandatory</t>
-  </si>
-  <si>
-    <t>$Insured By</t>
-  </si>
-  <si>
-    <t>$Insco Branch Name</t>
-  </si>
-  <si>
-    <t>$Coverage Amount</t>
-  </si>
-  <si>
-    <t>$Start Date</t>
-  </si>
-  <si>
-    <t>$End Date</t>
-  </si>
-  <si>
-    <t>$Cover Period</t>
-  </si>
-  <si>
-    <t>$Payment Type</t>
-  </si>
-  <si>
-    <t>$Insurance Length</t>
-  </si>
-  <si>
-    <t>$Main Coverage</t>
-  </si>
-  <si>
-    <t>$Flood</t>
-  </si>
-  <si>
-    <t>$TPL</t>
-  </si>
-  <si>
-    <t>$Act of God</t>
-  </si>
-  <si>
-    <t>$SRCC</t>
-  </si>
-  <si>
-    <t>$Tanggung Jawab Hukum Terhadap Penumpang</t>
-  </si>
-  <si>
-    <t>$Kecelakaan Diri Untuk Penumpang</t>
-  </si>
-  <si>
-    <t>$Terrorist</t>
-  </si>
-  <si>
-    <t>$Theft &amp; Robbery</t>
-  </si>
-  <si>
-    <t>$Subsidy From Type</t>
-  </si>
-  <si>
-    <t>$Subsid From Value</t>
-  </si>
-  <si>
-    <t>$Allocation From</t>
-  </si>
-  <si>
-    <t>$Subsidy Source</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Type</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Amount</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Percentage</t>
-  </si>
-  <si>
-    <t>$Grace Period</t>
-  </si>
-  <si>
-    <t>$Grace Period Type</t>
-  </si>
-  <si>
-    <t>$Promise Date</t>
-  </si>
-  <si>
-    <t>$Document path</t>
-  </si>
-  <si>
-    <t>$Nama Document</t>
-  </si>
-  <si>
-    <t>$Customer</t>
-  </si>
-  <si>
-    <t>$Take Action</t>
-  </si>
-  <si>
-    <t>$Family</t>
-  </si>
-  <si>
-    <t>$Guarantor</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Data Entry</t>
-  </si>
-  <si>
-    <t>CountofGuarantorPersonal</t>
-  </si>
-  <si>
-    <t>CountofGuarantorCompany</t>
-  </si>
-  <si>
-    <t>CountofManagementShareholder</t>
-  </si>
-  <si>
-    <t>Capitalize if GS_Value Partial</t>
-  </si>
-  <si>
-    <t>Full Capitalize Amount</t>
-  </si>
-  <si>
-    <t>Capitalize Amount</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Jika ada penambahan field, ditempatkan pada row sesuai dengan urutan pada rule file dengan nama field diawali dengan $</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 1</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 2</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 3</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 4</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 5</t>
-  </si>
-  <si>
-    <t>Reserve Fund Amt</t>
-  </si>
-  <si>
-    <t>PT DIRE</t>
-  </si>
-  <si>
-    <t>Select ApplicationInProcess</t>
-  </si>
-  <si>
-    <t>Negative Check</t>
-  </si>
-  <si>
-    <t>Benny;PT TWICE</t>
+    <t>CopyApp</t>
+  </si>
+  <si>
+    <t>PT POLO</t>
+  </si>
+  <si>
+    <t>283746273847283</t>
+  </si>
+  <si>
+    <t>andre</t>
+  </si>
+  <si>
+    <t>0872692378123</t>
+  </si>
+  <si>
+    <t>mama andre</t>
+  </si>
+  <si>
+    <t>andre@gmail.com</t>
+  </si>
+  <si>
+    <t>08128392133</t>
+  </si>
+  <si>
+    <t>08/04/2000</t>
+  </si>
+  <si>
+    <t>219639712649812</t>
+  </si>
+  <si>
+    <t>mama jason</t>
+  </si>
+  <si>
+    <t>jason@gmail.com</t>
+  </si>
+  <si>
+    <t>273928372536283</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>PT aja</t>
+  </si>
+  <si>
+    <t>283726382938273</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Andre;PT AJA</t>
+  </si>
+  <si>
+    <t>New;New</t>
+  </si>
+  <si>
+    <t>Jason;PT LOPO</t>
+  </si>
+  <si>
+    <t>Yes;</t>
   </si>
   <si>
     <t>Select ApplicationInProcess;New</t>
   </si>
   <si>
-    <t>Kevin;Pt Trave</t>
-  </si>
-  <si>
-    <t>Select ApplicationInProcess;Select ApplicationInProcess</t>
-  </si>
-  <si>
-    <t>Yes;</t>
-  </si>
-  <si>
-    <t>Copy App</t>
-  </si>
-  <si>
-    <t>$Copy App no</t>
-  </si>
-  <si>
-    <t>$Product Offering Code</t>
-  </si>
-  <si>
-    <t>0002APP20211204068</t>
+    <t>SULE;PT AJA</t>
+  </si>
+  <si>
+    <t>JASON;PT LOPO</t>
+  </si>
+  <si>
+    <t>FT TIO</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>0002APP20211204108</t>
+  </si>
+  <si>
+    <t>PT BOD</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Failed Delete[JOHN]</t>
+  </si>
+  <si>
+    <t>Muncul Error Alert</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>Accessories Code</t>
+  </si>
+  <si>
+    <t>Mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>0002APP20211203401</t>
+  </si>
+  <si>
+    <t>D2361TEAD1</t>
+  </si>
+  <si>
+    <t>0002SB20211103134</t>
+  </si>
+  <si>
+    <t>MRA_BLACKBOX</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>$Subsidy From Value</t>
+  </si>
+  <si>
+    <t>Multifinance;Supplier</t>
+  </si>
+  <si>
+    <t>;MRA SUPPLIER COMPANY</t>
+  </si>
+  <si>
+    <t>Discount Admin Fee;SUBSIDY DP</t>
+  </si>
+  <si>
+    <t>Other Income;AP DEDUCTION</t>
+  </si>
+  <si>
+    <t>Amount;Amount</t>
+  </si>
+  <si>
+    <t>50000;10000</t>
+  </si>
+  <si>
+    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP)</t>
+  </si>
+  <si>
+    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP);TANDA DAFTAR PERUSAHAAN (TDP);KTP DIREKSI;KTP KOMISARIS</t>
+  </si>
+  <si>
+    <t>;;;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURAT KETERANGAN DOMISILI USAHA (SKDU);AKTA PENDIRIAN BADAN USAHA DAN PERUBAHANNYA;LAPORAN KEUANGAN </t>
+  </si>
+  <si>
+    <t>02/02/2025;12/19/2025;09/24/2024</t>
+  </si>
+  <si>
+    <t>Edit NAP</t>
   </si>
 </sst>
 </file>
@@ -14246,7 +14339,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="173">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -14779,6 +14872,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16590,10 +16690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16611,16 +16711,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>3550</v>
+        <v>3535</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3548</v>
+        <v>3533</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3549</v>
+        <v>3534</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3546</v>
+        <v>3532</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -16639,30 +16739,38 @@
       </c>
       <c r="B2" s="17">
         <f>COUNTA('2.TabManagementShareholderData'!B12:XFD12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="17">
         <f>COUNTA('3a.TabGuarantorDataPersonal'!B12:XFD12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="17">
         <f>COUNTA('3b.TabGuarantorDataCompany'!B12:XFD12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3547</v>
+        <v>3591</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTA('7a.Accessories'!B12:XFD12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA('11.TabUploadDocument'!B12:XFD12)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -16680,9 +16788,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16698,11 +16806,11 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -16722,10 +16830,10 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3586</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -16739,16 +16847,20 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <f>IF(C18="Amount",COUNTIFS($A13:$A18,"*$*",C13:C18,"")+COUNTIFS($A20:$A20,"*$*",C20:C20,""),IF(C18="Percentage",COUNTIFS($A13:$A18,"*$*",C13:C18,"")+COUNTIFS($A19:$A19,"*$*",C19:C19,"")))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -16769,13 +16881,25 @@
       <c r="A12" s="63" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+        <v>3584</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3589</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -16784,7 +16908,7 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3150</v>
@@ -16810,10 +16934,14 @@
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3509</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+        <v>3585</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3590</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -16822,7 +16950,7 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3510</v>
+        <v>3497</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3077</v>
@@ -16848,10 +16976,10 @@
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3511</v>
+        <v>3498</v>
       </c>
       <c r="B17" s="26">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="C17" s="26">
         <v>10000001</v>
@@ -16874,7 +17002,7 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3491</v>
+        <v>3479</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>108</v>
@@ -16900,7 +17028,7 @@
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3492</v>
+        <v>3480</v>
       </c>
       <c r="B19" s="17">
         <v>12</v>
@@ -16926,7 +17054,7 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3493</v>
+        <v>3481</v>
       </c>
       <c r="B20" s="26">
         <v>0</v>
@@ -16956,28 +17084,33 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:XFD19">
-    <cfRule type="expression" dxfId="122" priority="6">
-      <formula>B$18="Amount"</formula>
+  <conditionalFormatting sqref="C19:XFD19">
+    <cfRule type="expression" dxfId="123" priority="7">
+      <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="119" priority="1">
+      <formula>B$18="Amount"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:H16 B21:H21"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:H21 D12:H16 B13:C16"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:H17">
       <formula1>ISNUMBER(B17)</formula1>
     </dataValidation>
@@ -17004,7 +17137,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17033,7 +17166,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -17050,12 +17183,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -17066,14 +17199,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
@@ -17087,7 +17225,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3513</v>
+        <v>3500</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>109</v>
@@ -17117,7 +17255,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3514</v>
+        <v>3501</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3143</v>
@@ -17137,7 +17275,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3515</v>
+        <v>3502</v>
       </c>
       <c r="B15" s="25">
         <v>700000000</v>
@@ -17167,7 +17305,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3516</v>
+        <v>3503</v>
       </c>
       <c r="B18" s="61">
         <v>44197</v>
@@ -17187,7 +17325,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3517</v>
+        <v>3504</v>
       </c>
       <c r="B19" s="61">
         <v>44741</v>
@@ -17222,7 +17360,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>3499</v>
+        <v>3487</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>195</v>
@@ -17237,12 +17375,12 @@
         <v>266</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3515</v>
+        <v>3502</v>
       </c>
       <c r="B23" s="25">
         <v>300000000</v>
@@ -17262,7 +17400,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3518</v>
+        <v>3505</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>267</v>
@@ -17282,7 +17420,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3519</v>
+        <v>3506</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>192</v>
@@ -17302,22 +17440,22 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3514</v>
+        <v>3501</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>3000</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17327,7 +17465,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3520</v>
+        <v>3507</v>
       </c>
       <c r="B28" s="17">
         <v>16</v>
@@ -17427,7 +17565,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3521</v>
+        <v>3508</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>122</v>
@@ -17457,7 +17595,7 @@
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3522</v>
+        <v>3509</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>118</v>
@@ -17477,7 +17615,7 @@
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3523</v>
+        <v>3510</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>118</v>
@@ -17497,7 +17635,7 @@
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3524</v>
+        <v>3511</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>118</v>
@@ -17517,7 +17655,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3525</v>
+        <v>3512</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>118</v>
@@ -17537,7 +17675,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3526</v>
+        <v>3513</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>118</v>
@@ -17557,7 +17695,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3527</v>
+        <v>3514</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>118</v>
@@ -17577,7 +17715,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3528</v>
+        <v>3515</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>118</v>
@@ -17597,7 +17735,7 @@
     </row>
     <row r="43" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>3529</v>
+        <v>3516</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>118</v>
@@ -17630,19 +17768,19 @@
         <v>3154</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17650,19 +17788,19 @@
         <v>3155</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17670,19 +17808,19 @@
         <v>3156</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
       <c r="D47" s="74" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17690,19 +17828,19 @@
         <v>121</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -17720,19 +17858,19 @@
         <v>124</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17740,19 +17878,19 @@
         <v>125</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17760,19 +17898,19 @@
         <v>126</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="F52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17780,19 +17918,19 @@
         <v>127</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17800,19 +17938,19 @@
         <v>128</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17820,19 +17958,19 @@
         <v>129</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="F55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17840,39 +17978,39 @@
         <v>130</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.25">
@@ -17885,19 +18023,19 @@
         <v>3158</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17905,19 +18043,19 @@
         <v>3159</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>3343</v>
+        <v>3338</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17925,19 +18063,19 @@
         <v>3160</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17945,19 +18083,19 @@
         <v>3162</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17965,19 +18103,19 @@
         <v>3161</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17985,19 +18123,19 @@
         <v>3163</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18022,27 +18160,27 @@
     </row>
     <row r="66" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -18052,7 +18190,7 @@
     </row>
     <row r="68" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -18062,27 +18200,27 @@
     </row>
     <row r="69" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="B70" s="87"/>
       <c r="C70" s="87"/>
@@ -18092,7 +18230,7 @@
     </row>
     <row r="71" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -18102,147 +18240,147 @@
     </row>
     <row r="72" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="73" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="B78" s="74" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C78" s="74" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -18285,29 +18423,29 @@
         <v>3167</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>3390</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="116" t="s">
-        <v>3551</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>3552</v>
+        <v>3537</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>88</v>
@@ -18315,7 +18453,7 @@
     </row>
     <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>3553</v>
+        <v>3538</v>
       </c>
       <c r="B85" s="17">
         <v>2000000</v>
@@ -18526,7 +18664,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18542,7 +18680,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3065</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -18556,10 +18694,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3577</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -18573,30 +18711,35 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B81)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -18610,13 +18753,10 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>3530</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>109</v>
+        <v>3517</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>109</v>
+        <v>3593</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>109</v>
@@ -18630,18 +18770,18 @@
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>3531</v>
+        <v>3592</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>3594</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>3532</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>141</v>
+        <v>3518</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>141</v>
+        <v>3595</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>141</v>
@@ -18655,13 +18795,10 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>3533</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>142</v>
+        <v>3519</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>142</v>
+        <v>3596</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>142</v>
@@ -18675,13 +18812,10 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>3534</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>3520</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>98</v>
+        <v>3597</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>98</v>
@@ -18695,13 +18829,10 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>3535</v>
-      </c>
-      <c r="B17">
-        <v>1000000</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1000001</v>
+        <v>3521</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3598</v>
       </c>
       <c r="D17" s="16">
         <v>1000002</v>
@@ -18715,7 +18846,10 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>3536</v>
+        <v>3522</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>3450</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -18773,7 +18907,7 @@
         <v>144</v>
       </c>
       <c r="B22" s="25">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="C22" s="25">
         <v>0</v>
@@ -18813,7 +18947,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="25">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="C24" s="25">
         <v>50000</v>
@@ -19113,7 +19247,7 @@
         <v>162</v>
       </c>
       <c r="B39" s="65">
-        <v>17500000</v>
+        <v>20484000</v>
       </c>
       <c r="C39" s="65">
         <v>17500000</v>
@@ -19183,7 +19317,7 @@
         <v>165</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>166</v>
@@ -19203,7 +19337,7 @@
         <v>167</v>
       </c>
       <c r="B44" s="2">
-        <v>10.007128</v>
+        <v>9.9862149999999996</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -19223,7 +19357,7 @@
         <v>166</v>
       </c>
       <c r="B45" s="2">
-        <v>20</v>
+        <v>5.4913720000000001</v>
       </c>
       <c r="C45" s="2">
         <v>20</v>
@@ -19243,7 +19377,7 @@
         <v>168</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>42</v>
@@ -19260,10 +19394,10 @@
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>3537</v>
+        <v>3523</v>
       </c>
       <c r="B47" s="17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C47" s="17">
         <v>13</v>
@@ -19280,10 +19414,7 @@
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3538</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>3050</v>
+        <v>3524</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>3050</v>
@@ -19303,7 +19434,7 @@
         <v>3149</v>
       </c>
       <c r="B49" s="77">
-        <v>175961000</v>
+        <v>100000000</v>
       </c>
       <c r="C49" s="77">
         <v>175961001</v>
@@ -19515,7 +19646,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B50:F50">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:F15 B17:F18 B49:F49"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:F49 B17:F18 B12:F15"/>
     <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16:F16"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B41:F41">
       <formula1>AND(B$20="No",B26="Yes",ISNUMBER(B27))</formula1>
@@ -19606,7 +19737,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19636,7 +19767,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -19653,13 +19784,13 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -19684,16 +19815,19 @@
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -19702,12 +19836,12 @@
       <c r="B11" s="84"/>
       <c r="C11" s="93"/>
     </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2418</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3252</v>
+        <v>3600</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3005</v>
@@ -19715,10 +19849,10 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>3539</v>
+        <v>3525</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>3253</v>
+        <v>3601</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -19729,25 +19863,31 @@
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>2420</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>3602</v>
+      </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2421</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>3603</v>
+      </c>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2422</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="66" t="s">
+        <v>3599</v>
+      </c>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19791,9 +19931,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19824,7 +19964,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
         <v>3043</v>
@@ -19841,12 +19981,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -19857,14 +19997,19 @@
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -19874,16 +20019,16 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>3540</v>
+        <v>3526</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>171</v>
@@ -19894,13 +20039,13 @@
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3541</v>
+        <v>3527</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19922,7 +20067,7 @@
         <v>176</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3392</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19981,7 +20126,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -19998,12 +20143,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -20019,11 +20164,11 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -20062,7 +20207,7 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -20241,16 +20386,16 @@
     </row>
     <row r="29" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>3152</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3393</v>
+        <v>3388</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>3394</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20261,10 +20406,10 @@
         <v>3148</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20275,10 +20420,10 @@
         <v>3153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20289,10 +20434,10 @@
         <v>3148</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20303,10 +20448,10 @@
         <v>3153</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20317,10 +20462,10 @@
         <v>3148</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20331,10 +20476,10 @@
         <v>3153</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20345,10 +20490,10 @@
         <v>3148</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20359,10 +20504,10 @@
         <v>3153</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20373,10 +20518,10 @@
         <v>3148</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20387,10 +20532,10 @@
         <v>3153</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20401,10 +20546,10 @@
         <v>3148</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D40" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20415,10 +20560,10 @@
         <v>3153</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -20439,16 +20584,16 @@
     </row>
     <row r="44" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>3151</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>3400</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20667,7 +20812,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20684,12 +20829,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -20703,22 +20848,22 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
-        <v>3561</v>
+        <v>3546</v>
       </c>
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>3556</v>
+        <v>3541</v>
       </c>
       <c r="B12" s="37">
         <v>1000000</v>
@@ -20726,7 +20871,7 @@
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>3557</v>
+        <v>3542</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -20734,7 +20879,7 @@
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>3558</v>
+        <v>3543</v>
       </c>
       <c r="B14" s="39">
         <v>0</v>
@@ -20742,7 +20887,7 @@
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>3559</v>
+        <v>3544</v>
       </c>
       <c r="B15" s="39">
         <v>10</v>
@@ -20750,7 +20895,7 @@
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>3560</v>
+        <v>3545</v>
       </c>
       <c r="B16" s="39">
         <v>10</v>
@@ -20759,10 +20904,10 @@
     <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>3554</v>
+        <v>3539</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3555</v>
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
@@ -20785,7 +20930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20799,8 +20944,8 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -20814,7 +20959,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20831,12 +20976,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
@@ -20848,65 +20993,73 @@
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3542</v>
+        <v>3528</v>
       </c>
       <c r="B13" t="s">
-        <v>3246</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3544</v>
+        <v>3530</v>
       </c>
       <c r="B15" t="s">
-        <v>3462</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3545</v>
+        <v>3531</v>
       </c>
       <c r="B17" t="s">
-        <v>3455</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -21194,13 +21347,13 @@
         <v>2449</v>
       </c>
       <c r="DP1" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="DQ1" s="27" t="s">
         <v>3199</v>
       </c>
-      <c r="DQ1" s="27" t="s">
-        <v>3200</v>
-      </c>
       <c r="DS1" s="27" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
@@ -21389,13 +21542,13 @@
         <v>198</v>
       </c>
       <c r="DP2" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
         <v>3201</v>
       </c>
-      <c r="DQ2" s="27" t="s">
-        <v>3202</v>
-      </c>
       <c r="DS2" s="27" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.25">
@@ -21586,13 +21739,13 @@
         <v>574</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="DQ3" s="27" t="s">
         <v>107</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
@@ -21753,13 +21906,13 @@
         <v>581</v>
       </c>
       <c r="DP4" s="27" t="s">
+        <v>3203</v>
+      </c>
+      <c r="DQ4" s="27" t="s">
         <v>3204</v>
       </c>
-      <c r="DQ4" s="27" t="s">
-        <v>3205</v>
-      </c>
       <c r="DS4" s="27" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
@@ -21902,13 +22055,13 @@
         <v>588</v>
       </c>
       <c r="DP5" s="27" t="s">
+        <v>3205</v>
+      </c>
+      <c r="DQ5" s="27" t="s">
         <v>3206</v>
       </c>
-      <c r="DQ5" s="27" t="s">
-        <v>3207</v>
-      </c>
       <c r="DS5" s="27" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
@@ -22033,10 +22186,10 @@
         <v>595</v>
       </c>
       <c r="DP6" s="27" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="DQ6" s="27" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
@@ -22140,10 +22293,10 @@
         <v>602</v>
       </c>
       <c r="DP7" s="27" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="DQ7" s="27" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
@@ -22244,10 +22397,10 @@
         <v>609</v>
       </c>
       <c r="DP8" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="DQ8" s="27" t="s">
         <v>3210</v>
-      </c>
-      <c r="DQ8" s="27" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
@@ -22337,10 +22490,10 @@
         <v>616</v>
       </c>
       <c r="DP9" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="DQ9" s="27" t="s">
         <v>3212</v>
-      </c>
-      <c r="DQ9" s="27" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
@@ -22424,10 +22577,10 @@
         <v>906</v>
       </c>
       <c r="DP10" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="DQ10" s="27" t="s">
         <v>3214</v>
-      </c>
-      <c r="DQ10" s="27" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
@@ -22501,10 +22654,10 @@
         <v>912</v>
       </c>
       <c r="DP11" s="27" t="s">
+        <v>3215</v>
+      </c>
+      <c r="DQ11" s="27" t="s">
         <v>3216</v>
-      </c>
-      <c r="DQ11" s="27" t="s">
-        <v>3217</v>
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
@@ -22576,10 +22729,10 @@
         <v>919</v>
       </c>
       <c r="DP12" s="27" t="s">
+        <v>3217</v>
+      </c>
+      <c r="DQ12" s="27" t="s">
         <v>3218</v>
-      </c>
-      <c r="DQ12" s="27" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
@@ -22647,10 +22800,10 @@
         <v>925</v>
       </c>
       <c r="DP13" s="27" t="s">
+        <v>3219</v>
+      </c>
+      <c r="DQ13" s="27" t="s">
         <v>3220</v>
-      </c>
-      <c r="DQ13" s="27" t="s">
-        <v>3221</v>
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
@@ -22719,10 +22872,10 @@
         <v>932</v>
       </c>
       <c r="DP14" s="27" t="s">
+        <v>3221</v>
+      </c>
+      <c r="DQ14" s="27" t="s">
         <v>3222</v>
-      </c>
-      <c r="DQ14" s="27" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
@@ -22784,10 +22937,10 @@
         <v>939</v>
       </c>
       <c r="DP15" s="27" t="s">
+        <v>3223</v>
+      </c>
+      <c r="DQ15" s="27" t="s">
         <v>3224</v>
-      </c>
-      <c r="DQ15" s="27" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
@@ -22840,10 +22993,10 @@
         <v>799</v>
       </c>
       <c r="DP16" s="27" t="s">
+        <v>3225</v>
+      </c>
+      <c r="DQ16" s="27" t="s">
         <v>3226</v>
-      </c>
-      <c r="DQ16" s="27" t="s">
-        <v>3227</v>
       </c>
     </row>
     <row r="17" spans="1:121" x14ac:dyDescent="0.25">
@@ -22896,10 +23049,10 @@
         <v>806</v>
       </c>
       <c r="DP17" s="27" t="s">
+        <v>3227</v>
+      </c>
+      <c r="DQ17" s="27" t="s">
         <v>3228</v>
-      </c>
-      <c r="DQ17" s="27" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="18" spans="1:121" x14ac:dyDescent="0.25">
@@ -22946,10 +23099,10 @@
         <v>818</v>
       </c>
       <c r="DP18" s="27" t="s">
+        <v>3229</v>
+      </c>
+      <c r="DQ18" s="27" t="s">
         <v>3230</v>
-      </c>
-      <c r="DQ18" s="27" t="s">
-        <v>3231</v>
       </c>
     </row>
     <row r="19" spans="1:121" x14ac:dyDescent="0.25">
@@ -22996,10 +23149,10 @@
         <v>825</v>
       </c>
       <c r="DP19" s="27" t="s">
+        <v>3231</v>
+      </c>
+      <c r="DQ19" s="27" t="s">
         <v>3232</v>
-      </c>
-      <c r="DQ19" s="27" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="20" spans="1:121" x14ac:dyDescent="0.25">
@@ -23046,10 +23199,10 @@
         <v>832</v>
       </c>
       <c r="DP20" s="27" t="s">
+        <v>3233</v>
+      </c>
+      <c r="DQ20" s="27" t="s">
         <v>3234</v>
-      </c>
-      <c r="DQ20" s="27" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="21" spans="1:121" x14ac:dyDescent="0.25">
@@ -23096,10 +23249,10 @@
         <v>839</v>
       </c>
       <c r="DP21" s="27" t="s">
+        <v>3235</v>
+      </c>
+      <c r="DQ21" s="27" t="s">
         <v>3236</v>
-      </c>
-      <c r="DQ21" s="27" t="s">
-        <v>3237</v>
       </c>
     </row>
     <row r="22" spans="1:121" x14ac:dyDescent="0.25">
@@ -23146,10 +23299,10 @@
         <v>846</v>
       </c>
       <c r="DP22" s="27" t="s">
+        <v>3237</v>
+      </c>
+      <c r="DQ22" s="27" t="s">
         <v>3238</v>
-      </c>
-      <c r="DQ22" s="27" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="23" spans="1:121" x14ac:dyDescent="0.25">
@@ -23196,10 +23349,10 @@
         <v>853</v>
       </c>
       <c r="DP23" s="27" t="s">
+        <v>3239</v>
+      </c>
+      <c r="DQ23" s="27" t="s">
         <v>3240</v>
-      </c>
-      <c r="DQ23" s="27" t="s">
-        <v>3241</v>
       </c>
     </row>
     <row r="24" spans="1:121" x14ac:dyDescent="0.25">
@@ -31433,7 +31586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31450,7 +31603,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>7</v>
@@ -31467,9 +31620,9 @@
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3043</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -31484,16 +31637,16 @@
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B10="Edit",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B10="Edit",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""),IF(B10="Yes",COUNTIFS($A9,"*$*",B9,""),IF(AND(B10="No",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(AND(B10="No",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="113">
         <f t="shared" ref="C4:F4" si="0">IF(AND(C10="Yes",C14="Input Data"),COUNTIFS($A19:$A22,"*$*",C19:C22,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,"")+COUNTIFS($A12,"*$*",C12,""),IF(AND(C10="Yes",C14="LookUp"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A21:$A22,"*$*",C21:C22,""),IF(C10="No",COUNTIFS($A12,"*$*",C12,""),IF(C14="Input Data",COUNTIFS($A19:$A22,"*$*",C19:C22,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,""),IF(C14="LookUp",COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A21:$A22,"*$*",C21:C22,""))))))</f>
@@ -31515,18 +31668,25 @@
     <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>3604</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3571</v>
+        <v>3549</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>3578</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -31534,7 +31694,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3572</v>
+        <v>3550</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>3078</v>
@@ -31544,8 +31704,8 @@
       <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>3573</v>
+      <c r="B13" s="16" t="s">
+        <v>3587</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31553,7 +31713,7 @@
         <v>2409</v>
       </c>
       <c r="B14" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>2411</v>
@@ -31580,49 +31740,49 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3246</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3248</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>210</v>
@@ -31642,7 +31802,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>47</v>
@@ -31672,15 +31832,15 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
@@ -31688,7 +31848,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -31696,7 +31856,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B27" s="17">
         <v>11530</v>
@@ -31704,31 +31864,31 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>38</v>
@@ -31753,27 +31913,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="171" priority="5">
+    <cfRule type="expression" dxfId="172" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="170" priority="4">
+    <cfRule type="expression" dxfId="171" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="170" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="168" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="168" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31805,9 +31965,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31824,13 +31984,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>7</v>
@@ -31838,16 +31998,16 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
-        <v>3043</v>
+        <v>3577</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>3043</v>
+      <c r="D2" t="s">
+        <v>3577</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3043</v>
@@ -31855,12 +32015,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="INSTANSI PUBLIK DAERAH",B62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="MASYARAKAT",B62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",B62,"")+COUNTIFS($A65:$A66,"*$*",B65:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,"")))))))</f>
@@ -31872,7 +32032,7 @@
       </c>
       <c r="D4" s="113">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
@@ -31881,18 +32041,27 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31902,11 +32071,15 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.25">
@@ -31925,10 +32098,10 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>40</v>
@@ -31939,22 +32112,22 @@
     </row>
     <row r="15" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -31962,15 +32135,15 @@
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3452</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>13</v>
@@ -31978,7 +32151,7 @@
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>14</v>
@@ -31999,17 +32172,17 @@
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3451</v>
+        <v>3556</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>18</v>
@@ -32023,7 +32196,7 @@
     </row>
     <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>3421</v>
+        <v>3416</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -32040,7 +32213,7 @@
     </row>
     <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>299</v>
@@ -32054,7 +32227,7 @@
     </row>
     <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -32071,25 +32244,25 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>3425</v>
+        <v>3420</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="32" t="s">
-        <v>3450</v>
+        <v>3565</v>
       </c>
       <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>19</v>
@@ -32097,21 +32270,21 @@
     </row>
     <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>3449</v>
+      <c r="C32" s="32" t="s">
+        <v>3551</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>3448</v>
+        <v>3441</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -32125,10 +32298,10 @@
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3446</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32137,13 +32310,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3447</v>
+        <v>3558</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="B37" s="17" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -32164,32 +32337,32 @@
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="C39" s="17">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>42</v>
@@ -32197,7 +32370,7 @@
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>42</v>
@@ -32205,7 +32378,7 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>42</v>
@@ -32213,12 +32386,12 @@
     </row>
     <row r="43" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="98" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="B44" s="17" t="e">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -32235,7 +32408,7 @@
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>29</v>
@@ -32265,22 +32438,22 @@
     </row>
     <row r="48" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="98" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -32288,20 +32461,25 @@
     </row>
     <row r="52" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>3417</v>
+        <v>3412</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>3566</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>3567</v>
+      </c>
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B54" s="2" t="e">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
@@ -32311,19 +32489,22 @@
         <f>VLOOKUP(C55,Master!$DP:$DQ,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="2" t="e">
+      <c r="D54" s="2" t="str">
         <f>VLOOKUP(D55,Master!$DP:$DQ,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>02</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>3202</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>210</v>
@@ -32337,7 +32518,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>47</v>
@@ -32351,21 +32532,21 @@
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B58" s="17">
         <v>50</v>
       </c>
       <c r="C58" s="17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>42</v>
@@ -32379,7 +32560,7 @@
     </row>
     <row r="60" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>42</v>
@@ -32393,31 +32574,25 @@
     </row>
     <row r="61" spans="1:4" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>3243</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>3243</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
       <c r="B64" s="17">
         <v>1297356971</v>
@@ -32425,7 +32600,7 @@
     </row>
     <row r="65" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -32442,21 +32617,21 @@
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B67" s="17">
         <v>30</v>
@@ -32470,7 +32645,7 @@
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>42</v>
@@ -32489,10 +32664,7 @@
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>106</v>
+        <v>3183</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>106</v>
@@ -32503,21 +32675,21 @@
     </row>
     <row r="71" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>3454</v>
+        <v>3443</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B72" s="17">
         <v>1</v>
@@ -32531,7 +32703,7 @@
     </row>
     <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B73" s="17">
         <v>1</v>
@@ -32545,7 +32717,7 @@
     </row>
     <row r="74" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B74" s="17">
         <v>11530</v>
@@ -32559,49 +32731,49 @@
     </row>
     <row r="75" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>37</v>
@@ -32615,37 +32787,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="166" priority="8">
+    <cfRule type="expression" dxfId="167" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="165" priority="10">
+    <cfRule type="expression" dxfId="166" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="164" priority="9">
+    <cfRule type="expression" dxfId="165" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="163" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="162" priority="5">
+    <cfRule type="expression" dxfId="163" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="161" priority="4">
+    <cfRule type="expression" dxfId="162" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32665,7 +32837,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">
       <formula1>IF(C13="Input Data",ListIdType)</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:D26 B28:D28 B30:D30 B33:D33 B37:D37 B64:D64"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:D26 B28:D28 B30:D30 B33:D33 B37:D37 B64:D64 C32"/>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:D23">
       <formula1>"Single, Married, Widow"</formula1>
     </dataValidation>
@@ -32723,7 +32895,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32738,7 +32910,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3581</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -32755,10 +32927,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
-        <v>3043</v>
+        <v>3582</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -32772,12 +32944,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -32804,14 +32976,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -32825,24 +33002,9 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
-      </c>
-      <c r="C12" s="43">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f>'1.TabCustomerMainData'!$E$13</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f>'1.TabCustomerMainData'!$F$13</f>
-        <v>0</v>
-      </c>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -32871,7 +33033,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -32881,7 +33043,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -32891,7 +33053,7 @@
     </row>
     <row r="17" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -32901,7 +33063,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>8</v>
@@ -32921,10 +33083,10 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3173</v>
+        <v>3580</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>3173</v>
@@ -32941,7 +33103,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>13</v>
@@ -32961,7 +33123,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2416</v>
@@ -33001,10 +33163,10 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>205</v>
@@ -33021,10 +33183,10 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3069</v>
+        <v>3559</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3069</v>
@@ -33041,7 +33203,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>207</v>
@@ -33061,7 +33223,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>19</v>
@@ -33081,30 +33243,30 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>3175</v>
+        <v>3560</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3174</v>
+        <v>3561</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3174</v>
@@ -33131,42 +33293,42 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3176</v>
+        <v>3562</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3177</v>
+        <v>3563</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -33176,7 +33338,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -33201,7 +33363,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>29</v>
@@ -33291,7 +33453,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3067</v>
@@ -33308,7 +33470,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3066</v>
@@ -33328,7 +33490,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>107</v>
@@ -33348,7 +33510,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -33368,7 +33530,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>35</v>
@@ -33388,7 +33550,7 @@
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>35</v>
@@ -33408,7 +33570,7 @@
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2412</v>
@@ -33428,7 +33590,7 @@
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>37</v>
@@ -33448,22 +33610,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="159" priority="4">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="158" priority="3">
+    <cfRule type="expression" dxfId="159" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="157" priority="2">
+    <cfRule type="expression" dxfId="158" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33599,7 +33761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33615,7 +33777,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -33627,14 +33789,14 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -33646,15 +33808,18 @@
       <c r="E2" s="17" t="s">
         <v>3043</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>3043</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -33681,14 +33846,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -33702,20 +33872,9 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
-      </c>
-      <c r="D12" s="43">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f>'1.TabCustomerMainData'!$E$13</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f>'1.TabCustomerMainData'!$F$13</f>
-        <v>0</v>
-      </c>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -33744,7 +33903,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -33754,7 +33913,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -33764,7 +33923,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>45</v>
@@ -33784,47 +33943,47 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>3292</v>
+        <v>3579</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3178</v>
+        <v>3564</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>210</v>
@@ -33844,7 +34003,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>47</v>
@@ -33889,7 +34048,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>3068</v>
@@ -33906,7 +34065,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -33926,7 +34085,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -33946,27 +34105,27 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3299</v>
+        <v>3294</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3301</v>
+        <v>3296</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>48</v>
@@ -33986,7 +34145,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>48</v>
@@ -34006,7 +34165,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2412</v>
@@ -34026,7 +34185,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>36</v>
@@ -34046,17 +34205,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="155" priority="3">
+    <cfRule type="expression" dxfId="156" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="154" priority="2">
+    <cfRule type="expression" dxfId="155" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34162,7 +34321,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -34176,7 +34335,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
         <v>3043</v>
@@ -34193,12 +34352,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
@@ -34210,87 +34369,90 @@
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+    </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>3562</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>3457</v>
+        <v>3445</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>3563</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B15" s="71"/>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>3458</v>
+        <v>3446</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>3459</v>
+        <v>3447</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>3566</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>42</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>3460</v>
+        <v>3448</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>3461</v>
+        <v>3449</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>3569</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -34321,7 +34483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34339,10 +34501,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -34368,10 +34530,10 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3583</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -34385,15 +34547,19 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <f>COUNTIFS($A13:$A17,"*$*",C13:C17,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -34401,14 +34567,19 @@
     <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -34425,14 +34596,20 @@
       <c r="A12" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3463</v>
+        <v>3451</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>50</v>
@@ -34464,13 +34641,13 @@
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3464</v>
+        <v>3452</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3070</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3070</v>
+        <v>3576</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3070</v>
@@ -34501,13 +34678,13 @@
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="17">
         <v>3</v>
@@ -34524,13 +34701,13 @@
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3466</v>
+        <v>3454</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2407</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2407</v>
+        <v>52</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>2407</v>
@@ -34576,10 +34753,10 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34593,7 +34770,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -34607,7 +34784,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -34624,12 +34801,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -34640,14 +34817,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -34657,22 +34839,22 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3467</v>
+        <v>3455</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34682,7 +34864,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3468</v>
+        <v>3456</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3073</v>
@@ -34712,22 +34894,22 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3469</v>
+        <v>3457</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34752,7 +34934,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3470</v>
+        <v>3458</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>64</v>
@@ -34772,7 +34954,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3471</v>
+        <v>3459</v>
       </c>
       <c r="B20" s="17">
         <v>12</v>
@@ -34794,13 +34976,16 @@
       <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>63</v>
@@ -34817,10 +35002,10 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>3472</v>
+        <v>3460</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>217</v>
+        <v>3043</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>217</v>
@@ -34837,7 +35022,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>3473</v>
+        <v>3461</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>191</v>
@@ -34857,7 +35042,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3474</v>
+        <v>3462</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>193</v>
@@ -34877,7 +35062,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3475</v>
+        <v>3463</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -34897,7 +35082,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>3476</v>
+        <v>3464</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>67</v>
@@ -34919,6 +35104,9 @@
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="B28" s="17" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
@@ -34929,9 +35117,6 @@
       <c r="A30" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="17" t="s">
         <v>71</v>
       </c>
@@ -34947,27 +35132,27 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>3144</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -34987,7 +35172,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -35007,7 +35192,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B34" s="17">
         <v>11530</v>
@@ -35027,62 +35212,62 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35162,7 +35347,7 @@
     </row>
     <row r="50" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>3477</v>
+        <v>3465</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>83</v>
@@ -35187,7 +35372,7 @@
     </row>
     <row r="52" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>3478</v>
+        <v>3466</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>222</v>
@@ -35232,7 +35417,7 @@
     </row>
     <row r="54" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>3479</v>
+        <v>3467</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>2288</v>
@@ -35257,7 +35442,7 @@
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>3480</v>
+        <v>3468</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>118</v>
@@ -35279,25 +35464,28 @@
       <c r="A57" s="17" t="s">
         <v>89</v>
       </c>
+      <c r="B57" s="17">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35327,7 +35515,7 @@
     </row>
     <row r="60" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>3481</v>
+        <v>3469</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>188</v>
@@ -35347,7 +35535,7 @@
     </row>
     <row r="61" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>3482</v>
+        <v>3470</v>
       </c>
       <c r="B61" s="17">
         <v>1</v>
@@ -35367,52 +35555,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="151" priority="10">
+    <cfRule type="expression" dxfId="152" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="150" priority="9">
+    <cfRule type="expression" dxfId="151" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="149" priority="8">
+    <cfRule type="expression" dxfId="150" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="148" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="147" priority="5">
+    <cfRule type="expression" dxfId="148" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="146" priority="4">
+    <cfRule type="expression" dxfId="147" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="145" priority="3">
+    <cfRule type="expression" dxfId="146" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="144" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="143" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35514,7 +35702,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35528,7 +35716,7 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -35543,7 +35731,7 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -35560,12 +35748,12 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="D4" s="17">
         <f>IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A53,"*$*",D42:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A50,"*$*",D42:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,"")))))))))))))))))</f>
@@ -35576,14 +35764,19 @@
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
@@ -35597,7 +35790,7 @@
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3483</v>
+        <v>3471</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -35608,7 +35801,7 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3150</v>
@@ -35631,7 +35824,7 @@
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3485</v>
+        <v>3473</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3074</v>
@@ -35688,53 +35881,53 @@
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3486</v>
+        <v>3474</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>3079</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3487</v>
+        <v>3475</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3488</v>
+        <v>3476</v>
       </c>
       <c r="B19" s="46">
         <v>500000000</v>
@@ -35757,7 +35950,7 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3489</v>
+        <v>3477</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3145</v>
@@ -35860,7 +36053,7 @@
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3490</v>
+        <v>3478</v>
       </c>
       <c r="B25" s="5">
         <v>2022</v>
@@ -35883,7 +36076,7 @@
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>3491</v>
+        <v>3479</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>98</v>
@@ -35906,10 +36099,10 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3492</v>
+        <v>3480</v>
       </c>
       <c r="B27" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27" s="8">
         <v>30</v>
@@ -35929,7 +36122,7 @@
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3493</v>
+        <v>3481</v>
       </c>
       <c r="B28" s="46">
         <v>100000000</v>
@@ -35952,10 +36145,10 @@
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>3494</v>
+        <v>3482</v>
       </c>
       <c r="B29" s="67">
-        <v>12398042</v>
+        <v>123980421</v>
       </c>
       <c r="C29" s="67">
         <v>12398042</v>
@@ -35975,10 +36168,10 @@
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>3495</v>
+        <v>3483</v>
       </c>
       <c r="B30" s="67">
-        <v>12039814</v>
+        <v>120398141</v>
       </c>
       <c r="C30" s="67">
         <v>12039814</v>
@@ -35998,33 +36191,33 @@
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>3496</v>
+        <v>3484</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>3251</v>
+        <v>3588</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>3497</v>
+        <v>3485</v>
       </c>
       <c r="B32" s="67">
-        <v>1238904</v>
+        <v>12389041</v>
       </c>
       <c r="C32" s="67">
         <v>1238905</v>
@@ -36044,7 +36237,7 @@
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>3498</v>
+        <v>3486</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -36066,25 +36259,25 @@
     </row>
     <row r="35" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>3499</v>
+        <v>3487</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3076</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -36123,7 +36316,7 @@
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3500</v>
+        <v>3488</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3070</v>
@@ -36146,7 +36339,7 @@
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3501</v>
+        <v>3489</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>278</v>
@@ -36203,10 +36396,10 @@
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3502</v>
+        <v>3490</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>43</v>
@@ -36226,7 +36419,7 @@
     </row>
     <row r="43" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3503</v>
+        <v>3491</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3141</v>
@@ -36249,10 +36442,10 @@
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3504</v>
+        <v>3492</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>278</v>
@@ -36329,7 +36522,7 @@
     </row>
     <row r="48" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3505</v>
+        <v>3493</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>14</v>
@@ -36352,7 +36545,7 @@
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>3506</v>
+        <v>3494</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3139</v>
@@ -36398,7 +36591,7 @@
     </row>
     <row r="51" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>3453</v>
+        <v>3442</v>
       </c>
       <c r="B51" s="100"/>
       <c r="C51" s="100"/>
@@ -36412,7 +36605,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>42</v>
@@ -36432,7 +36625,7 @@
     </row>
     <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>3507</v>
+        <v>3495</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>106</v>
@@ -36455,7 +36648,7 @@
     </row>
     <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>3142</v>
@@ -36478,7 +36671,7 @@
     </row>
     <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -36501,7 +36694,7 @@
     </row>
     <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -36524,7 +36717,7 @@
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -36547,7 +36740,7 @@
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>3072</v>
@@ -36570,7 +36763,7 @@
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>3071</v>
@@ -36593,7 +36786,7 @@
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>3140</v>
@@ -36627,7 +36820,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="114" t="s">
-        <v>3508</v>
+        <v>3496</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>33</v>
@@ -36668,102 +36861,102 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="142" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="141" priority="21">
+    <cfRule type="expression" dxfId="142" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="140" priority="20">
+    <cfRule type="expression" dxfId="141" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="140" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="138" priority="16">
+    <cfRule type="expression" dxfId="139" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="137" priority="15">
+    <cfRule type="expression" dxfId="138" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="137" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="135" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="134" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="134" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="132" priority="10">
+    <cfRule type="expression" dxfId="133" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="132" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="130" priority="8">
+    <cfRule type="expression" dxfId="131" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="130" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="129" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="125" priority="3">
+    <cfRule type="expression" dxfId="126" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="125" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2789,7 +2789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="3609">
   <si>
     <t>Count</t>
   </si>
@@ -12323,9 +12323,6 @@
     <t>202202183977214</t>
   </si>
   <si>
-    <t>04/02/2000</t>
-  </si>
-  <si>
     <t>mama joko</t>
   </si>
   <si>
@@ -12536,15 +12533,9 @@
     <t>INSTANSI PUBLIK DAERAH</t>
   </si>
   <si>
-    <t>PERUSAHAAN</t>
-  </si>
-  <si>
     <t>JL PODO</t>
   </si>
   <si>
-    <t>085101710719899</t>
-  </si>
-  <si>
     <t>06/27/2022</t>
   </si>
   <si>
@@ -12554,12 +12545,6 @@
     <t>D2361TEAD</t>
   </si>
   <si>
-    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP);SURAT KETERANGAN DOMISILI USAHA (SKDU);AKTA PENDIRIAN BADAN USAHA DAN PERUBAHANNYA;LAPORAN KEUANGAN</t>
-  </si>
-  <si>
-    <t>06/27/2022;06/27/2022;06/27/2022;06/27/2022;06/27/2022</t>
-  </si>
-  <si>
     <t>Theft &amp; Robbery</t>
   </si>
   <si>
@@ -13136,388 +13121,508 @@
     <t>$Customer Relationship</t>
   </si>
   <si>
-    <t>mama sule</t>
-  </si>
-  <si>
-    <t>sule@gmail.com</t>
-  </si>
-  <si>
     <t>2839485728374827</t>
   </si>
   <si>
+    <t>Asset Owner &amp; Asset Location Address</t>
+  </si>
+  <si>
+    <t>jl podo</t>
+  </si>
+  <si>
+    <t>$AppNo</t>
+  </si>
+  <si>
+    <t>$Customer Action</t>
+  </si>
+  <si>
+    <t>$Family Name</t>
+  </si>
+  <si>
+    <t>$Family Action</t>
+  </si>
+  <si>
+    <t>$Guarantor Name</t>
+  </si>
+  <si>
+    <t>$Guarantor Action</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>$Referantor Category</t>
+  </si>
+  <si>
+    <t>$Referantor Name</t>
+  </si>
+  <si>
+    <t>$Bank Account (Index)</t>
+  </si>
+  <si>
+    <t>$Tax Calculation Method</t>
+  </si>
+  <si>
+    <t>$MO Code</t>
+  </si>
+  <si>
+    <t>$MO Name</t>
+  </si>
+  <si>
+    <t>$Application Source</t>
+  </si>
+  <si>
+    <t>$Payment Frequency</t>
+  </si>
+  <si>
+    <t>$Tenor</t>
+  </si>
+  <si>
+    <t>$Floating Period</t>
+  </si>
+  <si>
+    <t>$Installment Scheme</t>
+  </si>
+  <si>
+    <t>$Way Of Payment</t>
+  </si>
+  <si>
+    <t>$Customer Bank Account (Index)</t>
+  </si>
+  <si>
+    <t>$Customer Notification By</t>
+  </si>
+  <si>
+    <t>$Characteristic of Credit</t>
+  </si>
+  <si>
+    <t>$Way of Restructure</t>
+  </si>
+  <si>
+    <t>$Economic Sector Description</t>
+  </si>
+  <si>
+    <t>$Blacklist APPI</t>
+  </si>
+  <si>
+    <t>$Ref Master App Data Description</t>
+  </si>
+  <si>
+    <t>$Jumlah Asset</t>
+  </si>
+  <si>
+    <t>$Supplier Code</t>
+  </si>
+  <si>
+    <t>$Supplier Name</t>
+  </si>
+  <si>
+    <t>$Sales Person</t>
+  </si>
+  <si>
+    <t>$Asset Code</t>
+  </si>
+  <si>
+    <t>$Asset Condition</t>
+  </si>
+  <si>
+    <t>$Asset Price</t>
+  </si>
+  <si>
+    <t>$Asset Usage</t>
+  </si>
+  <si>
+    <t>$Manufacturing Year</t>
+  </si>
+  <si>
+    <t>$Down Payment Type</t>
+  </si>
+  <si>
+    <t>$Down Payment %</t>
+  </si>
+  <si>
+    <t>$Down Payment Amt</t>
+  </si>
+  <si>
+    <t>$Chasis Number</t>
+  </si>
+  <si>
+    <t>$Engine Number</t>
+  </si>
+  <si>
+    <t>$License Plate Number</t>
+  </si>
+  <si>
+    <t>$Serial 4</t>
+  </si>
+  <si>
+    <t>$Serial 5</t>
+  </si>
+  <si>
+    <t>$Asset Region</t>
+  </si>
+  <si>
+    <t>$User Name</t>
+  </si>
+  <si>
+    <t>$User Relationship</t>
+  </si>
+  <si>
+    <t>$Owner Type</t>
+  </si>
+  <si>
+    <t>$Owner Name</t>
+  </si>
+  <si>
+    <t>$Owner Relationship</t>
+  </si>
+  <si>
+    <t>$Owner ID Type</t>
+  </si>
+  <si>
+    <t>$Owner ID No</t>
+  </si>
+  <si>
+    <t>$Copy Address From</t>
+  </si>
+  <si>
+    <t>$Check Rapindo</t>
+  </si>
+  <si>
+    <t>$Accessories Name</t>
+  </si>
+  <si>
+    <t>$Accessories Price</t>
+  </si>
+  <si>
+    <t>Is Complete Mandatory</t>
+  </si>
+  <si>
+    <t>$Insured By</t>
+  </si>
+  <si>
+    <t>$Insco Branch Name</t>
+  </si>
+  <si>
+    <t>$Coverage Amount</t>
+  </si>
+  <si>
+    <t>$Start Date</t>
+  </si>
+  <si>
+    <t>$End Date</t>
+  </si>
+  <si>
+    <t>$Cover Period</t>
+  </si>
+  <si>
+    <t>$Payment Type</t>
+  </si>
+  <si>
+    <t>$Insurance Length</t>
+  </si>
+  <si>
+    <t>$Main Coverage</t>
+  </si>
+  <si>
+    <t>$Flood</t>
+  </si>
+  <si>
+    <t>$TPL</t>
+  </si>
+  <si>
+    <t>$Act of God</t>
+  </si>
+  <si>
+    <t>$SRCC</t>
+  </si>
+  <si>
+    <t>$Tanggung Jawab Hukum Terhadap Penumpang</t>
+  </si>
+  <si>
+    <t>$Kecelakaan Diri Untuk Penumpang</t>
+  </si>
+  <si>
+    <t>$Terrorist</t>
+  </si>
+  <si>
+    <t>$Theft &amp; Robbery</t>
+  </si>
+  <si>
+    <t>$Subsidy From Type</t>
+  </si>
+  <si>
+    <t>$Allocation From</t>
+  </si>
+  <si>
+    <t>$Subsidy Source</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Type</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Amount</t>
+  </si>
+  <si>
+    <t>$Subsidy Value Percentage</t>
+  </si>
+  <si>
+    <t>$Grace Period</t>
+  </si>
+  <si>
+    <t>$Grace Period Type</t>
+  </si>
+  <si>
+    <t>$Promise Date</t>
+  </si>
+  <si>
+    <t>$Document path</t>
+  </si>
+  <si>
+    <t>$Nama Document</t>
+  </si>
+  <si>
+    <t>$Customer</t>
+  </si>
+  <si>
+    <t>$Take Action</t>
+  </si>
+  <si>
+    <t>$Family</t>
+  </si>
+  <si>
+    <t>$Guarantor</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>CountofGuarantorPersonal</t>
+  </si>
+  <si>
+    <t>CountofGuarantorCompany</t>
+  </si>
+  <si>
+    <t>CountofManagementShareholder</t>
+  </si>
+  <si>
+    <t>Capitalize if GS_Value Partial</t>
+  </si>
+  <si>
+    <t>Full Capitalize Amount</t>
+  </si>
+  <si>
+    <t>Capitalize Amount</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Jika ada penambahan field, ditempatkan pada row sesuai dengan urutan pada rule file dengan nama field diawali dengan $</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 1</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 2</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 3</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 4</t>
+  </si>
+  <si>
+    <t>$Reserve Fund 5</t>
+  </si>
+  <si>
+    <t>Reserve Fund Amt</t>
+  </si>
+  <si>
+    <t>Negative Check</t>
+  </si>
+  <si>
+    <t>Copy App</t>
+  </si>
+  <si>
+    <t>$Copy App no</t>
+  </si>
+  <si>
+    <t>$Product Offering Code</t>
+  </si>
+  <si>
     <t>08/12/2000</t>
   </si>
   <si>
-    <t>12/20/2020</t>
-  </si>
-  <si>
-    <t>0812738126322</t>
-  </si>
-  <si>
-    <t>Sule</t>
-  </si>
-  <si>
-    <t>Asset Owner &amp; Asset Location Address</t>
-  </si>
-  <si>
-    <t>jl podo</t>
-  </si>
-  <si>
-    <t>JOKO;PT ASAP</t>
-  </si>
-  <si>
-    <t>$AppNo</t>
-  </si>
-  <si>
-    <t>$Customer Action</t>
-  </si>
-  <si>
-    <t>$Family Name</t>
-  </si>
-  <si>
-    <t>$Family Action</t>
-  </si>
-  <si>
-    <t>$Guarantor Name</t>
-  </si>
-  <si>
-    <t>$Guarantor Action</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>$Referantor Category</t>
-  </si>
-  <si>
-    <t>$Referantor Name</t>
-  </si>
-  <si>
-    <t>$Bank Account (Index)</t>
-  </si>
-  <si>
-    <t>$Tax Calculation Method</t>
-  </si>
-  <si>
-    <t>$MO Code</t>
-  </si>
-  <si>
-    <t>$MO Name</t>
-  </si>
-  <si>
-    <t>$Application Source</t>
-  </si>
-  <si>
-    <t>$Payment Frequency</t>
-  </si>
-  <si>
-    <t>$Tenor</t>
-  </si>
-  <si>
-    <t>$Floating Period</t>
-  </si>
-  <si>
-    <t>$Installment Scheme</t>
-  </si>
-  <si>
-    <t>$Way Of Payment</t>
-  </si>
-  <si>
-    <t>$Customer Bank Account (Index)</t>
-  </si>
-  <si>
-    <t>$Customer Notification By</t>
-  </si>
-  <si>
-    <t>$Characteristic of Credit</t>
-  </si>
-  <si>
-    <t>$Way of Restructure</t>
-  </si>
-  <si>
-    <t>$Economic Sector Description</t>
-  </si>
-  <si>
-    <t>$Blacklist APPI</t>
-  </si>
-  <si>
-    <t>$Ref Master App Data Description</t>
-  </si>
-  <si>
-    <t>$Jumlah Asset</t>
-  </si>
-  <si>
-    <t>$Supplier Code</t>
-  </si>
-  <si>
-    <t>$Supplier Name</t>
-  </si>
-  <si>
-    <t>$Sales Person</t>
-  </si>
-  <si>
-    <t>$Asset Code</t>
-  </si>
-  <si>
-    <t>$Asset Condition</t>
-  </si>
-  <si>
-    <t>$Asset Price</t>
-  </si>
-  <si>
-    <t>$Asset Usage</t>
-  </si>
-  <si>
-    <t>$Manufacturing Year</t>
-  </si>
-  <si>
-    <t>$Down Payment Type</t>
-  </si>
-  <si>
-    <t>$Down Payment %</t>
-  </si>
-  <si>
-    <t>$Down Payment Amt</t>
-  </si>
-  <si>
-    <t>$Chasis Number</t>
-  </si>
-  <si>
-    <t>$Engine Number</t>
-  </si>
-  <si>
-    <t>$License Plate Number</t>
-  </si>
-  <si>
-    <t>$Serial 4</t>
-  </si>
-  <si>
-    <t>$Serial 5</t>
-  </si>
-  <si>
-    <t>$Asset Region</t>
-  </si>
-  <si>
-    <t>$User Name</t>
-  </si>
-  <si>
-    <t>$User Relationship</t>
-  </si>
-  <si>
-    <t>$Owner Type</t>
-  </si>
-  <si>
-    <t>$Owner Name</t>
-  </si>
-  <si>
-    <t>$Owner Relationship</t>
-  </si>
-  <si>
-    <t>$Owner ID Type</t>
-  </si>
-  <si>
-    <t>$Owner ID No</t>
-  </si>
-  <si>
-    <t>$Copy Address From</t>
-  </si>
-  <si>
-    <t>$Check Rapindo</t>
-  </si>
-  <si>
-    <t>$Accessories Code</t>
-  </si>
-  <si>
-    <t>$Accessories Name</t>
-  </si>
-  <si>
-    <t>$Accessories Price</t>
-  </si>
-  <si>
-    <t>Is Complete Mandatory</t>
-  </si>
-  <si>
-    <t>$Insured By</t>
-  </si>
-  <si>
-    <t>$Insco Branch Name</t>
-  </si>
-  <si>
-    <t>$Coverage Amount</t>
-  </si>
-  <si>
-    <t>$Start Date</t>
-  </si>
-  <si>
-    <t>$End Date</t>
-  </si>
-  <si>
-    <t>$Cover Period</t>
-  </si>
-  <si>
-    <t>$Payment Type</t>
-  </si>
-  <si>
-    <t>$Insurance Length</t>
-  </si>
-  <si>
-    <t>$Main Coverage</t>
-  </si>
-  <si>
-    <t>$Flood</t>
-  </si>
-  <si>
-    <t>$TPL</t>
-  </si>
-  <si>
-    <t>$Act of God</t>
-  </si>
-  <si>
-    <t>$SRCC</t>
-  </si>
-  <si>
-    <t>$Tanggung Jawab Hukum Terhadap Penumpang</t>
-  </si>
-  <si>
-    <t>$Kecelakaan Diri Untuk Penumpang</t>
-  </si>
-  <si>
-    <t>$Terrorist</t>
-  </si>
-  <si>
-    <t>$Theft &amp; Robbery</t>
-  </si>
-  <si>
-    <t>$Subsidy From Type</t>
-  </si>
-  <si>
-    <t>$Subsid From Value</t>
-  </si>
-  <si>
-    <t>$Allocation From</t>
-  </si>
-  <si>
-    <t>$Subsidy Source</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Type</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Amount</t>
-  </si>
-  <si>
-    <t>$Subsidy Value Percentage</t>
-  </si>
-  <si>
-    <t>$Grace Period</t>
-  </si>
-  <si>
-    <t>$Grace Period Type</t>
-  </si>
-  <si>
-    <t>$Promise Date</t>
-  </si>
-  <si>
-    <t>$Document path</t>
-  </si>
-  <si>
-    <t>$Nama Document</t>
-  </si>
-  <si>
-    <t>$Customer</t>
-  </si>
-  <si>
-    <t>$Take Action</t>
-  </si>
-  <si>
-    <t>$Family</t>
-  </si>
-  <si>
-    <t>$Guarantor</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Data Entry</t>
-  </si>
-  <si>
-    <t>CountofGuarantorPersonal</t>
-  </si>
-  <si>
-    <t>CountofGuarantorCompany</t>
-  </si>
-  <si>
-    <t>CountofManagementShareholder</t>
-  </si>
-  <si>
-    <t>Capitalize if GS_Value Partial</t>
-  </si>
-  <si>
-    <t>Full Capitalize Amount</t>
-  </si>
-  <si>
-    <t>Capitalize Amount</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Jika ada penambahan field, ditempatkan pada row sesuai dengan urutan pada rule file dengan nama field diawali dengan $</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 1</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 2</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 3</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 4</t>
-  </si>
-  <si>
-    <t>$Reserve Fund 5</t>
-  </si>
-  <si>
-    <t>Reserve Fund Amt</t>
-  </si>
-  <si>
-    <t>PT DIRE</t>
-  </si>
-  <si>
-    <t>Select ApplicationInProcess</t>
-  </si>
-  <si>
-    <t>Negative Check</t>
-  </si>
-  <si>
-    <t>Benny;PT TWICE</t>
+    <t>CopyApp</t>
+  </si>
+  <si>
+    <t>PT POLO</t>
+  </si>
+  <si>
+    <t>283746273847283</t>
+  </si>
+  <si>
+    <t>andre</t>
+  </si>
+  <si>
+    <t>0872692378123</t>
+  </si>
+  <si>
+    <t>mama andre</t>
+  </si>
+  <si>
+    <t>andre@gmail.com</t>
+  </si>
+  <si>
+    <t>08128392133</t>
+  </si>
+  <si>
+    <t>08/04/2000</t>
+  </si>
+  <si>
+    <t>219639712649812</t>
+  </si>
+  <si>
+    <t>mama jason</t>
+  </si>
+  <si>
+    <t>jason@gmail.com</t>
+  </si>
+  <si>
+    <t>273928372536283</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>PT aja</t>
+  </si>
+  <si>
+    <t>283726382938273</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Andre;PT AJA</t>
+  </si>
+  <si>
+    <t>New;New</t>
+  </si>
+  <si>
+    <t>Jason;PT LOPO</t>
+  </si>
+  <si>
+    <t>Yes;</t>
   </si>
   <si>
     <t>Select ApplicationInProcess;New</t>
   </si>
   <si>
-    <t>Kevin;Pt Trave</t>
-  </si>
-  <si>
-    <t>Select ApplicationInProcess;Select ApplicationInProcess</t>
-  </si>
-  <si>
-    <t>Yes;</t>
-  </si>
-  <si>
-    <t>Copy App</t>
-  </si>
-  <si>
-    <t>$Copy App no</t>
-  </si>
-  <si>
-    <t>$Product Offering Code</t>
-  </si>
-  <si>
-    <t>0002APP20211204068</t>
+    <t>SULE;PT AJA</t>
+  </si>
+  <si>
+    <t>JASON;PT LOPO</t>
+  </si>
+  <si>
+    <t>FT TIO</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>0002APP20211204108</t>
+  </si>
+  <si>
+    <t>PT BOD</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>Failed Delete[JOHN]</t>
+  </si>
+  <si>
+    <t>Muncul Error Alert</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>Accessories Code</t>
+  </si>
+  <si>
+    <t>Mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>0002APP20211203401</t>
+  </si>
+  <si>
+    <t>D2361TEAD1</t>
+  </si>
+  <si>
+    <t>0002SB20211103134</t>
+  </si>
+  <si>
+    <t>MRA_BLACKBOX</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>$Subsidy From Value</t>
+  </si>
+  <si>
+    <t>Multifinance;Supplier</t>
+  </si>
+  <si>
+    <t>;MRA SUPPLIER COMPANY</t>
+  </si>
+  <si>
+    <t>Discount Admin Fee;SUBSIDY DP</t>
+  </si>
+  <si>
+    <t>Other Income;AP DEDUCTION</t>
+  </si>
+  <si>
+    <t>Amount;Amount</t>
+  </si>
+  <si>
+    <t>50000;10000</t>
+  </si>
+  <si>
+    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP)</t>
+  </si>
+  <si>
+    <t>REKENING TABUNGAN 3 BULAN;SURAT IZIN USAHA PERDAGANGAN (SIUP);TANDA DAFTAR PERUSAHAAN (TDP);KTP DIREKSI;KTP KOMISARIS</t>
+  </si>
+  <si>
+    <t>;;;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURAT KETERANGAN DOMISILI USAHA (SKDU);AKTA PENDIRIAN BADAN USAHA DAN PERUBAHANNYA;LAPORAN KEUANGAN </t>
+  </si>
+  <si>
+    <t>02/02/2025;12/19/2025;09/24/2024</t>
+  </si>
+  <si>
+    <t>Edit NAP</t>
+  </si>
+  <si>
+    <t>checksortpaging</t>
+  </si>
+  <si>
+    <t>checkstoreDB</t>
+  </si>
+  <si>
+    <t>checkRule</t>
+  </si>
+  <si>
+    <t>Edit AppNo</t>
   </si>
 </sst>
 </file>
@@ -14246,7 +14351,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="173">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -14779,6 +14884,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16590,10 +16702,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16611,16 +16723,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>3550</v>
+        <v>3535</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3548</v>
+        <v>3533</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3549</v>
+        <v>3534</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3546</v>
+        <v>3532</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -16639,30 +16751,52 @@
       </c>
       <c r="B2" s="17">
         <f>COUNTA('2.TabManagementShareholderData'!B12:XFD12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="17">
         <f>COUNTA('3a.TabGuarantorDataPersonal'!B12:XFD12)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="17">
         <f>COUNTA('3b.TabGuarantorDataCompany'!B12:XFD12)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3547</v>
+        <v>3591</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTA('7a.Accessories'!B12:XFD12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA('11.TabUploadDocument'!B12:XFD12)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -16680,9 +16814,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16698,11 +16832,11 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -16722,10 +16856,10 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3586</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -16739,16 +16873,20 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <f>IF(C18="Amount",COUNTIFS($A13:$A18,"*$*",C13:C18,"")+COUNTIFS($A20:$A20,"*$*",C20:C20,""),IF(C18="Percentage",COUNTIFS($A13:$A18,"*$*",C13:C18,"")+COUNTIFS($A19:$A19,"*$*",C19:C19,"")))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -16769,13 +16907,25 @@
       <c r="A12" s="63" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3483</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+        <v>3584</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3589</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -16784,7 +16934,7 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3150</v>
@@ -16810,10 +16960,14 @@
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3509</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+        <v>3585</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3590</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -16822,7 +16976,7 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3510</v>
+        <v>3497</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3077</v>
@@ -16848,10 +17002,10 @@
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3511</v>
+        <v>3498</v>
       </c>
       <c r="B17" s="26">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="C17" s="26">
         <v>10000001</v>
@@ -16874,7 +17028,7 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3491</v>
+        <v>3479</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>108</v>
@@ -16900,7 +17054,7 @@
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3492</v>
+        <v>3480</v>
       </c>
       <c r="B19" s="17">
         <v>12</v>
@@ -16926,7 +17080,7 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3493</v>
+        <v>3481</v>
       </c>
       <c r="B20" s="26">
         <v>0</v>
@@ -16956,28 +17110,33 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B19:XFD19">
-    <cfRule type="expression" dxfId="122" priority="6">
-      <formula>B$18="Amount"</formula>
+  <conditionalFormatting sqref="C19:XFD19">
+    <cfRule type="expression" dxfId="123" priority="7">
+      <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="119" priority="1">
+      <formula>B$18="Amount"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:H16 B21:H21"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:H21 D12:H16 B13:C16"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:H17">
       <formula1>ISNUMBER(B17)</formula1>
     </dataValidation>
@@ -17004,7 +17163,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17033,7 +17192,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -17050,12 +17209,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -17066,14 +17225,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="121" customFormat="1" x14ac:dyDescent="0.25">
@@ -17087,7 +17251,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3513</v>
+        <v>3500</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>109</v>
@@ -17117,7 +17281,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3514</v>
+        <v>3501</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3143</v>
@@ -17137,7 +17301,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3515</v>
+        <v>3502</v>
       </c>
       <c r="B15" s="25">
         <v>700000000</v>
@@ -17167,7 +17331,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3516</v>
+        <v>3503</v>
       </c>
       <c r="B18" s="61">
         <v>44197</v>
@@ -17187,7 +17351,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3517</v>
+        <v>3504</v>
       </c>
       <c r="B19" s="61">
         <v>44741</v>
@@ -17222,7 +17386,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>3499</v>
+        <v>3487</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>195</v>
@@ -17237,12 +17401,12 @@
         <v>266</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3515</v>
+        <v>3502</v>
       </c>
       <c r="B23" s="25">
         <v>300000000</v>
@@ -17262,7 +17426,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3518</v>
+        <v>3505</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>267</v>
@@ -17282,7 +17446,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3519</v>
+        <v>3506</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>192</v>
@@ -17302,22 +17466,22 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3514</v>
+        <v>3501</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>3000</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17327,7 +17491,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3520</v>
+        <v>3507</v>
       </c>
       <c r="B28" s="17">
         <v>16</v>
@@ -17427,7 +17591,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3521</v>
+        <v>3508</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>122</v>
@@ -17457,7 +17621,7 @@
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3522</v>
+        <v>3509</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>118</v>
@@ -17477,7 +17641,7 @@
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3523</v>
+        <v>3510</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>118</v>
@@ -17497,7 +17661,7 @@
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3524</v>
+        <v>3511</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>118</v>
@@ -17517,7 +17681,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3525</v>
+        <v>3512</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>118</v>
@@ -17537,7 +17701,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3526</v>
+        <v>3513</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>118</v>
@@ -17557,7 +17721,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3527</v>
+        <v>3514</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>118</v>
@@ -17577,7 +17741,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3528</v>
+        <v>3515</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>118</v>
@@ -17597,7 +17761,7 @@
     </row>
     <row r="43" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>3529</v>
+        <v>3516</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>118</v>
@@ -17630,19 +17794,19 @@
         <v>3154</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17650,19 +17814,19 @@
         <v>3155</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17670,19 +17834,19 @@
         <v>3156</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
       <c r="D47" s="74" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17690,19 +17854,19 @@
         <v>121</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -17720,19 +17884,19 @@
         <v>124</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17740,19 +17904,19 @@
         <v>125</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17760,19 +17924,19 @@
         <v>126</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="F52" s="75" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17780,19 +17944,19 @@
         <v>127</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17800,19 +17964,19 @@
         <v>128</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17820,19 +17984,19 @@
         <v>129</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="F55" s="75" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17840,39 +18004,39 @@
         <v>130</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.25">
@@ -17885,19 +18049,19 @@
         <v>3158</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17905,19 +18069,19 @@
         <v>3159</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>3343</v>
+        <v>3338</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17925,19 +18089,19 @@
         <v>3160</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17945,19 +18109,19 @@
         <v>3162</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17965,19 +18129,19 @@
         <v>3161</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -17985,19 +18149,19 @@
         <v>3163</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18022,27 +18186,27 @@
     </row>
     <row r="66" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -18052,7 +18216,7 @@
     </row>
     <row r="68" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -18062,27 +18226,27 @@
     </row>
     <row r="69" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="B70" s="87"/>
       <c r="C70" s="87"/>
@@ -18092,7 +18256,7 @@
     </row>
     <row r="71" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -18102,147 +18266,147 @@
     </row>
     <row r="72" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="73" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="B78" s="74" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="C78" s="74" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -18285,29 +18449,29 @@
         <v>3167</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>3390</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="116" t="s">
-        <v>3551</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>3552</v>
+        <v>3537</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>88</v>
@@ -18315,7 +18479,7 @@
     </row>
     <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>3553</v>
+        <v>3538</v>
       </c>
       <c r="B85" s="17">
         <v>2000000</v>
@@ -18526,7 +18690,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18542,7 +18706,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3065</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -18556,10 +18720,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3577</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -18573,30 +18737,35 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B81)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -18610,13 +18779,10 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>3530</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>109</v>
+        <v>3517</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>109</v>
+        <v>3593</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>109</v>
@@ -18630,18 +18796,18 @@
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>3531</v>
+        <v>3592</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>3594</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>3532</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>141</v>
+        <v>3518</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>141</v>
+        <v>3595</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>141</v>
@@ -18655,13 +18821,10 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>3533</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>142</v>
+        <v>3519</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>142</v>
+        <v>3596</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>142</v>
@@ -18675,13 +18838,10 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>3534</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>98</v>
+        <v>3520</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>98</v>
+        <v>3597</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>98</v>
@@ -18695,13 +18855,10 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>3535</v>
-      </c>
-      <c r="B17">
-        <v>1000000</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1000001</v>
+        <v>3521</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3598</v>
       </c>
       <c r="D17" s="16">
         <v>1000002</v>
@@ -18715,7 +18872,10 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>3536</v>
+        <v>3522</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>3450</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -18773,7 +18933,7 @@
         <v>144</v>
       </c>
       <c r="B22" s="25">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="C22" s="25">
         <v>0</v>
@@ -18813,7 +18973,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="25">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="C24" s="25">
         <v>50000</v>
@@ -19113,7 +19273,7 @@
         <v>162</v>
       </c>
       <c r="B39" s="65">
-        <v>17500000</v>
+        <v>20484000</v>
       </c>
       <c r="C39" s="65">
         <v>17500000</v>
@@ -19183,7 +19343,7 @@
         <v>165</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>166</v>
@@ -19203,7 +19363,7 @@
         <v>167</v>
       </c>
       <c r="B44" s="2">
-        <v>10.007128</v>
+        <v>9.9862149999999996</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -19223,7 +19383,7 @@
         <v>166</v>
       </c>
       <c r="B45" s="2">
-        <v>20</v>
+        <v>5.4913720000000001</v>
       </c>
       <c r="C45" s="2">
         <v>20</v>
@@ -19243,7 +19403,7 @@
         <v>168</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>42</v>
@@ -19260,10 +19420,10 @@
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>3537</v>
+        <v>3523</v>
       </c>
       <c r="B47" s="17">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C47" s="17">
         <v>13</v>
@@ -19280,10 +19440,7 @@
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3538</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>3050</v>
+        <v>3524</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>3050</v>
@@ -19303,7 +19460,7 @@
         <v>3149</v>
       </c>
       <c r="B49" s="77">
-        <v>175961000</v>
+        <v>100000000</v>
       </c>
       <c r="C49" s="77">
         <v>175961001</v>
@@ -19515,7 +19672,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B50:F50">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:F15 B17:F18 B49:F49"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:F49 B17:F18 B12:F15"/>
     <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16:F16"/>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B41:F41">
       <formula1>AND(B$20="No",B26="Yes",ISNUMBER(B27))</formula1>
@@ -19606,7 +19763,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19636,7 +19793,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -19653,13 +19810,13 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -19684,16 +19841,19 @@
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -19702,12 +19862,12 @@
       <c r="B11" s="84"/>
       <c r="C11" s="93"/>
     </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>2418</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3252</v>
+        <v>3600</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3005</v>
@@ -19715,10 +19875,10 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>3539</v>
+        <v>3525</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>3253</v>
+        <v>3601</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -19729,25 +19889,31 @@
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>2420</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>3602</v>
+      </c>
       <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>2421</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>3603</v>
+      </c>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>2422</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="66" t="s">
+        <v>3599</v>
+      </c>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -19793,7 +19959,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19824,7 +19990,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
         <v>3043</v>
@@ -19841,12 +20007,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3512</v>
+        <v>3499</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -19857,14 +20023,19 @@
     <row r="6" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -19874,16 +20045,16 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>3540</v>
+        <v>3526</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>171</v>
@@ -19894,13 +20065,13 @@
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3541</v>
+        <v>3527</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19922,7 +20093,7 @@
         <v>176</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3392</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19981,7 +20152,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -19998,12 +20169,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -20019,11 +20190,11 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -20062,7 +20233,7 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -20241,16 +20412,16 @@
     </row>
     <row r="29" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>3152</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3393</v>
+        <v>3388</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>3394</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20261,10 +20432,10 @@
         <v>3148</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20275,10 +20446,10 @@
         <v>3153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20289,10 +20460,10 @@
         <v>3148</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20303,10 +20474,10 @@
         <v>3153</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20317,10 +20488,10 @@
         <v>3148</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20331,10 +20502,10 @@
         <v>3153</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20345,10 +20516,10 @@
         <v>3148</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20359,10 +20530,10 @@
         <v>3153</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20373,10 +20544,10 @@
         <v>3148</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20387,10 +20558,10 @@
         <v>3153</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20401,10 +20572,10 @@
         <v>3148</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
       <c r="D40" s="112" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20415,10 +20586,10 @@
         <v>3153</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -20439,16 +20610,16 @@
     </row>
     <row r="44" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>3151</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>3400</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20667,7 +20838,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20684,12 +20855,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -20703,22 +20874,22 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
-        <v>3561</v>
+        <v>3546</v>
       </c>
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>3556</v>
+        <v>3541</v>
       </c>
       <c r="B12" s="37">
         <v>1000000</v>
@@ -20726,7 +20897,7 @@
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>3557</v>
+        <v>3542</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -20734,7 +20905,7 @@
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>3558</v>
+        <v>3543</v>
       </c>
       <c r="B14" s="39">
         <v>0</v>
@@ -20742,7 +20913,7 @@
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>3559</v>
+        <v>3544</v>
       </c>
       <c r="B15" s="39">
         <v>10</v>
@@ -20750,7 +20921,7 @@
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>3560</v>
+        <v>3545</v>
       </c>
       <c r="B16" s="39">
         <v>10</v>
@@ -20759,10 +20930,10 @@
     <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>3554</v>
+        <v>3539</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3555</v>
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
@@ -20785,7 +20956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20799,8 +20970,8 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -20814,7 +20985,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20831,12 +21002,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
@@ -20848,65 +21019,73 @@
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3542</v>
+        <v>3528</v>
       </c>
       <c r="B13" t="s">
-        <v>3246</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3544</v>
+        <v>3530</v>
       </c>
       <c r="B15" t="s">
-        <v>3462</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3545</v>
+        <v>3531</v>
       </c>
       <c r="B17" t="s">
-        <v>3455</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3543</v>
+        <v>3529</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -21194,13 +21373,13 @@
         <v>2449</v>
       </c>
       <c r="DP1" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="DQ1" s="27" t="s">
         <v>3199</v>
       </c>
-      <c r="DQ1" s="27" t="s">
-        <v>3200</v>
-      </c>
       <c r="DS1" s="27" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
@@ -21389,13 +21568,13 @@
         <v>198</v>
       </c>
       <c r="DP2" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
         <v>3201</v>
       </c>
-      <c r="DQ2" s="27" t="s">
-        <v>3202</v>
-      </c>
       <c r="DS2" s="27" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.25">
@@ -21586,13 +21765,13 @@
         <v>574</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="DQ3" s="27" t="s">
         <v>107</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
@@ -21753,13 +21932,13 @@
         <v>581</v>
       </c>
       <c r="DP4" s="27" t="s">
+        <v>3203</v>
+      </c>
+      <c r="DQ4" s="27" t="s">
         <v>3204</v>
       </c>
-      <c r="DQ4" s="27" t="s">
-        <v>3205</v>
-      </c>
       <c r="DS4" s="27" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
@@ -21902,13 +22081,13 @@
         <v>588</v>
       </c>
       <c r="DP5" s="27" t="s">
+        <v>3205</v>
+      </c>
+      <c r="DQ5" s="27" t="s">
         <v>3206</v>
       </c>
-      <c r="DQ5" s="27" t="s">
-        <v>3207</v>
-      </c>
       <c r="DS5" s="27" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
@@ -22033,10 +22212,10 @@
         <v>595</v>
       </c>
       <c r="DP6" s="27" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="DQ6" s="27" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
@@ -22140,10 +22319,10 @@
         <v>602</v>
       </c>
       <c r="DP7" s="27" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="DQ7" s="27" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
@@ -22244,10 +22423,10 @@
         <v>609</v>
       </c>
       <c r="DP8" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="DQ8" s="27" t="s">
         <v>3210</v>
-      </c>
-      <c r="DQ8" s="27" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
@@ -22337,10 +22516,10 @@
         <v>616</v>
       </c>
       <c r="DP9" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="DQ9" s="27" t="s">
         <v>3212</v>
-      </c>
-      <c r="DQ9" s="27" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
@@ -22424,10 +22603,10 @@
         <v>906</v>
       </c>
       <c r="DP10" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="DQ10" s="27" t="s">
         <v>3214</v>
-      </c>
-      <c r="DQ10" s="27" t="s">
-        <v>3215</v>
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
@@ -22501,10 +22680,10 @@
         <v>912</v>
       </c>
       <c r="DP11" s="27" t="s">
+        <v>3215</v>
+      </c>
+      <c r="DQ11" s="27" t="s">
         <v>3216</v>
-      </c>
-      <c r="DQ11" s="27" t="s">
-        <v>3217</v>
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
@@ -22576,10 +22755,10 @@
         <v>919</v>
       </c>
       <c r="DP12" s="27" t="s">
+        <v>3217</v>
+      </c>
+      <c r="DQ12" s="27" t="s">
         <v>3218</v>
-      </c>
-      <c r="DQ12" s="27" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
@@ -22647,10 +22826,10 @@
         <v>925</v>
       </c>
       <c r="DP13" s="27" t="s">
+        <v>3219</v>
+      </c>
+      <c r="DQ13" s="27" t="s">
         <v>3220</v>
-      </c>
-      <c r="DQ13" s="27" t="s">
-        <v>3221</v>
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
@@ -22719,10 +22898,10 @@
         <v>932</v>
       </c>
       <c r="DP14" s="27" t="s">
+        <v>3221</v>
+      </c>
+      <c r="DQ14" s="27" t="s">
         <v>3222</v>
-      </c>
-      <c r="DQ14" s="27" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
@@ -22784,10 +22963,10 @@
         <v>939</v>
       </c>
       <c r="DP15" s="27" t="s">
+        <v>3223</v>
+      </c>
+      <c r="DQ15" s="27" t="s">
         <v>3224</v>
-      </c>
-      <c r="DQ15" s="27" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
@@ -22840,10 +23019,10 @@
         <v>799</v>
       </c>
       <c r="DP16" s="27" t="s">
+        <v>3225</v>
+      </c>
+      <c r="DQ16" s="27" t="s">
         <v>3226</v>
-      </c>
-      <c r="DQ16" s="27" t="s">
-        <v>3227</v>
       </c>
     </row>
     <row r="17" spans="1:121" x14ac:dyDescent="0.25">
@@ -22896,10 +23075,10 @@
         <v>806</v>
       </c>
       <c r="DP17" s="27" t="s">
+        <v>3227</v>
+      </c>
+      <c r="DQ17" s="27" t="s">
         <v>3228</v>
-      </c>
-      <c r="DQ17" s="27" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="18" spans="1:121" x14ac:dyDescent="0.25">
@@ -22946,10 +23125,10 @@
         <v>818</v>
       </c>
       <c r="DP18" s="27" t="s">
+        <v>3229</v>
+      </c>
+      <c r="DQ18" s="27" t="s">
         <v>3230</v>
-      </c>
-      <c r="DQ18" s="27" t="s">
-        <v>3231</v>
       </c>
     </row>
     <row r="19" spans="1:121" x14ac:dyDescent="0.25">
@@ -22996,10 +23175,10 @@
         <v>825</v>
       </c>
       <c r="DP19" s="27" t="s">
+        <v>3231</v>
+      </c>
+      <c r="DQ19" s="27" t="s">
         <v>3232</v>
-      </c>
-      <c r="DQ19" s="27" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="20" spans="1:121" x14ac:dyDescent="0.25">
@@ -23046,10 +23225,10 @@
         <v>832</v>
       </c>
       <c r="DP20" s="27" t="s">
+        <v>3233</v>
+      </c>
+      <c r="DQ20" s="27" t="s">
         <v>3234</v>
-      </c>
-      <c r="DQ20" s="27" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="21" spans="1:121" x14ac:dyDescent="0.25">
@@ -23096,10 +23275,10 @@
         <v>839</v>
       </c>
       <c r="DP21" s="27" t="s">
+        <v>3235</v>
+      </c>
+      <c r="DQ21" s="27" t="s">
         <v>3236</v>
-      </c>
-      <c r="DQ21" s="27" t="s">
-        <v>3237</v>
       </c>
     </row>
     <row r="22" spans="1:121" x14ac:dyDescent="0.25">
@@ -23146,10 +23325,10 @@
         <v>846</v>
       </c>
       <c r="DP22" s="27" t="s">
+        <v>3237</v>
+      </c>
+      <c r="DQ22" s="27" t="s">
         <v>3238</v>
-      </c>
-      <c r="DQ22" s="27" t="s">
-        <v>3239</v>
       </c>
     </row>
     <row r="23" spans="1:121" x14ac:dyDescent="0.25">
@@ -23196,10 +23375,10 @@
         <v>853</v>
       </c>
       <c r="DP23" s="27" t="s">
+        <v>3239</v>
+      </c>
+      <c r="DQ23" s="27" t="s">
         <v>3240</v>
-      </c>
-      <c r="DQ23" s="27" t="s">
-        <v>3241</v>
       </c>
     </row>
     <row r="24" spans="1:121" x14ac:dyDescent="0.25">
@@ -31431,9 +31610,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31450,7 +31629,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>7</v>
@@ -31467,9 +31646,9 @@
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3043</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -31484,16 +31663,16 @@
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B10="Edit",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B10="Edit",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""),IF(B10="Yes",COUNTIFS($A9,"*$*",B9,""),IF(AND(B10="No",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(AND(B10="No",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="113">
         <f t="shared" ref="C4:F4" si="0">IF(AND(C10="Yes",C14="Input Data"),COUNTIFS($A19:$A22,"*$*",C19:C22,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,"")+COUNTIFS($A12,"*$*",C12,""),IF(AND(C10="Yes",C14="LookUp"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A21:$A22,"*$*",C21:C22,""),IF(C10="No",COUNTIFS($A12,"*$*",C12,""),IF(C14="Input Data",COUNTIFS($A19:$A22,"*$*",C19:C22,"")+COUNTIFS($A24:$A31,"*$*",C24:C31,""),IF(C14="LookUp",COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A21:$A22,"*$*",C21:C22,""))))))</f>
@@ -31515,18 +31694,25 @@
     <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>3608</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3571</v>
+        <v>3549</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>3578</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -31534,7 +31720,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3572</v>
+        <v>3550</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>3078</v>
@@ -31544,8 +31730,8 @@
       <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>3573</v>
+      <c r="B13" s="16" t="s">
+        <v>3587</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31553,7 +31739,7 @@
         <v>2409</v>
       </c>
       <c r="B14" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>2411</v>
@@ -31580,49 +31766,49 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3246</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3248</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>210</v>
@@ -31642,7 +31828,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>47</v>
@@ -31672,15 +31858,15 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
@@ -31688,7 +31874,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -31696,7 +31882,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B27" s="17">
         <v>11530</v>
@@ -31704,31 +31890,31 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>38</v>
@@ -31753,27 +31939,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="171" priority="5">
+    <cfRule type="expression" dxfId="172" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="170" priority="4">
+    <cfRule type="expression" dxfId="171" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="169" priority="3">
+    <cfRule type="expression" dxfId="170" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="168" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="167" priority="1">
+    <cfRule type="expression" dxfId="168" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31805,9 +31991,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31824,13 +32010,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>7</v>
@@ -31838,16 +32024,16 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
-        <v>3043</v>
+        <v>3577</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>3043</v>
+      <c r="D2" t="s">
+        <v>3577</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>3043</v>
@@ -31855,12 +32041,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="INSTANSI PUBLIK DAERAH",B62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="MASYARAKAT",B62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",B62,"")+COUNTIFS($A65:$A66,"*$*",B65:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,"")))))))</f>
@@ -31872,7 +32058,7 @@
       </c>
       <c r="D4" s="113">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
@@ -31881,18 +32067,27 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31902,11 +32097,15 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.25">
@@ -31925,10 +32124,10 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>40</v>
@@ -31939,22 +32138,22 @@
     </row>
     <row r="15" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -31962,15 +32161,15 @@
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3452</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>13</v>
@@ -31978,7 +32177,7 @@
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>14</v>
@@ -31999,17 +32198,17 @@
     </row>
     <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3451</v>
+        <v>3556</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>18</v>
@@ -32023,7 +32222,7 @@
     </row>
     <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>3421</v>
+        <v>3416</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -32040,7 +32239,7 @@
     </row>
     <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>299</v>
@@ -32054,7 +32253,7 @@
     </row>
     <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -32071,25 +32270,25 @@
     </row>
     <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>3425</v>
+        <v>3420</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="32" t="s">
-        <v>3450</v>
+        <v>3565</v>
       </c>
       <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>19</v>
@@ -32097,21 +32296,21 @@
     </row>
     <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>3449</v>
+      <c r="C32" s="32" t="s">
+        <v>3551</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>3448</v>
+        <v>3441</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -32125,10 +32324,10 @@
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3446</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32137,13 +32336,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3447</v>
+        <v>3558</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="B37" s="17" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -32164,32 +32363,32 @@
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="C39" s="17">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>42</v>
@@ -32197,7 +32396,7 @@
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>42</v>
@@ -32205,7 +32404,7 @@
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>42</v>
@@ -32213,12 +32412,12 @@
     </row>
     <row r="43" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="98" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="B44" s="17" t="e">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -32235,7 +32434,7 @@
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>29</v>
@@ -32265,22 +32464,22 @@
     </row>
     <row r="48" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="98" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -32288,20 +32487,25 @@
     </row>
     <row r="52" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>3417</v>
+        <v>3412</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>3566</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>3567</v>
+      </c>
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B54" s="2" t="e">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
@@ -32311,19 +32515,22 @@
         <f>VLOOKUP(C55,Master!$DP:$DQ,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D54" s="2" t="e">
+      <c r="D54" s="2" t="str">
         <f>VLOOKUP(D55,Master!$DP:$DQ,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>02</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>3202</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>210</v>
@@ -32337,7 +32544,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>47</v>
@@ -32351,21 +32558,21 @@
     </row>
     <row r="58" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B58" s="17">
         <v>50</v>
       </c>
       <c r="C58" s="17">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>42</v>
@@ -32379,7 +32586,7 @@
     </row>
     <row r="60" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>42</v>
@@ -32393,31 +32600,25 @@
     </row>
     <row r="61" spans="1:4" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>3243</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>3243</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
       <c r="B64" s="17">
         <v>1297356971</v>
@@ -32425,7 +32626,7 @@
     </row>
     <row r="65" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -32442,21 +32643,21 @@
     </row>
     <row r="66" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B67" s="17">
         <v>30</v>
@@ -32470,7 +32671,7 @@
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>42</v>
@@ -32489,10 +32690,7 @@
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>106</v>
+        <v>3183</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>106</v>
@@ -32503,21 +32701,21 @@
     </row>
     <row r="71" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>3454</v>
+        <v>3443</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B72" s="17">
         <v>1</v>
@@ -32531,7 +32729,7 @@
     </row>
     <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B73" s="17">
         <v>1</v>
@@ -32545,7 +32743,7 @@
     </row>
     <row r="74" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B74" s="17">
         <v>11530</v>
@@ -32559,49 +32757,49 @@
     </row>
     <row r="75" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>37</v>
@@ -32615,37 +32813,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="166" priority="8">
+    <cfRule type="expression" dxfId="167" priority="8">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="165" priority="10">
+    <cfRule type="expression" dxfId="166" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="164" priority="9">
+    <cfRule type="expression" dxfId="165" priority="9">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="163" priority="6">
+    <cfRule type="expression" dxfId="164" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="162" priority="5">
+    <cfRule type="expression" dxfId="163" priority="5">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="161" priority="4">
+    <cfRule type="expression" dxfId="162" priority="4">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="160" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32665,7 +32863,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">
       <formula1>IF(C13="Input Data",ListIdType)</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:D26 B28:D28 B30:D30 B33:D33 B37:D37 B64:D64"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:D26 B28:D28 B30:D30 B33:D33 B37:D37 B64:D64 C32"/>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:D23">
       <formula1>"Single, Married, Widow"</formula1>
     </dataValidation>
@@ -32723,7 +32921,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32738,7 +32936,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3581</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -32755,10 +32953,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
-        <v>3043</v>
+        <v>3582</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -32772,12 +32970,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -32804,14 +33002,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -32825,24 +33028,9 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
-      </c>
-      <c r="C12" s="43">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f>'1.TabCustomerMainData'!$E$13</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f>'1.TabCustomerMainData'!$F$13</f>
-        <v>0</v>
-      </c>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -32871,7 +33059,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -32881,7 +33069,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -32891,7 +33079,7 @@
     </row>
     <row r="17" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -32901,7 +33089,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>8</v>
@@ -32921,10 +33109,10 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3173</v>
+        <v>3580</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>3173</v>
@@ -32941,7 +33129,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>13</v>
@@ -32961,7 +33149,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2416</v>
@@ -33001,10 +33189,10 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>205</v>
@@ -33021,10 +33209,10 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3069</v>
+        <v>3559</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3069</v>
@@ -33041,7 +33229,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>207</v>
@@ -33061,7 +33249,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>19</v>
@@ -33081,30 +33269,30 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>3175</v>
+        <v>3560</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3174</v>
+        <v>3561</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3174</v>
@@ -33131,42 +33319,42 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3176</v>
+        <v>3562</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3177</v>
+        <v>3563</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -33176,7 +33364,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -33201,7 +33389,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>29</v>
@@ -33291,7 +33479,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3067</v>
@@ -33308,7 +33496,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3066</v>
@@ -33328,7 +33516,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>107</v>
@@ -33348,7 +33536,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -33368,7 +33556,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>35</v>
@@ -33388,7 +33576,7 @@
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>35</v>
@@ -33408,7 +33596,7 @@
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2412</v>
@@ -33428,7 +33616,7 @@
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>37</v>
@@ -33448,22 +33636,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="159" priority="4">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="158" priority="3">
+    <cfRule type="expression" dxfId="159" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="157" priority="2">
+    <cfRule type="expression" dxfId="158" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="156" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33599,7 +33787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33615,7 +33803,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -33627,14 +33815,14 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -33646,15 +33834,18 @@
       <c r="E2" s="17" t="s">
         <v>3043</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>3043</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -33681,14 +33872,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -33702,20 +33898,9 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
-      </c>
-      <c r="D12" s="43">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f>'1.TabCustomerMainData'!$E$13</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <f>'1.TabCustomerMainData'!$F$13</f>
-        <v>0</v>
-      </c>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -33744,7 +33929,7 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -33754,7 +33939,7 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -33764,7 +33949,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>45</v>
@@ -33784,47 +33969,47 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>3292</v>
+        <v>3579</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3178</v>
+        <v>3564</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>210</v>
@@ -33844,7 +34029,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>47</v>
@@ -33889,7 +34074,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>3068</v>
@@ -33906,7 +34091,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -33926,7 +34111,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -33946,27 +34131,27 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3299</v>
+        <v>3294</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3301</v>
+        <v>3296</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>48</v>
@@ -33986,7 +34171,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>48</v>
@@ -34006,7 +34191,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2412</v>
@@ -34026,7 +34211,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>36</v>
@@ -34046,17 +34231,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="155" priority="3">
+    <cfRule type="expression" dxfId="156" priority="3">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="154" priority="2">
+    <cfRule type="expression" dxfId="155" priority="2">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="153" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34162,7 +34347,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -34176,7 +34361,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" t="s">
         <v>3043</v>
@@ -34193,12 +34378,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
@@ -34210,87 +34395,90 @@
     <row r="7" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+    </row>
     <row r="11" spans="1:5" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211204068</v>
+        <v>0002APP20211203401</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>3562</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>3457</v>
+        <v>3445</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>3563</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B15" s="71"/>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>3458</v>
+        <v>3446</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>3459</v>
+        <v>3447</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>3566</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>42</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>3460</v>
+        <v>3448</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>3461</v>
+        <v>3449</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>3564</v>
+        <v>3547</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>3569</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -34321,7 +34509,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34339,10 +34527,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -34368,10 +34556,10 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3043</v>
+        <v>3288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3583</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -34385,15 +34573,19 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <f>COUNTIFS($A13:$A17,"*$*",C13:C17,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -34401,14 +34593,19 @@
     <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -34425,14 +34622,20 @@
       <c r="A12" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211203401</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3463</v>
+        <v>3451</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>50</v>
@@ -34464,13 +34667,13 @@
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3464</v>
+        <v>3452</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3070</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3070</v>
+        <v>3576</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3070</v>
@@ -34501,13 +34704,13 @@
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>3465</v>
+        <v>3453</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="17">
         <v>3</v>
@@ -34524,13 +34727,13 @@
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3466</v>
+        <v>3454</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2407</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>2407</v>
+        <v>52</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>2407</v>
@@ -34576,10 +34779,10 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34593,7 +34796,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>7</v>
@@ -34607,7 +34810,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -34624,12 +34827,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -34640,14 +34843,19 @@
     <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -34657,22 +34865,22 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3467</v>
+        <v>3455</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34682,7 +34890,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3468</v>
+        <v>3456</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3073</v>
@@ -34712,22 +34920,22 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3469</v>
+        <v>3457</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34752,7 +34960,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3470</v>
+        <v>3458</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>64</v>
@@ -34772,7 +34980,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3471</v>
+        <v>3459</v>
       </c>
       <c r="B20" s="17">
         <v>12</v>
@@ -34794,13 +35002,16 @@
       <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>63</v>
@@ -34817,10 +35028,10 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>3472</v>
+        <v>3460</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>217</v>
+        <v>3043</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>217</v>
@@ -34837,7 +35048,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>3473</v>
+        <v>3461</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>191</v>
@@ -34857,7 +35068,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3474</v>
+        <v>3462</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>193</v>
@@ -34877,7 +35088,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3475</v>
+        <v>3463</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -34897,7 +35108,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>3476</v>
+        <v>3464</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>67</v>
@@ -34919,6 +35130,9 @@
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="B28" s="17" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
@@ -34929,9 +35143,6 @@
       <c r="A30" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" s="17" t="s">
         <v>71</v>
       </c>
@@ -34947,27 +35158,27 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>3144</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -34987,7 +35198,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -35007,7 +35218,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B34" s="17">
         <v>11530</v>
@@ -35027,62 +35238,62 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35162,7 +35373,7 @@
     </row>
     <row r="50" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>3477</v>
+        <v>3465</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>83</v>
@@ -35187,7 +35398,7 @@
     </row>
     <row r="52" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>3478</v>
+        <v>3466</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>222</v>
@@ -35232,7 +35443,7 @@
     </row>
     <row r="54" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>3479</v>
+        <v>3467</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>2288</v>
@@ -35257,7 +35468,7 @@
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>3480</v>
+        <v>3468</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>118</v>
@@ -35279,25 +35490,28 @@
       <c r="A57" s="17" t="s">
         <v>89</v>
       </c>
+      <c r="B57" s="17">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35327,7 +35541,7 @@
     </row>
     <row r="60" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>3481</v>
+        <v>3469</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>188</v>
@@ -35347,7 +35561,7 @@
     </row>
     <row r="61" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>3482</v>
+        <v>3470</v>
       </c>
       <c r="B61" s="17">
         <v>1</v>
@@ -35367,52 +35581,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="152" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="151" priority="10">
+    <cfRule type="expression" dxfId="152" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="150" priority="9">
+    <cfRule type="expression" dxfId="151" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="149" priority="8">
+    <cfRule type="expression" dxfId="150" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="148" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="147" priority="5">
+    <cfRule type="expression" dxfId="148" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="146" priority="4">
+    <cfRule type="expression" dxfId="147" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="145" priority="3">
+    <cfRule type="expression" dxfId="146" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="144" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="143" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35514,7 +35728,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35528,7 +35742,7 @@
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -35543,7 +35757,7 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -35560,12 +35774,12 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="D4" s="17">
         <f>IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A53,"*$*",D42:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A50,"*$*",D42:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,"")))))))))))))))))</f>
@@ -35576,14 +35790,19 @@
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
     <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3570</v>
+        <v>3548</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="124" customFormat="1" x14ac:dyDescent="0.25">
@@ -35597,7 +35816,7 @@
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3483</v>
+        <v>3471</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -35608,7 +35827,7 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3484</v>
+        <v>3472</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3150</v>
@@ -35631,7 +35850,7 @@
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3485</v>
+        <v>3473</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3074</v>
@@ -35688,53 +35907,53 @@
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3486</v>
+        <v>3474</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>3079</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3487</v>
+        <v>3475</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3488</v>
+        <v>3476</v>
       </c>
       <c r="B19" s="46">
         <v>500000000</v>
@@ -35757,7 +35976,7 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3489</v>
+        <v>3477</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3145</v>
@@ -35860,7 +36079,7 @@
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3490</v>
+        <v>3478</v>
       </c>
       <c r="B25" s="5">
         <v>2022</v>
@@ -35883,7 +36102,7 @@
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>3491</v>
+        <v>3479</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>98</v>
@@ -35906,10 +36125,10 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3492</v>
+        <v>3480</v>
       </c>
       <c r="B27" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27" s="8">
         <v>30</v>
@@ -35929,7 +36148,7 @@
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3493</v>
+        <v>3481</v>
       </c>
       <c r="B28" s="46">
         <v>100000000</v>
@@ -35952,10 +36171,10 @@
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>3494</v>
+        <v>3482</v>
       </c>
       <c r="B29" s="67">
-        <v>12398042</v>
+        <v>123980421</v>
       </c>
       <c r="C29" s="67">
         <v>12398042</v>
@@ -35975,10 +36194,10 @@
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>3495</v>
+        <v>3483</v>
       </c>
       <c r="B30" s="67">
-        <v>12039814</v>
+        <v>120398141</v>
       </c>
       <c r="C30" s="67">
         <v>12039814</v>
@@ -35998,33 +36217,33 @@
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>3496</v>
+        <v>3484</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>3251</v>
+        <v>3588</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>3497</v>
+        <v>3485</v>
       </c>
       <c r="B32" s="67">
-        <v>1238904</v>
+        <v>12389041</v>
       </c>
       <c r="C32" s="67">
         <v>1238905</v>
@@ -36044,7 +36263,7 @@
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>3498</v>
+        <v>3486</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -36066,25 +36285,25 @@
     </row>
     <row r="35" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>3499</v>
+        <v>3487</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3076</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -36123,7 +36342,7 @@
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3500</v>
+        <v>3488</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3070</v>
@@ -36146,7 +36365,7 @@
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3501</v>
+        <v>3489</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>278</v>
@@ -36203,10 +36422,10 @@
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3502</v>
+        <v>3490</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>43</v>
@@ -36226,7 +36445,7 @@
     </row>
     <row r="43" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3503</v>
+        <v>3491</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3141</v>
@@ -36249,10 +36468,10 @@
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3504</v>
+        <v>3492</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>278</v>
@@ -36329,7 +36548,7 @@
     </row>
     <row r="48" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3505</v>
+        <v>3493</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>14</v>
@@ -36352,7 +36571,7 @@
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>3506</v>
+        <v>3494</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3139</v>
@@ -36398,7 +36617,7 @@
     </row>
     <row r="51" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>3453</v>
+        <v>3442</v>
       </c>
       <c r="B51" s="100"/>
       <c r="C51" s="100"/>
@@ -36412,7 +36631,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>42</v>
@@ -36432,7 +36651,7 @@
     </row>
     <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>3507</v>
+        <v>3495</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>106</v>
@@ -36455,7 +36674,7 @@
     </row>
     <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>3142</v>
@@ -36478,7 +36697,7 @@
     </row>
     <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -36501,7 +36720,7 @@
     </row>
     <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -36524,7 +36743,7 @@
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -36547,7 +36766,7 @@
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>3072</v>
@@ -36570,7 +36789,7 @@
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>3071</v>
@@ -36593,7 +36812,7 @@
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>3140</v>
@@ -36627,7 +36846,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="114" t="s">
-        <v>3508</v>
+        <v>3496</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>33</v>
@@ -36668,102 +36887,102 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="142" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="141" priority="21">
+    <cfRule type="expression" dxfId="142" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="140" priority="20">
+    <cfRule type="expression" dxfId="141" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="139" priority="19">
+    <cfRule type="expression" dxfId="140" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="138" priority="16">
+    <cfRule type="expression" dxfId="139" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="137" priority="15">
+    <cfRule type="expression" dxfId="138" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="136" priority="14">
+    <cfRule type="expression" dxfId="137" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="135" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="134" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="133" priority="11">
+    <cfRule type="expression" dxfId="134" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="132" priority="10">
+    <cfRule type="expression" dxfId="133" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="132" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="130" priority="8">
+    <cfRule type="expression" dxfId="131" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="130" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="129" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="127" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="126" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="125" priority="3">
+    <cfRule type="expression" dxfId="126" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="125" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2789,7 +2789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="3609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="3615">
   <si>
     <t>Count</t>
   </si>
@@ -12386,9 +12386,6 @@
     <t>Management Shareholder Personal</t>
   </si>
   <si>
-    <t>Public</t>
-  </si>
-  <si>
     <t>Shareholder Type</t>
   </si>
   <si>
@@ -12680,9 +12677,6 @@
     <t>04/02/2004</t>
   </si>
   <si>
-    <t>11531</t>
-  </si>
-  <si>
     <t>11532</t>
   </si>
   <si>
@@ -12776,9 +12770,6 @@
     <t>Region5</t>
   </si>
   <si>
-    <t>ATTA4</t>
-  </si>
-  <si>
     <t>ATTA5</t>
   </si>
   <si>
@@ -13502,30 +13493,6 @@
     <t>283726382938273</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Andre;PT AJA</t>
-  </si>
-  <si>
-    <t>New;New</t>
-  </si>
-  <si>
-    <t>Jason;PT LOPO</t>
-  </si>
-  <si>
-    <t>Yes;</t>
-  </si>
-  <si>
-    <t>Select ApplicationInProcess;New</t>
-  </si>
-  <si>
-    <t>SULE;PT AJA</t>
-  </si>
-  <si>
-    <t>JASON;PT LOPO</t>
-  </si>
-  <si>
     <t>FT TIO</t>
   </si>
   <si>
@@ -13541,12 +13508,6 @@
     <t>Jason</t>
   </si>
   <si>
-    <t>WARNING</t>
-  </si>
-  <si>
-    <t>Failed Delete[JOHN]</t>
-  </si>
-  <si>
     <t>Muncul Error Alert</t>
   </si>
   <si>
@@ -13559,9 +13520,6 @@
     <t>Mandatory tidak lengkap</t>
   </si>
   <si>
-    <t>0002APP20211203401</t>
-  </si>
-  <si>
     <t>D2361TEAD1</t>
   </si>
   <si>
@@ -13623,6 +13581,66 @@
   </si>
   <si>
     <t>Edit AppNo</t>
+  </si>
+  <si>
+    <t>checkAppView</t>
+  </si>
+  <si>
+    <t>0002CUST20211204000</t>
+  </si>
+  <si>
+    <t>1234567890111222</t>
+  </si>
+  <si>
+    <t>12/23/2020</t>
+  </si>
+  <si>
+    <t>0002CUST20211204069</t>
+  </si>
+  <si>
+    <t>PT DIRE</t>
+  </si>
+  <si>
+    <t>0002CUST20211204027</t>
+  </si>
+  <si>
+    <t>2132920184028000</t>
+  </si>
+  <si>
+    <t>FT SURYA</t>
+  </si>
+  <si>
+    <t>Failed Store DB</t>
+  </si>
+  <si>
+    <t>Select ApplicationInProcess</t>
+  </si>
+  <si>
+    <t>FT COMPANY;Andre;PT AJA;FT TIO</t>
+  </si>
+  <si>
+    <t>Jason;FT SURYA;PT DIRE;PT ASAP</t>
+  </si>
+  <si>
+    <t>Select ApplicationInProcess;;;Select ApplicationInProcess</t>
+  </si>
+  <si>
+    <t>;;;</t>
+  </si>
+  <si>
+    <t>;Select ApplicationInProcess;Select ApplicationInProcess;</t>
+  </si>
+  <si>
+    <t>;Yes;;</t>
+  </si>
+  <si>
+    <t>0002APP20211204872</t>
+  </si>
+  <si>
+    <t>FT TIO;SULE;FT COMPANY;PT AJA</t>
+  </si>
+  <si>
+    <t>JASON;FT SURYA;PT ASAP;PT DIRE</t>
   </si>
 </sst>
 </file>
@@ -14351,7 +14369,196 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="176">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15126,193 +15333,25 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15913,8 +15952,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="172"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="171"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15924,7 +15963,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15934,7 +15973,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15944,7 +15983,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15954,7 +15993,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15964,7 +16003,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15974,7 +16013,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="153"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15984,7 +16023,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="152"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15994,7 +16033,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="151"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16004,8 +16043,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="150"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="149"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16015,8 +16054,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="148"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="147"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16026,8 +16065,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="170"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="169"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16037,7 +16076,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="146"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16047,7 +16086,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16057,7 +16096,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16067,7 +16106,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16077,7 +16116,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16087,7 +16126,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16097,7 +16136,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16107,7 +16146,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="139"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16117,7 +16156,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16127,7 +16166,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="137"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16137,8 +16176,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="168"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="167"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16147,7 +16186,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16157,7 +16196,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="135"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16167,7 +16206,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="134"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16176,7 +16215,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16186,7 +16225,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="132"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16196,7 +16235,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16206,7 +16245,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="130"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16216,7 +16255,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="129"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16226,7 +16265,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16236,7 +16275,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="127"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16246,8 +16285,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="166"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="165"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16257,7 +16296,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16267,7 +16306,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="125"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16277,7 +16316,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16287,7 +16326,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="123"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16297,7 +16336,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="122"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16307,7 +16346,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="121"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16317,7 +16356,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="120"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16327,7 +16366,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="119"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16337,8 +16376,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="118"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="117"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16348,8 +16387,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="116"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="115"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16359,8 +16398,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="164"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="163"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16370,8 +16409,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="114"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="113"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16381,8 +16420,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="112"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="111"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16392,7 +16431,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="110"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16402,7 +16441,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="162"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16412,7 +16451,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16422,7 +16461,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16432,7 +16471,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16704,8 +16743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16722,13 +16761,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -16747,15 +16786,15 @@
       </c>
       <c r="B2" s="17">
         <f>COUNTA('2.TabManagementShareholderData'!B12:XFD12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="17">
         <f>COUNTA('3a.TabGuarantorDataPersonal'!B12:XFD12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="17">
         <f>COUNTA('3b.TabGuarantorDataCompany'!B12:XFD12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
@@ -16772,21 +16811,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>3605</v>
+        <v>3591</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3606</v>
+        <v>3592</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>3607</v>
+        <v>3593</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>3595</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>3591</v>
+        <v>3577</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>33</v>
@@ -16795,6 +16837,9 @@
         <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16855,10 +16900,10 @@
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" t="s">
-        <v>3586</v>
+        <v>3573</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -16872,12 +16917,12 @@
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
@@ -16917,13 +16962,13 @@
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3584</v>
+        <v>3571</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3589</v>
+        <v>3575</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3589</v>
+        <v>3575</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -16933,7 +16978,7 @@
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>3150</v>
@@ -16959,13 +17004,13 @@
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3585</v>
+        <v>3572</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -16975,7 +17020,7 @@
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3077</v>
@@ -17001,7 +17046,7 @@
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="B17" s="26">
         <v>1000000</v>
@@ -17027,7 +17072,7 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>108</v>
@@ -17053,7 +17098,7 @@
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="B19" s="17">
         <v>12</v>
@@ -17079,7 +17124,7 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="B20" s="26">
         <v>0</v>
@@ -17110,27 +17155,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C19:XFD19">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="123" priority="7">
       <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17159,10 +17204,10 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17191,7 +17236,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -17208,12 +17253,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B4" s="17">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -17226,13 +17271,13 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -17250,7 +17295,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>109</v>
@@ -17280,7 +17325,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3143</v>
@@ -17300,7 +17345,7 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="B15" s="25">
         <v>700000000</v>
@@ -17330,7 +17375,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="B18" s="61">
         <v>44197</v>
@@ -17350,7 +17395,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="B19" s="61">
         <v>44741</v>
@@ -17385,7 +17430,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>195</v>
@@ -17400,12 +17445,12 @@
         <v>266</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="B23" s="25">
         <v>300000000</v>
@@ -17425,7 +17470,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>267</v>
@@ -17445,7 +17490,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>192</v>
@@ -17465,22 +17510,22 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>3000</v>
+        <v>116</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>3326</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>3327</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>3328</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>3329</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17490,7 +17535,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="B28" s="17">
         <v>16</v>
@@ -17590,7 +17635,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>122</v>
@@ -17620,7 +17665,7 @@
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>118</v>
@@ -17640,7 +17685,7 @@
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>118</v>
@@ -17660,7 +17705,7 @@
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>118</v>
@@ -17680,7 +17725,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>118</v>
@@ -17700,7 +17745,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>118</v>
@@ -17720,7 +17765,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>118</v>
@@ -17740,7 +17785,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>118</v>
@@ -17760,7 +17805,7 @@
     </row>
     <row r="43" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>118</v>
@@ -17793,19 +17838,19 @@
         <v>3154</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17813,19 +17858,19 @@
         <v>3155</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="F46" s="74" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17833,19 +17878,19 @@
         <v>3156</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="C47" s="74" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E47" s="74" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F47" s="74" t="s">
         <v>3330</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>3331</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>3332</v>
-      </c>
-      <c r="F47" s="74" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17853,19 +17898,19 @@
         <v>121</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="D48" s="74" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -17883,19 +17928,19 @@
         <v>124</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E50" s="75" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="F50" s="75" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17903,19 +17948,19 @@
         <v>125</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C51" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E51" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="F51" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17923,19 +17968,19 @@
         <v>126</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="F52" s="75" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17943,19 +17988,19 @@
         <v>127</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17963,19 +18008,19 @@
         <v>128</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -17983,19 +18028,19 @@
         <v>129</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C55" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E55" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="F55" s="75" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
@@ -18003,39 +18048,39 @@
         <v>130</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F56" s="75" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="73" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="C57" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="106" customFormat="1" x14ac:dyDescent="0.25">
@@ -18048,19 +18093,19 @@
         <v>3158</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>3334</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>3335</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>3336</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>3337</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18068,19 +18113,19 @@
         <v>3159</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>3336</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>3338</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>3339</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>3340</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>3341</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18088,19 +18133,19 @@
         <v>3160</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>3342</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>3343</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>3344</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>3345</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18108,19 +18153,19 @@
         <v>3162</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>3346</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>3348</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>3349</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18128,19 +18173,19 @@
         <v>3161</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18148,19 +18193,19 @@
         <v>3163</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>3350</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>3351</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>3352</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -18185,27 +18230,27 @@
     </row>
     <row r="66" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>3264</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>3265</v>
-      </c>
       <c r="C66" s="11" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -18215,7 +18260,7 @@
     </row>
     <row r="68" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B68" s="86"/>
       <c r="C68" s="86"/>
@@ -18225,27 +18270,27 @@
     </row>
     <row r="69" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>3268</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>3269</v>
-      </c>
       <c r="C69" s="11" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>3354</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>3355</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>3356</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>3357</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B70" s="87"/>
       <c r="C70" s="87"/>
@@ -18255,7 +18300,7 @@
     </row>
     <row r="71" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -18265,147 +18310,147 @@
     </row>
     <row r="72" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>3272</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>3273</v>
-      </c>
       <c r="C72" s="11" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>3358</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>3359</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>3360</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>3361</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>3274</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>3275</v>
-      </c>
       <c r="C73" s="11" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>3362</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>3363</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>3365</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>3276</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>3277</v>
-      </c>
       <c r="C74" s="11" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>3366</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>3367</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>3369</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>3278</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>3279</v>
-      </c>
       <c r="C75" s="11" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>3280</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>3281</v>
-      </c>
       <c r="C76" s="11" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>3370</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>3371</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>3372</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>3282</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>3283</v>
-      </c>
       <c r="C77" s="11" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>3374</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>3375</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>3376</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>3377</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="73" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B78" s="74" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="C78" s="74" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F78" s="74" t="s">
         <v>3378</v>
-      </c>
-      <c r="D78" s="74" t="s">
-        <v>3379</v>
-      </c>
-      <c r="E78" s="74" t="s">
-        <v>3380</v>
-      </c>
-      <c r="F78" s="74" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -18448,29 +18493,29 @@
         <v>3167</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="C82" s="16" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>3382</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>3383</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>3384</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>3385</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="116" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>88</v>
@@ -18478,7 +18523,7 @@
     </row>
     <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="B85" s="17">
         <v>2000000</v>
@@ -18531,92 +18576,92 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="118" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="116" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="52" priority="15">
+    <cfRule type="expression" dxfId="115" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="112" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="111" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="110" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="109" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="108" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="107" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="43" priority="6">
+    <cfRule type="expression" dxfId="106" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="105" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18719,10 +18764,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" t="s">
-        <v>3577</v>
+        <v>3566</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -18736,12 +18781,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B81)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
@@ -18754,13 +18799,13 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -18778,10 +18823,10 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>3593</v>
+        <v>3579</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>109</v>
@@ -18795,18 +18840,18 @@
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>3592</v>
+        <v>3578</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>3594</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3595</v>
+        <v>3581</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>141</v>
@@ -18820,10 +18865,10 @@
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>3596</v>
+        <v>3582</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>142</v>
@@ -18837,10 +18882,10 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3597</v>
+        <v>3583</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>98</v>
@@ -18854,10 +18899,10 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3598</v>
+        <v>3584</v>
       </c>
       <c r="D17" s="16">
         <v>1000002</v>
@@ -18871,10 +18916,10 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
@@ -19419,7 +19464,7 @@
     </row>
     <row r="47" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="B47" s="17">
         <v>0</v>
@@ -19439,7 +19484,7 @@
     </row>
     <row r="48" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>3050</v>
@@ -19496,147 +19541,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="99" priority="31">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="98" priority="35">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="97" priority="34">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="95" priority="32">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="94" priority="30">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="93" priority="29">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="92" priority="28">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="91" priority="27">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="90" priority="26">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="89" priority="23">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19792,7 +19837,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -19809,13 +19854,13 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B4" s="17">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -19841,14 +19886,14 @@
     </row>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -19866,7 +19911,7 @@
         <v>2418</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3600</v>
+        <v>3586</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3005</v>
@@ -19874,10 +19919,10 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>3601</v>
+        <v>3587</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -19893,7 +19938,7 @@
         <v>2420</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>3602</v>
+        <v>3588</v>
       </c>
       <c r="C15" s="13"/>
     </row>
@@ -19902,7 +19947,7 @@
         <v>2421</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>3603</v>
+        <v>3589</v>
       </c>
       <c r="C16" s="13"/>
     </row>
@@ -19911,7 +19956,7 @@
         <v>2422</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>3599</v>
+        <v>3585</v>
       </c>
       <c r="C17" s="13"/>
     </row>
@@ -19989,7 +20034,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" t="s">
         <v>3043</v>
@@ -20006,12 +20051,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -20024,13 +20069,13 @@
     <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -20053,7 +20098,7 @@
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>171</v>
@@ -20064,13 +20109,13 @@
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20092,7 +20137,7 @@
         <v>176</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20151,7 +20196,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20168,12 +20213,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -20189,7 +20234,7 @@
     </row>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -20232,7 +20277,7 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -20411,16 +20456,16 @@
     </row>
     <row r="29" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>3152</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20431,10 +20476,10 @@
         <v>3148</v>
       </c>
       <c r="C30" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20445,10 +20490,10 @@
         <v>3153</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20459,10 +20504,10 @@
         <v>3148</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20473,10 +20518,10 @@
         <v>3153</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20487,10 +20532,10 @@
         <v>3148</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20501,10 +20546,10 @@
         <v>3153</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20515,10 +20560,10 @@
         <v>3148</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20529,10 +20574,10 @@
         <v>3153</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20543,10 +20588,10 @@
         <v>3148</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20557,10 +20602,10 @@
         <v>3153</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20571,10 +20616,10 @@
         <v>3148</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D40" s="112" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20585,10 +20630,10 @@
         <v>3153</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -20609,16 +20654,16 @@
     </row>
     <row r="44" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>3151</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -20744,32 +20789,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="67" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20837,7 +20882,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -20854,12 +20899,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -20873,7 +20918,7 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -20882,13 +20927,13 @@
     </row>
     <row r="11" spans="1:5" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:5" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="B12" s="37">
         <v>1000000</v>
@@ -20896,7 +20941,7 @@
     </row>
     <row r="13" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="B13" s="39">
         <v>0</v>
@@ -20904,7 +20949,7 @@
     </row>
     <row r="14" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="B14" s="39">
         <v>0</v>
@@ -20912,7 +20957,7 @@
     </row>
     <row r="15" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="B15" s="39">
         <v>10</v>
@@ -20920,7 +20965,7 @@
     </row>
     <row r="16" spans="1:5" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="B16" s="39">
         <v>10</v>
@@ -20929,10 +20974,10 @@
     <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
     </row>
   </sheetData>
@@ -20955,7 +21000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20984,7 +21029,7 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -21001,12 +21046,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
@@ -21020,7 +21065,7 @@
     <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -21032,7 +21077,7 @@
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -21041,15 +21086,15 @@
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="B13" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>118</v>
@@ -21057,15 +21102,15 @@
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="B15" t="s">
-        <v>3574</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>118</v>
@@ -21073,15 +21118,15 @@
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="B17" t="s">
-        <v>3575</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>118</v>
@@ -21372,10 +21417,10 @@
         <v>2449</v>
       </c>
       <c r="DP1" s="27" t="s">
+        <v>3197</v>
+      </c>
+      <c r="DQ1" s="27" t="s">
         <v>3198</v>
-      </c>
-      <c r="DQ1" s="27" t="s">
-        <v>3199</v>
       </c>
       <c r="DS1" s="27" t="s">
         <v>3187</v>
@@ -21567,13 +21612,13 @@
         <v>198</v>
       </c>
       <c r="DP2" s="27" t="s">
+        <v>3199</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
         <v>3200</v>
       </c>
-      <c r="DQ2" s="27" t="s">
-        <v>3201</v>
-      </c>
       <c r="DS2" s="27" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="3" spans="1:123" x14ac:dyDescent="0.25">
@@ -21764,13 +21809,13 @@
         <v>574</v>
       </c>
       <c r="DP3" s="27" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="DQ3" s="27" t="s">
         <v>107</v>
       </c>
       <c r="DS3" s="27" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="4" spans="1:123" x14ac:dyDescent="0.25">
@@ -21931,13 +21976,13 @@
         <v>581</v>
       </c>
       <c r="DP4" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="DQ4" s="27" t="s">
         <v>3203</v>
       </c>
-      <c r="DQ4" s="27" t="s">
-        <v>3204</v>
-      </c>
       <c r="DS4" s="27" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="5" spans="1:123" x14ac:dyDescent="0.25">
@@ -22080,13 +22125,13 @@
         <v>588</v>
       </c>
       <c r="DP5" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="DQ5" s="27" t="s">
         <v>3205</v>
       </c>
-      <c r="DQ5" s="27" t="s">
-        <v>3206</v>
-      </c>
       <c r="DS5" s="27" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
@@ -22214,7 +22259,7 @@
         <v>3186</v>
       </c>
       <c r="DQ6" s="27" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="7" spans="1:123" x14ac:dyDescent="0.25">
@@ -22321,7 +22366,7 @@
         <v>3190</v>
       </c>
       <c r="DQ7" s="27" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
@@ -22422,10 +22467,10 @@
         <v>609</v>
       </c>
       <c r="DP8" s="27" t="s">
+        <v>3208</v>
+      </c>
+      <c r="DQ8" s="27" t="s">
         <v>3209</v>
-      </c>
-      <c r="DQ8" s="27" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="9" spans="1:123" x14ac:dyDescent="0.25">
@@ -22515,10 +22560,10 @@
         <v>616</v>
       </c>
       <c r="DP9" s="27" t="s">
+        <v>3210</v>
+      </c>
+      <c r="DQ9" s="27" t="s">
         <v>3211</v>
-      </c>
-      <c r="DQ9" s="27" t="s">
-        <v>3212</v>
       </c>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
@@ -22602,10 +22647,10 @@
         <v>906</v>
       </c>
       <c r="DP10" s="27" t="s">
+        <v>3212</v>
+      </c>
+      <c r="DQ10" s="27" t="s">
         <v>3213</v>
-      </c>
-      <c r="DQ10" s="27" t="s">
-        <v>3214</v>
       </c>
     </row>
     <row r="11" spans="1:123" x14ac:dyDescent="0.25">
@@ -22679,10 +22724,10 @@
         <v>912</v>
       </c>
       <c r="DP11" s="27" t="s">
+        <v>3214</v>
+      </c>
+      <c r="DQ11" s="27" t="s">
         <v>3215</v>
-      </c>
-      <c r="DQ11" s="27" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="12" spans="1:123" x14ac:dyDescent="0.25">
@@ -22754,10 +22799,10 @@
         <v>919</v>
       </c>
       <c r="DP12" s="27" t="s">
+        <v>3216</v>
+      </c>
+      <c r="DQ12" s="27" t="s">
         <v>3217</v>
-      </c>
-      <c r="DQ12" s="27" t="s">
-        <v>3218</v>
       </c>
     </row>
     <row r="13" spans="1:123" x14ac:dyDescent="0.25">
@@ -22825,10 +22870,10 @@
         <v>925</v>
       </c>
       <c r="DP13" s="27" t="s">
+        <v>3218</v>
+      </c>
+      <c r="DQ13" s="27" t="s">
         <v>3219</v>
-      </c>
-      <c r="DQ13" s="27" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="14" spans="1:123" x14ac:dyDescent="0.25">
@@ -22897,10 +22942,10 @@
         <v>932</v>
       </c>
       <c r="DP14" s="27" t="s">
+        <v>3220</v>
+      </c>
+      <c r="DQ14" s="27" t="s">
         <v>3221</v>
-      </c>
-      <c r="DQ14" s="27" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row r="15" spans="1:123" x14ac:dyDescent="0.25">
@@ -22962,10 +23007,10 @@
         <v>939</v>
       </c>
       <c r="DP15" s="27" t="s">
+        <v>3222</v>
+      </c>
+      <c r="DQ15" s="27" t="s">
         <v>3223</v>
-      </c>
-      <c r="DQ15" s="27" t="s">
-        <v>3224</v>
       </c>
     </row>
     <row r="16" spans="1:123" x14ac:dyDescent="0.25">
@@ -23018,10 +23063,10 @@
         <v>799</v>
       </c>
       <c r="DP16" s="27" t="s">
+        <v>3224</v>
+      </c>
+      <c r="DQ16" s="27" t="s">
         <v>3225</v>
-      </c>
-      <c r="DQ16" s="27" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="17" spans="1:121" x14ac:dyDescent="0.25">
@@ -23074,10 +23119,10 @@
         <v>806</v>
       </c>
       <c r="DP17" s="27" t="s">
+        <v>3226</v>
+      </c>
+      <c r="DQ17" s="27" t="s">
         <v>3227</v>
-      </c>
-      <c r="DQ17" s="27" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="18" spans="1:121" x14ac:dyDescent="0.25">
@@ -23124,10 +23169,10 @@
         <v>818</v>
       </c>
       <c r="DP18" s="27" t="s">
+        <v>3228</v>
+      </c>
+      <c r="DQ18" s="27" t="s">
         <v>3229</v>
-      </c>
-      <c r="DQ18" s="27" t="s">
-        <v>3230</v>
       </c>
     </row>
     <row r="19" spans="1:121" x14ac:dyDescent="0.25">
@@ -23174,10 +23219,10 @@
         <v>825</v>
       </c>
       <c r="DP19" s="27" t="s">
+        <v>3230</v>
+      </c>
+      <c r="DQ19" s="27" t="s">
         <v>3231</v>
-      </c>
-      <c r="DQ19" s="27" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row r="20" spans="1:121" x14ac:dyDescent="0.25">
@@ -23224,10 +23269,10 @@
         <v>832</v>
       </c>
       <c r="DP20" s="27" t="s">
+        <v>3232</v>
+      </c>
+      <c r="DQ20" s="27" t="s">
         <v>3233</v>
-      </c>
-      <c r="DQ20" s="27" t="s">
-        <v>3234</v>
       </c>
     </row>
     <row r="21" spans="1:121" x14ac:dyDescent="0.25">
@@ -23274,10 +23319,10 @@
         <v>839</v>
       </c>
       <c r="DP21" s="27" t="s">
+        <v>3234</v>
+      </c>
+      <c r="DQ21" s="27" t="s">
         <v>3235</v>
-      </c>
-      <c r="DQ21" s="27" t="s">
-        <v>3236</v>
       </c>
     </row>
     <row r="22" spans="1:121" x14ac:dyDescent="0.25">
@@ -23324,10 +23369,10 @@
         <v>846</v>
       </c>
       <c r="DP22" s="27" t="s">
+        <v>3236</v>
+      </c>
+      <c r="DQ22" s="27" t="s">
         <v>3237</v>
-      </c>
-      <c r="DQ22" s="27" t="s">
-        <v>3238</v>
       </c>
     </row>
     <row r="23" spans="1:121" x14ac:dyDescent="0.25">
@@ -23374,10 +23419,10 @@
         <v>853</v>
       </c>
       <c r="DP23" s="27" t="s">
+        <v>3238</v>
+      </c>
+      <c r="DQ23" s="27" t="s">
         <v>3239</v>
-      </c>
-      <c r="DQ23" s="27" t="s">
-        <v>3240</v>
       </c>
     </row>
     <row r="24" spans="1:121" x14ac:dyDescent="0.25">
@@ -31611,7 +31656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31645,7 +31690,7 @@
     </row>
     <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -31662,12 +31707,12 @@
     </row>
     <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B10="Edit",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B10="Edit",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""),IF(B10="Yes",COUNTIFS($A9,"*$*",B9,""),IF(AND(B10="No",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(AND(B10="No",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""))))))</f>
@@ -31695,20 +31740,20 @@
     <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>3608</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>3578</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>33</v>
@@ -31719,7 +31764,7 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>3078</v>
@@ -31729,8 +31774,8 @@
       <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>3587</v>
+      <c r="B13" t="s">
+        <v>3612</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -31765,7 +31810,7 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
@@ -31774,7 +31819,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>3179</v>
@@ -31782,7 +31827,7 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -31791,23 +31836,23 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>210</v>
@@ -31827,7 +31872,7 @@
     </row>
     <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>47</v>
@@ -31857,15 +31902,15 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
@@ -31873,7 +31918,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -31881,7 +31926,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B27" s="17">
         <v>11530</v>
@@ -31889,7 +31934,7 @@
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>3182</v>
@@ -31897,7 +31942,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>3182</v>
@@ -31905,7 +31950,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>3181</v>
@@ -31913,7 +31958,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>38</v>
@@ -31938,27 +31983,27 @@
     <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="175" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="108" priority="4">
+    <cfRule type="expression" dxfId="174" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="107" priority="3">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="171" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31990,9 +32035,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32000,8 +32045,9 @@
     <col min="1" max="1" width="28.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31.5703125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.7109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="16" collapsed="1"/>
+    <col min="4" max="4" width="32.5703125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32017,49 +32063,52 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
+      <c r="E1" t="s">
+        <v>3065</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3577</v>
+        <v>3287</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
       </c>
-      <c r="D2" t="s">
-        <v>3577</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>3043</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3604</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="INSTANSI PUBLIK DAERAH",B62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="MASYARAKAT",B62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",B62,"")+COUNTIFS($A65:$A66,"*$*",B65:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,"")))))))</f>
         <v>0</v>
       </c>
       <c r="C4" s="113">
-        <f t="shared" ref="C4:D4" si="0">IF(AND(C13="Input Data",C14="Personal"),COUNTIFS($A19:$A21,"*$*",C19:C21,"")+COUNTIFS($A24:$A33,"*$*",C24:C33,"")+COUNTIFS($A35:$A38,"*$*",C35:C38,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Company"),COUNTIFS($A52:$A57,"*$*",C52:C57,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="INSTANSI PUBLIK DAERAH",C62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",C62:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="MASYARAKAT",C62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",C62,"")+COUNTIFS($A65:$A66,"*$*",C65:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="LookUp",C14="Personal"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A30,"*$*",C30,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,""),IF(AND(C13="LookUp",C14="Company"),COUNTIFS($A49:$A51,"*$*",C49:C51,"")+COUNTIFS($A54,"*$*",C54,"")))))))</f>
+        <f t="shared" ref="C4:E4" si="0">IF(AND(C13="Input Data",C14="Personal"),COUNTIFS($A19:$A21,"*$*",C19:C21,"")+COUNTIFS($A24:$A33,"*$*",C24:C33,"")+COUNTIFS($A35:$A38,"*$*",C35:C38,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Company"),COUNTIFS($A52:$A57,"*$*",C52:C57,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="INSTANSI PUBLIK DAERAH",C62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",C62:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="Input Data",C14="Public",OR(C62="MASYARAKAT",C62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",C62,"")+COUNTIFS($A65:$A66,"*$*",C65:C66,"")+IF(C70="",COUNTIFS($A71:$A78,"*$*",C71:C78,""),0),IF(AND(C13="LookUp",C14="Personal"),COUNTIFS($A16:$A18,"*$*",C16:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A30,"*$*",C30,"")+COUNTIFS($A44:$A45,"*$*",C44:C45,""),IF(AND(C13="LookUp",C14="Company"),COUNTIFS($A49:$A51,"*$*",C49:C51,"")+COUNTIFS($A54,"*$*",C54,"")))))))</f>
         <v>0</v>
       </c>
       <c r="D4" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="113">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -32068,13 +32117,13 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -32085,6 +32134,10 @@
         <v>No</v>
       </c>
       <c r="D10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+      <c r="E10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
         <v>No</v>
       </c>
@@ -32095,16 +32148,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="str">
-        <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211203401</v>
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
       </c>
       <c r="C12" s="17" t="str">
-        <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211203401</v>
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211203401</v>
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
+      </c>
+      <c r="E12" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.25">
@@ -32112,7 +32169,7 @@
         <v>2409</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>2411</v>
@@ -32120,19 +32177,25 @@
       <c r="D13" s="89" t="s">
         <v>2411</v>
       </c>
+      <c r="E13" s="89" t="s">
+        <v>2410</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>3196</v>
+        <v>43</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>43</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -32142,52 +32205,61 @@
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3393</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3394</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>2448</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>16</v>
       </c>
@@ -32195,19 +32267,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>18</v>
@@ -32218,10 +32290,13 @@
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="B26" s="17" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -32235,10 +32310,14 @@
         <f>IF(D$25="Employee",VLOOKUP(D27,Master!$A:$B,2,FALSE),IF(D$25="Professional",VLOOKUP(D27,Master!$DG:$DH,2,FALSE),IF(D$25="Non Professional",VLOOKUP(D27,Master!$DJ:$DK,2,FALSE),IF(D$25="Small Medium Enterprise",VLOOKUP(D27,Master!$DM:$DN,2,FALSE)))))</f>
         <v>EMP0004</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="17" t="str">
+        <f>IF(E$25="Employee",VLOOKUP(E27,Master!$A:$B,2,FALSE),IF(E$25="Professional",VLOOKUP(E27,Master!$DG:$DH,2,FALSE),IF(E$25="Non Professional",VLOOKUP(E27,Master!$DJ:$DK,2,FALSE),IF(E$25="Small Medium Enterprise",VLOOKUP(E27,Master!$DM:$DN,2,FALSE)))))</f>
+        <v>EMP0007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>299</v>
@@ -32249,10 +32328,13 @@
       <c r="D27" s="17" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -32266,50 +32348,60 @@
         <f>VLOOKUP(D29,Master!$DP:$DQ,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="str">
+        <f>VLOOKUP(E29,Master!$DP:$DQ,2,FALSE)</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3204</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="32" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="D30" s="82"/>
-    </row>
-    <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="32" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -32323,10 +32415,10 @@
     </row>
     <row r="35" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32335,13 +32427,13 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="B37" s="17" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -32362,7 +32454,7 @@
     </row>
     <row r="38" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>3194</v>
@@ -32382,7 +32474,10 @@
         <v>3185</v>
       </c>
       <c r="C39" s="17">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E39" s="17">
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32392,6 +32487,9 @@
       <c r="C40" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="E40" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -32400,6 +32498,9 @@
       <c r="C41" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="E41" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
@@ -32408,6 +32509,9 @@
       <c r="C42" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="E42" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="98" t="s">
@@ -32416,7 +32520,7 @@
     </row>
     <row r="44" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="B44" s="17" t="e">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -32424,18 +32528,25 @@
       </c>
       <c r="C44" s="17" t="str">
         <f>VLOOKUP(C45,Master!$M:$N,2,FALSE)</f>
-        <v>00651</v>
+        <v>00591</v>
       </c>
       <c r="D44" s="17" t="e">
         <f>VLOOKUP(D45,Master!$M:$N,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="E44" s="17" t="str">
+        <f>VLOOKUP(E45,Master!$M:$N,2,FALSE)</f>
+        <v>00651</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="C45" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -32455,6 +32566,10 @@
         <f>VLOOKUP(D47,Master!$Q:$R,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="E46" s="17" t="e">
+        <f>VLOOKUP(E47,Master!$Q:$R,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -32468,47 +32583,55 @@
     </row>
     <row r="49" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>3396</v>
+        <v>3393</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>3178</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>3397</v>
+        <v>3394</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>3179</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>3398</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>3395</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3180</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>3418</v>
-      </c>
-      <c r="B54" s="2" t="e">
+        <v>3415</v>
+      </c>
+      <c r="B54" s="2" t="str">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>02</v>
       </c>
       <c r="C54" s="2" t="e">
         <f>VLOOKUP(C55,Master!$DP:$DQ,2,FALSE)</f>
@@ -32521,15 +32644,18 @@
     </row>
     <row r="55" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>3419</v>
+        <v>3416</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>3201</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>210</v>
@@ -32543,7 +32669,7 @@
     </row>
     <row r="57" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>47</v>
@@ -32566,7 +32692,7 @@
         <v>50</v>
       </c>
       <c r="D58" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -32604,28 +32730,28 @@
     </row>
     <row r="62" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="B64" s="17">
         <v>1297356971</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -32640,9 +32766,9 @@
         <v>07</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>3190</v>
@@ -32654,7 +32780,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>3185</v>
       </c>
@@ -32668,7 +32794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>3184</v>
       </c>
@@ -32682,12 +32808,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="s">
         <v>3010</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>3183</v>
       </c>
@@ -32697,24 +32823,30 @@
       <c r="D70" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3244</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B72" s="17">
         <v>1</v>
@@ -32725,10 +32857,13 @@
       <c r="D72" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E72" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B73" s="17">
         <v>1</v>
@@ -32739,10 +32874,13 @@
       <c r="D73" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E73" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B74" s="17">
         <v>11530</v>
@@ -32753,10 +32891,13 @@
       <c r="D74" s="17">
         <v>11530</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="17">
+        <v>11530</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>3182</v>
@@ -32767,10 +32908,13 @@
       <c r="D75" s="17" t="s">
         <v>3182</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="17" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>3182</v>
@@ -32781,10 +32925,13 @@
       <c r="D76" s="17" t="s">
         <v>3182</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="17" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>3181</v>
@@ -32795,10 +32942,13 @@
       <c r="D77" s="17" t="s">
         <v>3181</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="17" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>37</v>
@@ -32809,51 +32959,64 @@
       <c r="D78" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="E78" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="104" priority="8">
+    <cfRule type="expression" dxfId="170" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="103" priority="10">
+    <cfRule type="expression" dxfId="169" priority="12">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="102" priority="9">
+    <cfRule type="expression" dxfId="168" priority="11">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="101" priority="6">
+    <cfRule type="expression" dxfId="167" priority="8">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="166" priority="7">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="99" priority="4">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="164" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="163" priority="2">
+      <formula>E$13="LookUp"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="162" priority="1">
+      <formula>E$38="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
       <formula1>"Input Data, LookUp"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70:D70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70:E70">
       <formula1>ListCopyAddressCAPS</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:D31">
@@ -32862,29 +33025,29 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C21:D21">
       <formula1>IF(C13="Input Data",ListIdType)</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:D26 B28:D28 B30:D30 B33:D33 B37:D37 B64:D64 C32"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:D22 B26:E26 B28:E28 B30:D30 B33:D33 B37:D37 B64:D64 C32"/>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:D23">
       <formula1>"Single, Married, Widow"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:D25">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:E25">
       <formula1>ListCustomerModelPersonal</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:D27">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:E27">
       <formula1>IF(B$25 = "Employee", ListJobProfessionEMP,IF(B$25 = "Professional", ListJobProfessionPROF,IF(B$25 = "Non Professional", ListJobProfessionNONPROF,IF(B$25 = "Small Medium Enterprise", ListJobProfessionSME))))</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:D29 B55:D55 B66:D66">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:E29 B55:D55 B66:D66">
       <formula1>Position_SLIK</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:D38">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:D42 B68:D68 B59:D60">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:E42 B68:D68 B59:D60">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:D45">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:E45">
       <formula1>ListDepartmentAML</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:D47">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:E47">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B56:D56">
@@ -32896,7 +33059,7 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:D62">
       <formula1>Public_Type</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:D78">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:E78">
       <formula1>ListOwnership</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B21">
@@ -32920,7 +33083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32935,10 +33098,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3581</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -32952,10 +33115,10 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3582</v>
+        <v>3287</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -32969,12 +33132,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -32982,7 +33145,7 @@
       </c>
       <c r="C4" s="113">
         <f t="shared" ref="C4:F4" si="0">IF(C13="Input Data",COUNTIFS($A18:$A21,"*$*",C18:C21,"")+COUNTIFS($A23:$A28,"*$*",C23:C28,"")+COUNTIFS($A30:$A31,"*$*",C30:C31,"")+COUNTIFS($A33:$A34,"*$*",C33:C34,"")+IF(C38 = "No",COUNTIFS($A39:$A46,"*$*",C39:C46,""),0),IF(C13="LookUp",COUNTIFS($A15:$A18,"*$*",C15:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="113">
         <f t="shared" si="0"/>
@@ -33003,15 +33166,19 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+      <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
         <v>No</v>
       </c>
@@ -33029,7 +33196,10 @@
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20211203401</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="43" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -33058,37 +33228,43 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>3601</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>3603</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="2" t="s">
+        <v>3602</v>
+      </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>8</v>
@@ -33108,10 +33284,10 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>3580</v>
+        <v>3569</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>3173</v>
@@ -33128,7 +33304,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>13</v>
@@ -33148,7 +33324,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>2416</v>
@@ -33188,7 +33364,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>17</v>
@@ -33208,10 +33384,10 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3069</v>
@@ -33228,7 +33404,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>207</v>
@@ -33248,7 +33424,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>19</v>
@@ -33268,30 +33444,30 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="C27" s="61" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D27" s="61" t="s">
         <v>3290</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="E27" s="61" t="s">
         <v>3291</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="F27" s="61" t="s">
         <v>3292</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3174</v>
@@ -33318,10 +33494,10 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>3175</v>
@@ -33338,10 +33514,10 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>3176</v>
@@ -33363,32 +33539,32 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="B33" s="17" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
         <v>00651</v>
       </c>
-      <c r="C33" s="17" t="e">
-        <f>VLOOKUP(C34,Master!N:O,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="17" t="e">
-        <f>VLOOKUP(D34,Master!O:P,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="17" t="e">
-        <f>VLOOKUP(E34,Master!P:Q,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C33" s="17" t="str">
+        <f>VLOOKUP(C34,Master!$M:$N,2,FALSE)</f>
+        <v>00651</v>
+      </c>
+      <c r="D33" s="17" t="str">
+        <f>VLOOKUP(D34,Master!$M:$N,2,FALSE)</f>
+        <v>00651</v>
+      </c>
+      <c r="E33" s="17" t="str">
+        <f>VLOOKUP(E34,Master!$M:$N,2,FALSE)</f>
+        <v>00651</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f>VLOOKUP(F34,Master!Q:R,2,FALSE)</f>
-        <v>00838</v>
+        <f>VLOOKUP(F34,Master!$M:$N,2,FALSE)</f>
+        <v>00651</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>29</v>
@@ -33414,21 +33590,21 @@
         <f>VLOOKUP(B36,Master!$Q:$R,2,FALSE)</f>
         <v>00838</v>
       </c>
-      <c r="C35" s="17" t="e">
-        <f>VLOOKUP(C36,Master!R:S,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" s="17" t="e">
-        <f>VLOOKUP(D36,Master!S:T,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="17" t="e">
-        <f>VLOOKUP(E36,Master!T:U,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" s="17" t="e">
-        <f>VLOOKUP(F36,Master!U:V,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C35" s="17" t="str">
+        <f>VLOOKUP(C36,Master!$Q:$R,2,FALSE)</f>
+        <v>00838</v>
+      </c>
+      <c r="D35" s="17" t="str">
+        <f>VLOOKUP(D36,Master!$Q:$R,2,FALSE)</f>
+        <v>00838</v>
+      </c>
+      <c r="E35" s="17" t="str">
+        <f>VLOOKUP(E36,Master!$Q:$R,2,FALSE)</f>
+        <v>00838</v>
+      </c>
+      <c r="F35" s="17" t="str">
+        <f>VLOOKUP(F36,Master!$Q:$R,2,FALSE)</f>
+        <v>00838</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33478,7 +33654,7 @@
     </row>
     <row r="39" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>3067</v>
@@ -33495,7 +33671,7 @@
     </row>
     <row r="40" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3066</v>
@@ -33515,7 +33691,7 @@
     </row>
     <row r="41" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>107</v>
@@ -33535,7 +33711,7 @@
     </row>
     <row r="42" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>34</v>
@@ -33555,7 +33731,7 @@
     </row>
     <row r="43" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>35</v>
@@ -33575,7 +33751,7 @@
     </row>
     <row r="44" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>35</v>
@@ -33595,7 +33771,7 @@
     </row>
     <row r="45" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>2412</v>
@@ -33615,7 +33791,7 @@
     </row>
     <row r="46" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>37</v>
@@ -33635,22 +33811,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="160" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="159" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="94" priority="1">
+    <cfRule type="expression" dxfId="158" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33786,7 +33962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33804,8 +33980,8 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>7</v>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>7</v>
@@ -33819,7 +33995,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -33839,12 +34015,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -33873,15 +34049,19 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+      <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
         <v>No</v>
       </c>
@@ -33899,6 +34079,10 @@
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20211203401</v>
       </c>
+      <c r="C12" s="17" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204865</v>
+      </c>
       <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33906,7 +34090,7 @@
         <v>2409</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>2411</v>
@@ -33928,9 +34112,11 @@
     </row>
     <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3396</v>
-      </c>
-      <c r="B15" s="17"/>
+        <v>3393</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>3599</v>
+      </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -33938,9 +34124,11 @@
     </row>
     <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>3397</v>
-      </c>
-      <c r="B16" s="17"/>
+        <v>3394</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>3600</v>
+      </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -33948,7 +34136,7 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>45</v>
@@ -33968,30 +34156,30 @@
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>3579</v>
+        <v>3568</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3177</v>
@@ -34008,10 +34196,10 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>210</v>
@@ -34028,7 +34216,7 @@
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>47</v>
@@ -34073,7 +34261,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>3068</v>
@@ -34090,7 +34278,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -34110,7 +34298,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -34130,27 +34318,27 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="2">
+        <v>11530</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>3294</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3295</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>3296</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>48</v>
@@ -34170,7 +34358,7 @@
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>48</v>
@@ -34190,7 +34378,7 @@
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>2412</v>
@@ -34210,7 +34398,7 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>36</v>
@@ -34229,22 +34417,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:XFD16 B16:F16 A15:F15">
-    <cfRule type="expression" dxfId="93" priority="3">
+  <conditionalFormatting sqref="A15 C15:XFD16">
+    <cfRule type="expression" dxfId="157" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="156" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="155" priority="2">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="18">
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="154" priority="1">
+      <formula>B$13="Input Data"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="19">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:F13">
       <formula1>"Input Data, LookUp"</formula1>
     </dataValidation>
@@ -34287,8 +34480,8 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C31:F31">
       <formula1>IF(C13="Input Data",ListOwnership)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:F16">
-      <formula1>B$13="LookUp"</formula1>
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:F16">
+      <formula1>C$13="LookUp"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:F19">
       <formula1>AND(B13="Input Data",LEN(B19)=15)</formula1>
@@ -34298,6 +34491,9 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>ListOwnership</formula1>
+    </dataValidation>
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>B13="LookUp"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34329,9 +34525,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34360,9 +34556,9 @@
     </row>
     <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3043</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -34377,12 +34573,12 @@
     </row>
     <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
@@ -34403,81 +34599,81 @@
     </row>
     <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211203401</v>
+        <v>0002APP20211204871</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>3568</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="B15" s="71"/>
     </row>
-    <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>3573</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>3570</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>3450</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -34508,7 +34704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34555,10 +34751,10 @@
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" t="s">
-        <v>3583</v>
+        <v>3570</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3043</v>
@@ -34572,12 +34768,12 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
@@ -34594,13 +34790,13 @@
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -34634,7 +34830,7 @@
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>50</v>
@@ -34666,13 +34862,13 @@
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3070</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3576</v>
+        <v>3565</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3070</v>
@@ -34703,7 +34899,7 @@
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
@@ -34726,7 +34922,7 @@
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>2407</v>
@@ -34809,7 +35005,7 @@
     </row>
     <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -34826,12 +35022,12 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="B4" s="17">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -34844,13 +35040,13 @@
     <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -34864,22 +35060,22 @@
     </row>
     <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>3299</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>3300</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3301</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3302</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34889,7 +35085,7 @@
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>3073</v>
@@ -34919,22 +35115,22 @@
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>261</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>3303</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3304</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>3305</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3306</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34959,7 +35155,7 @@
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>64</v>
@@ -34979,7 +35175,7 @@
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="B20" s="17">
         <v>12</v>
@@ -35027,7 +35223,7 @@
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>3043</v>
@@ -35047,7 +35243,7 @@
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>191</v>
@@ -35067,7 +35263,7 @@
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>193</v>
@@ -35087,7 +35283,7 @@
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="B26" s="17">
         <v>1</v>
@@ -35107,7 +35303,7 @@
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>67</v>
@@ -35157,27 +35353,27 @@
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>3144</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>3307</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>3308</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>3309</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>3310</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -35197,7 +35393,7 @@
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -35217,7 +35413,7 @@
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B34" s="17">
         <v>11530</v>
@@ -35237,7 +35433,7 @@
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>3182</v>
@@ -35257,7 +35453,7 @@
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>3182</v>
@@ -35277,22 +35473,22 @@
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35372,7 +35568,7 @@
     </row>
     <row r="50" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>83</v>
@@ -35397,7 +35593,7 @@
     </row>
     <row r="52" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>222</v>
@@ -35442,7 +35638,7 @@
     </row>
     <row r="54" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>2288</v>
@@ -35467,7 +35663,7 @@
     </row>
     <row r="56" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>118</v>
@@ -35498,19 +35694,19 @@
         <v>90</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>3311</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>3312</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>3313</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>3314</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -35540,7 +35736,7 @@
     </row>
     <row r="60" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>188</v>
@@ -35560,7 +35756,7 @@
     </row>
     <row r="61" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="B61" s="17">
         <v>1</v>
@@ -35580,52 +35776,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="152" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="88" priority="9">
+    <cfRule type="expression" dxfId="151" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="150" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="148" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="147" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="83" priority="3">
+    <cfRule type="expression" dxfId="146" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35724,7 +35920,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
       <selection pane="topRight" activeCell="A9" sqref="A9:B9"/>
@@ -35756,7 +35952,7 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>3043</v>
@@ -35773,12 +35969,12 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="D4" s="17">
         <f>IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A53,"*$*",D42:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A35,"*$*",D28:D35,"")+COUNTIFS($A42:$A50,"*$*",D42:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="Yes",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A35,"*$*",D29:D35,"")+COUNTIFS($A42:$A49,"*$*",D42:D49,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A39,"*$*",D28:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="Yes",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A39,"*$*",D29:D39,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="Yes"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Amount",D52="No"),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A28:$A50,"*$*",D28:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="Yes"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A53:$A53,"*$*",D53:D53,"")+COUNTIFS($A62:$A62,"*$*",D62:D62,""),IF(AND(D37="No",D41="No",D26="Percentage",D52="No"),COUNTIFS($A12:$A27,"*$*",D12:D27,"")+COUNTIFS($A29:$A50,"*$*",D29:D50,"")+COUNTIFS($A54:$A62,"*$*",D54:D62,"")))))))))))))))))</f>
@@ -35791,13 +35987,13 @@
     <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3604</v>
+        <v>3590</v>
       </c>
       <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -35815,7 +36011,7 @@
     </row>
     <row r="12" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -35826,7 +36022,7 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3150</v>
@@ -35849,7 +36045,7 @@
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3074</v>
@@ -35906,53 +36102,53 @@
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>3079</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>3315</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>3316</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>3317</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3318</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="B19" s="46">
         <v>500000000</v>
@@ -35975,7 +36171,7 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3145</v>
@@ -36078,7 +36274,7 @@
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="B25" s="5">
         <v>2022</v>
@@ -36101,7 +36297,7 @@
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>98</v>
@@ -36124,7 +36320,7 @@
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="B27" s="8">
         <v>20</v>
@@ -36147,7 +36343,7 @@
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="B28" s="46">
         <v>100000000</v>
@@ -36170,7 +36366,7 @@
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="B29" s="67">
         <v>123980421</v>
@@ -36193,7 +36389,7 @@
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="B30" s="67">
         <v>120398141</v>
@@ -36216,30 +36412,30 @@
     </row>
     <row r="31" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>3588</v>
+        <v>3574</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="B32" s="67">
         <v>12389041</v>
@@ -36262,7 +36458,7 @@
     </row>
     <row r="33" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -36284,25 +36480,25 @@
     </row>
     <row r="35" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>3076</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>3320</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>3321</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>3322</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3323</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>3324</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -36341,7 +36537,7 @@
     </row>
     <row r="38" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>3070</v>
@@ -36364,7 +36560,7 @@
     </row>
     <row r="39" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>278</v>
@@ -36421,7 +36617,7 @@
     </row>
     <row r="42" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>43</v>
@@ -36444,7 +36640,7 @@
     </row>
     <row r="43" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3141</v>
@@ -36467,7 +36663,7 @@
     </row>
     <row r="44" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>45</v>
@@ -36547,7 +36743,7 @@
     </row>
     <row r="48" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>14</v>
@@ -36570,7 +36766,7 @@
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3139</v>
@@ -36616,7 +36812,7 @@
     </row>
     <row r="51" spans="1:8" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="B51" s="100"/>
       <c r="C51" s="100"/>
@@ -36650,7 +36846,7 @@
     </row>
     <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>106</v>
@@ -36673,7 +36869,7 @@
     </row>
     <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>3142</v>
@@ -36696,7 +36892,7 @@
     </row>
     <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -36719,7 +36915,7 @@
     </row>
     <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -36742,7 +36938,7 @@
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -36765,7 +36961,7 @@
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>3072</v>
@@ -36788,7 +36984,7 @@
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>3071</v>
@@ -36811,7 +37007,7 @@
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>3140</v>
@@ -36845,7 +37041,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="114" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>33</v>
@@ -36886,102 +37082,102 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="80" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="142" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="78" priority="20">
+    <cfRule type="expression" dxfId="141" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="77" priority="19">
+    <cfRule type="expression" dxfId="140" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="76" priority="16">
+    <cfRule type="expression" dxfId="139" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="138" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="74" priority="14">
+    <cfRule type="expression" dxfId="137" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="73" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="72" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="71" priority="11">
+    <cfRule type="expression" dxfId="134" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="70" priority="10">
+    <cfRule type="expression" dxfId="133" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="132" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="68" priority="8">
+    <cfRule type="expression" dxfId="131" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="67" priority="7">
+    <cfRule type="expression" dxfId="130" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="129" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="65" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="126" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="125" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2790,7 +2790,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="3615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="3619">
   <si>
     <t>Count</t>
   </si>
@@ -13642,6 +13642,18 @@
   </si>
   <si>
     <t>JOK KULIT</t>
+  </si>
+  <si>
+    <t>Asset Document</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Document No</t>
+  </si>
+  <si>
+    <t>Document Notes</t>
   </si>
 </sst>
 </file>
@@ -14148,7 +14160,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -14370,6 +14382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -16864,12 +16877,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="topRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18049,23 +18062,37 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+    <row r="63" spans="1:8" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="124" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B63" s="125"/>
+    </row>
+    <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A63:XFD63"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
     <cfRule type="expression" dxfId="143" priority="22">
@@ -18180,7 +18207,7 @@
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B35:G35">
       <formula1>"REGION1, REGION2, REGION3"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B66 B41:G41">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B41:G41 B66">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B45:G45">
@@ -18270,7 +18297,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF(B66="Yes",Master!$BX$2:$BX$110)</xm:f>
+            <xm:f>IF(B66="Yes",'[2.1 DataFile_NAP_CF4W.xlsx]Master'!#REF!)</xm:f>
           </x14:formula1>
           <xm:sqref>B65</xm:sqref>
         </x14:dataValidation>
@@ -20199,8 +20226,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -34,6 +34,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="18" hidden="1">Master!$A$1:$B$43</definedName>
@@ -14354,6 +14355,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14382,7 +14384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -15388,6 +15389,19 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Master"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16879,7 +16893,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
       <selection pane="topRight" activeCell="B72" sqref="B72"/>
@@ -18062,7 +18076,7 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" s="139" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="124" t="s">
         <v>3615</v>
       </c>
@@ -18783,14 +18797,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="135" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+    <row r="11" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
         <v>3022</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="135"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -20023,10 +20037,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="128" t="s">
+      <c r="A87" s="129" t="s">
         <v>3161</v>
       </c>
-      <c r="B87" s="129"/>
+      <c r="B87" s="130"/>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="79" t="s">
@@ -20037,10 +20051,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="130" t="s">
+      <c r="A89" s="131" t="s">
         <v>3160</v>
       </c>
-      <c r="B89" s="131"/>
+      <c r="B89" s="132"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="72" t="s">
@@ -20052,14 +20066,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="127" t="s">
+      <c r="A91" s="128" t="s">
         <v>3167</v>
       </c>
-      <c r="B91" s="127"/>
+      <c r="B91" s="128"/>
     </row>
     <row r="92" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="127"/>
-      <c r="B92" s="127"/>
+      <c r="A92" s="128"/>
+      <c r="B92" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21537,10 +21551,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="137" t="s">
         <v>2445</v>
       </c>
-      <c r="B20" s="136"/>
+      <c r="B20" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22361,10 +22375,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="137" t="s">
+      <c r="A55" s="138" t="s">
         <v>2433</v>
       </c>
-      <c r="B55" s="138"/>
+      <c r="B55" s="139"/>
     </row>
     <row r="56" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -33288,9 +33302,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="C1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33306,7 +33320,7 @@
       <c r="A1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="120" t="s">
@@ -33335,7 +33349,7 @@
       <c r="A2" s="120" t="s">
         <v>3281</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="120" t="s">
         <v>3042</v>
       </c>
       <c r="C2" s="120" t="s">

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="3619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="3621">
   <si>
     <t>Count</t>
   </si>
@@ -13655,6 +13655,12 @@
   </si>
   <si>
     <t>Document Notes</t>
+  </si>
+  <si>
+    <t>Failed Verify Rule</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -14161,7 +14167,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -14384,6 +14390,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -15392,10 +15400,48 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="0.Setting"/>
+      <sheetName val="1.TabCustomerMainData"/>
+      <sheetName val="2.TabFamilyData"/>
+      <sheetName val="2a.TabFamilyDataMain"/>
+      <sheetName val="3a.TabGuarantorDataPersonal"/>
+      <sheetName val="3b.TabGuarantorDataCompany"/>
+      <sheetName val="4.DuplicateChecking"/>
+      <sheetName val="5.TabReferantorData"/>
+      <sheetName val="6.TabApplicationData"/>
+      <sheetName val="7.TabAssetData"/>
+      <sheetName val="7a.Accessories"/>
+      <sheetName val="8.TabInsuranceData"/>
+      <sheetName val="9.TabLifeInsuranceData"/>
+      <sheetName val="10.TabFinancialData"/>
+      <sheetName val="11.TabTermConditionData"/>
+      <sheetName val="12.TabUploadDocument"/>
+      <sheetName val="13.TabCommissionData"/>
+      <sheetName val="14.TabReservedFundData"/>
+      <sheetName val="15.CustomerDataCompletion"/>
       <sheetName val="Master"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -22463,9 +22509,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="XEN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22480,7 +22526,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3606</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -22505,8 +22551,8 @@
       <c r="A2" s="17" t="s">
         <v>3281</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>3042</v>
+      <c r="B2" t="s">
+        <v>3619</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3042</v>
@@ -22574,7 +22620,7 @@
         <v>3533</v>
       </c>
       <c r="B13" s="39">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22590,7 +22636,7 @@
         <v>3535</v>
       </c>
       <c r="B15" s="39">
-        <v>10</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22598,10 +22644,18 @@
         <v>3536</v>
       </c>
       <c r="B16" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="140" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B17" s="141">
+        <f>B12+B13+B14+B15+B16</f>
+        <v>1016020</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>3530</v>
@@ -33302,7 +33356,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="B1:C2"/>
     </sheetView>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -13669,10 +13669,10 @@
     <t>Total Share now is 100%</t>
   </si>
   <si>
-    <t>Count Fee Result</t>
-  </si>
-  <si>
-    <t>Count DP Result</t>
+    <t>Calculate DP Result</t>
+  </si>
+  <si>
+    <t>Calculate Fee Result</t>
   </si>
 </sst>
 </file>
@@ -14402,6 +14402,195 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="176">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15196,195 +15385,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -15997,8 +15997,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="175"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="174"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16008,7 +16008,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16018,7 +16018,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16028,7 +16028,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16038,7 +16038,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16048,7 +16048,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16058,7 +16058,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16068,7 +16068,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16078,7 +16078,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16088,8 +16088,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="153"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="152"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16099,8 +16099,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="151"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="150"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16110,8 +16110,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="173"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="172"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16121,7 +16121,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="149"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16131,7 +16131,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="148"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16141,7 +16141,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="147"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16151,7 +16151,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="146"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16161,7 +16161,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16171,7 +16171,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16181,7 +16181,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16191,7 +16191,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16201,7 +16201,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16211,7 +16211,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16221,8 +16221,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="171"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="170"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16231,7 +16231,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="139"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16241,7 +16241,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16251,7 +16251,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="137"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16260,7 +16260,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16270,7 +16270,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="135"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16280,7 +16280,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="134"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16290,7 +16290,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16300,7 +16300,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="132"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16310,7 +16310,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="131"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16320,7 +16320,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="130"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16330,8 +16330,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="169"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="168"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16341,7 +16341,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="129"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16351,7 +16351,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="128"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16361,7 +16361,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="127"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16371,7 +16371,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16381,7 +16381,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="125"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16391,7 +16391,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="124"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16401,7 +16401,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="123"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16411,7 +16411,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="122"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16421,8 +16421,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="121"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="120"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16432,8 +16432,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="119"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="118"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16443,8 +16443,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="167"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="166"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16454,8 +16454,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="117"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="116"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16465,8 +16465,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="115"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="114"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16476,7 +16476,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="113"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16486,7 +16486,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="165"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16496,7 +16496,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="164"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16506,7 +16506,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="163"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16516,7 +16516,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="162"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16903,7 +16903,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
       <selection pane="topRight" activeCell="A68" sqref="A68:XFD68"/>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="68" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="127" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B68" s="128"/>
     </row>
@@ -18152,102 +18152,102 @@
     <mergeCell ref="A68:XFD68"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="80" priority="22">
+    <cfRule type="expression" dxfId="143" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="79" priority="21">
+    <cfRule type="expression" dxfId="142" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="78" priority="20">
+    <cfRule type="expression" dxfId="141" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="77" priority="19">
+    <cfRule type="expression" dxfId="140" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="76" priority="16">
+    <cfRule type="expression" dxfId="139" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="138" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="74" priority="14">
+    <cfRule type="expression" dxfId="137" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="73" priority="13">
+    <cfRule type="expression" dxfId="136" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="72" priority="12">
+    <cfRule type="expression" dxfId="135" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="71" priority="11">
+    <cfRule type="expression" dxfId="134" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="70" priority="10">
+    <cfRule type="expression" dxfId="133" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="69" priority="9">
+    <cfRule type="expression" dxfId="132" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="68" priority="8">
+    <cfRule type="expression" dxfId="131" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="67" priority="7">
+    <cfRule type="expression" dxfId="130" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="129" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="65" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="126" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="125" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="124" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="22" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B22" s="128"/>
     </row>
@@ -18713,27 +18713,27 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:XFD19">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="123" priority="7">
       <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="121" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="120" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="119" priority="1">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18762,7 +18762,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="A86" sqref="A86:XFD86"/>
@@ -20121,7 +20121,7 @@
     </row>
     <row r="86" spans="1:6" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="127" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="B86" s="128"/>
     </row>
@@ -20200,92 +20200,92 @@
     <mergeCell ref="A86:XFD86"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="118" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="117" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="53" priority="16">
+    <cfRule type="expression" dxfId="116" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="52" priority="15">
+    <cfRule type="expression" dxfId="115" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="50" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="112" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="111" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="110" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="109" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="108" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="107" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="43" priority="6">
+    <cfRule type="expression" dxfId="106" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="105" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="104" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="103" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="102" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21228,147 +21228,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="36" priority="31">
+    <cfRule type="expression" dxfId="99" priority="31">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="98" priority="35">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="97" priority="34">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="95" priority="32">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="94" priority="30">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="93" priority="29">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="92" priority="28">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="28" priority="27">
+    <cfRule type="expression" dxfId="91" priority="27">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="90" priority="26">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="89" priority="23">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="87" priority="18">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="83" priority="14">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="82" priority="13">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="81" priority="12">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="80" priority="11">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="79" priority="10">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="77" priority="8">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="76" priority="7">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="74" priority="4">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22540,32 +22540,32 @@
     <mergeCell ref="A55:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="68" priority="7">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="67" priority="6">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="66" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33782,27 +33782,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="112" priority="5">
+    <cfRule type="expression" dxfId="175" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="111" priority="4">
+    <cfRule type="expression" dxfId="174" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="110" priority="3">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="108" priority="1">
+    <cfRule type="expression" dxfId="171" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34703,47 +34703,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="107" priority="10">
+    <cfRule type="expression" dxfId="170" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="106" priority="12">
+    <cfRule type="expression" dxfId="169" priority="12">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="105" priority="11">
+    <cfRule type="expression" dxfId="168" priority="11">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="104" priority="8">
+    <cfRule type="expression" dxfId="167" priority="8">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="103" priority="7">
+    <cfRule type="expression" dxfId="166" priority="7">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="102" priority="6">
+    <cfRule type="expression" dxfId="165" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="101" priority="3">
+    <cfRule type="expression" dxfId="164" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="100" priority="2">
+    <cfRule type="expression" dxfId="163" priority="2">
       <formula>E$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="162" priority="1">
       <formula>E$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35656,22 +35656,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="161" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="160" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="159" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="158" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36239,22 +36239,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15 C15:XFD16">
-    <cfRule type="expression" dxfId="94" priority="4">
+    <cfRule type="expression" dxfId="157" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="93" priority="3">
+    <cfRule type="expression" dxfId="156" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="92" priority="2">
+    <cfRule type="expression" dxfId="155" priority="2">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="154" priority="1">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37611,52 +37611,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="153" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="152" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="88" priority="9">
+    <cfRule type="expression" dxfId="151" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="150" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="149" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="148" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="147" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="83" priority="3">
+    <cfRule type="expression" dxfId="146" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="145" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UFSprint17\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -35,6 +35,7 @@
   <externalReferences>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="18" hidden="1">Master!$A$1:$B$43</definedName>
@@ -2625,6 +2626,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi sesuai dengan jumlah subsidy dp pada section subsidy</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2791,7 +2816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="3625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="3634">
   <si>
     <t>Count</t>
   </si>
@@ -13420,9 +13445,6 @@
     <t>CopyApp</t>
   </si>
   <si>
-    <t>PT POLO</t>
-  </si>
-  <si>
     <t>andre</t>
   </si>
   <si>
@@ -13438,21 +13460,12 @@
     <t>08128392133</t>
   </si>
   <si>
-    <t>08/04/2000</t>
-  </si>
-  <si>
     <t>219639712649812</t>
   </si>
   <si>
-    <t>mama jason</t>
-  </si>
-  <si>
     <t>jason@gmail.com</t>
   </si>
   <si>
-    <t>273928372536283</t>
-  </si>
-  <si>
     <t>12/12/2021</t>
   </si>
   <si>
@@ -13465,12 +13478,6 @@
     <t>FT TIO</t>
   </si>
   <si>
-    <t>PT BOD</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
     <t>Supplier Code</t>
   </si>
   <si>
@@ -13564,12 +13571,6 @@
     <t>Select ApplicationInProcess</t>
   </si>
   <si>
-    <t>FT COMPANY;Andre;PT AJA;FT TIO</t>
-  </si>
-  <si>
-    <t>Jason;FT SURYA;PT DIRE;PT ASAP</t>
-  </si>
-  <si>
     <t>Select ApplicationInProcess;;;Select ApplicationInProcess</t>
   </si>
   <si>
@@ -13582,9 +13583,6 @@
     <t>;Yes;;</t>
   </si>
   <si>
-    <t>FT TIO;SULE;FT COMPANY;PT AJA</t>
-  </si>
-  <si>
     <t>JASON;FT SURYA;PT ASAP;PT DIRE</t>
   </si>
   <si>
@@ -13594,18 +13592,12 @@
     <t xml:space="preserve">Sheet ini digunakan untuk mengecek status save dari tab management shareholder data </t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t>Failed Store DB</t>
   </si>
   <si>
-    <t>17,984,000</t>
-  </si>
-  <si>
     <t>SURAT KETERANGAN DOMISILI USAHA (SKDU);AKTA PENDIRIAN BADAN USAHA DAN PERUBAHANNYA;LAPORAN KEUANGAN</t>
   </si>
   <si>
@@ -13627,9 +13619,6 @@
     <t>Document Notes</t>
   </si>
   <si>
-    <t>Failed Verify Rule</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -13642,9 +13631,6 @@
     <t>Total Calculation DP Percentage</t>
   </si>
   <si>
-    <t>Failed Verify Match / Equal</t>
-  </si>
-  <si>
     <t>Total Fee</t>
   </si>
   <si>
@@ -13663,29 +13649,96 @@
     <t>217102200601000</t>
   </si>
   <si>
-    <t>0002APP20211205401</t>
-  </si>
-  <si>
-    <t>Total Share now is 100%</t>
-  </si>
-  <si>
     <t>Calculate DP Result</t>
   </si>
   <si>
     <t>Calculate Fee Result</t>
+  </si>
+  <si>
+    <t>0002APP20211205214</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>14.681933</t>
+  </si>
+  <si>
+    <t>02/15/2001</t>
+  </si>
+  <si>
+    <t>IBU FT TIO</t>
+  </si>
+  <si>
+    <t>FT TIO;FT COMPANY</t>
+  </si>
+  <si>
+    <t>Rounding</t>
+  </si>
+  <si>
+    <t>Total Subsidy DP</t>
+  </si>
+  <si>
+    <t>Calculate Result</t>
+  </si>
+  <si>
+    <t>Total Asset Price Incl Accessory</t>
+  </si>
+  <si>
+    <t>Total Asset Accesory Price</t>
+  </si>
+  <si>
+    <t>Total Fee Capitalized</t>
+  </si>
+  <si>
+    <t>Total Insurance Capitalized</t>
+  </si>
+  <si>
+    <t>DP Asset &amp; Accessory</t>
+  </si>
+  <si>
+    <t>DP Nett</t>
+  </si>
+  <si>
+    <t>Calculation Provision Percentage</t>
+  </si>
+  <si>
+    <t>Calculation Provision Amount</t>
+  </si>
+  <si>
+    <t>Calculation Result From Simulation File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDP </t>
+  </si>
+  <si>
+    <t>NTF</t>
+  </si>
+  <si>
+    <t>Installment Amount</t>
+  </si>
+  <si>
+    <t>Total Interest</t>
+  </si>
+  <si>
+    <t>Total AR</t>
+  </si>
+  <si>
+    <t>Gross Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13778,12 +13831,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -14166,7 +14213,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -14340,16 +14387,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -14359,6 +14403,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14394,6 +14439,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -14401,7 +14450,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="189">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -14590,6 +14639,97 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15403,9 +15543,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Master"/>
+      <sheetName val="6.TabApplicationData"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15449,6 +15591,169 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0.Setting"/>
+      <sheetName val="1.TabCustomerMainData"/>
+      <sheetName val="2.TabFamilyData"/>
+      <sheetName val="2a.TabFamilyDataMain"/>
+      <sheetName val="3a.TabGuarantorDataPersonal"/>
+      <sheetName val="3b.TabGuarantorDataCompany"/>
+      <sheetName val="4.DuplicateChecking"/>
+      <sheetName val="5.TabReferantorData"/>
+      <sheetName val="6.TabApplicationData"/>
+      <sheetName val="7.TabAssetData"/>
+      <sheetName val="7a.Accessories"/>
+      <sheetName val="8.TabInsuranceData"/>
+      <sheetName val="9.TabLifeInsuranceData"/>
+      <sheetName val="10.TabFinancialData"/>
+      <sheetName val="11.TabTermConditionData"/>
+      <sheetName val="12.TabUploadDocument"/>
+      <sheetName val="13.TabCommissionData"/>
+      <sheetName val="14.TabReservedFundData"/>
+      <sheetName val="15.CustomerDataCompletion"/>
+      <sheetName val="Master"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="19">
+          <cell r="B19">
+            <v>600000000</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>120000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Status</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Unexecuted</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Is Complete Mandatory</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>AppNo</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>0002APP20211205214</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>0002APP20211204347</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>$Accessories Price</v>
+          </cell>
+          <cell r="B17">
+            <v>10000000</v>
+          </cell>
+          <cell r="C17">
+            <v>1000000</v>
+          </cell>
+          <cell r="D17">
+            <v>10000002</v>
+          </cell>
+          <cell r="E17">
+            <v>10000003</v>
+          </cell>
+          <cell r="F17">
+            <v>10000004</v>
+          </cell>
+          <cell r="G17">
+            <v>10000005</v>
+          </cell>
+          <cell r="H17">
+            <v>10000006</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Total Calculation DP Amount</v>
+          </cell>
+          <cell r="B24">
+            <v>2500000</v>
+          </cell>
+          <cell r="C24">
+            <v>120000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="85">
+          <cell r="B85">
+            <v>11134500</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -16859,21 +17164,21 @@
         <v>3519</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>3574</v>
+        <v>3568</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3575</v>
+        <v>3569</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>3576</v>
+        <v>3570</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>3578</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>3561</v>
+        <v>3555</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>41</v>
@@ -16921,7 +17226,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3599</v>
+        <v>6</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -16950,7 +17255,7 @@
         <v>3278</v>
       </c>
       <c r="B2" t="s">
-        <v>3600</v>
+        <v>3041</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -17014,7 +17319,7 @@
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -17024,7 +17329,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="129" customFormat="1" x14ac:dyDescent="0.25">
@@ -17041,7 +17346,7 @@
         <v>3458</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3559</v>
+        <v>3553</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -18096,18 +18401,18 @@
     </row>
     <row r="63" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="127" t="s">
-        <v>3605</v>
+        <v>3594</v>
       </c>
       <c r="B63" s="128"/>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>3606</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>3607</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -18117,30 +18422,30 @@
     </row>
     <row r="67" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3608</v>
+        <v>3597</v>
       </c>
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="127" t="s">
-        <v>3623</v>
+        <v>3608</v>
       </c>
       <c r="B68" s="128"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="124" t="s">
-        <v>3613</v>
-      </c>
-      <c r="B69" s="125">
+      <c r="A69" s="123" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B69" s="124">
         <f>B28/B19*100</f>
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="124" t="s">
-        <v>3612</v>
-      </c>
-      <c r="B70" s="125">
+      <c r="A70" s="123" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B70" s="124">
         <f>B19*B27%</f>
         <v>125000000</v>
       </c>
@@ -18152,102 +18457,102 @@
     <mergeCell ref="A68:XFD68"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="143" priority="22">
+    <cfRule type="expression" dxfId="156" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="142" priority="21">
+    <cfRule type="expression" dxfId="155" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="141" priority="20">
+    <cfRule type="expression" dxfId="154" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="140" priority="19">
+    <cfRule type="expression" dxfId="153" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="139" priority="16">
+    <cfRule type="expression" dxfId="152" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="138" priority="15">
+    <cfRule type="expression" dxfId="151" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="137" priority="14">
+    <cfRule type="expression" dxfId="150" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="136" priority="13">
+    <cfRule type="expression" dxfId="149" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="135" priority="12">
+    <cfRule type="expression" dxfId="148" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="134" priority="11">
+    <cfRule type="expression" dxfId="147" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="133" priority="10">
+    <cfRule type="expression" dxfId="146" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="132" priority="9">
+    <cfRule type="expression" dxfId="145" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="131" priority="8">
+    <cfRule type="expression" dxfId="144" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="130" priority="7">
+    <cfRule type="expression" dxfId="143" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="129" priority="6">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="128" priority="5">
+    <cfRule type="expression" dxfId="141" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="127" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="126" priority="3">
+    <cfRule type="expression" dxfId="139" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="125" priority="2">
+    <cfRule type="expression" dxfId="138" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="124" priority="1">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18385,10 +18690,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>6</v>
@@ -18414,10 +18719,10 @@
         <v>3278</v>
       </c>
       <c r="B2" t="s">
-        <v>3600</v>
+        <v>3041</v>
       </c>
       <c r="C2" t="s">
-        <v>3614</v>
+        <v>3041</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>3041</v>
@@ -18485,13 +18790,13 @@
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3557</v>
+        <v>3551</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3559</v>
+        <v>3553</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3559</v>
+        <v>3553</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18527,13 +18832,13 @@
     </row>
     <row r="15" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>3558</v>
+        <v>3552</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>3603</v>
+        <v>3592</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3560</v>
+        <v>3554</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -18546,7 +18851,7 @@
         <v>3484</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3604</v>
+        <v>3593</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>3071</v>
@@ -18678,32 +18983,32 @@
     </row>
     <row r="22" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
-        <v>3623</v>
+        <v>3608</v>
       </c>
       <c r="B22" s="128"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
-        <v>3613</v>
-      </c>
-      <c r="B23" s="125">
+      <c r="A23" s="123" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B23" s="124">
         <f>B20/B17*100</f>
         <v>0</v>
       </c>
-      <c r="C23" s="125">
+      <c r="C23" s="124">
         <f>C20/C17*100</f>
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
-        <v>3612</v>
-      </c>
-      <c r="B24" s="125">
+      <c r="A24" s="123" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B24" s="124">
         <f>B17*B19%</f>
         <v>120000</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="124">
         <f>C17*C19%</f>
         <v>500000</v>
       </c>
@@ -18713,27 +19018,27 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:XFD19">
-    <cfRule type="expression" dxfId="123" priority="7">
+    <cfRule type="expression" dxfId="136" priority="7">
       <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="122" priority="6">
+    <cfRule type="expression" dxfId="135" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="121" priority="3">
+    <cfRule type="expression" dxfId="134" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="133" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18762,10 +19067,10 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="topRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18780,7 +19085,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3599</v>
+        <v>6</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -18812,7 +19117,7 @@
         <v>3278</v>
       </c>
       <c r="B2" t="s">
-        <v>3614</v>
+        <v>3041</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -18867,7 +19172,7 @@
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -18877,7 +19182,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="139" customFormat="1" x14ac:dyDescent="0.25">
@@ -20121,33 +20426,33 @@
     </row>
     <row r="86" spans="1:6" s="130" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="127" t="s">
-        <v>3624</v>
+        <v>3609</v>
       </c>
       <c r="B86" s="128"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>3615</v>
-      </c>
-      <c r="B87" s="123">
+        <v>3602</v>
+      </c>
+      <c r="B87" s="122">
         <f>SUM(B31:B32)</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>3616</v>
-      </c>
-      <c r="B88" s="123">
+        <v>3603</v>
+      </c>
+      <c r="B88" s="122">
         <f>'7.TabAssetData'!B19</f>
         <v>500000000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>3617</v>
-      </c>
-      <c r="B89" s="123">
+        <v>3604</v>
+      </c>
+      <c r="B89" s="122">
         <f>'7.TabAssetData'!B19+'7a.Accessories'!B17+'7a.Accessories'!C17</f>
         <v>502000000</v>
       </c>
@@ -20200,92 +20505,92 @@
     <mergeCell ref="A86:XFD86"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="118" priority="18">
+    <cfRule type="expression" dxfId="131" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="130" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="116" priority="16">
+    <cfRule type="expression" dxfId="129" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="115" priority="15">
+    <cfRule type="expression" dxfId="128" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="114" priority="14">
+    <cfRule type="expression" dxfId="127" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="113" priority="13">
+    <cfRule type="expression" dxfId="126" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="112" priority="12">
+    <cfRule type="expression" dxfId="125" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="111" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="110" priority="10">
+    <cfRule type="expression" dxfId="123" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="109" priority="9">
+    <cfRule type="expression" dxfId="122" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="108" priority="8">
+    <cfRule type="expression" dxfId="121" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="107" priority="7">
+    <cfRule type="expression" dxfId="120" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="106" priority="6">
+    <cfRule type="expression" dxfId="119" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="105" priority="5">
+    <cfRule type="expression" dxfId="118" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="104" priority="4">
+    <cfRule type="expression" dxfId="117" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="116" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="102" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="114" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20355,10 +20660,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20369,76 +20674,82 @@
     <col min="7" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="16" t="s">
+        <v>3589</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>3589</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>3589</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>3589</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>3041</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>3041</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>3041</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>3041</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3279</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3486</v>
       </c>
@@ -20447,34 +20758,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0002APP20211205401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>3535</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="98" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>3025</v>
       </c>
@@ -20483,15 +20794,15 @@
       <c r="D11" s="96"/>
       <c r="E11" s="97"/>
     </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>3504</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>3563</v>
+        <v>3557</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>107</v>
@@ -20503,23 +20814,26 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>3562</v>
+        <v>3556</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>3144</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>3564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
         <v>3505</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>139</v>
+        <v>3040</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3565</v>
+        <v>3559</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>139</v>
@@ -20531,15 +20845,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
         <v>3506</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>3566</v>
+        <v>3560</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>140</v>
@@ -20551,7 +20865,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>3507</v>
       </c>
@@ -20559,7 +20873,7 @@
         <v>96</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>3567</v>
+        <v>3561</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>96</v>
@@ -20575,11 +20889,11 @@
       <c r="A17" s="54" t="s">
         <v>3508</v>
       </c>
-      <c r="B17" s="16">
-        <v>1000003</v>
+      <c r="B17" s="25">
+        <v>300000</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>3568</v>
+        <v>3562</v>
       </c>
       <c r="D17" s="16">
         <v>1000002</v>
@@ -20594,6 +20908,9 @@
     <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>3509</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>3437</v>
@@ -20633,7 +20950,7 @@
       <c r="A21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="16">
         <v>150000</v>
       </c>
       <c r="C21" s="25">
@@ -20654,7 +20971,7 @@
         <v>142</v>
       </c>
       <c r="B22" s="25">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="C22" s="25">
         <v>0</v>
@@ -20674,7 +20991,7 @@
         <v>143</v>
       </c>
       <c r="B23" s="25">
-        <v>1100000</v>
+        <v>1250000</v>
       </c>
       <c r="C23" s="25">
         <v>1100000</v>
@@ -20694,7 +21011,7 @@
         <v>144</v>
       </c>
       <c r="B24" s="25">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="C24" s="25">
         <v>50000</v>
@@ -20714,7 +21031,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="25">
-        <v>1100000</v>
+        <v>1200000</v>
       </c>
       <c r="C25" s="25">
         <v>1100000</v>
@@ -20794,7 +21111,7 @@
         <v>149</v>
       </c>
       <c r="B29" s="25">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="C29" s="25">
         <v>100001</v>
@@ -20834,7 +21151,7 @@
         <v>151</v>
       </c>
       <c r="B31" s="25">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="C31" s="25">
         <v>100001</v>
@@ -20874,7 +21191,7 @@
         <v>153</v>
       </c>
       <c r="B33" s="25">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="C33" s="25">
         <v>100001</v>
@@ -20914,7 +21231,7 @@
         <v>155</v>
       </c>
       <c r="B35" s="25">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="C35" s="25">
         <v>100001</v>
@@ -20934,7 +21251,7 @@
         <v>156</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>106</v>
@@ -20954,7 +21271,7 @@
         <v>157</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>3037</v>
+        <v>158</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>3037</v>
@@ -20974,7 +21291,7 @@
         <v>159</v>
       </c>
       <c r="B38" s="17">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="C38" s="17">
         <v>8.6999999999999993</v>
@@ -20993,8 +21310,8 @@
       <c r="A39" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B39" t="s">
-        <v>3601</v>
+      <c r="B39" s="65">
+        <v>2250000</v>
       </c>
       <c r="C39" s="65">
         <v>17500000</v>
@@ -21034,7 +21351,7 @@
         <v>162</v>
       </c>
       <c r="B41" s="25">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C41" s="25">
         <v>100001</v>
@@ -21083,8 +21400,8 @@
       <c r="A44" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="2">
-        <v>9.9862149999999996</v>
+      <c r="B44" s="16" t="s">
+        <v>3612</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -21104,7 +21421,7 @@
         <v>164</v>
       </c>
       <c r="B45" s="2">
-        <v>5.4913720000000001</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>20</v>
@@ -21124,7 +21441,7 @@
         <v>166</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>41</v>
@@ -21144,7 +21461,7 @@
         <v>3510</v>
       </c>
       <c r="B47" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47" s="17">
         <v>13</v>
@@ -21163,6 +21480,9 @@
       <c r="A48" s="50" t="s">
         <v>3511</v>
       </c>
+      <c r="B48" s="17" t="s">
+        <v>3048</v>
+      </c>
       <c r="C48" s="17" t="s">
         <v>3048</v>
       </c>
@@ -21181,7 +21501,7 @@
         <v>3143</v>
       </c>
       <c r="B49" s="77">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
       <c r="C49" s="77">
         <v>175961001</v>
@@ -21198,13 +21518,13 @@
     </row>
     <row r="50" spans="1:6" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>3596</v>
-      </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
+        <v>3587</v>
+      </c>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
     </row>
     <row r="51" spans="1:6" s="78" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
@@ -21226,158 +21546,383 @@
         <v>32</v>
       </c>
     </row>
+    <row r="52" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B52" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B53" s="16">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="143" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B55" s="144">
+        <f>SUM(B56:B57)</f>
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B56" s="144">
+        <f>'[3]7.TabAssetData'!B19</f>
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B57" s="144">
+        <f>SUMIFS('[3]7a.Accessories'!17:17,'[3]7a.Accessories'!12:12,B8,'[3]7a.Accessories'!4:4,"0",'[3]7a.Accessories'!1:1,"SUCCESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B58" s="144">
+        <f>SUM(B21:B25,B39)</f>
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B59" s="144">
+        <f>SUM(B27,B29,B31,B33,B35,B41)</f>
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B60" s="144">
+        <f>'[3]8.TabInsuranceData'!B85</f>
+        <v>11134500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B61" s="144">
+        <f>SUMIFS('[3]7a.Accessories'!24:24,'[3]7a.Accessories'!12:12,B8,'[3]7a.Accessories'!4:4,"0",'[3]7a.Accessories'!1:1,"SUCCESS")+'[3]7.TabAssetData'!B70</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B62" s="144">
+        <f>B61-B53</f>
+        <v>119700000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B63" s="145">
+        <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
+        <v>0.45760121376179719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B64" s="144">
+        <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="125" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B66" s="16">
+        <v>140676435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B67" s="16">
+        <v>506660115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B68" s="16">
+        <v>62017000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B69" s="16">
+        <v>51492885.490000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B70" s="16">
+        <v>558153000.49000001</v>
+      </c>
+      <c r="C70" s="146"/>
+    </row>
+    <row r="71" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B71" s="16">
+        <v>15.93666706</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:XFD41">
-    <cfRule type="expression" dxfId="100" priority="36">
+  <conditionalFormatting sqref="A21:A41 C21:XFD41">
+    <cfRule type="expression" dxfId="113" priority="49">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35">
-    <cfRule type="expression" dxfId="99" priority="31">
+  <conditionalFormatting sqref="A35 C35:XFD35">
+    <cfRule type="expression" dxfId="112" priority="44">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="98" priority="35">
+  <conditionalFormatting sqref="A27 C27:XFD27">
+    <cfRule type="expression" dxfId="111" priority="48">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:XFD29">
-    <cfRule type="expression" dxfId="97" priority="34">
+  <conditionalFormatting sqref="A29 C29:XFD29">
+    <cfRule type="expression" dxfId="110" priority="47">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="expression" dxfId="96" priority="33">
+  <conditionalFormatting sqref="A31 C31:XFD31">
+    <cfRule type="expression" dxfId="109" priority="46">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
-    <cfRule type="expression" dxfId="95" priority="32">
+  <conditionalFormatting sqref="A33 C33:XFD33">
+    <cfRule type="expression" dxfId="108" priority="45">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:XFD38">
-    <cfRule type="expression" dxfId="94" priority="30">
+  <conditionalFormatting sqref="A38 C38:XFD38">
+    <cfRule type="expression" dxfId="107" priority="43">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:XFD39">
-    <cfRule type="expression" dxfId="93" priority="29">
+  <conditionalFormatting sqref="A39 C39:XFD39">
+    <cfRule type="expression" dxfId="106" priority="42">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:XFD41">
-    <cfRule type="expression" dxfId="92" priority="28">
+  <conditionalFormatting sqref="A41 C41:XFD41">
+    <cfRule type="expression" dxfId="105" priority="41">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:XFD45">
-    <cfRule type="expression" dxfId="91" priority="27">
+  <conditionalFormatting sqref="A45 C45:XFD45">
+    <cfRule type="expression" dxfId="104" priority="40">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:XFD44">
-    <cfRule type="expression" dxfId="90" priority="26">
+  <conditionalFormatting sqref="A44 C44:XFD44">
+    <cfRule type="expression" dxfId="103" priority="39">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:XFD48">
-    <cfRule type="expression" dxfId="89" priority="23">
-      <formula>B$46="No"</formula>
+  <conditionalFormatting sqref="C47:XFD48">
+    <cfRule type="expression" dxfId="102" priority="36">
+      <formula>C$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="expression" dxfId="88" priority="19">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C29:F29">
+    <cfRule type="expression" dxfId="101" priority="32">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="87" priority="18">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C31:F31">
+    <cfRule type="expression" dxfId="100" priority="31">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="86" priority="17">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C31:F31">
+    <cfRule type="expression" dxfId="99" priority="30">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="85" priority="16">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C33:F33">
+    <cfRule type="expression" dxfId="98" priority="29">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="expression" dxfId="84" priority="15">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C33:F33">
+    <cfRule type="expression" dxfId="97" priority="28">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="83" priority="14">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C35:F35">
+    <cfRule type="expression" dxfId="96" priority="27">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="82" priority="13">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C35:F35">
+    <cfRule type="expression" dxfId="95" priority="26">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="81" priority="12">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C35:F35">
+    <cfRule type="expression" dxfId="94" priority="25">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="80" priority="11">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C35:F35">
+    <cfRule type="expression" dxfId="93" priority="24">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="79" priority="10">
-      <formula>B$34="No"</formula>
+  <conditionalFormatting sqref="C41:F41">
+    <cfRule type="expression" dxfId="92" priority="23">
+      <formula>C$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="78" priority="9">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C41:F41">
+    <cfRule type="expression" dxfId="91" priority="22">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="77" priority="8">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C41:F41">
+    <cfRule type="expression" dxfId="90" priority="21">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="76" priority="7">
-      <formula>B$28="No"</formula>
+  <conditionalFormatting sqref="C41:F41">
+    <cfRule type="expression" dxfId="89" priority="20">
+      <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:F41">
-    <cfRule type="expression" dxfId="75" priority="6">
-      <formula>B$26="No"</formula>
+  <conditionalFormatting sqref="C41:F41">
+    <cfRule type="expression" dxfId="88" priority="19">
+      <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="87" priority="17">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="86" priority="16">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="85" priority="14">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="13">
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B37:F37">
-      <formula1>IF(B$20="No",ListProvisionCalculationBase)</formula1>
+  <conditionalFormatting sqref="B21:B41">
+    <cfRule type="expression" dxfId="84" priority="13">
+      <formula>B$20="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="83" priority="8">
+      <formula>B$34="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="82" priority="12">
+      <formula>B$26="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="81" priority="11">
+      <formula>B$28="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="80" priority="10">
+      <formula>B$30="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="79" priority="9">
+      <formula>B$32="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="78" priority="7">
+      <formula>B$36="Amount"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="77" priority="6">
+      <formula>B$36="Percentage"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="76" priority="5">
+      <formula>B$40="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="75" priority="4">
+      <formula>B$43="Effective Rate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="74" priority="3">
+      <formula>B$43="Flat Rate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:B48">
+    <cfRule type="expression" dxfId="73" priority="1">
+      <formula>B$46="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="18">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C37:F37">
+      <formula1>IF(C$20="No",ListProvisionCalculationBase)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B36:F36">
-      <formula1>IF(B$20="No",ListValueType)</formula1>
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C36:F36">
+      <formula1>IF(C$20="No",ListValueType)</formula1>
     </dataValidation>
     <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:F25">
       <formula1>AND(B$20="No",ISNUMBER(B21))</formula1>
@@ -21397,16 +21942,29 @@
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:F43">
       <formula1>"Effective Rate, Flat Rate"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B20:F20">
+    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C20:F20">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B51:F51">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49:F50 B17:F18 B12:F15"/>
-    <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16:F16"/>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:F27 B29:F29 B31:F31 B33:F33 B35:F35 B41:F41">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:F18 C12:F15 B49:F50"/>
+    <dataValidation errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="C16:F16"/>
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:F29 B31:F31 B33:F33 B35:F35 B41:F41 B27:F27">
       <formula1>AND(B$20="No",B26="Yes",ISNUMBER(B27))</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B16"/>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>ListProvisionCalculationBase</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>ListValueType</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>ListGracePeriodType</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21416,7 +21974,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="24" id="{F1CB72E9-B0E8-454A-B2A6-DE2FCCCC5EA6}">
+          <x14:cfRule type="expression" priority="37" id="{F1CB72E9-B0E8-454A-B2A6-DE2FCCCC5EA6}">
             <xm:f>AND('6.TabApplicationData'!A$18&lt;&gt;"Arrear",'6.TabApplicationData'!A$18&lt;&gt;"",'6.TabApplicationData'!A$18&lt;&gt;"First Installment Type")</xm:f>
             <x14:dxf>
               <fill>
@@ -21426,10 +21984,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A46:XFD46 B47:XFD48</xm:sqref>
+          <xm:sqref>A46 C46:XFD48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{296B1780-A9CB-4CC8-A736-380CB3E0D390}">
+          <x14:cfRule type="expression" priority="18" id="{296B1780-A9CB-4CC8-A736-380CB3E0D390}">
             <xm:f>AND('\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]8.TabInsuranceData'!#REF!&lt;=0,'\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]8.TabInsuranceData'!#REF!&lt;&gt;"Discount",'\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]8.TabInsuranceData'!#REF!&lt;&gt;"")</xm:f>
             <x14:dxf>
               <fill>
@@ -21442,7 +22000,7 @@
           <xm:sqref>A12:A18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{A1550B97-3EEC-4A7F-8FC2-2A1552355D9D}">
+          <x14:cfRule type="expression" priority="15" id="{A1550B97-3EEC-4A7F-8FC2-2A1552355D9D}">
             <xm:f>AND('\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"Arrear",'\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"",'\Users\jeremy.andreas\Desktop\New folder (2)\[2.1 DataFile_NAP_CF4W j.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"First Installment Type")</xm:f>
             <x14:dxf>
               <fill>
@@ -21454,33 +22012,64 @@
           </x14:cfRule>
           <xm:sqref>A47:A48</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{FAF8DEB5-3B55-45D1-A5A6-B02F4CEEB23D}">
+            <xm:f>AND('\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"Arrear",'\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"",'\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]6.TabApplicationData'!#REF!&lt;&gt;"First Installment Type")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B46:B48</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF(B$20="No",Master!$CL$5:$CL$6)</xm:f>
+            <xm:f>IF(C$20="No",Master!$CL$5:$CL$6)</xm:f>
           </x14:formula1>
-          <xm:sqref>B26:F26 B28:F28 B32:F32 B30:F30 B34:F34 B40:F40</xm:sqref>
+          <xm:sqref>C28:F28 C32:F32 C30:F30 C34:F34 C40:F40 C26:F26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>AND('6.TabApplicationData'!B$18="Arrear",B$46="Yes",ISNUMBER(B47))</xm:f>
+            <xm:f>AND('6.TabApplicationData'!C$18="Arrear",C$46="Yes",ISNUMBER(C47))</xm:f>
           </x14:formula1>
-          <xm:sqref>B47:F47</xm:sqref>
+          <xm:sqref>C47:F47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF(AND('6.TabApplicationData'!B$18="Arrear",B$46="Yes"),ListGracePeriodType)</xm:f>
+            <xm:f>IF(AND('6.TabApplicationData'!C$18="Arrear",C$46="Yes"),ListGracePeriodType)</xm:f>
           </x14:formula1>
-          <xm:sqref>B48:F48</xm:sqref>
+          <xm:sqref>C48:F48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>IF('6.TabApplicationData'!B$18="Arrear",Master!$CL$5:$CL$6)</xm:f>
+            <xm:f>IF('6.TabApplicationData'!C$18="Arrear",Master!$CL$5:$CL$6)</xm:f>
           </x14:formula1>
-          <xm:sqref>B46:F46</xm:sqref>
+          <xm:sqref>C46:F46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]Master'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26 B28 B30 B32 B34 B40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>AND('C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]6.TabApplicationData'!#REF!="Arrear",B$46="Yes",ISNUMBER(B47))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint16\Excel\[2.1 DataFile_NAP_CF4W.xlsx]Master'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21597,7 +22186,7 @@
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="13"/>
@@ -21608,7 +22197,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -21622,7 +22211,7 @@
         <v>2416</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3570</v>
+        <v>3564</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3003</v>
@@ -21633,7 +22222,7 @@
         <v>3512</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>3571</v>
+        <v>3565</v>
       </c>
       <c r="C13" s="13"/>
     </row>
@@ -21649,7 +22238,7 @@
         <v>2418</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>3602</v>
+        <v>3591</v>
       </c>
       <c r="C15" s="13"/>
     </row>
@@ -21658,7 +22247,7 @@
         <v>2419</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>3572</v>
+        <v>3566</v>
       </c>
       <c r="C16" s="13"/>
     </row>
@@ -21667,7 +22256,7 @@
         <v>2420</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>3569</v>
+        <v>3563</v>
       </c>
       <c r="C17" s="13"/>
     </row>
@@ -21798,7 +22387,7 @@
     <row r="8" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -21808,7 +22397,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -21980,7 +22569,7 @@
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3611</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -21989,7 +22578,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -22619,7 +23208,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3599</v>
+        <v>6</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>6</v>
@@ -22645,7 +23234,7 @@
         <v>3278</v>
       </c>
       <c r="B2" t="s">
-        <v>3609</v>
+        <v>3041</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -22694,7 +23283,7 @@
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22703,7 +23292,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.25">
@@ -22753,10 +23342,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
-        <v>3610</v>
-      </c>
-      <c r="B17" s="123">
+      <c r="A17" s="121" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B17" s="122">
         <f>B12+B13+B14+B15+B16</f>
         <v>1016020</v>
       </c>
@@ -22876,7 +23465,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -22896,7 +23485,7 @@
         <v>3515</v>
       </c>
       <c r="B13" t="s">
-        <v>3540</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22912,7 +23501,7 @@
         <v>3517</v>
       </c>
       <c r="B15" t="s">
-        <v>3594</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22928,7 +23517,7 @@
         <v>3518</v>
       </c>
       <c r="B17" t="s">
-        <v>3595</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22964,7 +23553,7 @@
   <sheetViews>
     <sheetView topLeftCell="CE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CJ11" sqref="CJ11"/>
+      <selection pane="bottomLeft" activeCell="CG23" sqref="CG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33463,7 +34052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33475,61 +34064,61 @@
     <col min="7" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="C1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="I1" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="119" t="s">
         <v>3041</v>
       </c>
     </row>
@@ -33568,7 +34157,10 @@
     <row r="7" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>3577</v>
+        <v>3571</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>3610</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -33581,7 +34173,7 @@
         <v>3535</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>32</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -33600,7 +34192,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3621</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -33670,12 +34262,13 @@
       <c r="A19" s="50" t="s">
         <v>3387</v>
       </c>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>3388</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
@@ -33782,27 +34375,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="175" priority="5">
+    <cfRule type="expression" dxfId="188" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="174" priority="4">
+    <cfRule type="expression" dxfId="187" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="173" priority="3">
+    <cfRule type="expression" dxfId="186" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="172" priority="2">
+    <cfRule type="expression" dxfId="185" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="171" priority="1">
+    <cfRule type="expression" dxfId="184" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33849,73 +34442,73 @@
     <col min="6" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3599</v>
-      </c>
-      <c r="E1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="J1" s="119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="K1" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
       <c r="D2" t="s">
-        <v>3622</v>
-      </c>
-      <c r="E2" s="120" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="I2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="K2" s="120" t="s">
+      <c r="J2" s="119" t="s">
+        <v>3041</v>
+      </c>
+      <c r="K2" s="119" t="s">
         <v>3041</v>
       </c>
     </row>
@@ -33952,7 +34545,7 @@
     <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -33962,19 +34555,19 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="D10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="E10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -34042,7 +34635,7 @@
         <v>3384</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>3579</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34050,7 +34643,7 @@
         <v>3385</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34061,7 +34654,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>3580</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34069,7 +34662,7 @@
         <v>3400</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34107,7 +34700,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -34204,11 +34797,11 @@
       </c>
       <c r="B30" s="82"/>
       <c r="C30" s="32" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
       <c r="D30" s="82"/>
       <c r="E30" s="2" t="s">
-        <v>3581</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34252,7 +34845,7 @@
         <v>3412</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34261,7 +34854,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -34420,7 +35013,7 @@
         <v>3384</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>3619</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34428,7 +35021,7 @@
         <v>3385</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>3618</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34436,7 +35029,7 @@
         <v>3386</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3620</v>
+        <v>3607</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -34446,7 +35039,7 @@
         <v>3400</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34456,7 +35049,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34703,47 +35296,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="170" priority="10">
+    <cfRule type="expression" dxfId="183" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="169" priority="12">
+    <cfRule type="expression" dxfId="182" priority="12">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="168" priority="11">
+    <cfRule type="expression" dxfId="181" priority="11">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="167" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="166" priority="7">
+    <cfRule type="expression" dxfId="179" priority="7">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="165" priority="6">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="164" priority="3">
+    <cfRule type="expression" dxfId="177" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="176" priority="2">
       <formula>E$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="162" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>E$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34829,49 +35422,49 @@
     <col min="3" max="16384" width="9.140625" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="C1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="G1" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>3041</v>
       </c>
     </row>
@@ -34902,7 +35495,7 @@
         <v>95</v>
       </c>
       <c r="B14" s="126" t="s">
-        <v>3597</v>
+        <v>3588</v>
       </c>
       <c r="C14" s="126"/>
     </row>
@@ -34932,67 +35525,67 @@
     <col min="11" max="11" width="8" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:10" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="C1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="I1" s="119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="J1" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="119" t="s">
         <v>3041</v>
       </c>
     </row>
@@ -35032,7 +35625,7 @@
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -35042,11 +35635,11 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -35095,7 +35688,7 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>3584</v>
+        <v>3578</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -35107,7 +35700,7 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>3586</v>
+        <v>3580</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -35119,7 +35712,7 @@
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
-        <v>3585</v>
+        <v>3579</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -35149,8 +35742,8 @@
       <c r="A19" s="50" t="s">
         <v>3423</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>3556</v>
+      <c r="B19" t="s">
+        <v>3550</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>3167</v>
@@ -35189,8 +35782,8 @@
       <c r="A21" s="50" t="s">
         <v>3402</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>2414</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>2414</v>
@@ -35250,7 +35843,7 @@
         <v>3403</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3063</v>
@@ -35309,8 +35902,8 @@
       <c r="A27" s="50" t="s">
         <v>3410</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>3546</v>
+      <c r="B27" t="s">
+        <v>3613</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>3280</v>
@@ -35330,7 +35923,7 @@
         <v>3411</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3168</v>
@@ -35349,7 +35942,9 @@
       <c r="A29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" t="s">
+        <v>3574</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -35359,8 +35954,8 @@
       <c r="A30" s="50" t="s">
         <v>3412</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>3548</v>
+      <c r="B30" t="s">
+        <v>3614</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>3169</v>
@@ -35380,7 +35975,7 @@
         <v>3425</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>3170</v>
@@ -35656,22 +36251,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="161" priority="4">
+    <cfRule type="expression" dxfId="174" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="160" priority="3">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="159" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="158" priority="1">
+    <cfRule type="expression" dxfId="171" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35818,61 +36413,61 @@
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3598</v>
-      </c>
-      <c r="D1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="I1" s="119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>3278</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>3041</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="119" t="s">
         <v>3041</v>
       </c>
     </row>
@@ -35912,7 +36507,7 @@
     <row r="8" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -35922,11 +36517,11 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -35978,7 +36573,7 @@
         <v>3384</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>3582</v>
+        <v>3576</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -35990,7 +36585,7 @@
         <v>3385</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>3583</v>
+        <v>3577</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -36021,8 +36616,8 @@
       <c r="A18" s="50" t="s">
         <v>3423</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>3555</v>
+      <c r="B18" t="s">
+        <v>3173</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>3277</v>
@@ -36041,8 +36636,8 @@
       <c r="A19" s="50" t="s">
         <v>3388</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3550</v>
+      <c r="B19" t="s">
+        <v>3174</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3171</v>
@@ -36239,22 +36834,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15 C15:XFD16">
-    <cfRule type="expression" dxfId="157" priority="4">
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="156" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="155" priority="2">
+    <cfRule type="expression" dxfId="168" priority="2">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="154" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36449,16 +37044,14 @@
       <c r="A13" s="70" t="s">
         <v>3385</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>3540</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70" t="s">
         <v>3432</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>3587</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -36471,8 +37064,8 @@
       <c r="A16" s="70" t="s">
         <v>3433</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>3588</v>
+      <c r="B16" t="s">
+        <v>3003</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -36480,7 +37073,7 @@
         <v>3434</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>3592</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -36488,15 +37081,15 @@
         <v>3534</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>3593</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>3435</v>
       </c>
-      <c r="B19" s="118" t="s">
-        <v>3589</v>
+      <c r="B19" t="s">
+        <v>3615</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -36504,7 +37097,7 @@
         <v>3436</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>3590</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -36512,7 +37105,7 @@
         <v>3534</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>3591</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -36561,10 +37154,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3598</v>
+        <v>6</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>6</v>
@@ -36620,7 +37213,7 @@
     <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -36630,7 +37223,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.25">
@@ -36686,7 +37279,7 @@
         <v>3064</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>3064</v>
@@ -36875,7 +37468,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="B9" s="31"/>
     </row>
@@ -36885,7 +37478,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="98" customFormat="1" x14ac:dyDescent="0.25">
@@ -37611,52 +38204,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="153" priority="11">
+    <cfRule type="expression" dxfId="166" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="152" priority="10">
+    <cfRule type="expression" dxfId="165" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="151" priority="9">
+    <cfRule type="expression" dxfId="164" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="150" priority="8">
+    <cfRule type="expression" dxfId="163" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="149" priority="6">
+    <cfRule type="expression" dxfId="162" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="148" priority="5">
+    <cfRule type="expression" dxfId="161" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="147" priority="4">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="146" priority="3">
+    <cfRule type="expression" dxfId="159" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="145" priority="2">
+    <cfRule type="expression" dxfId="158" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="144" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -1654,6 +1654,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="B63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dalam bentuk array</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dalam bentuk array</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dalam bentuk array</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2816,7 +2888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="3634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="3641">
   <si>
     <t>Count</t>
   </si>
@@ -13725,6 +13797,27 @@
   </si>
   <si>
     <t>Gross Yield</t>
+  </si>
+  <si>
+    <t>Cross Application / Agreement Information</t>
+  </si>
+  <si>
+    <t>Application No</t>
+  </si>
+  <si>
+    <t>0004APP20211100002;0002APP20211205472</t>
+  </si>
+  <si>
+    <t>Agreement No</t>
+  </si>
+  <si>
+    <t>0004AGR20211103603;0002AGR20211206782</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>MRA LIANA;SY FATUI</t>
   </si>
 </sst>
 </file>
@@ -13738,7 +13831,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13838,6 +13931,19 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -14404,6 +14510,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14439,10 +14549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -15588,57 +15694,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0.Setting"/>
-      <sheetName val="1.TabCustomerMainData"/>
-      <sheetName val="2.TabFamilyData"/>
-      <sheetName val="2a.TabFamilyDataMain"/>
-      <sheetName val="3a.TabGuarantorDataPersonal"/>
-      <sheetName val="3b.TabGuarantorDataCompany"/>
-      <sheetName val="4.DuplicateChecking"/>
-      <sheetName val="5.TabReferantorData"/>
-      <sheetName val="6.TabApplicationData"/>
-      <sheetName val="7.TabAssetData"/>
-      <sheetName val="7a.Accessories"/>
-      <sheetName val="8.TabInsuranceData"/>
-      <sheetName val="9.TabLifeInsuranceData"/>
-      <sheetName val="10.TabFinancialData"/>
-      <sheetName val="11.TabTermConditionData"/>
-      <sheetName val="12.TabUploadDocument"/>
-      <sheetName val="13.TabCommissionData"/>
-      <sheetName val="14.TabReservedFundData"/>
-      <sheetName val="15.CustomerDataCompletion"/>
-      <sheetName val="Master"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="19">
           <cell r="B19">
@@ -15703,7 +15758,7 @@
             <v>AppNo</v>
           </cell>
           <cell r="B12" t="str">
-            <v>0002APP20211205214</v>
+            <v>0002APP20211205496</v>
           </cell>
           <cell r="C12" t="str">
             <v>0002APP20211204347</v>
@@ -15754,6 +15809,57 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="0.Setting"/>
+      <sheetName val="1.TabCustomerMainData"/>
+      <sheetName val="2.TabFamilyData"/>
+      <sheetName val="2a.TabFamilyDataMain"/>
+      <sheetName val="3a.TabGuarantorDataPersonal"/>
+      <sheetName val="3b.TabGuarantorDataCompany"/>
+      <sheetName val="4.DuplicateChecking"/>
+      <sheetName val="5.TabReferantorData"/>
+      <sheetName val="6.TabApplicationData"/>
+      <sheetName val="7.TabAssetData"/>
+      <sheetName val="7a.Accessories"/>
+      <sheetName val="8.TabInsuranceData"/>
+      <sheetName val="9.TabLifeInsuranceData"/>
+      <sheetName val="10.TabFinancialData"/>
+      <sheetName val="11.TabTermConditionData"/>
+      <sheetName val="12.TabUploadDocument"/>
+      <sheetName val="13.TabCommissionData"/>
+      <sheetName val="14.TabReservedFundData"/>
+      <sheetName val="15.CustomerDataCompletion"/>
+      <sheetName val="Master"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -17332,14 +17438,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="127" t="s">
+    <row r="11" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
         <v>3016</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -18399,11 +18505,11 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="127" t="s">
+    <row r="63" spans="1:8" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="131" t="s">
         <v>3594</v>
       </c>
-      <c r="B63" s="128"/>
+      <c r="B63" s="132"/>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -18426,11 +18532,11 @@
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127" t="s">
+    <row r="68" spans="1:2" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="131" t="s">
         <v>3608</v>
       </c>
-      <c r="B68" s="128"/>
+      <c r="B68" s="132"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="123" t="s">
@@ -18981,11 +19087,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+    <row r="22" spans="1:8" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
         <v>3608</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="132"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="123" t="s">
@@ -19185,14 +19291,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+    <row r="11" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="140" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -20424,11 +20530,11 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="130" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="127" t="s">
+    <row r="86" spans="1:6" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="131" t="s">
         <v>3609</v>
       </c>
-      <c r="B86" s="128"/>
+      <c r="B86" s="132"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
@@ -20458,10 +20564,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="136" t="s">
         <v>3160</v>
       </c>
-      <c r="B91" s="133"/>
+      <c r="B91" s="137"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
@@ -20472,10 +20578,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="138" t="s">
         <v>3159</v>
       </c>
-      <c r="B93" s="135"/>
+      <c r="B93" s="139"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="72" t="s">
@@ -20487,14 +20593,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="131" t="s">
+      <c r="A95" s="135" t="s">
         <v>3166</v>
       </c>
-      <c r="B95" s="131"/>
+      <c r="B95" s="135"/>
     </row>
     <row r="96" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="131"/>
-      <c r="B96" s="131"/>
+      <c r="A96" s="135"/>
+      <c r="B96" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20662,7 +20768,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -21563,7 +21669,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" s="116" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="126" t="s">
         <v>3618</v>
       </c>
     </row>
@@ -21571,7 +21677,7 @@
       <c r="A55" s="11" t="s">
         <v>3619</v>
       </c>
-      <c r="B55" s="144">
+      <c r="B55" s="127">
         <f>SUM(B56:B57)</f>
         <v>600000000</v>
       </c>
@@ -21580,8 +21686,8 @@
       <c r="A56" s="11" t="s">
         <v>3603</v>
       </c>
-      <c r="B56" s="144">
-        <f>'[3]7.TabAssetData'!B19</f>
+      <c r="B56" s="127">
+        <f>'[2]7.TabAssetData'!B19</f>
         <v>600000000</v>
       </c>
     </row>
@@ -21589,8 +21695,8 @@
       <c r="A57" s="11" t="s">
         <v>3620</v>
       </c>
-      <c r="B57" s="144">
-        <f>SUMIFS('[3]7a.Accessories'!17:17,'[3]7a.Accessories'!12:12,B8,'[3]7a.Accessories'!4:4,"0",'[3]7a.Accessories'!1:1,"SUCCESS")</f>
+      <c r="B57" s="127">
+        <f>SUMIFS('[2]7a.Accessories'!17:17,'[2]7a.Accessories'!12:12,B8,'[2]7a.Accessories'!4:4,"0",'[2]7a.Accessories'!1:1,"SUCCESS")</f>
         <v>0</v>
       </c>
     </row>
@@ -21598,7 +21704,7 @@
       <c r="A58" s="11" t="s">
         <v>3602</v>
       </c>
-      <c r="B58" s="144">
+      <c r="B58" s="127">
         <f>SUM(B21:B25,B39)</f>
         <v>4950000</v>
       </c>
@@ -21607,7 +21713,7 @@
       <c r="A59" s="11" t="s">
         <v>3621</v>
       </c>
-      <c r="B59" s="144">
+      <c r="B59" s="127">
         <f>SUM(B27,B29,B31,B33,B35,B41)</f>
         <v>1560000</v>
       </c>
@@ -21616,8 +21722,8 @@
       <c r="A60" s="11" t="s">
         <v>3622</v>
       </c>
-      <c r="B60" s="144">
-        <f>'[3]8.TabInsuranceData'!B85</f>
+      <c r="B60" s="127">
+        <f>'[2]8.TabInsuranceData'!B85</f>
         <v>11134500</v>
       </c>
     </row>
@@ -21625,8 +21731,8 @@
       <c r="A61" s="11" t="s">
         <v>3623</v>
       </c>
-      <c r="B61" s="144">
-        <f>SUMIFS('[3]7a.Accessories'!24:24,'[3]7a.Accessories'!12:12,B8,'[3]7a.Accessories'!4:4,"0",'[3]7a.Accessories'!1:1,"SUCCESS")+'[3]7.TabAssetData'!B70</f>
+      <c r="B61" s="127">
+        <f>SUMIFS('[2]7a.Accessories'!24:24,'[2]7a.Accessories'!12:12,B8,'[2]7a.Accessories'!4:4,"0",'[2]7a.Accessories'!1:1,"SUCCESS")+'[2]7.TabAssetData'!B70</f>
         <v>120000000</v>
       </c>
     </row>
@@ -21634,7 +21740,7 @@
       <c r="A62" s="11" t="s">
         <v>3624</v>
       </c>
-      <c r="B62" s="144">
+      <c r="B62" s="127">
         <f>B61-B53</f>
         <v>119700000</v>
       </c>
@@ -21643,7 +21749,7 @@
       <c r="A63" s="11" t="s">
         <v>3625</v>
       </c>
-      <c r="B63" s="145">
+      <c r="B63" s="128">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
         <v>0.45760121376179719</v>
       </c>
@@ -21652,7 +21758,7 @@
       <c r="A64" s="11" t="s">
         <v>3626</v>
       </c>
-      <c r="B64" s="144">
+      <c r="B64" s="127">
         <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
         <v>0</v>
       </c>
@@ -21701,7 +21807,7 @@
       <c r="B70" s="16">
         <v>558153000.49000001</v>
       </c>
-      <c r="C70" s="146"/>
+      <c r="C70" s="129"/>
     </row>
     <row r="71" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
@@ -22271,10 +22377,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="144" t="s">
         <v>2444</v>
       </c>
-      <c r="B20" s="140"/>
+      <c r="B20" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23103,10 +23209,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="145" t="s">
         <v>2432</v>
       </c>
-      <c r="B55" s="142"/>
+      <c r="B55" s="146"/>
     </row>
     <row r="56" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -35494,10 +35600,10 @@
       <c r="A14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="130" t="s">
         <v>3588</v>
       </c>
-      <c r="C14" s="126"/>
+      <c r="C14" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37356,12 +37462,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38202,7 +38308,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62" spans="1:6" s="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="143" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>3640</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A62:XFD62"/>
+  </mergeCells>
   <conditionalFormatting sqref="B23:XFD23">
     <cfRule type="expression" dxfId="166" priority="11">
       <formula>B$22="Fixed Rate"</formula>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -160,10 +160,44 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Jeremy Andreas</author>
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CUST = Tab Customer Data
+SHR = Tab Shareholder Data
+GUAR = Tab Guarantor Data
+REF = Tab Referantor Data
+APP = Tab Application Data
+ASSET = Tab Asset Data
+INS = Tab Insurance Data
+FIN = Tab Financial Data
+TC = Tab Term Condition Data
+UPL_DOC = Tab Upload Document </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2888,7 +2922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="3641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4966" uniqueCount="3642">
   <si>
     <t>Count</t>
   </si>
@@ -13818,6 +13852,9 @@
   </si>
   <si>
     <t>MRA LIANA;SY FATUI</t>
+  </si>
+  <si>
+    <t>Edit NAP Back to Step</t>
   </si>
 </sst>
 </file>
@@ -14517,6 +14554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -14539,7 +14577,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17420,7 +17457,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205401</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17438,14 +17475,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+    <row r="11" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="132" t="s">
         <v>3016</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -18505,11 +18542,11 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="131" t="s">
+    <row r="63" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="132" t="s">
         <v>3594</v>
       </c>
-      <c r="B63" s="132"/>
+      <c r="B63" s="133"/>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -18532,11 +18569,11 @@
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="131" t="s">
+    <row r="68" spans="1:2" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="132" t="s">
         <v>3608</v>
       </c>
-      <c r="B68" s="132"/>
+      <c r="B68" s="133"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="123" t="s">
@@ -18887,11 +18924,11 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205401</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205401</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19087,11 +19124,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+    <row r="22" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>3608</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="133"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="123" t="s">
@@ -19273,7 +19310,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205401</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -19291,14 +19328,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:10" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="141" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="143"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -20530,11 +20567,11 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="134" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="131" t="s">
+    <row r="86" spans="1:6" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="132" t="s">
         <v>3609</v>
       </c>
-      <c r="B86" s="132"/>
+      <c r="B86" s="133"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
@@ -20564,10 +20601,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="136" t="s">
+      <c r="A91" s="137" t="s">
         <v>3160</v>
       </c>
-      <c r="B91" s="137"/>
+      <c r="B91" s="138"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
@@ -20578,10 +20615,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="138" t="s">
+      <c r="A93" s="139" t="s">
         <v>3159</v>
       </c>
-      <c r="B93" s="139"/>
+      <c r="B93" s="140"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="72" t="s">
@@ -20593,14 +20630,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="136" t="s">
         <v>3166</v>
       </c>
-      <c r="B95" s="135"/>
+      <c r="B95" s="136"/>
     </row>
     <row r="96" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="135"/>
-      <c r="B96" s="135"/>
+      <c r="A96" s="136"/>
+      <c r="B96" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20873,7 +20910,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205401</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -22286,7 +22323,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C8" s="13"/>
     </row>
@@ -22513,11 +22550,11 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -22670,7 +22707,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -23384,7 +23421,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -23557,7 +23594,7 @@
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23583,7 +23620,7 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -34156,9 +34193,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34260,7 +34297,12 @@
     </row>
     <row r="5" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
     <row r="8" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>3571</v>
@@ -34505,7 +34547,7 @@
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:F14">
       <formula1>"Input Data, LookUp"</formula1>
     </dataValidation>
@@ -34520,6 +34562,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Yes, No, Edit"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"CUST,SHR,GUAR,REF,APP,ASSET,INS,FIN,TC,UPL_DOC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34683,15 +34728,15 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="D12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>3041</v>
@@ -35593,7 +35638,7 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -35759,7 +35804,7 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="43"/>
     </row>
@@ -36641,11 +36686,11 @@
       </c>
       <c r="B12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -37122,7 +37167,7 @@
       </c>
       <c r="B4" s="113">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -37143,7 +37188,7 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -37348,11 +37393,11 @@
       </c>
       <c r="B12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="C12" s="43" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -37464,7 +37509,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="topRight" activeCell="B69" sqref="B69"/>
@@ -37569,7 +37614,7 @@
       </c>
       <c r="B8" s="17" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20211205191</v>
+        <v>0002APP20211205214</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -38308,8 +38353,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="143" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="143" t="s">
+    <row r="62" spans="1:6" s="131" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="131" t="s">
         <v>3634</v>
       </c>
     </row>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="15" firstSheet="11" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -2921,7 +2921,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="3643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5074" uniqueCount="3646">
   <si>
     <t>Count</t>
   </si>
@@ -13823,9 +13823,6 @@
     <t>2839482930293842</t>
   </si>
   <si>
-    <t>Please add at least one data</t>
-  </si>
-  <si>
     <t>SULE;FT TEST COMPANY</t>
   </si>
   <si>
@@ -13835,9 +13832,6 @@
     <t>New;;Select ApplicationInProcess</t>
   </si>
   <si>
-    <t>0002APP20211205539</t>
-  </si>
-  <si>
     <t>Failed Verify Data DDL</t>
   </si>
   <si>
@@ -13857,6 +13851,21 @@
   </si>
   <si>
     <t>;;;;;</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>0002APP20211205564</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>MAMA ANDRE</t>
+  </si>
+  <si>
+    <t>ANDRE;FT TEST COMPANY</t>
   </si>
 </sst>
 </file>
@@ -14358,7 +14367,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="43"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -14541,7 +14550,6 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -17126,7 +17134,7 @@
       </c>
       <c r="D2" s="17">
         <f>COUNTA('3b.TabGuarantorDataCompany'!B12:XFD12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
@@ -17311,17 +17319,17 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="131" t="s">
         <v>3016</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
     </row>
     <row customFormat="1" r="12" s="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -18381,11 +18389,11 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row customFormat="1" r="63" s="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="132" t="s">
+    <row customFormat="1" r="63" s="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="131" t="s">
         <v>3577</v>
       </c>
-      <c r="B63" s="133"/>
+      <c r="B63" s="132"/>
     </row>
     <row customFormat="1" r="64" s="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -18408,26 +18416,26 @@
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row customFormat="1" r="68" s="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="132" t="s">
+    <row customFormat="1" r="68" s="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="131" t="s">
         <v>3591</v>
       </c>
-      <c r="B68" s="133"/>
+      <c r="B68" s="132"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="123" t="s">
+      <c r="A69" s="122" t="s">
         <v>3584</v>
       </c>
-      <c r="B69" s="124">
+      <c r="B69" s="123">
         <f>B28/B19*100</f>
         <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="122" t="s">
         <v>3583</v>
       </c>
-      <c r="B70" s="124">
+      <c r="B70" s="123">
         <f>B19*B27%</f>
         <v>350000000</v>
       </c>
@@ -18963,34 +18971,34 @@
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+    <row customFormat="1" r="22" s="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
         <v>3591</v>
       </c>
-      <c r="B22" s="133"/>
+      <c r="B22" s="132"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="122" t="s">
         <v>3584</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="123">
         <f>B20/B17*100</f>
         <v>12</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="123">
         <f>C20/C17*100</f>
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="122" t="s">
         <v>3583</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="123">
         <f>B17*B19%</f>
         <v>120000</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="123">
         <f>C17*C19%</f>
         <v>500000</v>
       </c>
@@ -19099,7 +19107,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -19164,17 +19172,17 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="140" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
     </row>
     <row customFormat="1" r="12" s="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -20352,17 +20360,17 @@
         <v>2000000</v>
       </c>
     </row>
-    <row customFormat="1" r="86" s="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="132" t="s">
+    <row customFormat="1" r="86" s="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="131" t="s">
         <v>3592</v>
       </c>
-      <c r="B86" s="133"/>
+      <c r="B86" s="132"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>3585</v>
       </c>
-      <c r="B87" s="122">
+      <c r="B87" s="121">
         <f>SUM(B31:B32)</f>
         <v>1500000</v>
       </c>
@@ -20371,7 +20379,7 @@
       <c r="A88" s="16" t="s">
         <v>3586</v>
       </c>
-      <c r="B88" s="122">
+      <c r="B88" s="121">
         <f>'7.TabAssetData'!B19</f>
         <v>1000000000</v>
       </c>
@@ -20380,16 +20388,16 @@
       <c r="A89" s="35" t="s">
         <v>3587</v>
       </c>
-      <c r="B89" s="122">
+      <c r="B89" s="121">
         <f>'7.TabAssetData'!B19+'7a.Accessories'!B17+'7a.Accessories'!C17</f>
         <v>1002000000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="137" t="s">
+      <c r="A91" s="136" t="s">
         <v>3160</v>
       </c>
-      <c r="B91" s="138"/>
+      <c r="B91" s="137"/>
     </row>
     <row ht="30" r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
@@ -20400,10 +20408,10 @@
       </c>
     </row>
     <row customHeight="1" ht="30" r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="139" t="s">
+      <c r="A93" s="138" t="s">
         <v>3159</v>
       </c>
-      <c r="B93" s="140"/>
+      <c r="B93" s="139"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="72" t="s">
@@ -20415,14 +20423,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="135" t="s">
         <v>3166</v>
       </c>
-      <c r="B95" s="136"/>
+      <c r="B95" s="135"/>
     </row>
     <row customHeight="1" ht="45.75" r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="136"/>
-      <c r="B96" s="136"/>
+      <c r="A96" s="135"/>
+      <c r="B96" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20642,7 +20650,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3041</v>
@@ -20710,7 +20718,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -21329,7 +21337,7 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -21491,7 +21499,7 @@
       </c>
     </row>
     <row customFormat="1" r="54" s="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="125" t="s">
         <v>3597</v>
       </c>
     </row>
@@ -21499,7 +21507,7 @@
       <c r="A55" s="11" t="s">
         <v>3598</v>
       </c>
-      <c r="B55" s="127">
+      <c r="B55" s="126">
         <f>SUM(B56:B57)</f>
         <v>1002000000</v>
       </c>
@@ -21508,7 +21516,7 @@
       <c r="A56" s="11" t="s">
         <v>3586</v>
       </c>
-      <c r="B56" s="127">
+      <c r="B56" s="126">
         <f>'7.TabAssetData'!B19</f>
         <v>1000000000</v>
       </c>
@@ -21517,7 +21525,7 @@
       <c r="A57" s="11" t="s">
         <v>3599</v>
       </c>
-      <c r="B57" s="127">
+      <c r="B57" s="126">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
         <v>2000000</v>
       </c>
@@ -21526,7 +21534,7 @@
       <c r="A58" s="11" t="s">
         <v>3585</v>
       </c>
-      <c r="B58" s="127">
+      <c r="B58" s="126">
         <f>SUM(B21:B25,B39)</f>
         <v>4950000</v>
       </c>
@@ -21535,7 +21543,7 @@
       <c r="A59" s="11" t="s">
         <v>3600</v>
       </c>
-      <c r="B59" s="127">
+      <c r="B59" s="126">
         <f>SUM(B27,B29,B31,B33,B35,B41)</f>
         <v>1560000</v>
       </c>
@@ -21544,7 +21552,7 @@
       <c r="A60" s="11" t="s">
         <v>3601</v>
       </c>
-      <c r="B60" s="127">
+      <c r="B60" s="126">
         <f>'8.TabInsuranceData'!B85</f>
         <v>2000000</v>
       </c>
@@ -21553,7 +21561,7 @@
       <c r="A61" s="11" t="s">
         <v>3602</v>
       </c>
-      <c r="B61" s="127">
+      <c r="B61" s="126">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
         <v>350620000</v>
       </c>
@@ -21562,7 +21570,7 @@
       <c r="A62" s="11" t="s">
         <v>3603</v>
       </c>
-      <c r="B62" s="127">
+      <c r="B62" s="126">
         <f>B61-B53</f>
         <v>350320000</v>
       </c>
@@ -21571,7 +21579,7 @@
       <c r="A63" s="11" t="s">
         <v>3604</v>
       </c>
-      <c r="B63" s="128">
+      <c r="B63" s="127">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
         <v>0.34406826314340766</v>
       </c>
@@ -21580,13 +21588,13 @@
       <c r="A64" s="11" t="s">
         <v>3605</v>
       </c>
-      <c r="B64" s="127">
+      <c r="B64" s="126">
         <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
         <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="125" t="s">
+      <c r="A65" s="124" t="s">
         <v>3606</v>
       </c>
     </row>
@@ -21629,7 +21637,7 @@
       <c r="B70" s="16">
         <v>558153000.49000001</v>
       </c>
-      <c r="C70" s="129"/>
+      <c r="C70" s="128"/>
     </row>
     <row customFormat="1" r="71" s="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
@@ -22053,7 +22061,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>3041</v>
@@ -22125,7 +22133,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -22199,10 +22207,10 @@
       <c r="C19" s="14"/>
     </row>
     <row customFormat="1" customHeight="1" ht="101.25" r="20" s="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="143" t="s">
         <v>2444</v>
       </c>
-      <c r="B20" s="144"/>
+      <c r="B20" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22335,7 +22343,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="83" spans="1:8" x14ac:dyDescent="0.25"/>
@@ -22445,7 +22453,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
@@ -22486,7 +22494,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -22541,7 +22549,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -22916,7 +22924,7 @@
         <v>2426</v>
       </c>
       <c r="B40" s="112" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="C40" s="112" t="s">
         <v>3366</v>
@@ -23066,10 +23074,10 @@
       <c r="B54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="145" t="s">
+      <c r="A55" s="144" t="s">
         <v>2432</v>
       </c>
-      <c r="B55" s="146"/>
+      <c r="B55" s="145"/>
     </row>
     <row ht="210" r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
@@ -23197,7 +23205,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -23255,7 +23263,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -23276,16 +23284,16 @@
       <c r="A13" s="58" t="s">
         <v>3517</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="14" s="40" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>3518</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.0</v>
+      <c r="B14">
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="15" s="40" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -23305,10 +23313,10 @@
       </c>
     </row>
     <row ht="15.75" r="17" spans="1:2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="120" t="s">
         <v>3581</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="121">
         <f>B12+B13+B14+B15+B16</f>
         <v>1016020</v>
       </c>
@@ -23428,7 +23436,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -23464,7 +23472,7 @@
         <v>3505</v>
       </c>
       <c r="B15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -23480,7 +23488,7 @@
         <v>3506</v>
       </c>
       <c r="B17" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -34013,9 +34021,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="E11" pane="topRight" sqref="E11"/>
+      <selection activeCell="B9" pane="topRight" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34031,8 +34039,8 @@
       <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3629</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>6</v>
@@ -34127,18 +34135,22 @@
       <c r="A8" s="31" t="s">
         <v>3559</v>
       </c>
+      <c r="B8" s="16" t="s">
+        <v>3642</v>
+      </c>
     </row>
     <row customFormat="1" r="9" s="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>3524</v>
       </c>
+      <c r="B9" s="16"/>
     </row>
     <row customFormat="1" r="10" s="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>3523</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>32</v>
+        <v>3641</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -34156,8 +34168,8 @@
       <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>3635</v>
+      <c r="B13" t="s">
+        <v>3642</v>
       </c>
       <c r="D13" s="16"/>
     </row>
@@ -34228,13 +34240,17 @@
       <c r="A19" s="50" t="s">
         <v>3375</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="s">
+        <v>3173</v>
+      </c>
     </row>
     <row customFormat="1" r="20" s="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>3376</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>3174</v>
+      </c>
     </row>
     <row customFormat="1" r="21" s="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
@@ -34396,9 +34412,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="D19" pane="topRight" sqref="D19"/>
+      <selection activeCell="E1" pane="topRight" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34415,13 +34431,13 @@
       <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="119" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="119" t="s">
@@ -34450,13 +34466,13 @@
       <c r="A2" s="119" t="s">
         <v>3266</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>3041</v>
       </c>
       <c r="C2" s="119" t="s">
         <v>3041</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="119" t="s">
         <v>3041</v>
       </c>
       <c r="E2" s="119" t="s">
@@ -34524,19 +34540,19 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="D10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="E10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="83" spans="1:11" x14ac:dyDescent="0.25"/>
@@ -34577,11 +34593,11 @@
       <c r="A14" s="17" t="s">
         <v>3189</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>42</v>
@@ -34626,6 +34642,9 @@
       <c r="A19" s="17" t="s">
         <v>3388</v>
       </c>
+      <c r="B19" t="s">
+        <v>3643</v>
+      </c>
       <c r="C19" s="17" t="s">
         <v>3528</v>
       </c>
@@ -34642,6 +34661,9 @@
       <c r="A21" s="50" t="s">
         <v>3390</v>
       </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="17" t="s">
         <v>13</v>
       </c>
@@ -34781,7 +34803,9 @@
       <c r="A32" s="50" t="s">
         <v>3398</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" t="s">
+        <v>3526</v>
+      </c>
       <c r="C32" s="32" t="s">
         <v>3526</v>
       </c>
@@ -34791,7 +34815,9 @@
       <c r="A33" s="50" t="s">
         <v>3399</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" t="s">
+        <v>3417</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>3417</v>
       </c>
@@ -34809,6 +34835,9 @@
       <c r="A35" s="50" t="s">
         <v>3400</v>
       </c>
+      <c r="B35" t="s">
+        <v>3644</v>
+      </c>
       <c r="C35" s="17" t="s">
         <v>3530</v>
       </c>
@@ -35003,6 +35032,9 @@
       <c r="A52" s="17" t="s">
         <v>3388</v>
       </c>
+      <c r="C52" t="s">
+        <v>3588</v>
+      </c>
       <c r="D52" s="17" t="s">
         <v>3536</v>
       </c>
@@ -35012,7 +35044,9 @@
         <v>3376</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" t="s">
+        <v>3590</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>3537</v>
       </c>
@@ -35377,7 +35411,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35391,8 +35425,8 @@
       <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3629</v>
+      <c r="B1" s="119" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>6</v>
@@ -35414,8 +35448,8 @@
       <c r="A2" s="119" t="s">
         <v>3266</v>
       </c>
-      <c r="B2" t="s">
-        <v>3631</v>
+      <c r="B2" s="119" t="s">
+        <v>3041</v>
       </c>
       <c r="C2" s="119" t="s">
         <v>3041</v>
@@ -35459,10 +35493,10 @@
       <c r="A14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="129" t="s">
         <v>3571</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35600,11 +35634,11 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -36365,9 +36399,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B27" pane="topRight" sqref="B27"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36382,11 +36416,11 @@
       <c r="A1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3629</v>
+      <c r="B1" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="119" t="s">
         <v>6</v>
@@ -36411,7 +36445,7 @@
       <c r="A2" s="119" t="s">
         <v>3266</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="119" t="s">
         <v>3041</v>
       </c>
       <c r="C2" s="119" t="s">
@@ -36482,11 +36516,11 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -36499,10 +36533,6 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="str">
-        <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20211205539</v>
-      </c>
-      <c r="C12" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20211205539</v>
       </c>
@@ -37032,7 +37062,7 @@
         <v>3421</v>
       </c>
       <c r="B16" t="s">
-        <v>3621</v>
+        <v>3645</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -37064,7 +37094,7 @@
         <v>3424</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -37141,10 +37171,10 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="C2" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>3041</v>
@@ -37190,11 +37220,11 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
       <c r="C10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -37381,7 +37411,7 @@
         <v>3266</v>
       </c>
       <c r="B2" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3041</v>
@@ -37449,7 +37479,7 @@
       </c>
       <c r="B10" s="17" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
-        <v>No</v>
+        <v>Edit</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -38173,8 +38203,8 @@
         <v>5</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="62" s="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="131" t="s">
+    <row customFormat="1" customHeight="1" ht="14.25" r="62" s="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="130" t="s">
         <v>3613</v>
       </c>
     </row>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -431,7 +431,8 @@
           </rPr>
           <t xml:space="preserve">
 jika yes, lakukan return handling dan tidak akan input data commission.
-Jika no atau bernilai kosong lakukan input commission seperti biasa</t>
+Jika no atau bernilai kosong atau done lakukan input commission seperti biasa
+Done menandakan return handling telah dilakukan</t>
         </r>
       </text>
     </comment>
@@ -586,7 +587,8 @@
           </rPr>
           <t xml:space="preserve">
 jika yes, lakukan return handling dan tidak akan input data reserved fund.
-Jika no atau bernilai kosong lakukan input reserved fund seperti biasa</t>
+Jika no atau bernilai kosong atau done lakukan input reserved fund seperti biasa
+Done menandakan return handling telah dilakukan</t>
         </r>
       </text>
     </comment>
@@ -2971,7 +2973,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="3650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="3650">
   <si>
     <t>Count</t>
   </si>
@@ -14634,6 +14636,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14669,11 +14675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -14682,6 +14684,195 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="189">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15567,195 +15758,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -16370,8 +16372,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B43"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="188"/>
-    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="187"/>
+    <tableColumn id="9" uniqueName="9" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="62"/>
+    <tableColumn id="10" uniqueName="10" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16381,7 +16383,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="174"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16391,7 +16393,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="173"/>
+    <tableColumn id="2" uniqueName="2" name="GENDER" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16401,7 +16403,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="172"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16411,7 +16413,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="171"/>
+    <tableColumn id="2" uniqueName="2" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16421,7 +16423,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="170"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16431,7 +16433,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="169"/>
+    <tableColumn id="2" uniqueName="2" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16441,7 +16443,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="QueryLifeInscoBranchName" displayName="QueryLifeInscoBranchName" ref="AN1:AN29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AN29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="168"/>
+    <tableColumn id="2" uniqueName="2" name="LIFE INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16451,7 +16453,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="167"/>
+    <tableColumn id="2" uniqueName="2" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16461,8 +16463,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="166"/>
-    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="165"/>
+    <tableColumn id="3" uniqueName="3" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="40"/>
+    <tableColumn id="4" uniqueName="4" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16472,8 +16474,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV5"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="164"/>
-    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="163"/>
+    <tableColumn id="3" uniqueName="3" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="4" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16483,8 +16485,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="186"/>
-    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="185"/>
+    <tableColumn id="3" uniqueName="3" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="60"/>
+    <tableColumn id="4" uniqueName="4" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16494,7 +16496,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Query_Application_Source" displayName="Query_Application_Source" ref="AX1:AX12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AX1:AX12"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="162"/>
+    <tableColumn id="2" uniqueName="2" name="APPLICATION SOURCE" queryTableFieldId="1" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16504,7 +16506,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="2" uniqueName="2" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16514,7 +16516,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16524,7 +16526,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="2" uniqueName="2" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16534,7 +16536,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="2" uniqueName="2" name="Interest Type" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16544,7 +16546,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16554,7 +16556,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ17"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="2" uniqueName="2" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16564,7 +16566,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="2" uniqueName="2" name="WOP" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16574,7 +16576,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="2" uniqueName="2" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16584,7 +16586,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="153"/>
+    <tableColumn id="2" uniqueName="2" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16594,8 +16596,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="184"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="183"/>
+    <tableColumn id="5" uniqueName="5" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16604,7 +16606,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="152"/>
+    <tableColumn id="2" uniqueName="2" name="descr" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16614,7 +16616,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="151"/>
+    <tableColumn id="2" uniqueName="2" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16624,7 +16626,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="150"/>
+    <tableColumn id="2" uniqueName="2" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16633,7 +16635,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="149"/>
+    <tableColumn id="2" uniqueName="2" name="master_code" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16643,7 +16645,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="148"/>
+    <tableColumn id="2" uniqueName="2" name="INSURED BY" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16653,7 +16655,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="147"/>
+    <tableColumn id="2" uniqueName="2" name="ASSET REGION" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16663,7 +16665,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="146"/>
+    <tableColumn id="2" uniqueName="2" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16673,7 +16675,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="2" uniqueName="2" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16683,7 +16685,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH29"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="2" uniqueName="2" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16693,7 +16695,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="2" uniqueName="2" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16703,8 +16705,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N492"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="182"/>
-    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="181"/>
+    <tableColumn id="3" uniqueName="3" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="4" uniqueName="4" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16714,7 +16716,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="2" uniqueName="2" name="Customer Relationship" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16724,7 +16726,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16734,7 +16736,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="2" uniqueName="2" name="Owner Type" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16744,7 +16746,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="139"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16754,7 +16756,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW6"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="138"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16764,7 +16766,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="137"/>
+    <tableColumn id="2" uniqueName="2" name="Subsidy Source" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16774,7 +16776,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="136"/>
+    <tableColumn id="2" uniqueName="2" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16784,7 +16786,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="135"/>
+    <tableColumn id="2" uniqueName="2" name="Grace Period Type" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16794,8 +16796,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Query_JobProfessionProfessional" displayName="Query_JobProfessionProfessional" ref="DG1:DH30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DG1:DH30"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="134"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="133"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION PROF" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16805,8 +16807,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="132"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="131"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16816,8 +16818,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="180"/>
-    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="179"/>
+    <tableColumn id="3" uniqueName="3" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="4" uniqueName="4" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16827,8 +16829,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Query_JobProfessionSME" displayName="Query_JobProfessionSME" ref="DM1:DN15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DM1:DN15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="130"/>
-    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="129"/>
+    <tableColumn id="5" uniqueName="5" name="JOB PROFESSION SME" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="6" uniqueName="6" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16838,8 +16840,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="DP1:DQ23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DP1:DQ23"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="128"/>
-    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="127"/>
+    <tableColumn id="5" uniqueName="5" name="Position SLIK" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="MASTER_CODE" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16849,7 +16851,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="DS1:DS5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DS1:DS5"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="126"/>
+    <tableColumn id="3" uniqueName="3" name="Public Type" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16859,7 +16861,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T15"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="178"/>
+    <tableColumn id="2" uniqueName="2" name="ID TYPE" queryTableFieldId="1" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16869,7 +16871,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="177"/>
+    <tableColumn id="2" uniqueName="2" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16879,7 +16881,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X4"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="176"/>
+    <tableColumn id="2" uniqueName="2" name="NATIONALITY" queryTableFieldId="1" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16889,7 +16891,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z8"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="175"/>
+    <tableColumn id="2" uniqueName="2" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17400,14 +17402,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="131" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+    <row r="11" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
         <v>3016</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
@@ -18467,11 +18469,11 @@
       </c>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="129" t="s">
+    <row r="63" spans="1:8" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="133" t="s">
         <v>3577</v>
       </c>
-      <c r="B63" s="130"/>
+      <c r="B63" s="134"/>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
@@ -18494,11 +18496,11 @@
       </c>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:2" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="129" t="s">
+    <row r="68" spans="1:2" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="133" t="s">
         <v>3591</v>
       </c>
-      <c r="B68" s="130"/>
+      <c r="B68" s="134"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="120" t="s">
@@ -18525,102 +18527,102 @@
     <mergeCell ref="A68:XFD68"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="156" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="92" priority="21">
+    <cfRule type="expression" dxfId="155" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="91" priority="20">
+    <cfRule type="expression" dxfId="154" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="90" priority="19">
+    <cfRule type="expression" dxfId="153" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="89" priority="16">
+    <cfRule type="expression" dxfId="152" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="88" priority="15">
+    <cfRule type="expression" dxfId="151" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="87" priority="14">
+    <cfRule type="expression" dxfId="150" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="86" priority="13">
+    <cfRule type="expression" dxfId="149" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="85" priority="12">
+    <cfRule type="expression" dxfId="148" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="84" priority="11">
+    <cfRule type="expression" dxfId="147" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="146" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="145" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="81" priority="8">
+    <cfRule type="expression" dxfId="144" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="80" priority="7">
+    <cfRule type="expression" dxfId="143" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="79" priority="6">
+    <cfRule type="expression" dxfId="142" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="78" priority="5">
+    <cfRule type="expression" dxfId="141" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="77" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="76" priority="3">
+    <cfRule type="expression" dxfId="139" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="138" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="137" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19049,11 +19051,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="129" t="s">
+    <row r="22" spans="1:8" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="133" t="s">
         <v>3591</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="134"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="120" t="s">
@@ -19086,27 +19088,27 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:XFD19">
-    <cfRule type="expression" dxfId="73" priority="7">
+    <cfRule type="expression" dxfId="136" priority="7">
       <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="72" priority="6">
+    <cfRule type="expression" dxfId="135" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="71" priority="3">
+    <cfRule type="expression" dxfId="134" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="133" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19253,14 +19255,14 @@
         <v>Edit</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+    <row r="11" spans="1:10" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="142" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="144"/>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
@@ -20438,11 +20440,11 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="129" t="s">
+    <row r="86" spans="1:6" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="133" t="s">
         <v>3592</v>
       </c>
-      <c r="B86" s="130"/>
+      <c r="B86" s="134"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
@@ -20472,10 +20474,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="134" t="s">
+      <c r="A91" s="138" t="s">
         <v>3160</v>
       </c>
-      <c r="B91" s="135"/>
+      <c r="B91" s="139"/>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="s">
@@ -20486,10 +20488,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="140" t="s">
         <v>3159</v>
       </c>
-      <c r="B93" s="137"/>
+      <c r="B93" s="141"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
@@ -20501,14 +20503,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="133" t="s">
+      <c r="A95" s="137" t="s">
         <v>3166</v>
       </c>
-      <c r="B95" s="133"/>
+      <c r="B95" s="137"/>
     </row>
     <row r="96" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="133"/>
-      <c r="B96" s="133"/>
+      <c r="A96" s="137"/>
+      <c r="B96" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20519,92 +20521,92 @@
     <mergeCell ref="A86:XFD86"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="68" priority="18">
+    <cfRule type="expression" dxfId="131" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="130" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="66" priority="16">
+    <cfRule type="expression" dxfId="129" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="128" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="64" priority="14">
+    <cfRule type="expression" dxfId="127" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="126" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="62" priority="12">
+    <cfRule type="expression" dxfId="125" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="60" priority="10">
+    <cfRule type="expression" dxfId="123" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="59" priority="9">
+    <cfRule type="expression" dxfId="122" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="58" priority="8">
+    <cfRule type="expression" dxfId="121" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="120" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="56" priority="6">
+    <cfRule type="expression" dxfId="119" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="118" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="117" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="116" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="115" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="114" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21727,207 +21729,207 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A41 C21:XFD41">
-    <cfRule type="expression" dxfId="50" priority="49">
+    <cfRule type="expression" dxfId="113" priority="49">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 C35:XFD35">
-    <cfRule type="expression" dxfId="49" priority="44">
+    <cfRule type="expression" dxfId="112" priority="44">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 C27:XFD27">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="111" priority="48">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 C29:XFD29">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="110" priority="47">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31 C31:XFD31">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="109" priority="46">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 C33:XFD33">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="108" priority="45">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38:XFD38">
-    <cfRule type="expression" dxfId="44" priority="43">
+    <cfRule type="expression" dxfId="107" priority="43">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39 C39:XFD39">
-    <cfRule type="expression" dxfId="43" priority="42">
+    <cfRule type="expression" dxfId="106" priority="42">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41 C41:XFD41">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="105" priority="41">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45 C45:XFD45">
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="104" priority="40">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44 C44:XFD44">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="103" priority="39">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:XFD48">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="102" priority="36">
       <formula>C$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="101" priority="32">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="100" priority="31">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="99" priority="30">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="98" priority="29">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="expression" dxfId="34" priority="28">
+    <cfRule type="expression" dxfId="97" priority="28">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="96" priority="27">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="32" priority="26">
+    <cfRule type="expression" dxfId="95" priority="26">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="94" priority="25">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="93" priority="24">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="92" priority="23">
       <formula>C$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="91" priority="22">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="90" priority="21">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="26" priority="20">
+    <cfRule type="expression" dxfId="89" priority="20">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="88" priority="19">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="87" priority="17">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="23" priority="16">
+    <cfRule type="expression" dxfId="86" priority="16">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="85" priority="14">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B41">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="84" priority="13">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="83" priority="8">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="82" priority="12">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="80" priority="10">
       <formula>B$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="79" priority="9">
       <formula>B$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="78" priority="7">
       <formula>B$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="77" priority="6">
       <formula>B$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="76" priority="5">
       <formula>B$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="75" priority="4">
       <formula>B$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>B$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B48">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22285,10 +22287,10 @@
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" s="24" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="145" t="s">
         <v>2444</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22531,9 +22533,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A54" sqref="A54:XFD54"/>
+      <selection pane="topRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23143,15 +23145,16 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="146" t="s">
+    <row r="53" spans="1:5" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="148" t="s">
         <v>3645</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="148" t="s">
+    <row r="54" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="130" t="s">
         <v>3649</v>
       </c>
+      <c r="B54" s="130"/>
     </row>
     <row r="55" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
@@ -23185,10 +23188,10 @@
       <c r="B58" s="18"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="142" t="s">
+      <c r="A59" s="146" t="s">
         <v>2432</v>
       </c>
-      <c r="B59" s="143"/>
+      <c r="B59" s="147"/>
     </row>
     <row r="60" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
@@ -23212,32 +23215,32 @@
     <mergeCell ref="A53:XFD53"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="68" priority="8">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="67" priority="7">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="65" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23269,7 +23272,7 @@
       <formula1>"Edit Application Data"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"Yes,No"</formula1>
+      <formula1>"Yes,No,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23285,7 +23288,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23397,7 +23400,7 @@
       <c r="A12" s="55" t="s">
         <v>3516</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="127">
         <v>1000000</v>
       </c>
     </row>
@@ -23421,7 +23424,7 @@
       <c r="A15" s="56" t="s">
         <v>3519</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="128">
         <v>4010</v>
       </c>
     </row>
@@ -23442,14 +23445,17 @@
         <v>1016020</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="146" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146" t="s">
+    <row r="18" spans="1:5" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148" t="s">
         <v>3645</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="147" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="148" t="s">
+    <row r="19" spans="1:5" s="129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="130" t="s">
         <v>3649</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -23506,7 +23512,7 @@
       <formula1>B$12="Percentage"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Yes,No"</formula1>
+      <formula1>"Yes,No,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34530,27 +34536,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="125" priority="5">
+    <cfRule type="expression" dxfId="188" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="124" priority="4">
+    <cfRule type="expression" dxfId="187" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="186" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="122" priority="2">
+    <cfRule type="expression" dxfId="185" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="184" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35468,47 +35474,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="120" priority="10">
+    <cfRule type="expression" dxfId="183" priority="10">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="119" priority="12">
+    <cfRule type="expression" dxfId="182" priority="12">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="118" priority="11">
+    <cfRule type="expression" dxfId="181" priority="11">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="117" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:D78">
-    <cfRule type="expression" dxfId="116" priority="7">
+    <cfRule type="expression" dxfId="179" priority="7">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="115" priority="6">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:D57">
-    <cfRule type="expression" dxfId="114" priority="3">
+    <cfRule type="expression" dxfId="177" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="113" priority="2">
+    <cfRule type="expression" dxfId="176" priority="2">
       <formula>E$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="112" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>E$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35666,10 +35672,10 @@
       <c r="A14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="131" t="s">
         <v>3571</v>
       </c>
-      <c r="C14" s="127"/>
+      <c r="C14" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36423,22 +36429,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="111" priority="4">
+    <cfRule type="expression" dxfId="174" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="110" priority="3">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="109" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="108" priority="1">
+    <cfRule type="expression" dxfId="171" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37002,22 +37008,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15 C15:XFD16">
-    <cfRule type="expression" dxfId="107" priority="4">
+    <cfRule type="expression" dxfId="170" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="106" priority="3">
+    <cfRule type="expression" dxfId="169" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="105" priority="2">
+    <cfRule type="expression" dxfId="168" priority="2">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38376,8 +38382,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="128" t="s">
+    <row r="62" spans="1:6" s="132" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="132" t="s">
         <v>3613</v>
       </c>
     </row>
@@ -38410,52 +38416,52 @@
     <mergeCell ref="A62:XFD62"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="103" priority="11">
+    <cfRule type="expression" dxfId="166" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="102" priority="10">
+    <cfRule type="expression" dxfId="165" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="101" priority="9">
+    <cfRule type="expression" dxfId="164" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="100" priority="8">
+    <cfRule type="expression" dxfId="163" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="162" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="98" priority="5">
+    <cfRule type="expression" dxfId="161" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="159" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="95" priority="2">
+    <cfRule type="expression" dxfId="158" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="94" priority="1">
+    <cfRule type="expression" dxfId="157" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="769" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -13481,6 +13481,168 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
@@ -14414,168 +14576,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -15190,8 +15190,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="QueryJobProfessionEmployee" displayName="QueryJobProfessionEmployee" ref="A1:B44" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B44"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="191"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="190"/>
+    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION EMP" queryTableFieldId="1" dataDxfId="58"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15201,7 +15201,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="QueryGuarantorRelationshipPersonal" displayName="QueryGuarantorRelationshipPersonal" ref="AB1:AB14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AB14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="177"/>
+    <tableColumn id="1" uniqueName="1" name="GUARANTOR_RELATIONSHIP_PERSONAL" queryTableFieldId="1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15211,7 +15211,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="QueryGender" displayName="QueryGender" ref="AD1:AD3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AD1:AD3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="GENDER" queryTableFieldId="1" dataDxfId="176"/>
+    <tableColumn id="1" uniqueName="1" name="GENDER" queryTableFieldId="1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15221,7 +15221,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="QueryCustomerModelPersonal" displayName="QueryCustomerModelPersonal" ref="AF1:AF5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AF1:AF5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="175"/>
+    <tableColumn id="1" uniqueName="1" name="CUSTOMER MODEL PERSONAL" queryTableFieldId="1" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15231,7 +15231,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="QueryGuarantorRelationshipCompany" displayName="QueryGuarantorRelationshipCompany" ref="AH1:AH7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AH7"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="174"/>
+    <tableColumn id="1" uniqueName="1" name="GUARANTOR_RELATIONSHIP_COMPANY" queryTableFieldId="1" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15241,7 +15241,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="QueryCustomerModelCompany" displayName="QueryCustomerModelCompany" ref="AJ1:AJ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AJ1:AJ3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="173"/>
+    <tableColumn id="1" uniqueName="1" name="CUSTOMER MODEL COMPANY" queryTableFieldId="1" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15251,7 +15251,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="QueryCompanyType" displayName="QueryCompanyType" ref="AL1:AL4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AL1:AL4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="172"/>
+    <tableColumn id="1" uniqueName="1" name="COMPANY TYPE" queryTableFieldId="1" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15271,7 +15271,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="QueryPremiumPaymentMethod" displayName="QueryPremiumPaymentMethod" ref="AP1:AP4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AP1:AP4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="171"/>
+    <tableColumn id="1" uniqueName="1" name="Premium Payment Method" queryTableFieldId="1" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15281,8 +15281,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="QueryEconomicSectorSLIK" displayName="QueryEconomicSectorSLIK" ref="AR1:AS476" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AR1:AS476"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="170"/>
-    <tableColumn id="2" uniqueName="2" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="169"/>
+    <tableColumn id="1" uniqueName="1" name="ECONOMIC SECTOR NAME" queryTableFieldId="1" dataDxfId="37"/>
+    <tableColumn id="2" uniqueName="2" name="ECONOMIC SECTOR CODE" queryTableFieldId="2" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15292,8 +15292,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Ref_Master_App_Data" displayName="Query_Ref_Master_App_Data" ref="AU1:AV3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AU1:AV3"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="168"/>
-    <tableColumn id="2" uniqueName="2" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="167"/>
+    <tableColumn id="1" uniqueName="1" name="REF MASTER APPDATA DESCRIPTION" queryTableFieldId="1" dataDxfId="35"/>
+    <tableColumn id="2" uniqueName="2" name="REF MASTER APPDATA CODE" queryTableFieldId="2" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15303,8 +15303,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="QueryCountry" displayName="QueryCountry" ref="E1:F242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F242"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="189"/>
-    <tableColumn id="2" uniqueName="2" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="188"/>
+    <tableColumn id="1" uniqueName="1" name="COUNTRY NAME" queryTableFieldId="1" dataDxfId="56"/>
+    <tableColumn id="2" uniqueName="2" name="COUNTRY CODE" queryTableFieldId="2" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15324,7 +15324,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Query_First_Installment_Type" displayName="Query_First_Installment_Type" ref="AZ1:AZ3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AZ1:AZ3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="166"/>
+    <tableColumn id="1" uniqueName="1" name="FIRST INSTALLMENT TYPE" queryTableFieldId="1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15334,7 +15334,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Query_Payment_Frequency" displayName="Query_Payment_Frequency" ref="BB1:BB9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BB1:BB9"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="165"/>
+    <tableColumn id="1" uniqueName="1" name="PAYMENT FREQUENCY" queryTableFieldId="1" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15344,7 +15344,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Query_DP_Source_Payment_Type" displayName="Query_DP_Source_Payment_Type" ref="BD1:BD10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BD1:BD10"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="164"/>
+    <tableColumn id="1" uniqueName="1" name="DP SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15354,7 +15354,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Query_Interest_Type" displayName="Query_Interest_Type" ref="BF1:BF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BF1:BF3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Interest Type" queryTableFieldId="1" dataDxfId="163"/>
+    <tableColumn id="1" uniqueName="1" name="Interest Type" queryTableFieldId="1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15364,7 +15364,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Query_Installment_Scheme" displayName="Query_Installment_Scheme" ref="BH1:BH8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BH1:BH8"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="162"/>
+    <tableColumn id="1" uniqueName="1" name="INSTALLMENT SCHEME" queryTableFieldId="1" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15374,7 +15374,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Query_Floating_Period" displayName="Query_Floating_Period" ref="BJ1:BJ9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BJ1:BJ9"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="161"/>
+    <tableColumn id="1" uniqueName="1" name="FLOATING PERIOD" queryTableFieldId="1" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15384,7 +15384,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Query_WOP" displayName="Query_WOP" ref="BL1:BL8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BL1:BL8"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="WOP" queryTableFieldId="1" dataDxfId="160"/>
+    <tableColumn id="1" uniqueName="1" name="WOP" queryTableFieldId="1" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15394,7 +15394,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Query_Customer_Notification" displayName="Query_Customer_Notification" ref="BN1:BN4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BN1:BN4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="159"/>
+    <tableColumn id="1" uniqueName="1" name="CUSTOMER NOTIFICATION BY" queryTableFieldId="1" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15404,7 +15404,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Query_Installment_Source_Payment_Type" displayName="Query_Installment_Source_Payment_Type" ref="BP1:BP10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BP1:BP10"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="158"/>
+    <tableColumn id="1" uniqueName="1" name="INSTALLMENT SOURCE PAYMENT TYPE" queryTableFieldId="1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15414,8 +15414,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="QueryJobPosition" displayName="QueryJobPosition" ref="I1:J29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="I1:J29"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="187"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="186"/>
+    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="54"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15424,7 +15424,7 @@
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Query_Copy_Address_From_App_Data_Personal" displayName="Query_Copy_Address_From_App_Data_Personal" ref="BR3:BR11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="descr" queryTableFieldId="1" dataDxfId="157"/>
+    <tableColumn id="1" uniqueName="1" name="descr" queryTableFieldId="1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15434,7 +15434,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Query_Characteristic_Of_Credit" displayName="Query_Characteristic_Of_Credit" ref="BT1:BT3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BT1:BT3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="156"/>
+    <tableColumn id="1" uniqueName="1" name="CHARACTERISTIC OF CREDIT" queryTableFieldId="1" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15444,7 +15444,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Query_Way_Of_Restructure" displayName="Query_Way_Of_Restructure" ref="BV1:BV4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BV1:BV4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="155"/>
+    <tableColumn id="1" uniqueName="1" name="WAY OF RESTRUCTURE" queryTableFieldId="1" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15453,7 +15453,7 @@
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Query_Copy_Address_From_Asset_Data_Personal" displayName="Query_Copy_Address_From_Asset_Data_Personal" ref="BX2:BX10" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="master_code" queryTableFieldId="1" dataDxfId="154"/>
+    <tableColumn id="1" uniqueName="1" name="master_code" queryTableFieldId="1" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15463,7 +15463,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Query_Insured_By" displayName="Query_Insured_By" ref="BZ1:BZ5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BZ1:BZ5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="INSURED BY" queryTableFieldId="1" dataDxfId="153"/>
+    <tableColumn id="1" uniqueName="1" name="INSURED BY" queryTableFieldId="1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15473,7 +15473,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Query_Asset_Region" displayName="Query_Asset_Region" ref="CB1:CB5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CB1:CB5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="ASSET REGION" queryTableFieldId="1" dataDxfId="152"/>
+    <tableColumn id="1" uniqueName="1" name="ASSET REGION" queryTableFieldId="1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15483,7 +15483,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Query_Cover_Period" displayName="Query_Cover_Period" ref="CD1:CD5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CD1:CD5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="151"/>
+    <tableColumn id="1" uniqueName="1" name="COVER PERIOD" queryTableFieldId="1" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15493,7 +15493,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Query_Payment_Type" displayName="Query_Payment_Type" ref="CF1:CF3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CF1:CF3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="150"/>
+    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE" queryTableFieldId="1" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15503,7 +15503,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Query_Asset_Insco_Branch_Name" displayName="Query_Asset_Insco_Branch_Name" ref="CH1:CH31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CH1:CH31"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="149"/>
+    <tableColumn id="1" uniqueName="1" name="INSCO BRANCH NAME" queryTableFieldId="1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15513,7 +15513,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Query_Insurance_Main_Coverage" displayName="Query_Insurance_Main_Coverage" ref="CJ1:CJ4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CJ1:CJ4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="148"/>
+    <tableColumn id="1" uniqueName="1" name="INSURANCE MAIN COVERAGE" queryTableFieldId="1" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15523,8 +15523,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="QueryDepartmentAML" displayName="QueryDepartmentAML" ref="M1:N278" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N278"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="185"/>
-    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="184"/>
+    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="52"/>
+    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15534,7 +15534,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Query_Asset_User_Relationship_Personal" displayName="Query_Asset_User_Relationship_Personal" ref="CO1:CO14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CO1:CO14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="147"/>
+    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15544,7 +15544,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Query_Ownership_Code" displayName="Query_Ownership_Code" ref="CQ1:CQ6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CQ1:CQ6"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="146"/>
+    <tableColumn id="1" uniqueName="1" name="OWNERSHIP CODE" queryTableFieldId="1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15554,7 +15554,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Query_Owner_Type" displayName="Query_Owner_Type" ref="CS1:CS3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CS1:CS3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Owner Type" queryTableFieldId="1" dataDxfId="145"/>
+    <tableColumn id="1" uniqueName="1" name="Owner Type" queryTableFieldId="1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15564,7 +15564,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Query_Subsidy_From_Type" displayName="Query_Subsidy_From_Type" ref="CU1:CU5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CU1:CU5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="144"/>
+    <tableColumn id="1" uniqueName="1" name="Subsidy From Type" queryTableFieldId="1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15574,7 +15574,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Query_Subsidy_Allocation" displayName="Query_Subsidy_Allocation" ref="CW1:CW5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CW1:CW5"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="143"/>
+    <tableColumn id="1" uniqueName="1" name="Subsidy Allocation" queryTableFieldId="1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15584,7 +15584,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Query_Subsidy_Source" displayName="Query_Subsidy_Source" ref="CY1:CY8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="CY1:CY8"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Subsidy Source" queryTableFieldId="1" dataDxfId="142"/>
+    <tableColumn id="1" uniqueName="1" name="Subsidy Source" queryTableFieldId="1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15594,7 +15594,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Query_Provision_Calculation_Base" displayName="Query_Provision_Calculation_Base" ref="DA1:DA3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DA1:DA3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="141"/>
+    <tableColumn id="1" uniqueName="1" name="Provision Calculation Base" queryTableFieldId="1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15604,7 +15604,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Query_Grace_Period_Type" displayName="Query_Grace_Period_Type" ref="DC1:DC3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DC1:DC3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Grace Period Type" queryTableFieldId="1" dataDxfId="140"/>
+    <tableColumn id="1" uniqueName="1" name="Grace Period Type" queryTableFieldId="1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15625,8 +15625,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Query_JobProfessionNonProfessional" displayName="Query_JobProfessionNonProfessional" ref="DJ1:DK6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="DJ1:DK6"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="139"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="138"/>
+    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NONPROF" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15636,8 +15636,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="QueryAuthorityAML" displayName="QueryAuthorityAML" ref="Q1:R9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Q1:R9"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="183"/>
-    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="182"/>
+    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15679,7 +15679,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="QueryIdType" displayName="QueryIdType" ref="T1:T7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="T1:T7"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="ID TYPE" queryTableFieldId="1" dataDxfId="181"/>
+    <tableColumn id="1" uniqueName="1" name="ID TYPE" queryTableFieldId="1" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15689,7 +15689,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="QueryMaritalStatus" displayName="QueryMaritalStatus" ref="V1:V4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:V4"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="180"/>
+    <tableColumn id="1" uniqueName="1" name="MARITAL STATUS" queryTableFieldId="1" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15699,7 +15699,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="QueryNationality" displayName="QueryNationality" ref="X1:X3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="X1:X3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="NATIONALITY" queryTableFieldId="1" dataDxfId="179"/>
+    <tableColumn id="1" uniqueName="1" name="NATIONALITY" queryTableFieldId="1" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15709,7 +15709,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="QueryOwnership" displayName="QueryOwnership" ref="Z1:Z6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Z1:Z6"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="178"/>
+    <tableColumn id="1" uniqueName="1" name="OWNERSHIP" queryTableFieldId="1" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17343,102 +17343,102 @@
     <mergeCell ref="A68:XFD68"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule type="expression" dxfId="98" priority="22">
+    <cfRule type="expression" dxfId="152" priority="22">
       <formula>B$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="97" priority="21">
+    <cfRule type="expression" dxfId="151" priority="21">
       <formula>B$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:XFD39">
-    <cfRule type="expression" dxfId="96" priority="20">
+    <cfRule type="expression" dxfId="150" priority="20">
       <formula>B$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:XFD50">
-    <cfRule type="expression" dxfId="95" priority="19">
+    <cfRule type="expression" dxfId="149" priority="19">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:XFD60">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="148" priority="16">
       <formula>H$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:XFD53">
-    <cfRule type="expression" dxfId="93" priority="15">
+    <cfRule type="expression" dxfId="147" priority="15">
       <formula>B$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:XFD47">
-    <cfRule type="expression" dxfId="92" priority="14">
+    <cfRule type="expression" dxfId="146" priority="14">
       <formula>B$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:XFD46">
-    <cfRule type="expression" dxfId="91" priority="13">
+    <cfRule type="expression" dxfId="145" priority="13">
       <formula>B$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:XFD62">
-    <cfRule type="expression" dxfId="90" priority="12">
+    <cfRule type="expression" dxfId="144" priority="12">
       <formula>B$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="143" priority="11">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:G60">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="142" priority="10">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="141" priority="9">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="86" priority="8">
+    <cfRule type="expression" dxfId="140" priority="8">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="expression" dxfId="85" priority="7">
+    <cfRule type="expression" dxfId="139" priority="7">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:A50">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="138" priority="6">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="137" priority="5">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="136" priority="4">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60">
-    <cfRule type="expression" dxfId="81" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17904,27 +17904,27 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:XFD19">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="132" priority="7">
       <formula>C$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule type="expression" dxfId="77" priority="6">
+    <cfRule type="expression" dxfId="131" priority="6">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="76" priority="3">
+    <cfRule type="expression" dxfId="130" priority="3">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="129" priority="2">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="128" priority="1">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19337,92 +19337,92 @@
     <mergeCell ref="A86:XFD86"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:XFD28">
-    <cfRule type="expression" dxfId="73" priority="18">
+    <cfRule type="expression" dxfId="127" priority="18">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="72" priority="17">
+    <cfRule type="expression" dxfId="126" priority="17">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 A44 A49 A58 G74:XFD78 A68:A71 B22:XFD28 A30:XFD32 B34:XFD34 A81:XFD82 B14:XFD20 A45:XFD48 A50:XFD57 B59:F71 A72:F73 A79:F79 B36:XFD43">
-    <cfRule type="expression" dxfId="71" priority="16">
+    <cfRule type="expression" dxfId="125" priority="16">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="70" priority="15">
+    <cfRule type="expression" dxfId="124" priority="15">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:XFD32">
-    <cfRule type="expression" dxfId="69" priority="14">
+    <cfRule type="expression" dxfId="123" priority="14">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="122" priority="13">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="121" priority="12">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:XFD82">
-    <cfRule type="expression" dxfId="66" priority="11">
+    <cfRule type="expression" dxfId="120" priority="11">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="65" priority="10">
+    <cfRule type="expression" dxfId="119" priority="10">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="64" priority="9">
+    <cfRule type="expression" dxfId="118" priority="9">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="63" priority="8">
+    <cfRule type="expression" dxfId="117" priority="8">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="116" priority="7">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="expression" dxfId="61" priority="6">
+    <cfRule type="expression" dxfId="115" priority="6">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="114" priority="5">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="113" priority="4">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="112" priority="3">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:XFD85">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="110" priority="1">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20545,207 +20545,207 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A41 C21:XFD41">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="109" priority="49">
       <formula>A$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 C35:XFD35">
-    <cfRule type="expression" dxfId="54" priority="44">
+    <cfRule type="expression" dxfId="108" priority="44">
       <formula>A$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 C27:XFD27">
-    <cfRule type="expression" dxfId="53" priority="48">
+    <cfRule type="expression" dxfId="107" priority="48">
       <formula>A$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29 C29:XFD29">
-    <cfRule type="expression" dxfId="52" priority="47">
+    <cfRule type="expression" dxfId="106" priority="47">
       <formula>A$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31 C31:XFD31">
-    <cfRule type="expression" dxfId="51" priority="46">
+    <cfRule type="expression" dxfId="105" priority="46">
       <formula>A$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 C33:XFD33">
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="104" priority="45">
       <formula>A$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38 C38:XFD38">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="103" priority="43">
       <formula>A$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39 C39:XFD39">
-    <cfRule type="expression" dxfId="48" priority="42">
+    <cfRule type="expression" dxfId="102" priority="42">
       <formula>A$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41 C41:XFD41">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="101" priority="41">
       <formula>A$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45 C45:XFD45">
-    <cfRule type="expression" dxfId="46" priority="40">
+    <cfRule type="expression" dxfId="100" priority="40">
       <formula>A$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44 C44:XFD44">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="99" priority="39">
       <formula>A$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:XFD48">
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="98" priority="36">
       <formula>C$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="expression" dxfId="43" priority="32">
+    <cfRule type="expression" dxfId="97" priority="32">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="42" priority="31">
+    <cfRule type="expression" dxfId="96" priority="31">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="41" priority="30">
+    <cfRule type="expression" dxfId="95" priority="30">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="94" priority="29">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:F33">
-    <cfRule type="expression" dxfId="39" priority="28">
+    <cfRule type="expression" dxfId="93" priority="28">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="92" priority="27">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="91" priority="26">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="90" priority="25">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="35" priority="24">
+    <cfRule type="expression" dxfId="89" priority="24">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="88" priority="23">
       <formula>C$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="87" priority="22">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="86" priority="21">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="85" priority="20">
       <formula>C$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F41">
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="84" priority="19">
       <formula>C$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="83" priority="17">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="82" priority="16">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="27" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>A$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B41">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="80" priority="13">
       <formula>B$20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>B$34="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="78" priority="12">
       <formula>B$26="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="23" priority="11">
+    <cfRule type="expression" dxfId="77" priority="11">
       <formula>B$28="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="76" priority="10">
       <formula>B$30="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="75" priority="9">
       <formula>B$32="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="74" priority="7">
       <formula>B$36="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="73" priority="6">
       <formula>B$36="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>B$40="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>B$43="Effective Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="70" priority="3">
       <formula>B$43="Flat Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B48">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>B$46="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22032,32 +22032,32 @@
     <mergeCell ref="A53:XFD53"/>
   </mergeCells>
   <conditionalFormatting sqref="A46 A48 A50 A52 E46:XFD46 E48:XFD48 E50:XFD50 E52:XFD52 A17:XFD17 A31:XFD31 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25 A33:XFD33 A35:XFD35 A37:XFD37 A39:XFD39 A41:XFD41">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="64" priority="8">
       <formula>A$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:XFD16 A30:XFD30 A45:XFD45 A18:XFD18 A20:XFD20 A22:XFD22 A24:XFD24 A32:XFD32 A34:XFD34 A36:XFD36 A38:XFD38 A40:XFD40 A47:XFD47 A49:XFD49 A51:XFD51">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="63" priority="7">
       <formula>A$12="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:D46">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="62" priority="6">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:D50">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:D52">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>B$12="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22523,7 +22523,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DS476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
+    <sheetView topLeftCell="DQ1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="DS1" sqref="DS1:DS5"/>
     </sheetView>
@@ -31667,7 +31667,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -32025,27 +32025,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:A20">
-    <cfRule type="expression" dxfId="137" priority="5">
+    <cfRule type="expression" dxfId="191" priority="5">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule type="expression" dxfId="136" priority="4">
+    <cfRule type="expression" dxfId="190" priority="4">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:F22">
-    <cfRule type="expression" dxfId="135" priority="3">
+    <cfRule type="expression" dxfId="189" priority="3">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="134" priority="2">
+    <cfRule type="expression" dxfId="188" priority="2">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:F31">
-    <cfRule type="expression" dxfId="133" priority="1">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33010,72 +33010,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A31:A36">
-    <cfRule type="expression" dxfId="132" priority="15">
+    <cfRule type="expression" dxfId="186" priority="15">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A24">
-    <cfRule type="expression" dxfId="131" priority="17">
+    <cfRule type="expression" dxfId="185" priority="17">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="130" priority="16">
+    <cfRule type="expression" dxfId="184" priority="16">
       <formula>OR(A$23="E-KTP",A$23="AKTA",A$23="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:C78 E78">
-    <cfRule type="expression" dxfId="129" priority="13">
+    <cfRule type="expression" dxfId="183" priority="13">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:C78 E78">
-    <cfRule type="expression" dxfId="128" priority="12">
+    <cfRule type="expression" dxfId="182" priority="12">
       <formula>B$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 E21">
-    <cfRule type="expression" dxfId="127" priority="11">
+    <cfRule type="expression" dxfId="181" priority="11">
       <formula>C$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57 E57">
-    <cfRule type="expression" dxfId="126" priority="8">
+    <cfRule type="expression" dxfId="180" priority="8">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="125" priority="7">
+    <cfRule type="expression" dxfId="179" priority="7">
       <formula>F$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="124" priority="6">
+    <cfRule type="expression" dxfId="178" priority="6">
       <formula>F$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="123" priority="5">
+    <cfRule type="expression" dxfId="177" priority="5">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="122" priority="4">
+    <cfRule type="expression" dxfId="176" priority="4">
       <formula>D$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="121" priority="3">
+    <cfRule type="expression" dxfId="175" priority="3">
       <formula>D$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="120" priority="2">
+    <cfRule type="expression" dxfId="174" priority="2">
       <formula>D$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="119" priority="1">
+    <cfRule type="expression" dxfId="173" priority="1">
       <formula>D$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33988,22 +33988,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule type="expression" dxfId="118" priority="4">
+    <cfRule type="expression" dxfId="172" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:XFD24 A38:XFD46 A26:XFD31">
-    <cfRule type="expression" dxfId="117" priority="3">
+    <cfRule type="expression" dxfId="171" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule type="expression" dxfId="116" priority="2">
+    <cfRule type="expression" dxfId="170" priority="2">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:XFD46">
-    <cfRule type="expression" dxfId="115" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34566,22 +34566,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15 C15:XFD16">
-    <cfRule type="expression" dxfId="114" priority="4">
+    <cfRule type="expression" dxfId="168" priority="4">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:XFD31 A21:XFD21 A18:XFD19">
-    <cfRule type="expression" dxfId="113" priority="3">
+    <cfRule type="expression" dxfId="167" priority="3">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD31">
-    <cfRule type="expression" dxfId="112" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="165" priority="1">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35118,12 +35118,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B18 D18:I18">
-    <cfRule type="expression" dxfId="110" priority="3">
+    <cfRule type="expression" dxfId="164" priority="3">
       <formula>AND(A$13&lt;&gt;"Customer",A$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="109" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>AND(C$13&lt;&gt;"Customer",C$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36033,52 +36033,52 @@
     <mergeCell ref="A62:XFD62"/>
   </mergeCells>
   <conditionalFormatting sqref="B23:XFD23">
-    <cfRule type="expression" dxfId="108" priority="11">
+    <cfRule type="expression" dxfId="162" priority="11">
       <formula>B$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:XFD26">
-    <cfRule type="expression" dxfId="107" priority="10">
+    <cfRule type="expression" dxfId="161" priority="10">
       <formula>AND(B$25&lt;&gt;"Auto Debit",B$25&lt;&gt;"Way Of Payment",B$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:XFD37 B31:F34 B37:F37">
-    <cfRule type="expression" dxfId="106" priority="9">
+    <cfRule type="expression" dxfId="160" priority="9">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:XFD52">
-    <cfRule type="expression" dxfId="105" priority="8">
+    <cfRule type="expression" dxfId="159" priority="8">
       <formula>B$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:F36">
-    <cfRule type="expression" dxfId="104" priority="6">
+    <cfRule type="expression" dxfId="158" priority="6">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="103" priority="5">
+    <cfRule type="expression" dxfId="157" priority="5">
       <formula>AND(B$30&lt;&gt;"",B$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="102" priority="4">
+    <cfRule type="expression" dxfId="156" priority="4">
       <formula>A$22="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="expression" dxfId="101" priority="3">
+    <cfRule type="expression" dxfId="155" priority="3">
       <formula>AND(A$25&lt;&gt;"Auto Debit",A$25&lt;&gt;"Way Of Payment",A$25&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A37">
-    <cfRule type="expression" dxfId="100" priority="2">
+    <cfRule type="expression" dxfId="154" priority="2">
       <formula>AND(A$30&lt;&gt;"",A$30&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A52">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>A$50="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
